--- a/shared analysis files /metafor.xlsx
+++ b/shared analysis files /metafor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E74883-E87E-A845-B518-2C64D4B0A9BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF3966D-3063-6C47-A3F8-CFFA9C1A163D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29120" yWindow="-9980" windowWidth="21860" windowHeight="15400" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
+    <workbookView xWindow="29080" yWindow="-9980" windowWidth="21860" windowHeight="15400" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="227">
   <si>
     <t>study_id</t>
   </si>
@@ -684,115 +684,7 @@
     <t>flux_range</t>
   </si>
   <si>
-    <t>25-31</t>
-  </si>
-  <si>
-    <t>22-34</t>
-  </si>
-  <si>
-    <t>12-18.5</t>
-  </si>
-  <si>
-    <t>12-24.5</t>
-  </si>
-  <si>
-    <t>14.5-27.5</t>
-  </si>
-  <si>
-    <t>17-30</t>
-  </si>
-  <si>
-    <t>17.5-30.5</t>
-  </si>
-  <si>
-    <t>23.5-36.5</t>
-  </si>
-  <si>
-    <t>26.5-36.5</t>
-  </si>
-  <si>
-    <t>30.5-36.5</t>
-  </si>
-  <si>
-    <t>32-36.5</t>
-  </si>
-  <si>
-    <t>23-33</t>
-  </si>
-  <si>
-    <t>20-30</t>
-  </si>
-  <si>
-    <t>18-28</t>
-  </si>
-  <si>
     <t>mean_temp_constant</t>
-  </si>
-  <si>
-    <t>13-28</t>
-  </si>
-  <si>
-    <t>17-32</t>
-  </si>
-  <si>
-    <t>29-32</t>
-  </si>
-  <si>
-    <t>31-33</t>
-  </si>
-  <si>
-    <t>30-34</t>
-  </si>
-  <si>
-    <t>15-35</t>
-  </si>
-  <si>
-    <t>16-23</t>
-  </si>
-  <si>
-    <t>16-26</t>
-  </si>
-  <si>
-    <t>19-31</t>
-  </si>
-  <si>
-    <t>24-30</t>
-  </si>
-  <si>
-    <t>22-32</t>
-  </si>
-  <si>
-    <t>18-32</t>
-  </si>
-  <si>
-    <t>15-25</t>
-  </si>
-  <si>
-    <t>11.7-33.7</t>
-  </si>
-  <si>
-    <t>10-25</t>
-  </si>
-  <si>
-    <t>0-14</t>
-  </si>
-  <si>
-    <t>9-23</t>
-  </si>
-  <si>
-    <t>16-30</t>
-  </si>
-  <si>
-    <t>26-40</t>
-  </si>
-  <si>
-    <t>25.7-31.7</t>
-  </si>
-  <si>
-    <t>21-27</t>
-  </si>
-  <si>
-    <t>14-20</t>
   </si>
   <si>
     <t>direction of temp change</t>
@@ -838,7 +730,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,15 +747,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1181,8 +1069,8 @@
   <dimension ref="A1:AJ272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1213,7 +1101,7 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
@@ -1294,7 +1182,7 @@
         <v>29</v>
       </c>
       <c r="AJ1" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
@@ -1328,8 +1216,9 @@
       <c r="K2">
         <v>31</v>
       </c>
-      <c r="L2" t="s">
-        <v>219</v>
+      <c r="L2">
+        <f>K2-J2</f>
+        <v>6</v>
       </c>
       <c r="M2">
         <v>24</v>
@@ -1386,7 +1275,7 @@
         <v>35</v>
       </c>
       <c r="AJ2" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
@@ -1420,8 +1309,9 @@
       <c r="K3">
         <v>34</v>
       </c>
-      <c r="L3" t="s">
-        <v>220</v>
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="0">K3-J3</f>
+        <v>12</v>
       </c>
       <c r="M3">
         <v>24</v>
@@ -1478,7 +1368,7 @@
         <v>35</v>
       </c>
       <c r="AJ3" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
@@ -1512,8 +1402,9 @@
       <c r="K4">
         <v>31</v>
       </c>
-      <c r="L4" t="s">
-        <v>219</v>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="M4">
         <v>24</v>
@@ -1570,7 +1461,7 @@
         <v>36</v>
       </c>
       <c r="AJ4" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
@@ -1604,8 +1495,9 @@
       <c r="K5">
         <v>34</v>
       </c>
-      <c r="L5" t="s">
-        <v>220</v>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M5">
         <v>24</v>
@@ -1662,7 +1554,7 @@
         <v>36</v>
       </c>
       <c r="AJ5" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
@@ -1696,8 +1588,9 @@
       <c r="K6">
         <v>31</v>
       </c>
-      <c r="L6" t="s">
-        <v>219</v>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="M6">
         <v>24</v>
@@ -1754,7 +1647,7 @@
         <v>35</v>
       </c>
       <c r="AJ6" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
@@ -1788,8 +1681,9 @@
       <c r="K7">
         <v>34</v>
       </c>
-      <c r="L7" t="s">
-        <v>220</v>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M7">
         <v>24</v>
@@ -1846,7 +1740,7 @@
         <v>35</v>
       </c>
       <c r="AJ7" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
@@ -1880,8 +1774,9 @@
       <c r="K8">
         <v>31</v>
       </c>
-      <c r="L8" t="s">
-        <v>219</v>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="M8">
         <v>24</v>
@@ -1938,7 +1833,7 @@
         <v>36</v>
       </c>
       <c r="AJ8" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
@@ -1972,8 +1867,9 @@
       <c r="K9">
         <v>34</v>
       </c>
-      <c r="L9" t="s">
-        <v>220</v>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M9">
         <v>24</v>
@@ -2030,7 +1926,7 @@
         <v>36</v>
       </c>
       <c r="AJ9" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
@@ -2059,13 +1955,14 @@
         <v>28</v>
       </c>
       <c r="J10">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>28</v>
-      </c>
-      <c r="L10" t="s">
-        <v>219</v>
+        <v>31</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="M10">
         <v>24</v>
@@ -2122,7 +2019,7 @@
         <v>35</v>
       </c>
       <c r="AJ10" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
@@ -2151,13 +2048,14 @@
         <v>28</v>
       </c>
       <c r="J11">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>28</v>
-      </c>
-      <c r="L11" t="s">
-        <v>220</v>
+        <v>34</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M11">
         <v>24</v>
@@ -2214,7 +2112,7 @@
         <v>35</v>
       </c>
       <c r="AJ11" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
@@ -2243,13 +2141,14 @@
         <v>28</v>
       </c>
       <c r="J12">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>28</v>
-      </c>
-      <c r="L12" t="s">
-        <v>219</v>
+        <v>31</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="M12">
         <v>24</v>
@@ -2306,7 +2205,7 @@
         <v>36</v>
       </c>
       <c r="AJ12" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.2">
@@ -2335,13 +2234,14 @@
         <v>28</v>
       </c>
       <c r="J13">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>28</v>
-      </c>
-      <c r="L13" t="s">
-        <v>220</v>
+        <v>34</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M13">
         <v>24</v>
@@ -2398,7 +2298,7 @@
         <v>36</v>
       </c>
       <c r="AJ13" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
@@ -2427,13 +2327,14 @@
         <v>28</v>
       </c>
       <c r="J14">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>28</v>
-      </c>
-      <c r="L14" t="s">
-        <v>219</v>
+        <v>31</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="M14">
         <v>24</v>
@@ -2493,10 +2394,10 @@
         <v>455.83529829999998</v>
       </c>
       <c r="AI14" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="AJ14" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
@@ -2525,13 +2426,14 @@
         <v>28</v>
       </c>
       <c r="J15">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>28</v>
-      </c>
-      <c r="L15" t="s">
-        <v>219</v>
+        <v>31</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="M15">
         <v>24</v>
@@ -2591,10 +2493,10 @@
         <v>389.52915200000001</v>
       </c>
       <c r="AI15" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="AJ15" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
@@ -2623,13 +2525,14 @@
         <v>28</v>
       </c>
       <c r="J16">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>28</v>
-      </c>
-      <c r="L16" t="s">
-        <v>219</v>
+        <v>31</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="M16">
         <v>24</v>
@@ -2689,10 +2592,10 @@
         <v>270.05586529999999</v>
       </c>
       <c r="AI16" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="AJ16" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.2">
@@ -2721,13 +2624,14 @@
         <v>28</v>
       </c>
       <c r="J17">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K17">
-        <v>28</v>
-      </c>
-      <c r="L17" t="s">
-        <v>219</v>
+        <v>31</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="M17">
         <v>24</v>
@@ -2787,10 +2691,10 @@
         <v>179.75762889999999</v>
       </c>
       <c r="AI17" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="AJ17" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.2">
@@ -2819,13 +2723,14 @@
         <v>28</v>
       </c>
       <c r="J18">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K18">
-        <v>28</v>
-      </c>
-      <c r="L18" t="s">
-        <v>219</v>
+        <v>31</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="M18">
         <v>24</v>
@@ -2885,10 +2790,10 @@
         <v>89.312378570000007</v>
       </c>
       <c r="AI18" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="AJ18" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.2">
@@ -2917,13 +2822,14 @@
         <v>28</v>
       </c>
       <c r="J19">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K19">
-        <v>28</v>
-      </c>
-      <c r="L19" t="s">
-        <v>219</v>
+        <v>31</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="M19">
         <v>24</v>
@@ -2977,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="AI19" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="AJ19" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.2">
@@ -3009,13 +2915,14 @@
         <v>28</v>
       </c>
       <c r="J20">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K20">
-        <v>28</v>
-      </c>
-      <c r="L20" t="s">
-        <v>220</v>
+        <v>34</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M20">
         <v>24</v>
@@ -3075,10 +2982,10 @@
         <v>455.83529829999998</v>
       </c>
       <c r="AI20" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="AJ20" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
@@ -3107,13 +3014,14 @@
         <v>28</v>
       </c>
       <c r="J21">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K21">
-        <v>28</v>
-      </c>
-      <c r="L21" t="s">
-        <v>220</v>
+        <v>34</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M21">
         <v>24</v>
@@ -3173,10 +3081,10 @@
         <v>389.52915200000001</v>
       </c>
       <c r="AI21" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="AJ21" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.2">
@@ -3205,13 +3113,14 @@
         <v>28</v>
       </c>
       <c r="J22">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K22">
-        <v>28</v>
-      </c>
-      <c r="L22" t="s">
-        <v>220</v>
+        <v>34</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M22">
         <v>24</v>
@@ -3271,10 +3180,10 @@
         <v>270.05586529999999</v>
       </c>
       <c r="AI22" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="AJ22" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.2">
@@ -3303,13 +3212,14 @@
         <v>28</v>
       </c>
       <c r="J23">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K23">
-        <v>28</v>
-      </c>
-      <c r="L23" t="s">
-        <v>220</v>
+        <v>34</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M23">
         <v>24</v>
@@ -3369,10 +3279,10 @@
         <v>179.75762889999999</v>
       </c>
       <c r="AI23" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="AJ23" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.2">
@@ -3401,13 +3311,14 @@
         <v>28</v>
       </c>
       <c r="J24">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K24">
-        <v>28</v>
-      </c>
-      <c r="L24" t="s">
-        <v>220</v>
+        <v>34</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M24">
         <v>24</v>
@@ -3467,10 +3378,10 @@
         <v>89.312378570000007</v>
       </c>
       <c r="AI24" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="AJ24" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.2">
@@ -3499,13 +3410,14 @@
         <v>28</v>
       </c>
       <c r="J25">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K25">
-        <v>28</v>
-      </c>
-      <c r="L25" t="s">
-        <v>220</v>
+        <v>34</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M25">
         <v>24</v>
@@ -3559,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="AI25" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="AJ25" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.2">
@@ -3591,13 +3503,14 @@
         <v>28</v>
       </c>
       <c r="J26">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K26">
-        <v>28</v>
-      </c>
-      <c r="L26" t="s">
-        <v>219</v>
+        <v>31</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="M26">
         <v>24</v>
@@ -3657,10 +3570,10 @@
         <v>455.23571229999999</v>
       </c>
       <c r="AI26" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="AJ26" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.2">
@@ -3689,13 +3602,14 @@
         <v>28</v>
       </c>
       <c r="J27">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K27">
-        <v>28</v>
-      </c>
-      <c r="L27" t="s">
-        <v>219</v>
+        <v>31</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="M27">
         <v>24</v>
@@ -3755,10 +3669,10 @@
         <v>388.88920919999998</v>
       </c>
       <c r="AI27" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="AJ27" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.2">
@@ -3787,13 +3701,14 @@
         <v>28</v>
       </c>
       <c r="J28">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K28">
-        <v>28</v>
-      </c>
-      <c r="L28" t="s">
-        <v>219</v>
+        <v>31</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="M28">
         <v>24</v>
@@ -3853,10 +3768,10 @@
         <v>270.1999965</v>
       </c>
       <c r="AI28" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="AJ28" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.2">
@@ -3885,13 +3800,14 @@
         <v>28</v>
       </c>
       <c r="J29">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K29">
-        <v>28</v>
-      </c>
-      <c r="L29" t="s">
-        <v>219</v>
+        <v>31</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="M29">
         <v>24</v>
@@ -3951,10 +3867,10 @@
         <v>179.772042</v>
       </c>
       <c r="AI29" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="AJ29" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.2">
@@ -3983,13 +3899,14 @@
         <v>28</v>
       </c>
       <c r="J30">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K30">
-        <v>28</v>
-      </c>
-      <c r="L30" t="s">
-        <v>219</v>
+        <v>31</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="M30">
         <v>24</v>
@@ -4049,10 +3966,10 @@
         <v>89.300848070000001</v>
       </c>
       <c r="AI30" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="AJ30" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.2">
@@ -4081,13 +3998,14 @@
         <v>28</v>
       </c>
       <c r="J31">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K31">
-        <v>28</v>
-      </c>
-      <c r="L31" t="s">
-        <v>219</v>
+        <v>31</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="M31">
         <v>24</v>
@@ -4141,10 +4059,10 @@
         <v>0</v>
       </c>
       <c r="AI31" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="AJ31" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.2">
@@ -4173,13 +4091,14 @@
         <v>28</v>
       </c>
       <c r="J32">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K32">
-        <v>28</v>
-      </c>
-      <c r="L32" t="s">
-        <v>220</v>
+        <v>34</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M32">
         <v>24</v>
@@ -4239,10 +4158,10 @@
         <v>455.23571229999999</v>
       </c>
       <c r="AI32" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="AJ32" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.2">
@@ -4271,13 +4190,14 @@
         <v>28</v>
       </c>
       <c r="J33">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K33">
-        <v>28</v>
-      </c>
-      <c r="L33" t="s">
-        <v>220</v>
+        <v>34</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M33">
         <v>24</v>
@@ -4337,10 +4257,10 @@
         <v>388.88920919999998</v>
       </c>
       <c r="AI33" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="AJ33" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.2">
@@ -4369,13 +4289,14 @@
         <v>28</v>
       </c>
       <c r="J34">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K34">
-        <v>28</v>
-      </c>
-      <c r="L34" t="s">
-        <v>220</v>
+        <v>34</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M34">
         <v>24</v>
@@ -4435,10 +4356,10 @@
         <v>270.1999965</v>
       </c>
       <c r="AI34" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="AJ34" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.2">
@@ -4467,13 +4388,14 @@
         <v>28</v>
       </c>
       <c r="J35">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K35">
-        <v>28</v>
-      </c>
-      <c r="L35" t="s">
-        <v>220</v>
+        <v>34</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M35">
         <v>24</v>
@@ -4533,10 +4455,10 @@
         <v>179.772042</v>
       </c>
       <c r="AI35" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="AJ35" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.2">
@@ -4565,13 +4487,14 @@
         <v>28</v>
       </c>
       <c r="J36">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K36">
-        <v>28</v>
-      </c>
-      <c r="L36" t="s">
-        <v>220</v>
+        <v>34</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M36">
         <v>24</v>
@@ -4631,10 +4554,10 @@
         <v>89.300848070000001</v>
       </c>
       <c r="AI36" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="AJ36" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.2">
@@ -4663,13 +4586,14 @@
         <v>28</v>
       </c>
       <c r="J37">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K37">
-        <v>28</v>
-      </c>
-      <c r="L37" t="s">
-        <v>220</v>
+        <v>34</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M37">
         <v>24</v>
@@ -4723,10 +4647,10 @@
         <v>0</v>
       </c>
       <c r="AI37" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="AJ37" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.2">
@@ -4763,8 +4687,9 @@
       <c r="K38">
         <v>18.5</v>
       </c>
-      <c r="L38" t="s">
-        <v>221</v>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
       </c>
       <c r="M38">
         <v>24</v>
@@ -4815,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="AJ38" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.2">
@@ -4852,8 +4777,9 @@
       <c r="K39">
         <v>24.5</v>
       </c>
-      <c r="L39" t="s">
-        <v>222</v>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
       </c>
       <c r="M39">
         <v>24</v>
@@ -4904,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="AJ39" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.2">
@@ -4941,8 +4867,9 @@
       <c r="K40">
         <v>27.5</v>
       </c>
-      <c r="L40" t="s">
-        <v>223</v>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="M40">
         <v>24</v>
@@ -4993,7 +4920,7 @@
         <v>1</v>
       </c>
       <c r="AJ40" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.2">
@@ -5030,8 +4957,9 @@
       <c r="K41">
         <v>30</v>
       </c>
-      <c r="L41" t="s">
-        <v>224</v>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="M41">
         <v>24</v>
@@ -5082,7 +5010,7 @@
         <v>1</v>
       </c>
       <c r="AJ41" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.2">
@@ -5119,8 +5047,9 @@
       <c r="K42">
         <v>30.5</v>
       </c>
-      <c r="L42" t="s">
-        <v>225</v>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="M42">
         <v>24</v>
@@ -5171,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="AJ42" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.2">
@@ -5208,8 +5137,9 @@
       <c r="K43">
         <v>36.5</v>
       </c>
-      <c r="L43" t="s">
-        <v>226</v>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="M43">
         <v>24</v>
@@ -5260,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="AJ43" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.2">
@@ -5297,8 +5227,9 @@
       <c r="K44">
         <v>36.5</v>
       </c>
-      <c r="L44" t="s">
-        <v>227</v>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M44">
         <v>24</v>
@@ -5349,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="AJ44" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.2">
@@ -5386,8 +5317,9 @@
       <c r="K45">
         <v>36.5</v>
       </c>
-      <c r="L45" t="s">
-        <v>228</v>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="M45">
         <v>24</v>
@@ -5438,7 +5370,7 @@
         <v>1</v>
       </c>
       <c r="AJ45" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.2">
@@ -5475,8 +5407,9 @@
       <c r="K46">
         <v>36.5</v>
       </c>
-      <c r="L46" t="s">
-        <v>229</v>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
       </c>
       <c r="M46">
         <v>24</v>
@@ -5524,7 +5457,7 @@
         <v>1</v>
       </c>
       <c r="AJ46" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.2">
@@ -5561,8 +5494,9 @@
       <c r="K47">
         <v>33</v>
       </c>
-      <c r="L47" t="s">
-        <v>230</v>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M47">
         <v>24</v>
@@ -5625,7 +5559,7 @@
         <v>55</v>
       </c>
       <c r="AJ47" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.2">
@@ -5662,8 +5596,9 @@
       <c r="K48">
         <v>33</v>
       </c>
-      <c r="L48" t="s">
-        <v>230</v>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M48">
         <v>24</v>
@@ -5726,7 +5661,7 @@
         <v>56</v>
       </c>
       <c r="AJ48" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.2">
@@ -5763,8 +5698,9 @@
       <c r="K49">
         <v>33</v>
       </c>
-      <c r="L49" t="s">
-        <v>230</v>
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M49">
         <v>24</v>
@@ -5827,7 +5763,7 @@
         <v>55</v>
       </c>
       <c r="AJ49" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -5864,8 +5800,9 @@
       <c r="K50">
         <v>33</v>
       </c>
-      <c r="L50" t="s">
-        <v>230</v>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M50">
         <v>24</v>
@@ -5928,7 +5865,7 @@
         <v>56</v>
       </c>
       <c r="AJ50" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.2">
@@ -5965,8 +5902,9 @@
       <c r="K51">
         <v>33</v>
       </c>
-      <c r="L51" t="s">
-        <v>230</v>
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M51">
         <v>24</v>
@@ -6029,7 +5967,7 @@
         <v>55</v>
       </c>
       <c r="AJ51" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.2">
@@ -6066,8 +6004,9 @@
       <c r="K52">
         <v>33</v>
       </c>
-      <c r="L52" t="s">
-        <v>230</v>
+      <c r="L52">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M52">
         <v>24</v>
@@ -6130,7 +6069,7 @@
         <v>56</v>
       </c>
       <c r="AJ52" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.2">
@@ -6167,8 +6106,9 @@
       <c r="K53">
         <v>33</v>
       </c>
-      <c r="L53" t="s">
-        <v>230</v>
+      <c r="L53">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M53">
         <v>24</v>
@@ -6231,7 +6171,7 @@
         <v>55</v>
       </c>
       <c r="AJ53" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.2">
@@ -6268,8 +6208,9 @@
       <c r="K54">
         <v>33</v>
       </c>
-      <c r="L54" t="s">
-        <v>230</v>
+      <c r="L54">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M54">
         <v>24</v>
@@ -6332,7 +6273,7 @@
         <v>56</v>
       </c>
       <c r="AJ54" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6366,8 +6307,9 @@
       <c r="K55">
         <v>30</v>
       </c>
-      <c r="L55" t="s">
-        <v>231</v>
+      <c r="L55">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M55">
         <v>24</v>
@@ -6418,7 +6360,7 @@
         <v>2</v>
       </c>
       <c r="AJ55" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.2">
@@ -6452,8 +6394,9 @@
       <c r="K56">
         <v>30</v>
       </c>
-      <c r="L56" t="s">
-        <v>231</v>
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M56">
         <v>24</v>
@@ -6504,7 +6447,7 @@
         <v>2</v>
       </c>
       <c r="AJ56" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.2">
@@ -6538,8 +6481,9 @@
       <c r="K57">
         <v>30</v>
       </c>
-      <c r="L57" t="s">
-        <v>231</v>
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M57">
         <v>24</v>
@@ -6590,7 +6534,7 @@
         <v>2</v>
       </c>
       <c r="AJ57" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.2">
@@ -6624,8 +6568,9 @@
       <c r="K58">
         <v>30</v>
       </c>
-      <c r="L58" t="s">
-        <v>231</v>
+      <c r="L58">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M58">
         <v>24</v>
@@ -6676,7 +6621,7 @@
         <v>2</v>
       </c>
       <c r="AJ58" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.2">
@@ -6710,8 +6655,9 @@
       <c r="K59">
         <v>30</v>
       </c>
-      <c r="L59" t="s">
-        <v>231</v>
+      <c r="L59">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M59">
         <v>24</v>
@@ -6762,7 +6708,7 @@
         <v>2</v>
       </c>
       <c r="AJ59" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.2">
@@ -6796,8 +6742,9 @@
       <c r="K60">
         <v>30</v>
       </c>
-      <c r="L60" t="s">
-        <v>231</v>
+      <c r="L60">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M60">
         <v>24</v>
@@ -6848,7 +6795,7 @@
         <v>2</v>
       </c>
       <c r="AJ60" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.2">
@@ -6882,8 +6829,9 @@
       <c r="K61">
         <v>30</v>
       </c>
-      <c r="L61" t="s">
-        <v>231</v>
+      <c r="L61">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M61">
         <v>24</v>
@@ -6934,7 +6882,7 @@
         <v>2</v>
       </c>
       <c r="AJ61" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.2">
@@ -6968,8 +6916,9 @@
       <c r="K62">
         <v>30</v>
       </c>
-      <c r="L62" t="s">
-        <v>231</v>
+      <c r="L62">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M62">
         <v>24</v>
@@ -7020,7 +6969,7 @@
         <v>2</v>
       </c>
       <c r="AJ62" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.2">
@@ -7054,8 +7003,9 @@
       <c r="K63">
         <v>30</v>
       </c>
-      <c r="L63" t="s">
-        <v>231</v>
+      <c r="L63">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M63">
         <v>24</v>
@@ -7106,7 +7056,7 @@
         <v>2</v>
       </c>
       <c r="AJ63" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.2">
@@ -7140,8 +7090,9 @@
       <c r="K64">
         <v>30</v>
       </c>
-      <c r="L64" t="s">
-        <v>231</v>
+      <c r="L64">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M64">
         <v>24</v>
@@ -7192,7 +7143,7 @@
         <v>2</v>
       </c>
       <c r="AJ64" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.2">
@@ -7226,8 +7177,9 @@
       <c r="K65">
         <v>30</v>
       </c>
-      <c r="L65" t="s">
-        <v>231</v>
+      <c r="L65">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M65">
         <v>24</v>
@@ -7278,7 +7230,7 @@
         <v>2</v>
       </c>
       <c r="AJ65" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.2">
@@ -7312,8 +7264,9 @@
       <c r="K66">
         <v>30</v>
       </c>
-      <c r="L66" t="s">
-        <v>231</v>
+      <c r="L66">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M66">
         <v>24</v>
@@ -7364,7 +7317,7 @@
         <v>2</v>
       </c>
       <c r="AJ66" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7398,8 +7351,9 @@
       <c r="K67">
         <v>30</v>
       </c>
-      <c r="L67" t="s">
-        <v>231</v>
+      <c r="L67">
+        <f t="shared" ref="L67:L130" si="1">K67-J67</f>
+        <v>10</v>
       </c>
       <c r="M67">
         <v>24</v>
@@ -7450,7 +7404,7 @@
         <v>2</v>
       </c>
       <c r="AJ67" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.2">
@@ -7484,8 +7438,9 @@
       <c r="K68">
         <v>30</v>
       </c>
-      <c r="L68" t="s">
-        <v>231</v>
+      <c r="L68">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="M68">
         <v>24</v>
@@ -7536,7 +7491,7 @@
         <v>2</v>
       </c>
       <c r="AJ68" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.2">
@@ -7570,8 +7525,9 @@
       <c r="K69">
         <v>30</v>
       </c>
-      <c r="L69" t="s">
-        <v>231</v>
+      <c r="L69">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="M69">
         <v>24</v>
@@ -7622,7 +7578,7 @@
         <v>2</v>
       </c>
       <c r="AJ69" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:36" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7656,8 +7612,9 @@
       <c r="K70" s="1">
         <v>28</v>
       </c>
-      <c r="L70" s="1" t="s">
-        <v>232</v>
+      <c r="L70">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="M70" s="1">
         <v>24</v>
@@ -7714,7 +7671,7 @@
         <v>75</v>
       </c>
       <c r="AJ70" s="1" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
     <row r="71" spans="1:36" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7748,8 +7705,9 @@
       <c r="K71" s="1">
         <v>28</v>
       </c>
-      <c r="L71" s="1" t="s">
-        <v>232</v>
+      <c r="L71">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="M71" s="1">
         <v>24</v>
@@ -7806,7 +7764,7 @@
         <v>76</v>
       </c>
       <c r="AJ71" s="1" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:36" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7840,8 +7798,9 @@
       <c r="K72" s="1">
         <v>28</v>
       </c>
-      <c r="L72" s="1" t="s">
-        <v>232</v>
+      <c r="L72">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="M72" s="1">
         <v>24</v>
@@ -7898,7 +7857,7 @@
         <v>75</v>
       </c>
       <c r="AJ72" s="1" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:36" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7932,8 +7891,9 @@
       <c r="K73" s="1">
         <v>28</v>
       </c>
-      <c r="L73" s="1" t="s">
-        <v>232</v>
+      <c r="L73">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="M73" s="1">
         <v>24</v>
@@ -7990,7 +7950,7 @@
         <v>76</v>
       </c>
       <c r="AJ73" s="1" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.2">
@@ -8027,8 +7987,9 @@
       <c r="K74">
         <v>28</v>
       </c>
-      <c r="L74" t="s">
-        <v>234</v>
+      <c r="L74">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M74">
         <v>24</v>
@@ -8079,7 +8040,7 @@
         <v>1</v>
       </c>
       <c r="AJ74" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.2">
@@ -8116,8 +8077,9 @@
       <c r="K75">
         <v>28</v>
       </c>
-      <c r="L75" t="s">
-        <v>234</v>
+      <c r="L75">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M75">
         <v>24</v>
@@ -8168,7 +8130,7 @@
         <v>1</v>
       </c>
       <c r="AJ75" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.2">
@@ -8205,8 +8167,9 @@
       <c r="K76">
         <v>28</v>
       </c>
-      <c r="L76" t="s">
-        <v>234</v>
+      <c r="L76">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M76">
         <v>24</v>
@@ -8257,7 +8220,7 @@
         <v>1</v>
       </c>
       <c r="AJ76" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.2">
@@ -8294,8 +8257,9 @@
       <c r="K77">
         <v>28</v>
       </c>
-      <c r="L77" t="s">
-        <v>234</v>
+      <c r="L77">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M77">
         <v>24</v>
@@ -8346,7 +8310,7 @@
         <v>1</v>
       </c>
       <c r="AJ77" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.2">
@@ -8383,8 +8347,9 @@
       <c r="K78">
         <v>28</v>
       </c>
-      <c r="L78" t="s">
-        <v>234</v>
+      <c r="L78">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M78">
         <v>24</v>
@@ -8435,7 +8400,7 @@
         <v>1</v>
       </c>
       <c r="AJ78" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:36" x14ac:dyDescent="0.2">
@@ -8472,8 +8437,9 @@
       <c r="K79">
         <v>28</v>
       </c>
-      <c r="L79" t="s">
-        <v>234</v>
+      <c r="L79">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M79">
         <v>24</v>
@@ -8524,7 +8490,7 @@
         <v>1</v>
       </c>
       <c r="AJ79" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.2">
@@ -8561,8 +8527,9 @@
       <c r="K80">
         <v>28</v>
       </c>
-      <c r="L80" t="s">
-        <v>234</v>
+      <c r="L80">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M80">
         <v>24</v>
@@ -8613,7 +8580,7 @@
         <v>1</v>
       </c>
       <c r="AJ80" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="1:36" x14ac:dyDescent="0.2">
@@ -8650,8 +8617,9 @@
       <c r="K81">
         <v>28</v>
       </c>
-      <c r="L81" t="s">
-        <v>234</v>
+      <c r="L81">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M81">
         <v>24</v>
@@ -8702,7 +8670,7 @@
         <v>1</v>
       </c>
       <c r="AJ81" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:36" x14ac:dyDescent="0.2">
@@ -8739,8 +8707,9 @@
       <c r="K82">
         <v>28</v>
       </c>
-      <c r="L82" t="s">
-        <v>234</v>
+      <c r="L82">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M82">
         <v>24</v>
@@ -8791,7 +8760,7 @@
         <v>1</v>
       </c>
       <c r="AJ82" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:36" x14ac:dyDescent="0.2">
@@ -8828,8 +8797,9 @@
       <c r="K83">
         <v>28</v>
       </c>
-      <c r="L83" t="s">
-        <v>234</v>
+      <c r="L83">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M83">
         <v>24</v>
@@ -8880,7 +8850,7 @@
         <v>1</v>
       </c>
       <c r="AJ83" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:36" x14ac:dyDescent="0.2">
@@ -8917,8 +8887,9 @@
       <c r="K84">
         <v>28</v>
       </c>
-      <c r="L84" t="s">
-        <v>234</v>
+      <c r="L84">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M84">
         <v>24</v>
@@ -8969,7 +8940,7 @@
         <v>1</v>
       </c>
       <c r="AJ84" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:36" x14ac:dyDescent="0.2">
@@ -9006,8 +8977,9 @@
       <c r="K85">
         <v>28</v>
       </c>
-      <c r="L85" t="s">
-        <v>234</v>
+      <c r="L85">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M85">
         <v>24</v>
@@ -9058,7 +9030,7 @@
         <v>1</v>
       </c>
       <c r="AJ85" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:36" x14ac:dyDescent="0.2">
@@ -9092,8 +9064,9 @@
       <c r="K86">
         <v>32</v>
       </c>
-      <c r="L86" t="s">
-        <v>235</v>
+      <c r="L86">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M86">
         <v>24</v>
@@ -9153,7 +9126,7 @@
         <v>103</v>
       </c>
       <c r="AJ86" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:36" x14ac:dyDescent="0.2">
@@ -9187,8 +9160,9 @@
       <c r="K87">
         <v>32</v>
       </c>
-      <c r="L87" t="s">
-        <v>235</v>
+      <c r="L87">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M87">
         <v>24</v>
@@ -9251,7 +9225,7 @@
         <v>103</v>
       </c>
       <c r="AJ87" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:36" x14ac:dyDescent="0.2">
@@ -9285,8 +9259,9 @@
       <c r="K88">
         <v>32</v>
       </c>
-      <c r="L88" t="s">
-        <v>235</v>
+      <c r="L88">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M88">
         <v>24</v>
@@ -9349,7 +9324,7 @@
         <v>103</v>
       </c>
       <c r="AJ88" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:36" x14ac:dyDescent="0.2">
@@ -9383,8 +9358,9 @@
       <c r="K89">
         <v>32</v>
       </c>
-      <c r="L89" t="s">
-        <v>235</v>
+      <c r="L89">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M89">
         <v>24</v>
@@ -9447,7 +9423,7 @@
         <v>103</v>
       </c>
       <c r="AJ89" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:36" x14ac:dyDescent="0.2">
@@ -9481,8 +9457,9 @@
       <c r="K90">
         <v>32</v>
       </c>
-      <c r="L90" t="s">
-        <v>235</v>
+      <c r="L90">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M90">
         <v>24</v>
@@ -9545,7 +9522,7 @@
         <v>103</v>
       </c>
       <c r="AJ90" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:36" x14ac:dyDescent="0.2">
@@ -9579,8 +9556,9 @@
       <c r="K91">
         <v>32</v>
       </c>
-      <c r="L91" t="s">
-        <v>235</v>
+      <c r="L91">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M91">
         <v>24</v>
@@ -9643,7 +9621,7 @@
         <v>103</v>
       </c>
       <c r="AJ91" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" spans="1:36" x14ac:dyDescent="0.2">
@@ -9677,8 +9655,9 @@
       <c r="K92">
         <v>32</v>
       </c>
-      <c r="L92" t="s">
-        <v>235</v>
+      <c r="L92">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M92">
         <v>24</v>
@@ -9741,7 +9720,7 @@
         <v>103</v>
       </c>
       <c r="AJ92" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" spans="1:36" x14ac:dyDescent="0.2">
@@ -9775,8 +9754,9 @@
       <c r="K93">
         <v>32</v>
       </c>
-      <c r="L93" t="s">
-        <v>235</v>
+      <c r="L93">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M93">
         <v>24</v>
@@ -9839,7 +9819,7 @@
         <v>103</v>
       </c>
       <c r="AJ93" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94" spans="1:36" x14ac:dyDescent="0.2">
@@ -9873,8 +9853,9 @@
       <c r="K94">
         <v>32</v>
       </c>
-      <c r="L94" t="s">
-        <v>235</v>
+      <c r="L94">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M94">
         <v>24</v>
@@ -9937,7 +9918,7 @@
         <v>103</v>
       </c>
       <c r="AJ94" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:36" x14ac:dyDescent="0.2">
@@ -9971,8 +9952,9 @@
       <c r="K95">
         <v>32</v>
       </c>
-      <c r="L95" t="s">
-        <v>235</v>
+      <c r="L95">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M95">
         <v>24</v>
@@ -10035,7 +10017,7 @@
         <v>103</v>
       </c>
       <c r="AJ95" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:36" x14ac:dyDescent="0.2">
@@ -10069,8 +10051,9 @@
       <c r="K96">
         <v>32</v>
       </c>
-      <c r="L96" t="s">
-        <v>235</v>
+      <c r="L96">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M96">
         <v>24</v>
@@ -10133,7 +10116,7 @@
         <v>103</v>
       </c>
       <c r="AJ96" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:36" x14ac:dyDescent="0.2">
@@ -10167,8 +10150,9 @@
       <c r="K97">
         <v>32</v>
       </c>
-      <c r="L97" t="s">
-        <v>235</v>
+      <c r="L97">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M97">
         <v>24</v>
@@ -10231,7 +10215,7 @@
         <v>103</v>
       </c>
       <c r="AJ97" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.2">
@@ -10265,8 +10249,9 @@
       <c r="K98">
         <v>32</v>
       </c>
-      <c r="L98" t="s">
-        <v>235</v>
+      <c r="L98">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M98">
         <v>24</v>
@@ -10326,7 +10311,7 @@
         <v>103</v>
       </c>
       <c r="AJ98" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.2">
@@ -10360,8 +10345,9 @@
       <c r="K99">
         <v>32</v>
       </c>
-      <c r="L99" t="s">
-        <v>235</v>
+      <c r="L99">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M99">
         <v>24</v>
@@ -10421,7 +10407,7 @@
         <v>103</v>
       </c>
       <c r="AJ99" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.2">
@@ -10455,8 +10441,9 @@
       <c r="K100">
         <v>32</v>
       </c>
-      <c r="L100" t="s">
-        <v>235</v>
+      <c r="L100">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M100">
         <v>24</v>
@@ -10513,7 +10500,7 @@
         <v>103</v>
       </c>
       <c r="AJ100" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.2">
@@ -10547,8 +10534,9 @@
       <c r="K101">
         <v>32</v>
       </c>
-      <c r="L101" t="s">
-        <v>235</v>
+      <c r="L101">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M101">
         <v>24</v>
@@ -10605,7 +10593,7 @@
         <v>103</v>
       </c>
       <c r="AJ101" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:36" x14ac:dyDescent="0.2">
@@ -10639,8 +10627,9 @@
       <c r="K102">
         <v>32</v>
       </c>
-      <c r="L102" t="s">
-        <v>235</v>
+      <c r="L102">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M102">
         <v>24</v>
@@ -10697,7 +10686,7 @@
         <v>103</v>
       </c>
       <c r="AJ102" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="103" spans="1:36" x14ac:dyDescent="0.2">
@@ -10731,8 +10720,9 @@
       <c r="K103">
         <v>32</v>
       </c>
-      <c r="L103" t="s">
-        <v>235</v>
+      <c r="L103">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M103">
         <v>24</v>
@@ -10789,7 +10779,7 @@
         <v>103</v>
       </c>
       <c r="AJ103" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104" spans="1:36" x14ac:dyDescent="0.2">
@@ -10823,8 +10813,9 @@
       <c r="K104">
         <v>32</v>
       </c>
-      <c r="L104" t="s">
-        <v>235</v>
+      <c r="L104">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M104">
         <v>24</v>
@@ -10884,7 +10875,7 @@
         <v>103</v>
       </c>
       <c r="AJ104" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105" spans="1:36" x14ac:dyDescent="0.2">
@@ -10918,8 +10909,9 @@
       <c r="K105">
         <v>32</v>
       </c>
-      <c r="L105" t="s">
-        <v>235</v>
+      <c r="L105">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M105">
         <v>24</v>
@@ -10982,7 +10974,7 @@
         <v>103</v>
       </c>
       <c r="AJ105" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="106" spans="1:36" x14ac:dyDescent="0.2">
@@ -11016,8 +11008,9 @@
       <c r="K106">
         <v>32</v>
       </c>
-      <c r="L106" t="s">
-        <v>235</v>
+      <c r="L106">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M106">
         <v>24</v>
@@ -11080,7 +11073,7 @@
         <v>103</v>
       </c>
       <c r="AJ106" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="107" spans="1:36" x14ac:dyDescent="0.2">
@@ -11114,8 +11107,9 @@
       <c r="K107">
         <v>32</v>
       </c>
-      <c r="L107" t="s">
-        <v>235</v>
+      <c r="L107">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M107">
         <v>24</v>
@@ -11178,7 +11172,7 @@
         <v>103</v>
       </c>
       <c r="AJ107" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="108" spans="1:36" x14ac:dyDescent="0.2">
@@ -11212,8 +11206,9 @@
       <c r="K108">
         <v>32</v>
       </c>
-      <c r="L108" t="s">
-        <v>235</v>
+      <c r="L108">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M108">
         <v>24</v>
@@ -11276,7 +11271,7 @@
         <v>103</v>
       </c>
       <c r="AJ108" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="109" spans="1:36" x14ac:dyDescent="0.2">
@@ -11310,8 +11305,9 @@
       <c r="K109">
         <v>32</v>
       </c>
-      <c r="L109" t="s">
-        <v>235</v>
+      <c r="L109">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M109">
         <v>24</v>
@@ -11374,7 +11370,7 @@
         <v>103</v>
       </c>
       <c r="AJ109" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110" spans="1:36" x14ac:dyDescent="0.2">
@@ -11408,8 +11404,9 @@
       <c r="K110">
         <v>32</v>
       </c>
-      <c r="L110" t="s">
-        <v>235</v>
+      <c r="L110">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M110">
         <v>24</v>
@@ -11472,7 +11469,7 @@
         <v>103</v>
       </c>
       <c r="AJ110" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="111" spans="1:36" x14ac:dyDescent="0.2">
@@ -11506,8 +11503,9 @@
       <c r="K111">
         <v>32</v>
       </c>
-      <c r="L111" t="s">
-        <v>235</v>
+      <c r="L111">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M111">
         <v>24</v>
@@ -11570,7 +11568,7 @@
         <v>103</v>
       </c>
       <c r="AJ111" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="112" spans="1:36" x14ac:dyDescent="0.2">
@@ -11604,8 +11602,9 @@
       <c r="K112">
         <v>32</v>
       </c>
-      <c r="L112" t="s">
-        <v>235</v>
+      <c r="L112">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M112">
         <v>24</v>
@@ -11668,7 +11667,7 @@
         <v>103</v>
       </c>
       <c r="AJ112" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="113" spans="1:36" x14ac:dyDescent="0.2">
@@ -11702,8 +11701,9 @@
       <c r="K113">
         <v>32</v>
       </c>
-      <c r="L113" t="s">
-        <v>235</v>
+      <c r="L113">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M113">
         <v>24</v>
@@ -11763,7 +11763,7 @@
         <v>103</v>
       </c>
       <c r="AJ113" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="114" spans="1:36" x14ac:dyDescent="0.2">
@@ -11797,8 +11797,9 @@
       <c r="K114">
         <v>32</v>
       </c>
-      <c r="L114" t="s">
-        <v>235</v>
+      <c r="L114">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M114">
         <v>24</v>
@@ -11855,7 +11856,7 @@
         <v>103</v>
       </c>
       <c r="AJ114" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:36" x14ac:dyDescent="0.2">
@@ -11889,8 +11890,9 @@
       <c r="K115">
         <v>32</v>
       </c>
-      <c r="L115" t="s">
-        <v>235</v>
+      <c r="L115">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M115">
         <v>24</v>
@@ -11947,7 +11949,7 @@
         <v>103</v>
       </c>
       <c r="AJ115" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="116" spans="1:36" x14ac:dyDescent="0.2">
@@ -11981,8 +11983,9 @@
       <c r="K116">
         <v>32</v>
       </c>
-      <c r="L116" t="s">
-        <v>235</v>
+      <c r="L116">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M116">
         <v>24</v>
@@ -12042,7 +12045,7 @@
         <v>103</v>
       </c>
       <c r="AJ116" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:36" x14ac:dyDescent="0.2">
@@ -12076,8 +12079,9 @@
       <c r="K117">
         <v>32</v>
       </c>
-      <c r="L117" t="s">
-        <v>235</v>
+      <c r="L117">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M117">
         <v>24</v>
@@ -12140,7 +12144,7 @@
         <v>103</v>
       </c>
       <c r="AJ117" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="118" spans="1:36" x14ac:dyDescent="0.2">
@@ -12174,8 +12178,9 @@
       <c r="K118">
         <v>32</v>
       </c>
-      <c r="L118" t="s">
-        <v>235</v>
+      <c r="L118">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M118">
         <v>24</v>
@@ -12238,7 +12243,7 @@
         <v>103</v>
       </c>
       <c r="AJ118" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="119" spans="1:36" x14ac:dyDescent="0.2">
@@ -12272,8 +12277,9 @@
       <c r="K119">
         <v>32</v>
       </c>
-      <c r="L119" t="s">
-        <v>235</v>
+      <c r="L119">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M119">
         <v>24</v>
@@ -12336,7 +12342,7 @@
         <v>103</v>
       </c>
       <c r="AJ119" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="120" spans="1:36" x14ac:dyDescent="0.2">
@@ -12370,8 +12376,9 @@
       <c r="K120">
         <v>32</v>
       </c>
-      <c r="L120" t="s">
-        <v>235</v>
+      <c r="L120">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M120">
         <v>24</v>
@@ -12434,7 +12441,7 @@
         <v>103</v>
       </c>
       <c r="AJ120" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="121" spans="1:36" x14ac:dyDescent="0.2">
@@ -12468,8 +12475,9 @@
       <c r="K121">
         <v>32</v>
       </c>
-      <c r="L121" t="s">
-        <v>235</v>
+      <c r="L121">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M121">
         <v>24</v>
@@ -12532,7 +12540,7 @@
         <v>103</v>
       </c>
       <c r="AJ121" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="122" spans="1:36" x14ac:dyDescent="0.2">
@@ -12566,8 +12574,9 @@
       <c r="K122">
         <v>32</v>
       </c>
-      <c r="L122" t="s">
-        <v>235</v>
+      <c r="L122">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M122">
         <v>24</v>
@@ -12630,7 +12639,7 @@
         <v>103</v>
       </c>
       <c r="AJ122" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="123" spans="1:36" x14ac:dyDescent="0.2">
@@ -12664,8 +12673,9 @@
       <c r="K123">
         <v>32</v>
       </c>
-      <c r="L123" t="s">
-        <v>235</v>
+      <c r="L123">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M123">
         <v>24</v>
@@ -12728,7 +12738,7 @@
         <v>103</v>
       </c>
       <c r="AJ123" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="124" spans="1:36" x14ac:dyDescent="0.2">
@@ -12762,8 +12772,9 @@
       <c r="K124">
         <v>32</v>
       </c>
-      <c r="L124" t="s">
-        <v>235</v>
+      <c r="L124">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M124">
         <v>24</v>
@@ -12826,7 +12837,7 @@
         <v>103</v>
       </c>
       <c r="AJ124" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="1:36" x14ac:dyDescent="0.2">
@@ -12860,8 +12871,9 @@
       <c r="K125">
         <v>32</v>
       </c>
-      <c r="L125" t="s">
-        <v>235</v>
+      <c r="L125">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M125">
         <v>24</v>
@@ -12924,7 +12936,7 @@
         <v>103</v>
       </c>
       <c r="AJ125" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="126" spans="1:36" x14ac:dyDescent="0.2">
@@ -12958,8 +12970,9 @@
       <c r="K126">
         <v>32</v>
       </c>
-      <c r="L126" t="s">
-        <v>235</v>
+      <c r="L126">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M126">
         <v>24</v>
@@ -13022,7 +13035,7 @@
         <v>103</v>
       </c>
       <c r="AJ126" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127" spans="1:36" x14ac:dyDescent="0.2">
@@ -13056,8 +13069,9 @@
       <c r="K127">
         <v>32</v>
       </c>
-      <c r="L127" t="s">
-        <v>235</v>
+      <c r="L127">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M127">
         <v>24</v>
@@ -13120,7 +13134,7 @@
         <v>103</v>
       </c>
       <c r="AJ127" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="128" spans="1:36" x14ac:dyDescent="0.2">
@@ -13154,8 +13168,9 @@
       <c r="K128">
         <v>32</v>
       </c>
-      <c r="L128" t="s">
-        <v>235</v>
+      <c r="L128">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M128">
         <v>24</v>
@@ -13212,7 +13227,7 @@
         <v>103</v>
       </c>
       <c r="AJ128" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="129" spans="1:36" x14ac:dyDescent="0.2">
@@ -13246,8 +13261,9 @@
       <c r="K129">
         <v>32</v>
       </c>
-      <c r="L129" t="s">
-        <v>235</v>
+      <c r="L129">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M129">
         <v>24</v>
@@ -13304,7 +13320,7 @@
         <v>103</v>
       </c>
       <c r="AJ129" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="130" spans="1:36" x14ac:dyDescent="0.2">
@@ -13338,8 +13354,9 @@
       <c r="K130">
         <v>32</v>
       </c>
-      <c r="L130" t="s">
-        <v>235</v>
+      <c r="L130">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M130">
         <v>24</v>
@@ -13396,7 +13413,7 @@
         <v>103</v>
       </c>
       <c r="AJ130" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="131" spans="1:36" x14ac:dyDescent="0.2">
@@ -13430,8 +13447,9 @@
       <c r="K131">
         <v>32</v>
       </c>
-      <c r="L131" t="s">
-        <v>235</v>
+      <c r="L131">
+        <f t="shared" ref="L131:L194" si="2">K131-J131</f>
+        <v>15</v>
       </c>
       <c r="M131">
         <v>24</v>
@@ -13488,7 +13506,7 @@
         <v>103</v>
       </c>
       <c r="AJ131" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="132" spans="1:36" x14ac:dyDescent="0.2">
@@ -13522,8 +13540,9 @@
       <c r="K132">
         <v>32</v>
       </c>
-      <c r="L132" t="s">
-        <v>235</v>
+      <c r="L132">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="M132">
         <v>24</v>
@@ -13580,7 +13599,7 @@
         <v>103</v>
       </c>
       <c r="AJ132" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="133" spans="1:36" x14ac:dyDescent="0.2">
@@ -13614,8 +13633,9 @@
       <c r="K133">
         <v>32</v>
       </c>
-      <c r="L133" t="s">
-        <v>235</v>
+      <c r="L133">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="M133">
         <v>24</v>
@@ -13675,7 +13695,7 @@
         <v>103</v>
       </c>
       <c r="AJ133" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="134" spans="1:36" x14ac:dyDescent="0.2">
@@ -13709,8 +13729,9 @@
       <c r="K134">
         <v>32</v>
       </c>
-      <c r="L134" t="s">
-        <v>235</v>
+      <c r="L134">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="M134">
         <v>24</v>
@@ -13773,7 +13794,7 @@
         <v>103</v>
       </c>
       <c r="AJ134" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="135" spans="1:36" x14ac:dyDescent="0.2">
@@ -13807,8 +13828,9 @@
       <c r="K135">
         <v>32</v>
       </c>
-      <c r="L135" t="s">
-        <v>235</v>
+      <c r="L135">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="M135">
         <v>24</v>
@@ -13871,7 +13893,7 @@
         <v>103</v>
       </c>
       <c r="AJ135" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="136" spans="1:36" x14ac:dyDescent="0.2">
@@ -13905,8 +13927,9 @@
       <c r="K136">
         <v>32</v>
       </c>
-      <c r="L136" t="s">
-        <v>235</v>
+      <c r="L136">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="M136">
         <v>24</v>
@@ -13969,7 +13992,7 @@
         <v>103</v>
       </c>
       <c r="AJ136" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="137" spans="1:36" x14ac:dyDescent="0.2">
@@ -14003,8 +14026,9 @@
       <c r="K137">
         <v>32</v>
       </c>
-      <c r="L137" t="s">
-        <v>235</v>
+      <c r="L137">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="M137">
         <v>24</v>
@@ -14067,7 +14091,7 @@
         <v>103</v>
       </c>
       <c r="AJ137" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="138" spans="1:36" x14ac:dyDescent="0.2">
@@ -14101,8 +14125,9 @@
       <c r="K138">
         <v>32</v>
       </c>
-      <c r="L138" t="s">
-        <v>235</v>
+      <c r="L138">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="M138">
         <v>24</v>
@@ -14165,7 +14190,7 @@
         <v>103</v>
       </c>
       <c r="AJ138" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="139" spans="1:36" x14ac:dyDescent="0.2">
@@ -14199,8 +14224,9 @@
       <c r="K139">
         <v>32</v>
       </c>
-      <c r="L139" t="s">
-        <v>235</v>
+      <c r="L139">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="M139">
         <v>24</v>
@@ -14263,7 +14289,7 @@
         <v>103</v>
       </c>
       <c r="AJ139" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="140" spans="1:36" x14ac:dyDescent="0.2">
@@ -14297,8 +14323,9 @@
       <c r="K140">
         <v>32</v>
       </c>
-      <c r="L140" t="s">
-        <v>235</v>
+      <c r="L140">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="M140">
         <v>24</v>
@@ -14361,7 +14388,7 @@
         <v>103</v>
       </c>
       <c r="AJ140" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="141" spans="1:36" x14ac:dyDescent="0.2">
@@ -14395,8 +14422,9 @@
       <c r="K141">
         <v>32</v>
       </c>
-      <c r="L141" t="s">
-        <v>235</v>
+      <c r="L141">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="M141">
         <v>24</v>
@@ -14459,7 +14487,7 @@
         <v>103</v>
       </c>
       <c r="AJ141" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="142" spans="1:36" x14ac:dyDescent="0.2">
@@ -14493,8 +14521,9 @@
       <c r="K142">
         <v>33</v>
       </c>
-      <c r="L142" t="s">
-        <v>236</v>
+      <c r="L142">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="M142">
         <v>24</v>
@@ -14551,7 +14580,7 @@
         <v>111</v>
       </c>
       <c r="AJ142" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="143" spans="1:36" x14ac:dyDescent="0.2">
@@ -14585,8 +14614,9 @@
       <c r="K143">
         <v>33</v>
       </c>
-      <c r="L143" t="s">
-        <v>236</v>
+      <c r="L143">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="M143">
         <v>24</v>
@@ -14643,7 +14673,7 @@
         <v>111</v>
       </c>
       <c r="AJ143" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="144" spans="1:36" x14ac:dyDescent="0.2">
@@ -14677,8 +14707,9 @@
       <c r="K144">
         <v>33</v>
       </c>
-      <c r="L144" t="s">
-        <v>236</v>
+      <c r="L144">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="M144">
         <v>24</v>
@@ -14735,7 +14766,7 @@
         <v>111</v>
       </c>
       <c r="AJ144" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="145" spans="1:36" x14ac:dyDescent="0.2">
@@ -14769,8 +14800,9 @@
       <c r="K145">
         <v>33</v>
       </c>
-      <c r="L145" t="s">
-        <v>236</v>
+      <c r="L145">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="M145">
         <v>24</v>
@@ -14827,7 +14859,7 @@
         <v>111</v>
       </c>
       <c r="AJ145" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="146" spans="1:36" x14ac:dyDescent="0.2">
@@ -14861,8 +14893,9 @@
       <c r="K146">
         <v>33</v>
       </c>
-      <c r="L146" t="s">
-        <v>236</v>
+      <c r="L146">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="M146">
         <v>24</v>
@@ -14919,7 +14952,7 @@
         <v>111</v>
       </c>
       <c r="AJ146" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="147" spans="1:36" x14ac:dyDescent="0.2">
@@ -14953,8 +14986,9 @@
       <c r="K147">
         <v>33</v>
       </c>
-      <c r="L147" t="s">
-        <v>237</v>
+      <c r="L147">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="M147">
         <v>24</v>
@@ -15011,7 +15045,7 @@
         <v>117</v>
       </c>
       <c r="AJ147" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="148" spans="1:36" x14ac:dyDescent="0.2">
@@ -15045,8 +15079,9 @@
       <c r="K148">
         <v>33</v>
       </c>
-      <c r="L148" t="s">
-        <v>237</v>
+      <c r="L148">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="M148">
         <v>24</v>
@@ -15103,7 +15138,7 @@
         <v>117</v>
       </c>
       <c r="AJ148" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="149" spans="1:36" x14ac:dyDescent="0.2">
@@ -15137,8 +15172,9 @@
       <c r="K149">
         <v>33</v>
       </c>
-      <c r="L149" t="s">
-        <v>237</v>
+      <c r="L149">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="M149">
         <v>24</v>
@@ -15195,7 +15231,7 @@
         <v>117</v>
       </c>
       <c r="AJ149" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="150" spans="1:36" x14ac:dyDescent="0.2">
@@ -15229,8 +15265,9 @@
       <c r="K150">
         <v>33</v>
       </c>
-      <c r="L150" t="s">
-        <v>237</v>
+      <c r="L150">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="M150">
         <v>24</v>
@@ -15287,7 +15324,7 @@
         <v>117</v>
       </c>
       <c r="AJ150" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="151" spans="1:36" x14ac:dyDescent="0.2">
@@ -15321,8 +15358,9 @@
       <c r="K151">
         <v>33</v>
       </c>
-      <c r="L151" t="s">
-        <v>237</v>
+      <c r="L151">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="M151">
         <v>24</v>
@@ -15379,7 +15417,7 @@
         <v>117</v>
       </c>
       <c r="AJ151" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="152" spans="1:36" x14ac:dyDescent="0.2">
@@ -15413,8 +15451,9 @@
       <c r="K152">
         <v>34</v>
       </c>
-      <c r="L152" t="s">
-        <v>238</v>
+      <c r="L152">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="M152">
         <v>24</v>
@@ -15471,7 +15510,7 @@
         <v>117</v>
       </c>
       <c r="AJ152" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="153" spans="1:36" x14ac:dyDescent="0.2">
@@ -15505,8 +15544,9 @@
       <c r="K153">
         <v>34</v>
       </c>
-      <c r="L153" t="s">
-        <v>238</v>
+      <c r="L153">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="M153">
         <v>24</v>
@@ -15563,7 +15603,7 @@
         <v>117</v>
       </c>
       <c r="AJ153" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="154" spans="1:36" x14ac:dyDescent="0.2">
@@ -15597,8 +15637,9 @@
       <c r="K154">
         <v>34</v>
       </c>
-      <c r="L154" t="s">
-        <v>238</v>
+      <c r="L154">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="M154">
         <v>24</v>
@@ -15655,7 +15696,7 @@
         <v>117</v>
       </c>
       <c r="AJ154" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="155" spans="1:36" x14ac:dyDescent="0.2">
@@ -15689,8 +15730,9 @@
       <c r="K155">
         <v>34</v>
       </c>
-      <c r="L155" t="s">
-        <v>238</v>
+      <c r="L155">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="M155">
         <v>24</v>
@@ -15747,7 +15789,7 @@
         <v>117</v>
       </c>
       <c r="AJ155" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="156" spans="1:36" x14ac:dyDescent="0.2">
@@ -15781,8 +15823,9 @@
       <c r="K156">
         <v>34</v>
       </c>
-      <c r="L156" t="s">
-        <v>238</v>
+      <c r="L156">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="M156">
         <v>24</v>
@@ -15839,7 +15882,7 @@
         <v>117</v>
       </c>
       <c r="AJ156" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="157" spans="1:36" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -15873,8 +15916,9 @@
       <c r="K157" s="1">
         <v>30</v>
       </c>
-      <c r="L157" s="1" t="s">
-        <v>231</v>
+      <c r="L157">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="M157" s="1">
         <v>24</v>
@@ -15919,7 +15963,7 @@
         <v>1</v>
       </c>
       <c r="AJ157" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="158" spans="1:36" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -15953,8 +15997,9 @@
       <c r="K158" s="1">
         <v>35</v>
       </c>
-      <c r="L158" s="1" t="s">
-        <v>239</v>
+      <c r="L158">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="M158" s="1">
         <v>24</v>
@@ -15999,7 +16044,7 @@
         <v>1</v>
       </c>
       <c r="AJ158" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="159" spans="1:36" x14ac:dyDescent="0.2">
@@ -16036,8 +16081,9 @@
       <c r="K159">
         <v>23</v>
       </c>
-      <c r="L159" t="s">
-        <v>240</v>
+      <c r="L159">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="M159">
         <v>24</v>
@@ -16088,7 +16134,7 @@
         <v>1</v>
       </c>
       <c r="AJ159" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="160" spans="1:36" x14ac:dyDescent="0.2">
@@ -16125,8 +16171,9 @@
       <c r="K160">
         <v>23</v>
       </c>
-      <c r="L160" t="s">
-        <v>240</v>
+      <c r="L160">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="M160">
         <v>24</v>
@@ -16177,7 +16224,7 @@
         <v>1</v>
       </c>
       <c r="AJ160" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="161" spans="1:36" x14ac:dyDescent="0.2">
@@ -16214,8 +16261,9 @@
       <c r="K161">
         <v>23</v>
       </c>
-      <c r="L161" t="s">
-        <v>240</v>
+      <c r="L161">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="M161">
         <v>24</v>
@@ -16266,7 +16314,7 @@
         <v>1</v>
       </c>
       <c r="AJ161" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="162" spans="1:36" x14ac:dyDescent="0.2">
@@ -16303,8 +16351,9 @@
       <c r="K162">
         <v>23</v>
       </c>
-      <c r="L162" t="s">
-        <v>240</v>
+      <c r="L162">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="M162">
         <v>24</v>
@@ -16355,7 +16404,7 @@
         <v>1</v>
       </c>
       <c r="AJ162" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="163" spans="1:36" x14ac:dyDescent="0.2">
@@ -16392,8 +16441,9 @@
       <c r="K163">
         <v>26</v>
       </c>
-      <c r="L163" t="s">
-        <v>241</v>
+      <c r="L163">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="M163">
         <v>24</v>
@@ -16444,7 +16494,7 @@
         <v>1</v>
       </c>
       <c r="AJ163" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="164" spans="1:36" x14ac:dyDescent="0.2">
@@ -16481,8 +16531,9 @@
       <c r="K164">
         <v>26</v>
       </c>
-      <c r="L164" t="s">
-        <v>241</v>
+      <c r="L164">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="M164">
         <v>24</v>
@@ -16533,7 +16584,7 @@
         <v>1</v>
       </c>
       <c r="AJ164" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="165" spans="1:36" x14ac:dyDescent="0.2">
@@ -16570,8 +16621,9 @@
       <c r="K165">
         <v>26</v>
       </c>
-      <c r="L165" t="s">
-        <v>241</v>
+      <c r="L165">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="M165">
         <v>24</v>
@@ -16622,7 +16674,7 @@
         <v>1</v>
       </c>
       <c r="AJ165" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="166" spans="1:36" x14ac:dyDescent="0.2">
@@ -16659,8 +16711,9 @@
       <c r="K166">
         <v>26</v>
       </c>
-      <c r="L166" t="s">
-        <v>241</v>
+      <c r="L166">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="M166">
         <v>24</v>
@@ -16711,7 +16764,7 @@
         <v>1</v>
       </c>
       <c r="AJ166" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="167" spans="1:36" x14ac:dyDescent="0.2">
@@ -16745,8 +16798,9 @@
       <c r="K167">
         <v>31</v>
       </c>
-      <c r="L167" t="s">
-        <v>242</v>
+      <c r="L167">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="M167">
         <v>24</v>
@@ -16797,7 +16851,7 @@
         <v>2</v>
       </c>
       <c r="AJ167" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="168" spans="1:36" x14ac:dyDescent="0.2">
@@ -16831,8 +16885,9 @@
       <c r="K168">
         <v>31</v>
       </c>
-      <c r="L168" t="s">
-        <v>242</v>
+      <c r="L168">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="M168">
         <v>24</v>
@@ -16883,7 +16938,7 @@
         <v>2</v>
       </c>
       <c r="AJ168" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="169" spans="1:36" x14ac:dyDescent="0.2">
@@ -16917,8 +16972,9 @@
       <c r="K169">
         <v>31</v>
       </c>
-      <c r="L169" t="s">
-        <v>242</v>
+      <c r="L169">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="M169">
         <v>24</v>
@@ -16969,7 +17025,7 @@
         <v>2</v>
       </c>
       <c r="AJ169" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="170" spans="1:36" x14ac:dyDescent="0.2">
@@ -17003,8 +17059,9 @@
       <c r="K170">
         <v>31</v>
       </c>
-      <c r="L170" t="s">
-        <v>242</v>
+      <c r="L170">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="M170">
         <v>24</v>
@@ -17055,7 +17112,7 @@
         <v>2</v>
       </c>
       <c r="AJ170" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="171" spans="1:36" x14ac:dyDescent="0.2">
@@ -17089,8 +17146,9 @@
       <c r="K171">
         <v>31</v>
       </c>
-      <c r="L171" t="s">
-        <v>242</v>
+      <c r="L171">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="M171">
         <v>24</v>
@@ -17141,7 +17199,7 @@
         <v>2</v>
       </c>
       <c r="AJ171" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="172" spans="1:36" x14ac:dyDescent="0.2">
@@ -17175,8 +17233,9 @@
       <c r="K172">
         <v>30</v>
       </c>
-      <c r="L172" t="s">
-        <v>243</v>
+      <c r="L172">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="M172">
         <v>24</v>
@@ -17227,7 +17286,7 @@
         <v>2</v>
       </c>
       <c r="AJ172" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="173" spans="1:36" x14ac:dyDescent="0.2">
@@ -17261,8 +17320,9 @@
       <c r="K173">
         <v>30</v>
       </c>
-      <c r="L173" t="s">
-        <v>243</v>
+      <c r="L173">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="M173">
         <v>24</v>
@@ -17313,7 +17373,7 @@
         <v>2</v>
       </c>
       <c r="AJ173" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="174" spans="1:36" x14ac:dyDescent="0.2">
@@ -17347,8 +17407,9 @@
       <c r="K174">
         <v>30</v>
       </c>
-      <c r="L174" t="s">
-        <v>243</v>
+      <c r="L174">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="M174">
         <v>24</v>
@@ -17399,7 +17460,7 @@
         <v>2</v>
       </c>
       <c r="AJ174" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="175" spans="1:36" x14ac:dyDescent="0.2">
@@ -17433,8 +17494,9 @@
       <c r="K175">
         <v>30</v>
       </c>
-      <c r="L175" t="s">
-        <v>243</v>
+      <c r="L175">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="M175">
         <v>24</v>
@@ -17485,7 +17547,7 @@
         <v>2</v>
       </c>
       <c r="AJ175" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="176" spans="1:36" x14ac:dyDescent="0.2">
@@ -17519,8 +17581,9 @@
       <c r="K176">
         <v>30</v>
       </c>
-      <c r="L176" t="s">
-        <v>243</v>
+      <c r="L176">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="M176">
         <v>24</v>
@@ -17571,7 +17634,7 @@
         <v>2</v>
       </c>
       <c r="AJ176" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="177" spans="1:36" x14ac:dyDescent="0.2">
@@ -17605,8 +17668,9 @@
       <c r="K177">
         <v>30</v>
       </c>
-      <c r="L177" t="s">
-        <v>243</v>
+      <c r="L177">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="M177">
         <v>24</v>
@@ -17657,7 +17721,7 @@
         <v>2</v>
       </c>
       <c r="AJ177" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="178" spans="1:36" x14ac:dyDescent="0.2">
@@ -17691,8 +17755,9 @@
       <c r="K178">
         <v>30</v>
       </c>
-      <c r="L178" t="s">
-        <v>243</v>
+      <c r="L178">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="M178">
         <v>24</v>
@@ -17743,7 +17808,7 @@
         <v>2</v>
       </c>
       <c r="AJ178" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="179" spans="1:36" x14ac:dyDescent="0.2">
@@ -17777,8 +17842,9 @@
       <c r="K179">
         <v>30</v>
       </c>
-      <c r="L179" t="s">
-        <v>243</v>
+      <c r="L179">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="M179">
         <v>24</v>
@@ -17829,7 +17895,7 @@
         <v>2</v>
       </c>
       <c r="AJ179" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="180" spans="1:36" x14ac:dyDescent="0.2">
@@ -17863,8 +17929,9 @@
       <c r="K180">
         <v>30</v>
       </c>
-      <c r="L180" t="s">
-        <v>243</v>
+      <c r="L180">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="M180">
         <v>24</v>
@@ -17915,7 +17982,7 @@
         <v>2</v>
       </c>
       <c r="AJ180" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="181" spans="1:36" x14ac:dyDescent="0.2">
@@ -17949,8 +18016,9 @@
       <c r="K181">
         <v>30</v>
       </c>
-      <c r="L181" t="s">
-        <v>243</v>
+      <c r="L181">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="M181">
         <v>24</v>
@@ -18001,7 +18069,7 @@
         <v>2</v>
       </c>
       <c r="AJ181" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="182" spans="1:36" x14ac:dyDescent="0.2">
@@ -18035,8 +18103,9 @@
       <c r="K182">
         <v>32</v>
       </c>
-      <c r="L182" t="s">
-        <v>244</v>
+      <c r="L182">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="M182">
         <v>24</v>
@@ -18087,7 +18156,7 @@
         <v>2</v>
       </c>
       <c r="AJ182" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="183" spans="1:36" x14ac:dyDescent="0.2">
@@ -18121,8 +18190,9 @@
       <c r="K183">
         <v>32</v>
       </c>
-      <c r="L183" t="s">
-        <v>244</v>
+      <c r="L183">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="M183">
         <v>24</v>
@@ -18173,7 +18243,7 @@
         <v>2</v>
       </c>
       <c r="AJ183" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="184" spans="1:36" x14ac:dyDescent="0.2">
@@ -18207,8 +18277,9 @@
       <c r="K184">
         <v>32</v>
       </c>
-      <c r="L184" t="s">
-        <v>244</v>
+      <c r="L184">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="M184">
         <v>24</v>
@@ -18259,7 +18330,7 @@
         <v>2</v>
       </c>
       <c r="AJ184" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="185" spans="1:36" x14ac:dyDescent="0.2">
@@ -18293,8 +18364,9 @@
       <c r="K185">
         <v>32</v>
       </c>
-      <c r="L185" t="s">
-        <v>244</v>
+      <c r="L185">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="M185">
         <v>24</v>
@@ -18345,7 +18417,7 @@
         <v>2</v>
       </c>
       <c r="AJ185" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="186" spans="1:36" x14ac:dyDescent="0.2">
@@ -18379,8 +18451,9 @@
       <c r="K186">
         <v>32</v>
       </c>
-      <c r="L186" t="s">
-        <v>244</v>
+      <c r="L186">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="M186">
         <v>24</v>
@@ -18431,7 +18504,7 @@
         <v>2</v>
       </c>
       <c r="AJ186" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="187" spans="1:36" x14ac:dyDescent="0.2">
@@ -18465,8 +18538,9 @@
       <c r="K187">
         <v>32</v>
       </c>
-      <c r="L187" t="s">
-        <v>244</v>
+      <c r="L187">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="M187">
         <v>24</v>
@@ -18517,7 +18591,7 @@
         <v>2</v>
       </c>
       <c r="AJ187" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="188" spans="1:36" x14ac:dyDescent="0.2">
@@ -18551,8 +18625,9 @@
       <c r="K188">
         <v>32</v>
       </c>
-      <c r="L188" t="s">
-        <v>244</v>
+      <c r="L188">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="M188">
         <v>24</v>
@@ -18603,7 +18678,7 @@
         <v>2</v>
       </c>
       <c r="AJ188" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="189" spans="1:36" x14ac:dyDescent="0.2">
@@ -18637,8 +18712,9 @@
       <c r="K189">
         <v>32</v>
       </c>
-      <c r="L189" t="s">
-        <v>244</v>
+      <c r="L189">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="M189">
         <v>24</v>
@@ -18689,7 +18765,7 @@
         <v>2</v>
       </c>
       <c r="AJ189" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="190" spans="1:36" x14ac:dyDescent="0.2">
@@ -18723,8 +18799,9 @@
       <c r="K190">
         <v>32</v>
       </c>
-      <c r="L190" t="s">
-        <v>244</v>
+      <c r="L190">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="M190">
         <v>24</v>
@@ -18775,7 +18852,7 @@
         <v>2</v>
       </c>
       <c r="AJ190" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="191" spans="1:36" x14ac:dyDescent="0.2">
@@ -18809,8 +18886,9 @@
       <c r="K191">
         <v>32</v>
       </c>
-      <c r="L191" t="s">
-        <v>244</v>
+      <c r="L191">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="M191">
         <v>24</v>
@@ -18861,7 +18939,7 @@
         <v>2</v>
       </c>
       <c r="AJ191" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="192" spans="1:36" x14ac:dyDescent="0.2">
@@ -18898,8 +18976,9 @@
       <c r="K192">
         <v>32</v>
       </c>
-      <c r="L192" t="s">
-        <v>245</v>
+      <c r="L192">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="M192">
         <v>24</v>
@@ -18956,7 +19035,7 @@
         <v>75</v>
       </c>
       <c r="AJ192" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="193" spans="1:36" x14ac:dyDescent="0.2">
@@ -18993,8 +19072,9 @@
       <c r="K193">
         <v>32</v>
       </c>
-      <c r="L193" t="s">
-        <v>245</v>
+      <c r="L193">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="M193">
         <v>24</v>
@@ -19051,7 +19131,7 @@
         <v>76</v>
       </c>
       <c r="AJ193" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="194" spans="1:36" x14ac:dyDescent="0.2">
@@ -19088,8 +19168,9 @@
       <c r="K194">
         <v>32</v>
       </c>
-      <c r="L194" t="s">
-        <v>245</v>
+      <c r="L194">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="M194">
         <v>24</v>
@@ -19146,7 +19227,7 @@
         <v>75</v>
       </c>
       <c r="AJ194" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="195" spans="1:36" x14ac:dyDescent="0.2">
@@ -19183,8 +19264,9 @@
       <c r="K195">
         <v>32</v>
       </c>
-      <c r="L195" t="s">
-        <v>245</v>
+      <c r="L195">
+        <f t="shared" ref="L195:L258" si="3">K195-J195</f>
+        <v>14</v>
       </c>
       <c r="M195">
         <v>24</v>
@@ -19241,7 +19323,7 @@
         <v>76</v>
       </c>
       <c r="AJ195" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="196" spans="1:36" x14ac:dyDescent="0.2">
@@ -19278,8 +19360,9 @@
       <c r="K196">
         <v>25</v>
       </c>
-      <c r="L196" t="s">
-        <v>246</v>
+      <c r="L196">
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="M196">
         <v>24</v>
@@ -19336,7 +19419,7 @@
         <v>166</v>
       </c>
       <c r="AJ196" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="197" spans="1:36" x14ac:dyDescent="0.2">
@@ -19373,8 +19456,9 @@
       <c r="K197">
         <v>25</v>
       </c>
-      <c r="L197" t="s">
-        <v>246</v>
+      <c r="L197">
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="M197">
         <v>24</v>
@@ -19431,7 +19515,7 @@
         <v>167</v>
       </c>
       <c r="AJ197" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="198" spans="1:36" x14ac:dyDescent="0.2">
@@ -19468,8 +19552,9 @@
       <c r="K198">
         <v>31.7</v>
       </c>
-      <c r="L198" t="s">
-        <v>247</v>
+      <c r="L198">
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="M198">
         <v>24</v>
@@ -19526,7 +19611,7 @@
         <v>166</v>
       </c>
       <c r="AJ198" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="199" spans="1:36" x14ac:dyDescent="0.2">
@@ -19563,8 +19648,9 @@
       <c r="K199">
         <v>31.7</v>
       </c>
-      <c r="L199" t="s">
-        <v>247</v>
+      <c r="L199">
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="M199">
         <v>24</v>
@@ -19621,7 +19707,7 @@
         <v>167</v>
       </c>
       <c r="AJ199" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="200" spans="1:36" x14ac:dyDescent="0.2">
@@ -19658,8 +19744,9 @@
       <c r="K200">
         <v>25</v>
       </c>
-      <c r="L200" t="s">
-        <v>246</v>
+      <c r="L200">
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="M200">
         <v>24</v>
@@ -19716,7 +19803,7 @@
         <v>166</v>
       </c>
       <c r="AJ200" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="201" spans="1:36" x14ac:dyDescent="0.2">
@@ -19753,8 +19840,9 @@
       <c r="K201">
         <v>25</v>
       </c>
-      <c r="L201" t="s">
-        <v>246</v>
+      <c r="L201">
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="M201">
         <v>24</v>
@@ -19811,7 +19899,7 @@
         <v>167</v>
       </c>
       <c r="AJ201" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="202" spans="1:36" x14ac:dyDescent="0.2">
@@ -19848,8 +19936,9 @@
       <c r="K202">
         <v>31.7</v>
       </c>
-      <c r="L202" t="s">
-        <v>247</v>
+      <c r="L202">
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="M202">
         <v>24</v>
@@ -19906,7 +19995,7 @@
         <v>166</v>
       </c>
       <c r="AJ202" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="203" spans="1:36" x14ac:dyDescent="0.2">
@@ -19943,8 +20032,9 @@
       <c r="K203">
         <v>31.7</v>
       </c>
-      <c r="L203" t="s">
-        <v>247</v>
+      <c r="L203">
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="M203">
         <v>24</v>
@@ -20001,99 +20091,100 @@
         <v>167</v>
       </c>
       <c r="AJ203" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="204" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="6">
-        <v>1</v>
-      </c>
-      <c r="B204" s="6">
-        <v>1</v>
-      </c>
-      <c r="C204" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="204" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="3">
+        <v>1</v>
+      </c>
+      <c r="B204" s="3">
+        <v>1</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D204" s="6" t="s">
+      <c r="D204" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E204" s="6">
-        <v>1</v>
-      </c>
-      <c r="F204" s="6">
-        <v>1</v>
-      </c>
-      <c r="G204" s="6">
-        <v>1</v>
-      </c>
-      <c r="I204" s="6">
+      <c r="E204" s="3">
+        <v>1</v>
+      </c>
+      <c r="F204" s="3">
+        <v>1</v>
+      </c>
+      <c r="G204" s="3">
+        <v>1</v>
+      </c>
+      <c r="I204" s="3">
         <v>10</v>
       </c>
-      <c r="J204" s="6">
+      <c r="J204" s="3">
         <v>10</v>
       </c>
-      <c r="K204" s="6">
+      <c r="K204" s="3">
         <v>25</v>
       </c>
-      <c r="L204" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="M204" s="6">
-        <v>24</v>
-      </c>
-      <c r="N204" s="6" t="s">
+      <c r="L204" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="M204" s="3">
+        <v>24</v>
+      </c>
+      <c r="N204" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="O204" s="6" t="s">
+      <c r="O204" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="P204" s="6">
+      <c r="P204" s="3">
         <v>0.81037276999999996</v>
       </c>
-      <c r="Q204" s="6">
+      <c r="Q204" s="3">
         <v>87.520259300000006</v>
       </c>
-      <c r="R204" s="6">
+      <c r="R204" s="3">
         <v>1.6207455399999999</v>
       </c>
-      <c r="S204" s="6">
+      <c r="S204" s="3">
         <v>7.3743922199999998</v>
       </c>
-      <c r="T204" s="6">
+      <c r="T204" s="3">
         <v>120</v>
       </c>
-      <c r="U204" s="6">
+      <c r="U204" s="3">
         <v>120</v>
       </c>
-      <c r="V204" s="6">
-        <v>1</v>
-      </c>
-      <c r="W204" s="6">
-        <v>1</v>
-      </c>
-      <c r="X204" s="6" t="s">
+      <c r="V204" s="3">
+        <v>1</v>
+      </c>
+      <c r="W204" s="3">
+        <v>1</v>
+      </c>
+      <c r="X204" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="Y204" s="6" t="s">
+      <c r="Y204" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="Z204" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA204" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB204" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC204" s="6" t="s">
+      <c r="Z204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB204" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC204" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="AD204" s="6" t="s">
+      <c r="AD204" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="AJ204" s="6" t="s">
-        <v>262</v>
+      <c r="AJ204" s="3" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="205" spans="1:36" x14ac:dyDescent="0.2">
@@ -20130,8 +20221,9 @@
       <c r="K205">
         <v>14</v>
       </c>
-      <c r="L205" t="s">
-        <v>249</v>
+      <c r="L205">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M205">
         <v>24</v>
@@ -20191,7 +20283,7 @@
         <v>182</v>
       </c>
       <c r="AJ205" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="206" spans="1:36" x14ac:dyDescent="0.2">
@@ -20228,8 +20320,9 @@
       <c r="K206">
         <v>14</v>
       </c>
-      <c r="L206" t="s">
-        <v>249</v>
+      <c r="L206">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M206">
         <v>24</v>
@@ -20289,7 +20382,7 @@
         <v>182</v>
       </c>
       <c r="AJ206" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="207" spans="1:36" x14ac:dyDescent="0.2">
@@ -20326,8 +20419,9 @@
       <c r="K207">
         <v>14</v>
       </c>
-      <c r="L207" t="s">
-        <v>249</v>
+      <c r="L207">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M207">
         <v>24</v>
@@ -20384,7 +20478,7 @@
         <v>182</v>
       </c>
       <c r="AJ207" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="208" spans="1:36" x14ac:dyDescent="0.2">
@@ -20421,8 +20515,9 @@
       <c r="K208">
         <v>23</v>
       </c>
-      <c r="L208" s="3" t="s">
-        <v>250</v>
+      <c r="L208">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M208">
         <v>24</v>
@@ -20485,7 +20580,7 @@
         <v>182</v>
       </c>
       <c r="AJ208" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="209" spans="1:36" x14ac:dyDescent="0.2">
@@ -20522,8 +20617,9 @@
       <c r="K209">
         <v>23</v>
       </c>
-      <c r="L209" s="3" t="s">
-        <v>250</v>
+      <c r="L209">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M209">
         <v>24</v>
@@ -20586,7 +20682,7 @@
         <v>182</v>
       </c>
       <c r="AJ209" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="210" spans="1:36" x14ac:dyDescent="0.2">
@@ -20623,8 +20719,9 @@
       <c r="K210">
         <v>23</v>
       </c>
-      <c r="L210" s="3" t="s">
-        <v>250</v>
+      <c r="L210">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M210">
         <v>24</v>
@@ -20681,7 +20778,7 @@
         <v>182</v>
       </c>
       <c r="AJ210" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="211" spans="1:36" x14ac:dyDescent="0.2">
@@ -20718,8 +20815,9 @@
       <c r="K211">
         <v>30</v>
       </c>
-      <c r="L211" s="2" t="s">
-        <v>251</v>
+      <c r="L211">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M211">
         <v>24</v>
@@ -20782,7 +20880,7 @@
         <v>182</v>
       </c>
       <c r="AJ211" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="212" spans="1:36" x14ac:dyDescent="0.2">
@@ -20819,8 +20917,9 @@
       <c r="K212">
         <v>30</v>
       </c>
-      <c r="L212" s="2" t="s">
-        <v>251</v>
+      <c r="L212">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M212">
         <v>24</v>
@@ -20880,7 +20979,7 @@
         <v>182</v>
       </c>
       <c r="AJ212" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="213" spans="1:36" x14ac:dyDescent="0.2">
@@ -20917,8 +21016,9 @@
       <c r="K213">
         <v>30</v>
       </c>
-      <c r="L213" s="2" t="s">
-        <v>251</v>
+      <c r="L213">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M213">
         <v>24</v>
@@ -20978,7 +21078,7 @@
         <v>182</v>
       </c>
       <c r="AJ213" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="214" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -21015,8 +21115,9 @@
       <c r="K214">
         <v>14</v>
       </c>
-      <c r="L214" t="s">
-        <v>249</v>
+      <c r="L214">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M214">
         <v>24</v>
@@ -21076,7 +21177,7 @@
         <v>182</v>
       </c>
       <c r="AJ214" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="215" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -21113,8 +21214,9 @@
       <c r="K215">
         <v>14</v>
       </c>
-      <c r="L215" t="s">
-        <v>249</v>
+      <c r="L215">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M215">
         <v>24</v>
@@ -21174,7 +21276,7 @@
         <v>182</v>
       </c>
       <c r="AJ215" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="216" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -21211,8 +21313,9 @@
       <c r="K216">
         <v>14</v>
       </c>
-      <c r="L216" t="s">
-        <v>249</v>
+      <c r="L216">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M216">
         <v>24</v>
@@ -21269,7 +21372,7 @@
         <v>182</v>
       </c>
       <c r="AJ216" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="217" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -21306,8 +21409,9 @@
       <c r="K217">
         <v>23</v>
       </c>
-      <c r="L217" s="3" t="s">
-        <v>250</v>
+      <c r="L217">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M217">
         <v>24</v>
@@ -21370,7 +21474,7 @@
         <v>182</v>
       </c>
       <c r="AJ217" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="218" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -21407,8 +21511,9 @@
       <c r="K218">
         <v>23</v>
       </c>
-      <c r="L218" s="3" t="s">
-        <v>250</v>
+      <c r="L218">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M218">
         <v>24</v>
@@ -21471,7 +21576,7 @@
         <v>182</v>
       </c>
       <c r="AJ218" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="219" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -21508,8 +21613,9 @@
       <c r="K219">
         <v>23</v>
       </c>
-      <c r="L219" s="3" t="s">
-        <v>250</v>
+      <c r="L219">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M219">
         <v>24</v>
@@ -21566,7 +21672,7 @@
         <v>182</v>
       </c>
       <c r="AJ219" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="220" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -21603,8 +21709,9 @@
       <c r="K220">
         <v>30</v>
       </c>
-      <c r="L220" s="2" t="s">
-        <v>251</v>
+      <c r="L220">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M220">
         <v>24</v>
@@ -21667,7 +21774,7 @@
         <v>182</v>
       </c>
       <c r="AJ220" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="221" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -21704,8 +21811,9 @@
       <c r="K221">
         <v>30</v>
       </c>
-      <c r="L221" s="2" t="s">
-        <v>251</v>
+      <c r="L221">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M221">
         <v>24</v>
@@ -21768,7 +21876,7 @@
         <v>182</v>
       </c>
       <c r="AJ221" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="222" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -21805,8 +21913,9 @@
       <c r="K222">
         <v>30</v>
       </c>
-      <c r="L222" s="2" t="s">
-        <v>251</v>
+      <c r="L222">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M222">
         <v>24</v>
@@ -21863,7 +21972,7 @@
         <v>182</v>
       </c>
       <c r="AJ222" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="223" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -21900,8 +22009,9 @@
       <c r="K223">
         <v>40</v>
       </c>
-      <c r="L223" s="4" t="s">
-        <v>252</v>
+      <c r="L223">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M223">
         <v>24</v>
@@ -21958,7 +22068,7 @@
         <v>182</v>
       </c>
       <c r="AJ223" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="224" spans="1:36" x14ac:dyDescent="0.2">
@@ -21995,8 +22105,9 @@
       <c r="K224">
         <v>14</v>
       </c>
-      <c r="L224" t="s">
-        <v>249</v>
+      <c r="L224">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M224">
         <v>24</v>
@@ -22056,7 +22167,7 @@
         <v>182</v>
       </c>
       <c r="AJ224" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="225" spans="1:36" x14ac:dyDescent="0.2">
@@ -22093,8 +22204,9 @@
       <c r="K225">
         <v>14</v>
       </c>
-      <c r="L225" t="s">
-        <v>249</v>
+      <c r="L225">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M225">
         <v>24</v>
@@ -22154,7 +22266,7 @@
         <v>182</v>
       </c>
       <c r="AJ225" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:36" x14ac:dyDescent="0.2">
@@ -22191,8 +22303,9 @@
       <c r="K226">
         <v>14</v>
       </c>
-      <c r="L226" t="s">
-        <v>249</v>
+      <c r="L226">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M226">
         <v>24</v>
@@ -22252,7 +22365,7 @@
         <v>182</v>
       </c>
       <c r="AJ226" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="227" spans="1:36" x14ac:dyDescent="0.2">
@@ -22289,8 +22402,9 @@
       <c r="K227">
         <v>23</v>
       </c>
-      <c r="L227" s="3" t="s">
-        <v>250</v>
+      <c r="L227">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M227">
         <v>24</v>
@@ -22353,7 +22467,7 @@
         <v>182</v>
       </c>
       <c r="AJ227" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="228" spans="1:36" x14ac:dyDescent="0.2">
@@ -22390,8 +22504,9 @@
       <c r="K228">
         <v>23</v>
       </c>
-      <c r="L228" s="3" t="s">
-        <v>250</v>
+      <c r="L228">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M228">
         <v>24</v>
@@ -22454,7 +22569,7 @@
         <v>182</v>
       </c>
       <c r="AJ228" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="229" spans="1:36" x14ac:dyDescent="0.2">
@@ -22491,8 +22606,9 @@
       <c r="K229">
         <v>23</v>
       </c>
-      <c r="L229" s="3" t="s">
-        <v>250</v>
+      <c r="L229">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M229">
         <v>24</v>
@@ -22549,7 +22665,7 @@
         <v>182</v>
       </c>
       <c r="AJ229" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="230" spans="1:36" x14ac:dyDescent="0.2">
@@ -22586,8 +22702,9 @@
       <c r="K230">
         <v>30</v>
       </c>
-      <c r="L230" s="2" t="s">
-        <v>251</v>
+      <c r="L230">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M230">
         <v>24</v>
@@ -22650,7 +22767,7 @@
         <v>182</v>
       </c>
       <c r="AJ230" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="231" spans="1:36" x14ac:dyDescent="0.2">
@@ -22687,8 +22804,9 @@
       <c r="K231">
         <v>30</v>
       </c>
-      <c r="L231" s="2" t="s">
-        <v>251</v>
+      <c r="L231">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M231">
         <v>24</v>
@@ -22751,7 +22869,7 @@
         <v>182</v>
       </c>
       <c r="AJ231" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="232" spans="1:36" x14ac:dyDescent="0.2">
@@ -22788,8 +22906,9 @@
       <c r="K232">
         <v>30</v>
       </c>
-      <c r="L232" s="2" t="s">
-        <v>251</v>
+      <c r="L232">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M232">
         <v>24</v>
@@ -22846,7 +22965,7 @@
         <v>182</v>
       </c>
       <c r="AJ232" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="233" spans="1:36" x14ac:dyDescent="0.2">
@@ -22883,8 +23002,9 @@
       <c r="K233">
         <v>40</v>
       </c>
-      <c r="L233" s="4" t="s">
-        <v>252</v>
+      <c r="L233">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M233">
         <v>24</v>
@@ -22947,7 +23067,7 @@
         <v>182</v>
       </c>
       <c r="AJ233" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="234" spans="1:36" x14ac:dyDescent="0.2">
@@ -22984,8 +23104,9 @@
       <c r="K234">
         <v>40</v>
       </c>
-      <c r="L234" s="4" t="s">
-        <v>252</v>
+      <c r="L234">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M234">
         <v>24</v>
@@ -23048,7 +23169,7 @@
         <v>182</v>
       </c>
       <c r="AJ234" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="235" spans="1:36" x14ac:dyDescent="0.2">
@@ -23085,8 +23206,9 @@
       <c r="K235">
         <v>40</v>
       </c>
-      <c r="L235" s="4" t="s">
-        <v>252</v>
+      <c r="L235">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M235">
         <v>24</v>
@@ -23143,7 +23265,7 @@
         <v>182</v>
       </c>
       <c r="AJ235" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="236" spans="1:36" x14ac:dyDescent="0.2">
@@ -23180,8 +23302,9 @@
       <c r="K236">
         <v>14</v>
       </c>
-      <c r="L236" t="s">
-        <v>249</v>
+      <c r="L236">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M236">
         <v>24</v>
@@ -23237,15 +23360,15 @@
       <c r="AD236" t="s">
         <v>186</v>
       </c>
-      <c r="AG236" s="5"/>
-      <c r="AH236" s="5">
+      <c r="AG236" s="2"/>
+      <c r="AH236" s="2">
         <v>21.026490066225101</v>
       </c>
       <c r="AI236" t="s">
         <v>182</v>
       </c>
       <c r="AJ236" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="237" spans="1:36" x14ac:dyDescent="0.2">
@@ -23282,8 +23405,9 @@
       <c r="K237">
         <v>14</v>
       </c>
-      <c r="L237" t="s">
-        <v>249</v>
+      <c r="L237">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M237">
         <v>24</v>
@@ -23333,15 +23457,15 @@
       <c r="AD237" t="s">
         <v>186</v>
       </c>
-      <c r="AG237" s="5"/>
-      <c r="AH237" s="5">
+      <c r="AG237" s="2"/>
+      <c r="AH237" s="2">
         <v>13.9072847682119</v>
       </c>
       <c r="AI237" t="s">
         <v>182</v>
       </c>
       <c r="AJ237" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="238" spans="1:36" x14ac:dyDescent="0.2">
@@ -23378,8 +23502,9 @@
       <c r="K238">
         <v>14</v>
       </c>
-      <c r="L238" t="s">
-        <v>249</v>
+      <c r="L238">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M238">
         <v>24</v>
@@ -23429,15 +23554,15 @@
       <c r="AD238" t="s">
         <v>186</v>
       </c>
-      <c r="AG238" s="5"/>
-      <c r="AH238" s="5">
+      <c r="AG238" s="2"/>
+      <c r="AH238" s="2">
         <v>0</v>
       </c>
       <c r="AI238" t="s">
         <v>182</v>
       </c>
       <c r="AJ238" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="239" spans="1:36" x14ac:dyDescent="0.2">
@@ -23474,8 +23599,9 @@
       <c r="K239">
         <v>23</v>
       </c>
-      <c r="L239" s="3" t="s">
-        <v>250</v>
+      <c r="L239">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M239">
         <v>24</v>
@@ -23528,15 +23654,15 @@
       <c r="AD239" t="s">
         <v>186</v>
       </c>
-      <c r="AG239" s="5"/>
-      <c r="AH239" s="5">
+      <c r="AG239" s="2"/>
+      <c r="AH239" s="2">
         <v>21.026490066225101</v>
       </c>
       <c r="AI239" t="s">
         <v>182</v>
       </c>
       <c r="AJ239" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="240" spans="1:36" x14ac:dyDescent="0.2">
@@ -23573,8 +23699,9 @@
       <c r="K240">
         <v>23</v>
       </c>
-      <c r="L240" s="3" t="s">
-        <v>250</v>
+      <c r="L240">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M240">
         <v>24</v>
@@ -23627,15 +23754,15 @@
       <c r="AD240" t="s">
         <v>186</v>
       </c>
-      <c r="AG240" s="5"/>
-      <c r="AH240" s="5">
+      <c r="AG240" s="2"/>
+      <c r="AH240" s="2">
         <v>13.9072847682119</v>
       </c>
       <c r="AI240" t="s">
         <v>182</v>
       </c>
       <c r="AJ240" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="241" spans="1:36" x14ac:dyDescent="0.2">
@@ -23672,8 +23799,9 @@
       <c r="K241">
         <v>23</v>
       </c>
-      <c r="L241" s="3" t="s">
-        <v>250</v>
+      <c r="L241">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M241">
         <v>24</v>
@@ -23723,15 +23851,15 @@
       <c r="AD241" t="s">
         <v>186</v>
       </c>
-      <c r="AG241" s="5"/>
-      <c r="AH241" s="5">
+      <c r="AG241" s="2"/>
+      <c r="AH241" s="2">
         <v>0</v>
       </c>
       <c r="AI241" t="s">
         <v>182</v>
       </c>
       <c r="AJ241" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="242" spans="1:36" x14ac:dyDescent="0.2">
@@ -23768,8 +23896,9 @@
       <c r="K242">
         <v>30</v>
       </c>
-      <c r="L242" s="2" t="s">
-        <v>251</v>
+      <c r="L242">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M242">
         <v>24</v>
@@ -23822,15 +23951,15 @@
       <c r="AD242" t="s">
         <v>186</v>
       </c>
-      <c r="AG242" s="5"/>
-      <c r="AH242" s="5">
+      <c r="AG242" s="2"/>
+      <c r="AH242" s="2">
         <v>21.026490066225101</v>
       </c>
       <c r="AI242" t="s">
         <v>182</v>
       </c>
       <c r="AJ242" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="243" spans="1:36" x14ac:dyDescent="0.2">
@@ -23867,8 +23996,9 @@
       <c r="K243">
         <v>30</v>
       </c>
-      <c r="L243" s="2" t="s">
-        <v>251</v>
+      <c r="L243">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M243">
         <v>24</v>
@@ -23921,15 +24051,15 @@
       <c r="AD243" t="s">
         <v>186</v>
       </c>
-      <c r="AG243" s="5"/>
-      <c r="AH243" s="5">
+      <c r="AG243" s="2"/>
+      <c r="AH243" s="2">
         <v>14.0728476821191</v>
       </c>
       <c r="AI243" t="s">
         <v>182</v>
       </c>
       <c r="AJ243" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="244" spans="1:36" x14ac:dyDescent="0.2">
@@ -23966,8 +24096,9 @@
       <c r="K244">
         <v>30</v>
       </c>
-      <c r="L244" s="2" t="s">
-        <v>251</v>
+      <c r="L244">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M244">
         <v>24</v>
@@ -24017,15 +24148,15 @@
       <c r="AD244" t="s">
         <v>186</v>
       </c>
-      <c r="AG244" s="5"/>
-      <c r="AH244" s="5">
+      <c r="AG244" s="2"/>
+      <c r="AH244" s="2">
         <v>0</v>
       </c>
       <c r="AI244" t="s">
         <v>182</v>
       </c>
       <c r="AJ244" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="245" spans="1:36" x14ac:dyDescent="0.2">
@@ -24062,8 +24193,9 @@
       <c r="K245">
         <v>40</v>
       </c>
-      <c r="L245" s="4" t="s">
-        <v>252</v>
+      <c r="L245">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M245">
         <v>24</v>
@@ -24116,15 +24248,15 @@
       <c r="AD245" t="s">
         <v>186</v>
       </c>
-      <c r="AG245" s="5"/>
-      <c r="AH245" s="5">
+      <c r="AG245" s="2"/>
+      <c r="AH245" s="2">
         <v>21.026490066225101</v>
       </c>
       <c r="AI245" t="s">
         <v>182</v>
       </c>
       <c r="AJ245" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="246" spans="1:36" x14ac:dyDescent="0.2">
@@ -24161,8 +24293,9 @@
       <c r="K246">
         <v>40</v>
       </c>
-      <c r="L246" s="4" t="s">
-        <v>252</v>
+      <c r="L246">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M246">
         <v>24</v>
@@ -24215,15 +24348,15 @@
       <c r="AD246" t="s">
         <v>186</v>
       </c>
-      <c r="AG246" s="5"/>
-      <c r="AH246" s="5">
+      <c r="AG246" s="2"/>
+      <c r="AH246" s="2">
         <v>14.0728476821191</v>
       </c>
       <c r="AI246" t="s">
         <v>182</v>
       </c>
       <c r="AJ246" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="247" spans="1:36" x14ac:dyDescent="0.2">
@@ -24260,8 +24393,9 @@
       <c r="K247">
         <v>40</v>
       </c>
-      <c r="L247" s="4" t="s">
-        <v>252</v>
+      <c r="L247">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M247">
         <v>24</v>
@@ -24311,15 +24445,15 @@
       <c r="AD247" t="s">
         <v>186</v>
       </c>
-      <c r="AG247" s="5"/>
-      <c r="AH247" s="5">
+      <c r="AG247" s="2"/>
+      <c r="AH247" s="2">
         <v>0</v>
       </c>
       <c r="AI247" t="s">
         <v>182</v>
       </c>
       <c r="AJ247" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="248" spans="1:36" x14ac:dyDescent="0.2">
@@ -24356,8 +24490,9 @@
       <c r="K248">
         <v>14</v>
       </c>
-      <c r="L248" t="s">
-        <v>249</v>
+      <c r="L248">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M248">
         <v>24</v>
@@ -24414,7 +24549,7 @@
         <v>181</v>
       </c>
       <c r="AJ248" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="249" spans="1:36" x14ac:dyDescent="0.2">
@@ -24451,8 +24586,9 @@
       <c r="K249">
         <v>23</v>
       </c>
-      <c r="L249" s="3" t="s">
-        <v>250</v>
+      <c r="L249">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M249">
         <v>24</v>
@@ -24509,7 +24645,7 @@
         <v>181</v>
       </c>
       <c r="AJ249" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="250" spans="1:36" x14ac:dyDescent="0.2">
@@ -24546,8 +24682,9 @@
       <c r="K250">
         <v>30</v>
       </c>
-      <c r="L250" s="2" t="s">
-        <v>251</v>
+      <c r="L250">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M250">
         <v>24</v>
@@ -24598,7 +24735,7 @@
         <v>181</v>
       </c>
       <c r="AJ250" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="251" spans="1:36" x14ac:dyDescent="0.2">
@@ -24635,8 +24772,9 @@
       <c r="K251">
         <v>14</v>
       </c>
-      <c r="L251" t="s">
-        <v>249</v>
+      <c r="L251">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M251">
         <v>24</v>
@@ -24693,7 +24831,7 @@
         <v>181</v>
       </c>
       <c r="AJ251" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="252" spans="1:36" x14ac:dyDescent="0.2">
@@ -24730,8 +24868,9 @@
       <c r="K252">
         <v>23</v>
       </c>
-      <c r="L252" s="3" t="s">
-        <v>250</v>
+      <c r="L252">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M252">
         <v>24</v>
@@ -24785,7 +24924,7 @@
         <v>181</v>
       </c>
       <c r="AJ252" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="253" spans="1:36" x14ac:dyDescent="0.2">
@@ -24822,8 +24961,9 @@
       <c r="K253">
         <v>30</v>
       </c>
-      <c r="L253" s="2" t="s">
-        <v>251</v>
+      <c r="L253">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M253">
         <v>24</v>
@@ -24880,7 +25020,7 @@
         <v>181</v>
       </c>
       <c r="AJ253" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="254" spans="1:36" x14ac:dyDescent="0.2">
@@ -24917,8 +25057,9 @@
       <c r="K254">
         <v>14</v>
       </c>
-      <c r="L254" t="s">
-        <v>249</v>
+      <c r="L254">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M254">
         <v>24</v>
@@ -24972,7 +25113,7 @@
         <v>186</v>
       </c>
       <c r="AJ254" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="255" spans="1:36" x14ac:dyDescent="0.2">
@@ -25009,8 +25150,9 @@
       <c r="K255">
         <v>23</v>
       </c>
-      <c r="L255" s="3" t="s">
-        <v>250</v>
+      <c r="L255">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M255">
         <v>24</v>
@@ -25067,7 +25209,7 @@
         <v>186</v>
       </c>
       <c r="AJ255" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="256" spans="1:36" x14ac:dyDescent="0.2">
@@ -25104,8 +25246,9 @@
       <c r="K256">
         <v>30</v>
       </c>
-      <c r="L256" s="2" t="s">
-        <v>251</v>
+      <c r="L256">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M256">
         <v>24</v>
@@ -25159,7 +25302,7 @@
         <v>186</v>
       </c>
       <c r="AJ256" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="257" spans="1:36" x14ac:dyDescent="0.2">
@@ -25196,8 +25339,9 @@
       <c r="K257">
         <v>40</v>
       </c>
-      <c r="L257" s="4" t="s">
-        <v>252</v>
+      <c r="L257">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M257">
         <v>24</v>
@@ -25251,7 +25395,7 @@
         <v>186</v>
       </c>
       <c r="AJ257" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="258" spans="1:36" x14ac:dyDescent="0.2">
@@ -25288,8 +25432,9 @@
       <c r="K258">
         <v>14</v>
       </c>
-      <c r="L258" t="s">
-        <v>249</v>
+      <c r="L258">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M258">
         <v>24</v>
@@ -25346,7 +25491,7 @@
         <v>186</v>
       </c>
       <c r="AJ258" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="259" spans="1:36" x14ac:dyDescent="0.2">
@@ -25383,8 +25528,9 @@
       <c r="K259">
         <v>23</v>
       </c>
-      <c r="L259" s="3" t="s">
-        <v>250</v>
+      <c r="L259">
+        <f t="shared" ref="L259:L272" si="4">K259-J259</f>
+        <v>14</v>
       </c>
       <c r="M259">
         <v>24</v>
@@ -25441,7 +25587,7 @@
         <v>186</v>
       </c>
       <c r="AJ259" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="260" spans="1:36" x14ac:dyDescent="0.2">
@@ -25478,8 +25624,9 @@
       <c r="K260">
         <v>30</v>
       </c>
-      <c r="L260" s="2" t="s">
-        <v>251</v>
+      <c r="L260">
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="M260">
         <v>24</v>
@@ -25536,7 +25683,7 @@
         <v>186</v>
       </c>
       <c r="AJ260" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="261" spans="1:36" x14ac:dyDescent="0.2">
@@ -25573,8 +25720,9 @@
       <c r="K261">
         <v>40</v>
       </c>
-      <c r="L261" s="4" t="s">
-        <v>252</v>
+      <c r="L261">
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="M261">
         <v>24</v>
@@ -25631,7 +25779,7 @@
         <v>186</v>
       </c>
       <c r="AJ261" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="262" spans="1:36" x14ac:dyDescent="0.2">
@@ -25665,8 +25813,9 @@
       <c r="K262">
         <v>31.7</v>
       </c>
-      <c r="L262" s="4" t="s">
-        <v>253</v>
+      <c r="L262">
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="M262">
         <v>24</v>
@@ -25717,7 +25866,7 @@
         <v>2</v>
       </c>
       <c r="AJ262" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="263" spans="1:36" x14ac:dyDescent="0.2">
@@ -25751,8 +25900,9 @@
       <c r="K263">
         <v>31.7</v>
       </c>
-      <c r="L263" s="4" t="s">
-        <v>253</v>
+      <c r="L263">
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="M263">
         <v>24</v>
@@ -25803,7 +25953,7 @@
         <v>2</v>
       </c>
       <c r="AJ263" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="264" spans="1:36" x14ac:dyDescent="0.2">
@@ -25840,8 +25990,9 @@
       <c r="K264">
         <v>27</v>
       </c>
-      <c r="L264" s="4" t="s">
-        <v>254</v>
+      <c r="L264">
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="M264">
         <v>24</v>
@@ -25892,7 +26043,7 @@
         <v>1</v>
       </c>
       <c r="AJ264" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="265" spans="1:36" x14ac:dyDescent="0.2">
@@ -25929,8 +26080,9 @@
       <c r="K265">
         <v>27</v>
       </c>
-      <c r="L265" s="4" t="s">
-        <v>254</v>
+      <c r="L265">
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="M265">
         <v>24</v>
@@ -25981,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="AJ265" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="266" spans="1:36" x14ac:dyDescent="0.2">
@@ -26018,8 +26170,9 @@
       <c r="K266">
         <v>27</v>
       </c>
-      <c r="L266" s="4" t="s">
-        <v>254</v>
+      <c r="L266">
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="M266">
         <v>24</v>
@@ -26070,7 +26223,7 @@
         <v>1</v>
       </c>
       <c r="AJ266" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="267" spans="1:36" x14ac:dyDescent="0.2">
@@ -26107,8 +26260,9 @@
       <c r="K267">
         <v>20</v>
       </c>
-      <c r="L267" s="4" t="s">
-        <v>255</v>
+      <c r="L267">
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="M267">
         <v>24</v>
@@ -26159,7 +26313,7 @@
         <v>1</v>
       </c>
       <c r="AJ267" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="268" spans="1:36" x14ac:dyDescent="0.2">
@@ -26196,8 +26350,9 @@
       <c r="K268">
         <v>20</v>
       </c>
-      <c r="L268" s="4" t="s">
-        <v>255</v>
+      <c r="L268">
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="M268">
         <v>24</v>
@@ -26248,7 +26403,7 @@
         <v>1</v>
       </c>
       <c r="AJ268" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="269" spans="1:36" x14ac:dyDescent="0.2">
@@ -26285,8 +26440,9 @@
       <c r="K269">
         <v>20</v>
       </c>
-      <c r="L269" s="4" t="s">
-        <v>255</v>
+      <c r="L269">
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="M269">
         <v>24</v>
@@ -26337,7 +26493,7 @@
         <v>1</v>
       </c>
       <c r="AJ269" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="270" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -26374,8 +26530,9 @@
       <c r="K270" s="1">
         <v>27</v>
       </c>
-      <c r="L270" s="4" t="s">
-        <v>254</v>
+      <c r="L270">
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="M270" s="1">
         <v>24</v>
@@ -26426,7 +26583,7 @@
         <v>1</v>
       </c>
       <c r="AJ270" s="1" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
     <row r="271" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -26460,6 +26617,10 @@
       <c r="K271" s="1">
         <v>32</v>
       </c>
+      <c r="L271">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
       <c r="M271" s="1">
         <v>48</v>
       </c>
@@ -26503,13 +26664,13 @@
         <v>0</v>
       </c>
       <c r="AC271" s="1" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="AD271" s="1" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="AJ271" s="1" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
     <row r="272" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -26543,6 +26704,10 @@
       <c r="K272" s="1">
         <v>32</v>
       </c>
+      <c r="L272">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
       <c r="M272" s="1">
         <v>48</v>
       </c>
@@ -26586,13 +26751,13 @@
         <v>0</v>
       </c>
       <c r="AC272" s="1" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="AD272" s="1" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="AJ272" s="1" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/shared analysis files /metafor.xlsx
+++ b/shared analysis files /metafor.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/shared analysis files /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF3966D-3063-6C47-A3F8-CFFA9C1A163D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B9C4A3-2E63-E149-A4A3-036825CEDB16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29080" yWindow="-9980" windowWidth="21860" windowHeight="15400" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="228">
   <si>
     <t>study_id</t>
   </si>
@@ -707,6 +707,9 @@
   <si>
     <t>n</t>
   </si>
+  <si>
+    <t>Mauremys</t>
+  </si>
 </sst>
 </file>
 
@@ -1068,9 +1071,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCFBC2B-929F-FD41-8C91-75842D1EBA74}">
   <dimension ref="A1:AJ272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X3" sqref="X3:X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1254,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y2" t="s">
         <v>33</v>
@@ -1347,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y3" t="s">
         <v>33</v>
@@ -1440,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y4" t="s">
         <v>33</v>
@@ -1533,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y5" t="s">
         <v>33</v>
@@ -1626,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y6" t="s">
         <v>33</v>
@@ -1719,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y7" t="s">
         <v>33</v>
@@ -1812,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y8" t="s">
         <v>33</v>
@@ -1905,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y9" t="s">
         <v>33</v>
@@ -1998,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y10" t="s">
         <v>33</v>
@@ -2091,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y11" t="s">
         <v>33</v>
@@ -2184,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y12" t="s">
         <v>33</v>
@@ -2277,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y13" t="s">
         <v>33</v>
@@ -2370,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y14" t="s">
         <v>33</v>
@@ -2469,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y15" t="s">
         <v>33</v>
@@ -2568,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y16" t="s">
         <v>33</v>
@@ -2667,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y17" t="s">
         <v>33</v>
@@ -2766,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y18" t="s">
         <v>33</v>
@@ -2859,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y19" t="s">
         <v>33</v>
@@ -2958,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y20" t="s">
         <v>33</v>
@@ -3057,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y21" t="s">
         <v>33</v>
@@ -3156,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y22" t="s">
         <v>33</v>
@@ -3255,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y23" t="s">
         <v>33</v>
@@ -3354,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y24" t="s">
         <v>33</v>
@@ -3447,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y25" t="s">
         <v>33</v>
@@ -3546,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y26" t="s">
         <v>33</v>
@@ -3645,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y27" t="s">
         <v>33</v>
@@ -3744,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y28" t="s">
         <v>33</v>
@@ -3843,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y29" t="s">
         <v>33</v>
@@ -3942,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y30" t="s">
         <v>33</v>
@@ -4035,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y31" t="s">
         <v>33</v>
@@ -4134,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y32" t="s">
         <v>33</v>
@@ -4233,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y33" t="s">
         <v>33</v>
@@ -4332,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y34" t="s">
         <v>33</v>
@@ -4431,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y35" t="s">
         <v>33</v>
@@ -4530,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="Y36" t="s">
         <v>33</v>

--- a/shared analysis files /metafor.xlsx
+++ b/shared analysis files /metafor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/shared analysis files /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1804CB09-5E3B-CD4F-84CB-EC8A5F89F282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{141B151F-8E09-414A-9956-857626E66BAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30020" yWindow="-24840" windowWidth="22780" windowHeight="21480" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
   </bookViews>
@@ -997,7 +997,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R47" sqref="A47:XFD48"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/shared analysis files /metafor.xlsx
+++ b/shared analysis files /metafor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/shared analysis files /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{141B151F-8E09-414A-9956-857626E66BAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{301DCB65-9442-384B-B095-1BB3A3F429D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30020" yWindow="-24840" windowWidth="22780" windowHeight="21480" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
+    <workbookView xWindow="28820" yWindow="-24920" windowWidth="25220" windowHeight="21480" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
   </bookViews>
   <sheets>
     <sheet name="metafor" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="207">
   <si>
     <t>study_id</t>
   </si>
@@ -640,16 +640,29 @@
   </si>
   <si>
     <t>Mauremys</t>
+  </si>
+  <si>
+    <t>stressful</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -675,10 +688,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,16 +1007,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCFBC2B-929F-FD41-8C91-75842D1EBA74}">
-  <dimension ref="A1:AJ158"/>
+  <dimension ref="A1:AK158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="AK159" sqref="AK159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1111,8 +1124,11 @@
       <c r="AJ1" t="s">
         <v>201</v>
       </c>
+      <c r="AK1" t="s">
+        <v>205</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1144,7 +1160,7 @@
         <v>31</v>
       </c>
       <c r="L2">
-        <f>K2-J2</f>
+        <f t="shared" ref="L2:L33" si="0">K2-J2</f>
         <v>6</v>
       </c>
       <c r="M2">
@@ -1204,8 +1220,11 @@
       <c r="AJ2" t="s">
         <v>202</v>
       </c>
+      <c r="AK2" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1237,7 +1256,7 @@
         <v>34</v>
       </c>
       <c r="L3">
-        <f>K3-J3</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M3">
@@ -1297,8 +1316,11 @@
       <c r="AJ3" t="s">
         <v>202</v>
       </c>
+      <c r="AK3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1330,7 +1352,7 @@
         <v>31</v>
       </c>
       <c r="L4">
-        <f>K4-J4</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M4">
@@ -1390,8 +1412,11 @@
       <c r="AJ4" t="s">
         <v>202</v>
       </c>
+      <c r="AK4" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1423,7 +1448,7 @@
         <v>34</v>
       </c>
       <c r="L5">
-        <f>K5-J5</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M5">
@@ -1483,8 +1508,11 @@
       <c r="AJ5" t="s">
         <v>202</v>
       </c>
+      <c r="AK5" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1516,7 +1544,7 @@
         <v>31</v>
       </c>
       <c r="L6">
-        <f>K6-J6</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M6">
@@ -1576,8 +1604,11 @@
       <c r="AJ6" t="s">
         <v>202</v>
       </c>
+      <c r="AK6" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1609,7 +1640,7 @@
         <v>34</v>
       </c>
       <c r="L7">
-        <f>K7-J7</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M7">
@@ -1669,8 +1700,11 @@
       <c r="AJ7" t="s">
         <v>202</v>
       </c>
+      <c r="AK7" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1702,7 +1736,7 @@
         <v>31</v>
       </c>
       <c r="L8">
-        <f>K8-J8</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M8">
@@ -1762,8 +1796,11 @@
       <c r="AJ8" t="s">
         <v>202</v>
       </c>
+      <c r="AK8" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1795,7 +1832,7 @@
         <v>34</v>
       </c>
       <c r="L9">
-        <f>K9-J9</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M9">
@@ -1855,8 +1892,11 @@
       <c r="AJ9" t="s">
         <v>202</v>
       </c>
+      <c r="AK9" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1888,7 +1928,7 @@
         <v>31</v>
       </c>
       <c r="L10">
-        <f>K10-J10</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M10">
@@ -1948,8 +1988,11 @@
       <c r="AJ10" t="s">
         <v>202</v>
       </c>
+      <c r="AK10" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1981,7 +2024,7 @@
         <v>34</v>
       </c>
       <c r="L11">
-        <f>K11-J11</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M11">
@@ -2041,8 +2084,11 @@
       <c r="AJ11" t="s">
         <v>202</v>
       </c>
+      <c r="AK11" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2074,7 +2120,7 @@
         <v>31</v>
       </c>
       <c r="L12">
-        <f>K12-J12</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M12">
@@ -2134,8 +2180,11 @@
       <c r="AJ12" t="s">
         <v>202</v>
       </c>
+      <c r="AK12" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2167,7 +2216,7 @@
         <v>34</v>
       </c>
       <c r="L13">
-        <f>K13-J13</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M13">
@@ -2227,8 +2276,11 @@
       <c r="AJ13" t="s">
         <v>202</v>
       </c>
+      <c r="AK13" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -2260,7 +2312,7 @@
         <v>31</v>
       </c>
       <c r="L14">
-        <f>K14-J14</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M14">
@@ -2326,8 +2378,11 @@
       <c r="AJ14" t="s">
         <v>202</v>
       </c>
+      <c r="AK14" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4</v>
       </c>
@@ -2359,7 +2414,7 @@
         <v>34</v>
       </c>
       <c r="L15">
-        <f>K15-J15</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M15">
@@ -2425,8 +2480,11 @@
       <c r="AJ15" t="s">
         <v>202</v>
       </c>
+      <c r="AK15" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -2458,7 +2516,7 @@
         <v>31</v>
       </c>
       <c r="L16">
-        <f>K16-J16</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M16">
@@ -2524,8 +2582,11 @@
       <c r="AJ16" t="s">
         <v>202</v>
       </c>
+      <c r="AK16" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2557,7 +2618,7 @@
         <v>34</v>
       </c>
       <c r="L17">
-        <f>K17-J17</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M17">
@@ -2623,8 +2684,11 @@
       <c r="AJ17" t="s">
         <v>202</v>
       </c>
+      <c r="AK17" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2659,7 +2723,7 @@
         <v>18.5</v>
       </c>
       <c r="L18">
-        <f>K18-J18</f>
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
       <c r="M18">
@@ -2714,7 +2778,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2749,7 +2813,7 @@
         <v>24.5</v>
       </c>
       <c r="L19">
-        <f>K19-J19</f>
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="M19">
@@ -2804,7 +2868,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2839,7 +2903,7 @@
         <v>27.5</v>
       </c>
       <c r="L20">
-        <f>K20-J20</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="M20">
@@ -2894,7 +2958,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2929,7 +2993,7 @@
         <v>30</v>
       </c>
       <c r="L21">
-        <f>K21-J21</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="M21">
@@ -2984,7 +3048,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3019,7 +3083,7 @@
         <v>30.5</v>
       </c>
       <c r="L22">
-        <f>K22-J22</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="M22">
@@ -3074,7 +3138,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3109,7 +3173,7 @@
         <v>36.5</v>
       </c>
       <c r="L23">
-        <f>K23-J23</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="M23">
@@ -3164,7 +3228,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3199,7 +3263,7 @@
         <v>36.5</v>
       </c>
       <c r="L24">
-        <f>K24-J24</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="M24">
@@ -3254,7 +3318,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3289,7 +3353,7 @@
         <v>36.5</v>
       </c>
       <c r="L25">
-        <f>K25-J25</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M25">
@@ -3344,7 +3408,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3379,7 +3443,7 @@
         <v>36.5</v>
       </c>
       <c r="L26">
-        <f>K26-J26</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="M26">
@@ -3431,7 +3495,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -3466,7 +3530,7 @@
         <v>33</v>
       </c>
       <c r="L27">
-        <f>K27-J27</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="M27">
@@ -3532,8 +3596,11 @@
       <c r="AJ27" t="s">
         <v>202</v>
       </c>
+      <c r="AK27" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -3568,7 +3635,7 @@
         <v>33</v>
       </c>
       <c r="L28">
-        <f>K28-J28</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="M28">
@@ -3634,8 +3701,11 @@
       <c r="AJ28" t="s">
         <v>202</v>
       </c>
+      <c r="AK28" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -3670,7 +3740,7 @@
         <v>33</v>
       </c>
       <c r="L29">
-        <f>K29-J29</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="M29">
@@ -3736,8 +3806,11 @@
       <c r="AJ29" t="s">
         <v>202</v>
       </c>
+      <c r="AK29" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="30" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3772,7 +3845,7 @@
         <v>33</v>
       </c>
       <c r="L30">
-        <f>K30-J30</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="M30">
@@ -3838,8 +3911,11 @@
       <c r="AJ30" t="s">
         <v>202</v>
       </c>
+      <c r="AK30" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -3874,7 +3950,7 @@
         <v>33</v>
       </c>
       <c r="L31">
-        <f>K31-J31</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="M31">
@@ -3940,8 +4016,11 @@
       <c r="AJ31" t="s">
         <v>202</v>
       </c>
+      <c r="AK31" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -3976,7 +4055,7 @@
         <v>33</v>
       </c>
       <c r="L32">
-        <f>K32-J32</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="M32">
@@ -4042,8 +4121,11 @@
       <c r="AJ32" t="s">
         <v>202</v>
       </c>
+      <c r="AK32" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -4078,7 +4160,7 @@
         <v>33</v>
       </c>
       <c r="L33">
-        <f>K33-J33</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="M33">
@@ -4144,8 +4226,11 @@
       <c r="AJ33" t="s">
         <v>202</v>
       </c>
+      <c r="AK33" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -4180,7 +4265,7 @@
         <v>33</v>
       </c>
       <c r="L34">
-        <f>K34-J34</f>
+        <f t="shared" ref="L34:L65" si="1">K34-J34</f>
         <v>10</v>
       </c>
       <c r="M34">
@@ -4246,8 +4331,11 @@
       <c r="AJ34" t="s">
         <v>202</v>
       </c>
+      <c r="AK34" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="35" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -4279,7 +4367,7 @@
         <v>30</v>
       </c>
       <c r="L35">
-        <f>K35-J35</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="M35">
@@ -4333,8 +4421,11 @@
       <c r="AJ35" t="s">
         <v>202</v>
       </c>
+      <c r="AK35" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2</v>
       </c>
@@ -4366,7 +4457,7 @@
         <v>30</v>
       </c>
       <c r="L36">
-        <f>K36-J36</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="M36">
@@ -4420,8 +4511,11 @@
       <c r="AJ36" t="s">
         <v>202</v>
       </c>
+      <c r="AK36" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -4453,7 +4547,7 @@
         <v>30</v>
       </c>
       <c r="L37">
-        <f>K37-J37</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="M37">
@@ -4507,8 +4601,11 @@
       <c r="AJ37" t="s">
         <v>202</v>
       </c>
+      <c r="AK37" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4</v>
       </c>
@@ -4540,7 +4637,7 @@
         <v>30</v>
       </c>
       <c r="L38">
-        <f>K38-J38</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="M38">
@@ -4594,8 +4691,11 @@
       <c r="AJ38" t="s">
         <v>202</v>
       </c>
+      <c r="AK38" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -4627,7 +4727,7 @@
         <v>30</v>
       </c>
       <c r="L39">
-        <f>K39-J39</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="M39">
@@ -4681,8 +4781,11 @@
       <c r="AJ39" t="s">
         <v>202</v>
       </c>
+      <c r="AK39" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2</v>
       </c>
@@ -4714,7 +4817,7 @@
         <v>30</v>
       </c>
       <c r="L40">
-        <f>K40-J40</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="M40">
@@ -4768,8 +4871,11 @@
       <c r="AJ40" t="s">
         <v>202</v>
       </c>
+      <c r="AK40" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -4801,7 +4907,7 @@
         <v>30</v>
       </c>
       <c r="L41">
-        <f>K41-J41</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="M41">
@@ -4855,8 +4961,11 @@
       <c r="AJ41" t="s">
         <v>202</v>
       </c>
+      <c r="AK41" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4</v>
       </c>
@@ -4888,7 +4997,7 @@
         <v>30</v>
       </c>
       <c r="L42">
-        <f>K42-J42</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="M42">
@@ -4942,8 +5051,11 @@
       <c r="AJ42" t="s">
         <v>202</v>
       </c>
+      <c r="AK42" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -4975,7 +5087,7 @@
         <v>30</v>
       </c>
       <c r="L43">
-        <f>K43-J43</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="M43">
@@ -5029,8 +5141,11 @@
       <c r="AJ43" t="s">
         <v>202</v>
       </c>
+      <c r="AK43" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2</v>
       </c>
@@ -5062,7 +5177,7 @@
         <v>30</v>
       </c>
       <c r="L44">
-        <f>K44-J44</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="M44">
@@ -5116,8 +5231,11 @@
       <c r="AJ44" t="s">
         <v>202</v>
       </c>
+      <c r="AK44" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4</v>
       </c>
@@ -5149,7 +5267,7 @@
         <v>30</v>
       </c>
       <c r="L45">
-        <f>K45-J45</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="M45">
@@ -5203,8 +5321,11 @@
       <c r="AJ45" t="s">
         <v>202</v>
       </c>
+      <c r="AK45" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -5236,7 +5357,7 @@
         <v>30</v>
       </c>
       <c r="L46">
-        <f>K46-J46</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="M46">
@@ -5290,8 +5411,11 @@
       <c r="AJ46" t="s">
         <v>202</v>
       </c>
+      <c r="AK46" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -5326,7 +5450,7 @@
         <v>28</v>
       </c>
       <c r="L47">
-        <f>K47-J47</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M47">
@@ -5380,8 +5504,11 @@
       <c r="AJ47" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK47" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1</v>
       </c>
@@ -5416,7 +5543,7 @@
         <v>28</v>
       </c>
       <c r="L48">
-        <f>K48-J48</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M48">
@@ -5470,8 +5597,11 @@
       <c r="AJ48" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK48" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2</v>
       </c>
@@ -5506,7 +5636,7 @@
         <v>28</v>
       </c>
       <c r="L49">
-        <f>K49-J49</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M49">
@@ -5560,8 +5690,11 @@
       <c r="AJ49" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK49" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2</v>
       </c>
@@ -5596,7 +5729,7 @@
         <v>28</v>
       </c>
       <c r="L50">
-        <f>K50-J50</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M50">
@@ -5650,8 +5783,11 @@
       <c r="AJ50" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK50" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
@@ -5686,7 +5822,7 @@
         <v>28</v>
       </c>
       <c r="L51">
-        <f>K51-J51</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M51">
@@ -5740,8 +5876,11 @@
       <c r="AJ51" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK51" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
@@ -5776,7 +5915,7 @@
         <v>28</v>
       </c>
       <c r="L52">
-        <f>K52-J52</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M52">
@@ -5830,8 +5969,11 @@
       <c r="AJ52" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK52" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4</v>
       </c>
@@ -5866,7 +6008,7 @@
         <v>28</v>
       </c>
       <c r="L53">
-        <f>K53-J53</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M53">
@@ -5920,8 +6062,11 @@
       <c r="AJ53" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK53" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4</v>
       </c>
@@ -5956,7 +6101,7 @@
         <v>28</v>
       </c>
       <c r="L54">
-        <f>K54-J54</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M54">
@@ -6010,8 +6155,11 @@
       <c r="AJ54" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK54" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5</v>
       </c>
@@ -6046,7 +6194,7 @@
         <v>28</v>
       </c>
       <c r="L55">
-        <f>K55-J55</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M55">
@@ -6100,8 +6248,11 @@
       <c r="AJ55" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK55" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>5</v>
       </c>
@@ -6136,7 +6287,7 @@
         <v>28</v>
       </c>
       <c r="L56">
-        <f>K56-J56</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M56">
@@ -6190,8 +6341,11 @@
       <c r="AJ56" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK56" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>6</v>
       </c>
@@ -6226,7 +6380,7 @@
         <v>28</v>
       </c>
       <c r="L57">
-        <f>K57-J57</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M57">
@@ -6280,8 +6434,11 @@
       <c r="AJ57" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK57" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>6</v>
       </c>
@@ -6316,7 +6473,7 @@
         <v>28</v>
       </c>
       <c r="L58">
-        <f>K58-J58</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M58">
@@ -6370,8 +6527,11 @@
       <c r="AJ58" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK58" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -6403,7 +6563,7 @@
         <v>32</v>
       </c>
       <c r="L59">
-        <f>K59-J59</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M59">
@@ -6466,8 +6626,11 @@
       <c r="AJ59" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK59" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1</v>
       </c>
@@ -6499,7 +6662,7 @@
         <v>32</v>
       </c>
       <c r="L60">
-        <f>K60-J60</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M60">
@@ -6562,8 +6725,11 @@
       <c r="AJ60" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK60" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2</v>
       </c>
@@ -6595,7 +6761,7 @@
         <v>32</v>
       </c>
       <c r="L61">
-        <f>K61-J61</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M61">
@@ -6661,8 +6827,11 @@
       <c r="AJ61" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK61" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2</v>
       </c>
@@ -6694,7 +6863,7 @@
         <v>32</v>
       </c>
       <c r="L62">
-        <f>K62-J62</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M62">
@@ -6760,8 +6929,11 @@
       <c r="AJ62" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK62" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
@@ -6793,7 +6965,7 @@
         <v>33</v>
       </c>
       <c r="L63">
-        <f>K63-J63</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M63">
@@ -6853,8 +7025,11 @@
       <c r="AJ63" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK63" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2</v>
       </c>
@@ -6886,7 +7061,7 @@
         <v>33</v>
       </c>
       <c r="L64">
-        <f>K64-J64</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M64">
@@ -6946,8 +7121,11 @@
       <c r="AJ64" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK64" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3</v>
       </c>
@@ -6979,7 +7157,7 @@
         <v>33</v>
       </c>
       <c r="L65">
-        <f>K65-J65</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M65">
@@ -7039,8 +7217,11 @@
       <c r="AJ65" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK65" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4</v>
       </c>
@@ -7072,7 +7253,7 @@
         <v>33</v>
       </c>
       <c r="L66">
-        <f>K66-J66</f>
+        <f t="shared" ref="L66:L97" si="2">K66-J66</f>
         <v>4</v>
       </c>
       <c r="M66">
@@ -7132,8 +7313,11 @@
       <c r="AJ66" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK66" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>5</v>
       </c>
@@ -7165,7 +7349,7 @@
         <v>33</v>
       </c>
       <c r="L67">
-        <f>K67-J67</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M67">
@@ -7225,8 +7409,11 @@
       <c r="AJ67" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK67" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1</v>
       </c>
@@ -7258,7 +7445,7 @@
         <v>33</v>
       </c>
       <c r="L68">
-        <f>K68-J68</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M68">
@@ -7318,8 +7505,11 @@
       <c r="AJ68" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK68" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2</v>
       </c>
@@ -7351,7 +7541,7 @@
         <v>33</v>
       </c>
       <c r="L69">
-        <f>K69-J69</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M69">
@@ -7411,8 +7601,11 @@
       <c r="AJ69" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK69" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>3</v>
       </c>
@@ -7444,7 +7637,7 @@
         <v>33</v>
       </c>
       <c r="L70">
-        <f>K70-J70</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M70">
@@ -7504,8 +7697,11 @@
       <c r="AJ70" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK70" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4</v>
       </c>
@@ -7537,7 +7733,7 @@
         <v>33</v>
       </c>
       <c r="L71">
-        <f>K71-J71</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M71">
@@ -7597,8 +7793,11 @@
       <c r="AJ71" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK71" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>5</v>
       </c>
@@ -7630,7 +7829,7 @@
         <v>33</v>
       </c>
       <c r="L72">
-        <f>K72-J72</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M72">
@@ -7690,8 +7889,11 @@
       <c r="AJ72" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK72" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1</v>
       </c>
@@ -7723,7 +7925,7 @@
         <v>34</v>
       </c>
       <c r="L73">
-        <f>K73-J73</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M73">
@@ -7783,8 +7985,11 @@
       <c r="AJ73" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK73" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2</v>
       </c>
@@ -7816,7 +8021,7 @@
         <v>34</v>
       </c>
       <c r="L74">
-        <f>K74-J74</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M74">
@@ -7876,8 +8081,11 @@
       <c r="AJ74" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK74" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3</v>
       </c>
@@ -7909,7 +8117,7 @@
         <v>34</v>
       </c>
       <c r="L75">
-        <f>K75-J75</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M75">
@@ -7969,8 +8177,11 @@
       <c r="AJ75" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK75" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4</v>
       </c>
@@ -8002,7 +8213,7 @@
         <v>34</v>
       </c>
       <c r="L76">
-        <f>K76-J76</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M76">
@@ -8062,8 +8273,11 @@
       <c r="AJ76" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK76" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>5</v>
       </c>
@@ -8095,7 +8309,7 @@
         <v>34</v>
       </c>
       <c r="L77">
-        <f>K77-J77</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M77">
@@ -8155,8 +8369,11 @@
       <c r="AJ77" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK77" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="78" spans="1:36" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:37" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>1</v>
       </c>
@@ -8188,7 +8405,7 @@
         <v>30</v>
       </c>
       <c r="L78">
-        <f>K78-J78</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="M78" s="1">
@@ -8236,8 +8453,11 @@
       <c r="AJ78" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK78" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="79" spans="1:36" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:37" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>1</v>
       </c>
@@ -8269,7 +8489,7 @@
         <v>35</v>
       </c>
       <c r="L79">
-        <f>K79-J79</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="M79" s="1">
@@ -8317,8 +8537,11 @@
       <c r="AJ79" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK79" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1</v>
       </c>
@@ -8353,7 +8576,7 @@
         <v>23</v>
       </c>
       <c r="L80">
-        <f>K80-J80</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="M80">
@@ -8407,8 +8630,11 @@
       <c r="AJ80" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK80" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2</v>
       </c>
@@ -8443,7 +8669,7 @@
         <v>23</v>
       </c>
       <c r="L81">
-        <f>K81-J81</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="M81">
@@ -8497,8 +8723,11 @@
       <c r="AJ81" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK81" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>3</v>
       </c>
@@ -8533,7 +8762,7 @@
         <v>23</v>
       </c>
       <c r="L82">
-        <f>K82-J82</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="M82">
@@ -8587,8 +8816,11 @@
       <c r="AJ82" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK82" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>4</v>
       </c>
@@ -8623,7 +8855,7 @@
         <v>23</v>
       </c>
       <c r="L83">
-        <f>K83-J83</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="M83">
@@ -8677,8 +8909,11 @@
       <c r="AJ83" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK83" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1</v>
       </c>
@@ -8713,7 +8948,7 @@
         <v>26</v>
       </c>
       <c r="L84">
-        <f>K84-J84</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="M84">
@@ -8767,8 +9002,11 @@
       <c r="AJ84" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK84" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2</v>
       </c>
@@ -8803,7 +9041,7 @@
         <v>26</v>
       </c>
       <c r="L85">
-        <f>K85-J85</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="M85">
@@ -8857,8 +9095,11 @@
       <c r="AJ85" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK85" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>3</v>
       </c>
@@ -8893,7 +9134,7 @@
         <v>26</v>
       </c>
       <c r="L86">
-        <f>K86-J86</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="M86">
@@ -8947,8 +9188,11 @@
       <c r="AJ86" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK86" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>4</v>
       </c>
@@ -8983,7 +9227,7 @@
         <v>26</v>
       </c>
       <c r="L87">
-        <f>K87-J87</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="M87">
@@ -9037,8 +9281,11 @@
       <c r="AJ87" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK87" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1</v>
       </c>
@@ -9070,7 +9317,7 @@
         <v>31</v>
       </c>
       <c r="L88">
-        <f>K88-J88</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M88">
@@ -9124,8 +9371,11 @@
       <c r="AJ88" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK88" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2</v>
       </c>
@@ -9157,7 +9407,7 @@
         <v>31</v>
       </c>
       <c r="L89">
-        <f>K89-J89</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M89">
@@ -9211,8 +9461,11 @@
       <c r="AJ89" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK89" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1</v>
       </c>
@@ -9244,7 +9497,7 @@
         <v>31</v>
       </c>
       <c r="L90">
-        <f>K90-J90</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M90">
@@ -9298,8 +9551,11 @@
       <c r="AJ90" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK90" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2</v>
       </c>
@@ -9331,7 +9587,7 @@
         <v>31</v>
       </c>
       <c r="L91">
-        <f>K91-J91</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M91">
@@ -9385,8 +9641,11 @@
       <c r="AJ91" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK91" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>3</v>
       </c>
@@ -9418,7 +9677,7 @@
         <v>31</v>
       </c>
       <c r="L92">
-        <f>K92-J92</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M92">
@@ -9472,8 +9731,11 @@
       <c r="AJ92" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK92" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1</v>
       </c>
@@ -9505,7 +9767,7 @@
         <v>30</v>
       </c>
       <c r="L93">
-        <f>K93-J93</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="M93">
@@ -9559,8 +9821,11 @@
       <c r="AJ93" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK93" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2</v>
       </c>
@@ -9592,7 +9857,7 @@
         <v>30</v>
       </c>
       <c r="L94">
-        <f>K94-J94</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="M94">
@@ -9646,8 +9911,11 @@
       <c r="AJ94" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK94" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>3</v>
       </c>
@@ -9679,7 +9947,7 @@
         <v>30</v>
       </c>
       <c r="L95">
-        <f>K95-J95</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="M95">
@@ -9733,8 +10001,11 @@
       <c r="AJ95" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK95" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>4</v>
       </c>
@@ -9766,7 +10037,7 @@
         <v>30</v>
       </c>
       <c r="L96">
-        <f>K96-J96</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="M96">
@@ -9820,8 +10091,11 @@
       <c r="AJ96" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK96" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>5</v>
       </c>
@@ -9853,7 +10127,7 @@
         <v>30</v>
       </c>
       <c r="L97">
-        <f>K97-J97</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="M97">
@@ -9907,8 +10181,11 @@
       <c r="AJ97" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK97" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>6</v>
       </c>
@@ -9940,7 +10217,7 @@
         <v>30</v>
       </c>
       <c r="L98">
-        <f>K98-J98</f>
+        <f t="shared" ref="L98:L129" si="3">K98-J98</f>
         <v>6</v>
       </c>
       <c r="M98">
@@ -9994,8 +10271,11 @@
       <c r="AJ98" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK98" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>7</v>
       </c>
@@ -10027,7 +10307,7 @@
         <v>30</v>
       </c>
       <c r="L99">
-        <f>K99-J99</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="M99">
@@ -10081,8 +10361,11 @@
       <c r="AJ99" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK99" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>8</v>
       </c>
@@ -10114,7 +10397,7 @@
         <v>30</v>
       </c>
       <c r="L100">
-        <f>K100-J100</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="M100">
@@ -10168,8 +10451,11 @@
       <c r="AJ100" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK100" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>9</v>
       </c>
@@ -10201,7 +10487,7 @@
         <v>30</v>
       </c>
       <c r="L101">
-        <f>K101-J101</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="M101">
@@ -10255,8 +10541,11 @@
       <c r="AJ101" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK101" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>10</v>
       </c>
@@ -10288,7 +10577,7 @@
         <v>30</v>
       </c>
       <c r="L102">
-        <f>K102-J102</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="M102">
@@ -10342,8 +10631,11 @@
       <c r="AJ102" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK102" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1</v>
       </c>
@@ -10375,7 +10667,7 @@
         <v>32</v>
       </c>
       <c r="L103">
-        <f>K103-J103</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M103">
@@ -10429,8 +10721,11 @@
       <c r="AJ103" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK103" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2</v>
       </c>
@@ -10462,7 +10757,7 @@
         <v>32</v>
       </c>
       <c r="L104">
-        <f>K104-J104</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M104">
@@ -10516,8 +10811,11 @@
       <c r="AJ104" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK104" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>3</v>
       </c>
@@ -10549,7 +10847,7 @@
         <v>32</v>
       </c>
       <c r="L105">
-        <f>K105-J105</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M105">
@@ -10603,8 +10901,11 @@
       <c r="AJ105" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK105" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>4</v>
       </c>
@@ -10636,7 +10937,7 @@
         <v>32</v>
       </c>
       <c r="L106">
-        <f>K106-J106</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M106">
@@ -10690,8 +10991,11 @@
       <c r="AJ106" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK106" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>5</v>
       </c>
@@ -10723,7 +11027,7 @@
         <v>32</v>
       </c>
       <c r="L107">
-        <f>K107-J107</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M107">
@@ -10777,8 +11081,11 @@
       <c r="AJ107" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK107" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>6</v>
       </c>
@@ -10810,7 +11117,7 @@
         <v>32</v>
       </c>
       <c r="L108">
-        <f>K108-J108</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M108">
@@ -10864,8 +11171,11 @@
       <c r="AJ108" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK108" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>7</v>
       </c>
@@ -10897,7 +11207,7 @@
         <v>32</v>
       </c>
       <c r="L109">
-        <f>K109-J109</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M109">
@@ -10951,8 +11261,11 @@
       <c r="AJ109" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK109" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>8</v>
       </c>
@@ -10984,7 +11297,7 @@
         <v>32</v>
       </c>
       <c r="L110">
-        <f>K110-J110</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M110">
@@ -11038,8 +11351,11 @@
       <c r="AJ110" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK110" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>9</v>
       </c>
@@ -11071,7 +11387,7 @@
         <v>32</v>
       </c>
       <c r="L111">
-        <f>K111-J111</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M111">
@@ -11125,8 +11441,11 @@
       <c r="AJ111" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK111" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>10</v>
       </c>
@@ -11158,7 +11477,7 @@
         <v>32</v>
       </c>
       <c r="L112">
-        <f>K112-J112</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M112">
@@ -11212,8 +11531,11 @@
       <c r="AJ112" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK112" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1</v>
       </c>
@@ -11248,7 +11570,7 @@
         <v>32</v>
       </c>
       <c r="L113">
-        <f>K113-J113</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M113">
@@ -11308,8 +11630,11 @@
       <c r="AJ113" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK113" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="114" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1</v>
       </c>
@@ -11344,7 +11669,7 @@
         <v>32</v>
       </c>
       <c r="L114">
-        <f>K114-J114</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M114">
@@ -11404,8 +11729,11 @@
       <c r="AJ114" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK114" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1</v>
       </c>
@@ -11440,7 +11768,7 @@
         <v>25</v>
       </c>
       <c r="L115">
-        <f>K115-J115</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M115">
@@ -11500,8 +11828,11 @@
       <c r="AJ115" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK115" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1</v>
       </c>
@@ -11536,7 +11867,7 @@
         <v>25</v>
       </c>
       <c r="L116">
-        <f>K116-J116</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M116">
@@ -11596,8 +11927,11 @@
       <c r="AJ116" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK116" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1</v>
       </c>
@@ -11632,7 +11966,7 @@
         <v>31.7</v>
       </c>
       <c r="L117">
-        <f>K117-J117</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="M117">
@@ -11692,8 +12026,11 @@
       <c r="AJ117" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK117" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1</v>
       </c>
@@ -11728,7 +12065,7 @@
         <v>31.7</v>
       </c>
       <c r="L118">
-        <f>K118-J118</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="M118">
@@ -11788,8 +12125,11 @@
       <c r="AJ118" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK118" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2</v>
       </c>
@@ -11824,7 +12164,7 @@
         <v>25</v>
       </c>
       <c r="L119">
-        <f>K119-J119</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M119">
@@ -11884,8 +12224,11 @@
       <c r="AJ119" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK119" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2</v>
       </c>
@@ -11920,7 +12263,7 @@
         <v>25</v>
       </c>
       <c r="L120">
-        <f>K120-J120</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M120">
@@ -11980,8 +12323,11 @@
       <c r="AJ120" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK120" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2</v>
       </c>
@@ -12016,7 +12362,7 @@
         <v>31.7</v>
       </c>
       <c r="L121">
-        <f>K121-J121</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="M121">
@@ -12076,8 +12422,11 @@
       <c r="AJ121" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK121" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2</v>
       </c>
@@ -12112,7 +12461,7 @@
         <v>31.7</v>
       </c>
       <c r="L122">
-        <f>K122-J122</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="M122">
@@ -12172,8 +12521,11 @@
       <c r="AJ122" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK122" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1</v>
       </c>
@@ -12208,7 +12560,7 @@
         <v>14</v>
       </c>
       <c r="L123">
-        <f>K123-J123</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M123">
@@ -12271,8 +12623,11 @@
       <c r="AJ123" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK123" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1</v>
       </c>
@@ -12307,7 +12662,7 @@
         <v>23</v>
       </c>
       <c r="L124">
-        <f>K124-J124</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M124">
@@ -12373,8 +12728,11 @@
       <c r="AJ124" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK124" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1</v>
       </c>
@@ -12409,7 +12767,7 @@
         <v>30</v>
       </c>
       <c r="L125">
-        <f>K125-J125</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M125">
@@ -12475,8 +12833,11 @@
       <c r="AJ125" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK125" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="126" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>1</v>
       </c>
@@ -12511,7 +12872,7 @@
         <v>14</v>
       </c>
       <c r="L126">
-        <f>K126-J126</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M126">
@@ -12574,8 +12935,11 @@
       <c r="AJ126" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK126" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="127" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>1</v>
       </c>
@@ -12610,7 +12974,7 @@
         <v>23</v>
       </c>
       <c r="L127">
-        <f>K127-J127</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M127">
@@ -12676,8 +13040,11 @@
       <c r="AJ127" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK127" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="128" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>1</v>
       </c>
@@ -12712,7 +13079,7 @@
         <v>30</v>
       </c>
       <c r="L128">
-        <f>K128-J128</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M128">
@@ -12778,8 +13145,11 @@
       <c r="AJ128" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK128" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>1</v>
       </c>
@@ -12814,7 +13184,7 @@
         <v>14</v>
       </c>
       <c r="L129">
-        <f>K129-J129</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M129">
@@ -12877,8 +13247,11 @@
       <c r="AJ129" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK129" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>1</v>
       </c>
@@ -12913,7 +13286,7 @@
         <v>23</v>
       </c>
       <c r="L130">
-        <f>K130-J130</f>
+        <f t="shared" ref="L130:L161" si="4">K130-J130</f>
         <v>14</v>
       </c>
       <c r="M130">
@@ -12979,8 +13352,11 @@
       <c r="AJ130" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK130" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>1</v>
       </c>
@@ -13015,7 +13391,7 @@
         <v>30</v>
       </c>
       <c r="L131">
-        <f>K131-J131</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M131">
@@ -13081,8 +13457,11 @@
       <c r="AJ131" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK131" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="132" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>1</v>
       </c>
@@ -13117,7 +13496,7 @@
         <v>40</v>
       </c>
       <c r="L132">
-        <f>K132-J132</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M132">
@@ -13183,8 +13562,11 @@
       <c r="AJ132" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK132" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>1</v>
       </c>
@@ -13219,7 +13601,7 @@
         <v>14</v>
       </c>
       <c r="L133">
-        <f>K133-J133</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M133">
@@ -13280,8 +13662,11 @@
       <c r="AJ133" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK133" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>2</v>
       </c>
@@ -13316,7 +13701,7 @@
         <v>23</v>
       </c>
       <c r="L134">
-        <f>K134-J134</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M134">
@@ -13380,8 +13765,11 @@
       <c r="AJ134" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK134" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>2</v>
       </c>
@@ -13416,7 +13804,7 @@
         <v>30</v>
       </c>
       <c r="L135">
-        <f>K135-J135</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M135">
@@ -13480,8 +13868,11 @@
       <c r="AJ135" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK135" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>2</v>
       </c>
@@ -13516,7 +13907,7 @@
         <v>40</v>
       </c>
       <c r="L136">
-        <f>K136-J136</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M136">
@@ -13580,8 +13971,11 @@
       <c r="AJ136" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK136" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>2</v>
       </c>
@@ -13616,7 +14010,7 @@
         <v>14</v>
       </c>
       <c r="L137">
-        <f>K137-J137</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M137">
@@ -13676,8 +14070,11 @@
       <c r="AJ137" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK137" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>2</v>
       </c>
@@ -13712,7 +14109,7 @@
         <v>23</v>
       </c>
       <c r="L138">
-        <f>K138-J138</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M138">
@@ -13772,8 +14169,11 @@
       <c r="AJ138" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK138" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>2</v>
       </c>
@@ -13808,7 +14208,7 @@
         <v>30</v>
       </c>
       <c r="L139">
-        <f>K139-J139</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M139">
@@ -13862,8 +14262,11 @@
       <c r="AJ139" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK139" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>2</v>
       </c>
@@ -13898,7 +14301,7 @@
         <v>14</v>
       </c>
       <c r="L140">
-        <f>K140-J140</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M140">
@@ -13958,8 +14361,11 @@
       <c r="AJ140" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK140" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>2</v>
       </c>
@@ -13994,7 +14400,7 @@
         <v>23</v>
       </c>
       <c r="L141">
-        <f>K141-J141</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M141">
@@ -14051,8 +14457,11 @@
       <c r="AJ141" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK141" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>2</v>
       </c>
@@ -14087,7 +14496,7 @@
         <v>30</v>
       </c>
       <c r="L142">
-        <f>K142-J142</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M142">
@@ -14147,8 +14556,11 @@
       <c r="AJ142" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK142" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>2</v>
       </c>
@@ -14183,7 +14595,7 @@
         <v>14</v>
       </c>
       <c r="L143">
-        <f>K143-J143</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M143">
@@ -14240,8 +14652,11 @@
       <c r="AJ143" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK143" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>2</v>
       </c>
@@ -14276,7 +14691,7 @@
         <v>23</v>
       </c>
       <c r="L144">
-        <f>K144-J144</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M144">
@@ -14336,8 +14751,11 @@
       <c r="AJ144" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK144" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>2</v>
       </c>
@@ -14372,7 +14790,7 @@
         <v>30</v>
       </c>
       <c r="L145">
-        <f>K145-J145</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M145">
@@ -14429,8 +14847,11 @@
       <c r="AJ145" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK145" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>2</v>
       </c>
@@ -14465,7 +14886,7 @@
         <v>40</v>
       </c>
       <c r="L146">
-        <f>K146-J146</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M146">
@@ -14522,8 +14943,11 @@
       <c r="AJ146" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK146" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>2</v>
       </c>
@@ -14558,7 +14982,7 @@
         <v>14</v>
       </c>
       <c r="L147">
-        <f>K147-J147</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M147">
@@ -14618,8 +15042,11 @@
       <c r="AJ147" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK147" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>2</v>
       </c>
@@ -14654,7 +15081,7 @@
         <v>23</v>
       </c>
       <c r="L148">
-        <f>K148-J148</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M148">
@@ -14714,8 +15141,11 @@
       <c r="AJ148" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK148" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>2</v>
       </c>
@@ -14750,7 +15180,7 @@
         <v>30</v>
       </c>
       <c r="L149">
-        <f>K149-J149</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M149">
@@ -14810,8 +15240,11 @@
       <c r="AJ149" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK149" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>2</v>
       </c>
@@ -14846,7 +15279,7 @@
         <v>40</v>
       </c>
       <c r="L150">
-        <f>K150-J150</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M150">
@@ -14906,8 +15339,11 @@
       <c r="AJ150" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK150" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1</v>
       </c>
@@ -14939,7 +15375,7 @@
         <v>31.7</v>
       </c>
       <c r="L151">
-        <f>K151-J151</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="M151">
@@ -14993,8 +15429,11 @@
       <c r="AJ151" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK151" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2</v>
       </c>
@@ -15026,7 +15465,7 @@
         <v>31.7</v>
       </c>
       <c r="L152">
-        <f>K152-J152</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="M152">
@@ -15080,8 +15519,11 @@
       <c r="AJ152" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK152" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1</v>
       </c>
@@ -15116,7 +15558,7 @@
         <v>27</v>
       </c>
       <c r="L153">
-        <f>K153-J153</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="M153">
@@ -15170,8 +15612,11 @@
       <c r="AJ153" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK153" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2</v>
       </c>
@@ -15206,7 +15651,7 @@
         <v>27</v>
       </c>
       <c r="L154">
-        <f>K154-J154</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="M154">
@@ -15260,8 +15705,11 @@
       <c r="AJ154" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK154" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>3</v>
       </c>
@@ -15296,7 +15744,7 @@
         <v>27</v>
       </c>
       <c r="L155">
-        <f>K155-J155</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="M155">
@@ -15350,8 +15798,11 @@
       <c r="AJ155" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK155" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1</v>
       </c>
@@ -15386,7 +15837,7 @@
         <v>20</v>
       </c>
       <c r="L156">
-        <f>K156-J156</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="M156">
@@ -15440,8 +15891,11 @@
       <c r="AJ156" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK156" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2</v>
       </c>
@@ -15476,7 +15930,7 @@
         <v>20</v>
       </c>
       <c r="L157">
-        <f>K157-J157</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="M157">
@@ -15530,8 +15984,11 @@
       <c r="AJ157" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AK157" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>3</v>
       </c>
@@ -15566,7 +16023,7 @@
         <v>20</v>
       </c>
       <c r="L158">
-        <f>K158-J158</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="M158">
@@ -15619,6 +16076,9 @@
       </c>
       <c r="AJ158" s="1" t="s">
         <v>202</v>
+      </c>
+      <c r="AK158" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/shared analysis files /metafor.xlsx
+++ b/shared analysis files /metafor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/shared analysis files /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{301DCB65-9442-384B-B095-1BB3A3F429D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5253226F-1176-DF46-89B1-DE3F4BBA8792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28820" yWindow="-24920" windowWidth="25220" windowHeight="21480" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
   </bookViews>
@@ -1009,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCFBC2B-929F-FD41-8C91-75842D1EBA74}">
   <dimension ref="A1:AK158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="AK159" sqref="AK159"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/shared analysis files /metafor.xlsx
+++ b/shared analysis files /metafor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/shared analysis files /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5253226F-1176-DF46-89B1-DE3F4BBA8792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421A892F-5F81-9945-92F6-4529B65FC9C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28820" yWindow="-24920" windowWidth="25220" windowHeight="21480" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
+    <workbookView xWindow="1940" yWindow="460" windowWidth="24000" windowHeight="15900" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
   </bookViews>
   <sheets>
     <sheet name="metafor" sheetId="2" r:id="rId1"/>
@@ -688,11 +688,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1009,8 +1010,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCFBC2B-929F-FD41-8C91-75842D1EBA74}">
   <dimension ref="A1:AK158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J123" sqref="A123:XFD150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12525,99 +12527,99 @@
         <v>202</v>
       </c>
     </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>1</v>
-      </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-      <c r="C123" t="s">
+    <row r="123" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>1</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E123">
-        <v>1</v>
-      </c>
-      <c r="F123">
-        <v>1</v>
-      </c>
-      <c r="G123">
-        <v>1</v>
-      </c>
-      <c r="H123">
+      <c r="E123" s="1">
+        <v>1</v>
+      </c>
+      <c r="F123" s="1">
+        <v>1</v>
+      </c>
+      <c r="G123" s="1">
+        <v>1</v>
+      </c>
+      <c r="H123" s="1">
         <v>37</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="1">
         <v>7</v>
       </c>
-      <c r="J123">
-        <v>0</v>
-      </c>
-      <c r="K123">
+      <c r="J123" s="1">
+        <v>0</v>
+      </c>
+      <c r="K123" s="1">
         <v>14</v>
       </c>
-      <c r="L123">
+      <c r="L123" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="M123">
-        <v>24</v>
-      </c>
-      <c r="N123" t="s">
+      <c r="M123" s="1">
+        <v>24</v>
+      </c>
+      <c r="N123" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O123" t="s">
+      <c r="O123" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="P123">
+      <c r="P123" s="1">
         <v>26366508.989999998</v>
       </c>
-      <c r="Q123">
+      <c r="Q123" s="1">
         <v>18649907.91</v>
       </c>
-      <c r="R123">
+      <c r="R123" s="1">
         <v>4587583.9369999999</v>
       </c>
-      <c r="T123">
+      <c r="T123" s="1">
         <v>3</v>
       </c>
-      <c r="U123">
+      <c r="U123" s="1">
         <v>3</v>
       </c>
-      <c r="V123">
-        <v>1</v>
-      </c>
-      <c r="W123">
-        <v>1</v>
-      </c>
-      <c r="X123" t="s">
+      <c r="V123" s="1">
+        <v>1</v>
+      </c>
+      <c r="W123" s="1">
+        <v>1</v>
+      </c>
+      <c r="X123" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Y123" t="s">
+      <c r="Y123" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Z123">
+      <c r="Z123" s="1">
         <v>3</v>
       </c>
-      <c r="AA123">
-        <v>1</v>
-      </c>
-      <c r="AB123">
-        <v>0</v>
-      </c>
-      <c r="AC123" t="s">
+      <c r="AA123" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB123" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC123" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AD123" t="s">
+      <c r="AD123" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AH123">
+      <c r="AH123" s="1">
         <v>14</v>
       </c>
-      <c r="AI123" t="s">
+      <c r="AI123" s="1" t="s">
         <v>171</v>
       </c>
       <c r="AJ123" s="1" t="s">
@@ -12627,102 +12629,102 @@
         <v>206</v>
       </c>
     </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>1</v>
-      </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-      <c r="C124" t="s">
+    <row r="124" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>1</v>
+      </c>
+      <c r="B124" s="1">
+        <v>1</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E124">
-        <v>1</v>
-      </c>
-      <c r="F124">
-        <v>1</v>
-      </c>
-      <c r="G124">
-        <v>1</v>
-      </c>
-      <c r="H124">
+      <c r="E124" s="1">
+        <v>1</v>
+      </c>
+      <c r="F124" s="1">
+        <v>1</v>
+      </c>
+      <c r="G124" s="1">
+        <v>1</v>
+      </c>
+      <c r="H124" s="1">
         <v>37</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="1">
         <v>16</v>
       </c>
-      <c r="J124">
+      <c r="J124" s="1">
         <v>9</v>
       </c>
-      <c r="K124">
+      <c r="K124" s="1">
         <v>23</v>
       </c>
-      <c r="L124">
+      <c r="L124" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="M124">
-        <v>24</v>
-      </c>
-      <c r="N124" t="s">
+      <c r="M124" s="1">
+        <v>24</v>
+      </c>
+      <c r="N124" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O124" t="s">
+      <c r="O124" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="P124">
+      <c r="P124" s="1">
         <v>8557183.1449999996</v>
       </c>
-      <c r="Q124">
+      <c r="Q124" s="1">
         <v>3926313.4019999998</v>
       </c>
-      <c r="R124">
+      <c r="R124" s="1">
         <v>1948886.1070000001</v>
       </c>
-      <c r="S124">
+      <c r="S124" s="1">
         <v>1031123.618</v>
       </c>
-      <c r="T124">
+      <c r="T124" s="1">
         <v>3</v>
       </c>
-      <c r="U124">
+      <c r="U124" s="1">
         <v>3</v>
       </c>
-      <c r="V124">
-        <v>1</v>
-      </c>
-      <c r="W124">
-        <v>1</v>
-      </c>
-      <c r="X124" t="s">
+      <c r="V124" s="1">
+        <v>1</v>
+      </c>
+      <c r="W124" s="1">
+        <v>1</v>
+      </c>
+      <c r="X124" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Y124" t="s">
+      <c r="Y124" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Z124">
+      <c r="Z124" s="1">
         <v>3</v>
       </c>
-      <c r="AA124">
-        <v>1</v>
-      </c>
-      <c r="AB124">
-        <v>0</v>
-      </c>
-      <c r="AC124" t="s">
+      <c r="AA124" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB124" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC124" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AD124" t="s">
+      <c r="AD124" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AH124">
+      <c r="AH124" s="1">
         <v>14</v>
       </c>
-      <c r="AI124" t="s">
+      <c r="AI124" s="1" t="s">
         <v>171</v>
       </c>
       <c r="AJ124" s="1" t="s">
@@ -12732,102 +12734,102 @@
         <v>206</v>
       </c>
     </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>1</v>
-      </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-      <c r="C125" t="s">
+    <row r="125" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>1</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E125">
-        <v>1</v>
-      </c>
-      <c r="F125">
-        <v>1</v>
-      </c>
-      <c r="G125">
-        <v>1</v>
-      </c>
-      <c r="H125">
+      <c r="E125" s="1">
+        <v>1</v>
+      </c>
+      <c r="F125" s="1">
+        <v>1</v>
+      </c>
+      <c r="G125" s="1">
+        <v>1</v>
+      </c>
+      <c r="H125" s="1">
         <v>37</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="1">
         <v>23</v>
       </c>
-      <c r="J125">
+      <c r="J125" s="1">
         <v>16</v>
       </c>
-      <c r="K125">
+      <c r="K125" s="1">
         <v>30</v>
       </c>
-      <c r="L125">
+      <c r="L125" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="M125">
-        <v>24</v>
-      </c>
-      <c r="N125" t="s">
+      <c r="M125" s="1">
+        <v>24</v>
+      </c>
+      <c r="N125" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O125" t="s">
+      <c r="O125" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="P125">
+      <c r="P125" s="1">
         <v>1168608.855</v>
       </c>
-      <c r="Q125">
+      <c r="Q125" s="1">
         <v>246023.98209999999</v>
       </c>
-      <c r="R125">
+      <c r="R125" s="1">
         <v>181593.17850000001</v>
       </c>
-      <c r="S125">
+      <c r="S125" s="1">
         <v>94114.193750000006</v>
       </c>
-      <c r="T125">
+      <c r="T125" s="1">
         <v>3</v>
       </c>
-      <c r="U125">
+      <c r="U125" s="1">
         <v>3</v>
       </c>
-      <c r="V125">
-        <v>1</v>
-      </c>
-      <c r="W125">
-        <v>1</v>
-      </c>
-      <c r="X125" t="s">
+      <c r="V125" s="1">
+        <v>1</v>
+      </c>
+      <c r="W125" s="1">
+        <v>1</v>
+      </c>
+      <c r="X125" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Y125" t="s">
+      <c r="Y125" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Z125">
+      <c r="Z125" s="1">
         <v>3</v>
       </c>
-      <c r="AA125">
-        <v>1</v>
-      </c>
-      <c r="AB125">
-        <v>0</v>
-      </c>
-      <c r="AC125" t="s">
+      <c r="AA125" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB125" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC125" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AD125" t="s">
+      <c r="AD125" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AH125">
+      <c r="AH125" s="1">
         <v>14</v>
       </c>
-      <c r="AI125" t="s">
+      <c r="AI125" s="1" t="s">
         <v>171</v>
       </c>
       <c r="AJ125" s="1" t="s">
@@ -12853,10 +12855,10 @@
       <c r="E126" s="1">
         <v>1</v>
       </c>
-      <c r="F126">
-        <v>1</v>
-      </c>
-      <c r="G126">
+      <c r="F126" s="1">
+        <v>1</v>
+      </c>
+      <c r="G126" s="1">
         <v>1</v>
       </c>
       <c r="H126" s="1">
@@ -12865,17 +12867,17 @@
       <c r="I126" s="1">
         <v>7</v>
       </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-      <c r="K126">
+      <c r="J126" s="1">
+        <v>0</v>
+      </c>
+      <c r="K126" s="1">
         <v>14</v>
       </c>
-      <c r="L126">
+      <c r="L126" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="M126">
+      <c r="M126" s="1">
         <v>24</v>
       </c>
       <c r="N126" s="1" t="s">
@@ -12955,10 +12957,10 @@
       <c r="E127" s="1">
         <v>1</v>
       </c>
-      <c r="F127">
-        <v>1</v>
-      </c>
-      <c r="G127">
+      <c r="F127" s="1">
+        <v>1</v>
+      </c>
+      <c r="G127" s="1">
         <v>1</v>
       </c>
       <c r="H127" s="1">
@@ -12967,17 +12969,17 @@
       <c r="I127" s="1">
         <v>16</v>
       </c>
-      <c r="J127">
+      <c r="J127" s="1">
         <v>9</v>
       </c>
-      <c r="K127">
+      <c r="K127" s="1">
         <v>23</v>
       </c>
-      <c r="L127">
+      <c r="L127" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="M127">
+      <c r="M127" s="1">
         <v>24</v>
       </c>
       <c r="N127" s="1" t="s">
@@ -13060,10 +13062,10 @@
       <c r="E128" s="1">
         <v>1</v>
       </c>
-      <c r="F128">
-        <v>1</v>
-      </c>
-      <c r="G128">
+      <c r="F128" s="1">
+        <v>1</v>
+      </c>
+      <c r="G128" s="1">
         <v>1</v>
       </c>
       <c r="H128" s="1">
@@ -13072,17 +13074,17 @@
       <c r="I128" s="1">
         <v>23</v>
       </c>
-      <c r="J128">
+      <c r="J128" s="1">
         <v>16</v>
       </c>
-      <c r="K128">
+      <c r="K128" s="1">
         <v>30</v>
       </c>
-      <c r="L128">
+      <c r="L128" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="M128">
+      <c r="M128" s="1">
         <v>24</v>
       </c>
       <c r="N128" s="1" t="s">
@@ -13149,99 +13151,99 @@
         <v>206</v>
       </c>
     </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>1</v>
       </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="B129" s="1">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E129">
-        <v>1</v>
-      </c>
-      <c r="F129">
-        <v>1</v>
-      </c>
-      <c r="G129">
-        <v>1</v>
-      </c>
-      <c r="H129">
+      <c r="E129" s="1">
+        <v>1</v>
+      </c>
+      <c r="F129" s="1">
+        <v>1</v>
+      </c>
+      <c r="G129" s="1">
+        <v>1</v>
+      </c>
+      <c r="H129" s="1">
         <v>37</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="1">
         <v>7</v>
       </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-      <c r="K129">
+      <c r="J129" s="1">
+        <v>0</v>
+      </c>
+      <c r="K129" s="1">
         <v>14</v>
       </c>
-      <c r="L129">
+      <c r="L129" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="M129">
-        <v>24</v>
-      </c>
-      <c r="N129" t="s">
+      <c r="M129" s="1">
+        <v>24</v>
+      </c>
+      <c r="N129" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O129" t="s">
+      <c r="O129" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="P129">
+      <c r="P129" s="1">
         <v>1857022665</v>
       </c>
-      <c r="Q129">
+      <c r="Q129" s="1">
         <v>64040042.710000001</v>
       </c>
-      <c r="R129">
+      <c r="R129" s="1">
         <v>418897865.89999998</v>
       </c>
-      <c r="T129">
+      <c r="T129" s="1">
         <v>3</v>
       </c>
-      <c r="U129">
+      <c r="U129" s="1">
         <v>3</v>
       </c>
-      <c r="V129">
-        <v>1</v>
-      </c>
-      <c r="W129">
-        <v>1</v>
-      </c>
-      <c r="X129" t="s">
+      <c r="V129" s="1">
+        <v>1</v>
+      </c>
+      <c r="W129" s="1">
+        <v>1</v>
+      </c>
+      <c r="X129" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Y129" t="s">
+      <c r="Y129" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Z129">
+      <c r="Z129" s="1">
         <v>3</v>
       </c>
-      <c r="AA129">
-        <v>1</v>
-      </c>
-      <c r="AB129">
-        <v>0</v>
-      </c>
-      <c r="AC129" t="s">
+      <c r="AA129" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB129" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC129" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AD129" t="s">
+      <c r="AD129" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AH129">
+      <c r="AH129" s="1">
         <v>14</v>
       </c>
-      <c r="AI129" t="s">
+      <c r="AI129" s="1" t="s">
         <v>171</v>
       </c>
       <c r="AJ129" s="1" t="s">
@@ -13251,102 +13253,102 @@
         <v>206</v>
       </c>
     </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>1</v>
       </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="B130" s="1">
+        <v>1</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E130">
-        <v>1</v>
-      </c>
-      <c r="F130">
-        <v>1</v>
-      </c>
-      <c r="G130">
-        <v>1</v>
-      </c>
-      <c r="H130">
+      <c r="E130" s="1">
+        <v>1</v>
+      </c>
+      <c r="F130" s="1">
+        <v>1</v>
+      </c>
+      <c r="G130" s="1">
+        <v>1</v>
+      </c>
+      <c r="H130" s="1">
         <v>37</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="1">
         <v>16</v>
       </c>
-      <c r="J130">
+      <c r="J130" s="1">
         <v>9</v>
       </c>
-      <c r="K130">
+      <c r="K130" s="1">
         <v>23</v>
       </c>
-      <c r="L130">
-        <f t="shared" ref="L130:L161" si="4">K130-J130</f>
+      <c r="L130" s="1">
+        <f t="shared" ref="L130:L158" si="4">K130-J130</f>
         <v>14</v>
       </c>
-      <c r="M130">
-        <v>24</v>
-      </c>
-      <c r="N130" t="s">
+      <c r="M130" s="1">
+        <v>24</v>
+      </c>
+      <c r="N130" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O130" t="s">
+      <c r="O130" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="P130">
+      <c r="P130" s="1">
         <v>1095031275</v>
       </c>
-      <c r="Q130">
+      <c r="Q130" s="1">
         <v>1169769675</v>
       </c>
-      <c r="R130">
+      <c r="R130" s="1">
         <v>247011667.09999999</v>
       </c>
-      <c r="S130">
+      <c r="S130" s="1">
         <v>263870780.69999999</v>
       </c>
-      <c r="T130">
+      <c r="T130" s="1">
         <v>3</v>
       </c>
-      <c r="U130">
+      <c r="U130" s="1">
         <v>3</v>
       </c>
-      <c r="V130">
-        <v>1</v>
-      </c>
-      <c r="W130">
-        <v>1</v>
-      </c>
-      <c r="X130" t="s">
+      <c r="V130" s="1">
+        <v>1</v>
+      </c>
+      <c r="W130" s="1">
+        <v>1</v>
+      </c>
+      <c r="X130" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Y130" t="s">
+      <c r="Y130" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Z130">
+      <c r="Z130" s="1">
         <v>3</v>
       </c>
-      <c r="AA130">
-        <v>1</v>
-      </c>
-      <c r="AB130">
-        <v>0</v>
-      </c>
-      <c r="AC130" t="s">
+      <c r="AA130" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB130" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC130" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AD130" t="s">
+      <c r="AD130" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AH130">
+      <c r="AH130" s="1">
         <v>14</v>
       </c>
-      <c r="AI130" t="s">
+      <c r="AI130" s="1" t="s">
         <v>171</v>
       </c>
       <c r="AJ130" s="1" t="s">
@@ -13356,102 +13358,102 @@
         <v>206</v>
       </c>
     </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>1</v>
       </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="B131" s="1">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E131">
-        <v>1</v>
-      </c>
-      <c r="F131">
-        <v>1</v>
-      </c>
-      <c r="G131">
-        <v>1</v>
-      </c>
-      <c r="H131">
+      <c r="E131" s="1">
+        <v>1</v>
+      </c>
+      <c r="F131" s="1">
+        <v>1</v>
+      </c>
+      <c r="G131" s="1">
+        <v>1</v>
+      </c>
+      <c r="H131" s="1">
         <v>37</v>
       </c>
-      <c r="I131">
+      <c r="I131" s="1">
         <v>23</v>
       </c>
-      <c r="J131">
+      <c r="J131" s="1">
         <v>16</v>
       </c>
-      <c r="K131">
+      <c r="K131" s="1">
         <v>30</v>
       </c>
-      <c r="L131">
+      <c r="L131" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M131">
-        <v>24</v>
-      </c>
-      <c r="N131" t="s">
+      <c r="M131" s="1">
+        <v>24</v>
+      </c>
+      <c r="N131" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O131" t="s">
+      <c r="O131" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="P131">
+      <c r="P131" s="1">
         <v>73080125.269999996</v>
       </c>
-      <c r="Q131">
+      <c r="Q131" s="1">
         <v>196746407</v>
       </c>
-      <c r="R131">
+      <c r="R131" s="1">
         <v>14569949.460000001</v>
       </c>
-      <c r="S131">
+      <c r="S131" s="1">
         <v>20171870.059999999</v>
       </c>
-      <c r="T131">
+      <c r="T131" s="1">
         <v>3</v>
       </c>
-      <c r="U131">
+      <c r="U131" s="1">
         <v>3</v>
       </c>
-      <c r="V131">
-        <v>1</v>
-      </c>
-      <c r="W131">
-        <v>1</v>
-      </c>
-      <c r="X131" t="s">
+      <c r="V131" s="1">
+        <v>1</v>
+      </c>
+      <c r="W131" s="1">
+        <v>1</v>
+      </c>
+      <c r="X131" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Y131" t="s">
+      <c r="Y131" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Z131">
+      <c r="Z131" s="1">
         <v>3</v>
       </c>
-      <c r="AA131">
-        <v>1</v>
-      </c>
-      <c r="AB131">
-        <v>0</v>
-      </c>
-      <c r="AC131" t="s">
+      <c r="AA131" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB131" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC131" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AD131" t="s">
+      <c r="AD131" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AH131">
+      <c r="AH131" s="1">
         <v>14</v>
       </c>
-      <c r="AI131" t="s">
+      <c r="AI131" s="1" t="s">
         <v>171</v>
       </c>
       <c r="AJ131" s="1" t="s">
@@ -13461,102 +13463,102 @@
         <v>206</v>
       </c>
     </row>
-    <row r="132" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:37" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>1</v>
       </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="B132" s="1">
+        <v>1</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E132">
-        <v>1</v>
-      </c>
-      <c r="F132">
-        <v>1</v>
-      </c>
-      <c r="G132">
-        <v>1</v>
-      </c>
-      <c r="H132">
+      <c r="E132" s="1">
+        <v>1</v>
+      </c>
+      <c r="F132" s="1">
+        <v>1</v>
+      </c>
+      <c r="G132" s="1">
+        <v>1</v>
+      </c>
+      <c r="H132" s="1">
         <v>37</v>
       </c>
-      <c r="I132">
+      <c r="I132" s="1">
         <v>33</v>
       </c>
-      <c r="J132">
+      <c r="J132" s="1">
         <v>26</v>
       </c>
-      <c r="K132">
+      <c r="K132" s="1">
         <v>40</v>
       </c>
-      <c r="L132">
+      <c r="L132" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M132">
-        <v>24</v>
-      </c>
-      <c r="N132" t="s">
+      <c r="M132" s="1">
+        <v>24</v>
+      </c>
+      <c r="N132" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O132" t="s">
+      <c r="O132" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="P132">
+      <c r="P132" s="1">
         <v>46034394.719999999</v>
       </c>
-      <c r="Q132">
+      <c r="Q132" s="1">
         <v>2875950.2030000002</v>
       </c>
-      <c r="R132">
+      <c r="R132" s="1">
         <v>17521103.289999999</v>
       </c>
-      <c r="S132">
+      <c r="S132" s="1">
         <v>380867.75309999997</v>
       </c>
-      <c r="T132">
+      <c r="T132" s="1">
         <v>3</v>
       </c>
-      <c r="U132">
+      <c r="U132" s="1">
         <v>3</v>
       </c>
-      <c r="V132">
-        <v>1</v>
-      </c>
-      <c r="W132">
-        <v>1</v>
-      </c>
-      <c r="X132" t="s">
+      <c r="V132" s="1">
+        <v>1</v>
+      </c>
+      <c r="W132" s="1">
+        <v>1</v>
+      </c>
+      <c r="X132" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Y132" t="s">
+      <c r="Y132" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Z132">
+      <c r="Z132" s="1">
         <v>3</v>
       </c>
-      <c r="AA132">
-        <v>1</v>
-      </c>
-      <c r="AB132">
-        <v>0</v>
-      </c>
-      <c r="AC132" t="s">
+      <c r="AA132" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB132" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC132" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AD132" t="s">
+      <c r="AD132" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AH132">
+      <c r="AH132" s="1">
         <v>14</v>
       </c>
-      <c r="AI132" t="s">
+      <c r="AI132" s="1" t="s">
         <v>171</v>
       </c>
       <c r="AJ132" s="1" t="s">
@@ -13566,97 +13568,97 @@
         <v>202</v>
       </c>
     </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>1</v>
       </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="B133" s="1">
+        <v>1</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E133">
-        <v>1</v>
-      </c>
-      <c r="F133">
-        <v>1</v>
-      </c>
-      <c r="G133">
-        <v>1</v>
-      </c>
-      <c r="H133">
+      <c r="E133" s="1">
+        <v>1</v>
+      </c>
+      <c r="F133" s="1">
+        <v>1</v>
+      </c>
+      <c r="G133" s="1">
+        <v>1</v>
+      </c>
+      <c r="H133" s="1">
         <v>37</v>
       </c>
-      <c r="I133">
+      <c r="I133" s="1">
         <v>7</v>
       </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
-      <c r="K133">
+      <c r="J133" s="1">
+        <v>0</v>
+      </c>
+      <c r="K133" s="1">
         <v>14</v>
       </c>
-      <c r="L133">
+      <c r="L133" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M133">
-        <v>24</v>
-      </c>
-      <c r="N133" t="s">
+      <c r="M133" s="1">
+        <v>24</v>
+      </c>
+      <c r="N133" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O133" t="s">
+      <c r="O133" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="P133">
+      <c r="P133" s="1">
         <v>127427498.59999999</v>
       </c>
-      <c r="Q133">
+      <c r="Q133" s="1">
         <v>90133703.900000006</v>
       </c>
-      <c r="T133">
+      <c r="T133" s="1">
         <v>3</v>
       </c>
-      <c r="U133">
+      <c r="U133" s="1">
         <v>3</v>
       </c>
-      <c r="V133">
-        <v>1</v>
-      </c>
-      <c r="W133">
-        <v>1</v>
-      </c>
-      <c r="X133" t="s">
+      <c r="V133" s="1">
+        <v>1</v>
+      </c>
+      <c r="W133" s="1">
+        <v>1</v>
+      </c>
+      <c r="X133" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="Y133" t="s">
+      <c r="Y133" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Z133">
+      <c r="Z133" s="1">
         <v>3</v>
       </c>
-      <c r="AA133">
-        <v>1</v>
-      </c>
-      <c r="AB133">
-        <v>0</v>
-      </c>
-      <c r="AC133" t="s">
+      <c r="AA133" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB133" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC133" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AD133" t="s">
+      <c r="AD133" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AG133" s="2"/>
-      <c r="AH133" s="2">
+      <c r="AG133" s="4"/>
+      <c r="AH133" s="4">
         <v>13.9072847682119</v>
       </c>
-      <c r="AI133" t="s">
+      <c r="AI133" s="1" t="s">
         <v>171</v>
       </c>
       <c r="AJ133" s="1" t="s">
@@ -13666,100 +13668,100 @@
         <v>206</v>
       </c>
     </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>2</v>
       </c>
-      <c r="B134">
-        <v>2</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="B134" s="1">
+        <v>2</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E134">
-        <v>1</v>
-      </c>
-      <c r="F134">
-        <v>1</v>
-      </c>
-      <c r="G134">
-        <v>1</v>
-      </c>
-      <c r="H134">
+      <c r="E134" s="1">
+        <v>1</v>
+      </c>
+      <c r="F134" s="1">
+        <v>1</v>
+      </c>
+      <c r="G134" s="1">
+        <v>1</v>
+      </c>
+      <c r="H134" s="1">
         <v>37</v>
       </c>
-      <c r="I134">
+      <c r="I134" s="1">
         <v>16</v>
       </c>
-      <c r="J134">
+      <c r="J134" s="1">
         <v>9</v>
       </c>
-      <c r="K134">
+      <c r="K134" s="1">
         <v>23</v>
       </c>
-      <c r="L134">
+      <c r="L134" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M134">
-        <v>24</v>
-      </c>
-      <c r="N134" t="s">
+      <c r="M134" s="1">
+        <v>24</v>
+      </c>
+      <c r="N134" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O134" t="s">
+      <c r="O134" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="P134">
+      <c r="P134" s="1">
         <v>413562691.80000001</v>
       </c>
-      <c r="Q134">
+      <c r="Q134" s="1">
         <v>360073348.5</v>
       </c>
-      <c r="R134">
+      <c r="R134" s="1">
         <v>135588260.69999999</v>
       </c>
-      <c r="T134">
+      <c r="T134" s="1">
         <v>3</v>
       </c>
-      <c r="U134">
+      <c r="U134" s="1">
         <v>3</v>
       </c>
-      <c r="V134">
-        <v>1</v>
-      </c>
-      <c r="W134">
-        <v>1</v>
-      </c>
-      <c r="X134" t="s">
+      <c r="V134" s="1">
+        <v>1</v>
+      </c>
+      <c r="W134" s="1">
+        <v>1</v>
+      </c>
+      <c r="X134" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="Y134" t="s">
+      <c r="Y134" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Z134">
+      <c r="Z134" s="1">
         <v>3</v>
       </c>
-      <c r="AA134">
-        <v>1</v>
-      </c>
-      <c r="AB134">
-        <v>0</v>
-      </c>
-      <c r="AC134" t="s">
+      <c r="AA134" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB134" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC134" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AD134" t="s">
+      <c r="AD134" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AG134" s="2"/>
-      <c r="AH134" s="2">
+      <c r="AG134" s="4"/>
+      <c r="AH134" s="4">
         <v>13.9072847682119</v>
       </c>
-      <c r="AI134" t="s">
+      <c r="AI134" s="1" t="s">
         <v>171</v>
       </c>
       <c r="AJ134" s="1" t="s">
@@ -13769,100 +13771,100 @@
         <v>206</v>
       </c>
     </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>2</v>
       </c>
-      <c r="B135">
-        <v>2</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="B135" s="1">
+        <v>2</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E135">
-        <v>1</v>
-      </c>
-      <c r="F135">
-        <v>1</v>
-      </c>
-      <c r="G135">
-        <v>1</v>
-      </c>
-      <c r="H135">
+      <c r="E135" s="1">
+        <v>1</v>
+      </c>
+      <c r="F135" s="1">
+        <v>1</v>
+      </c>
+      <c r="G135" s="1">
+        <v>1</v>
+      </c>
+      <c r="H135" s="1">
         <v>37</v>
       </c>
-      <c r="I135">
+      <c r="I135" s="1">
         <v>23</v>
       </c>
-      <c r="J135">
+      <c r="J135" s="1">
         <v>16</v>
       </c>
-      <c r="K135">
+      <c r="K135" s="1">
         <v>30</v>
       </c>
-      <c r="L135">
+      <c r="L135" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M135">
-        <v>24</v>
-      </c>
-      <c r="N135" t="s">
+      <c r="M135" s="1">
+        <v>24</v>
+      </c>
+      <c r="N135" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O135" t="s">
+      <c r="O135" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="P135">
+      <c r="P135" s="1">
         <v>826595873.89999998</v>
       </c>
-      <c r="Q135">
+      <c r="Q135" s="1">
         <v>313502206.30000001</v>
       </c>
-      <c r="R135">
+      <c r="R135" s="1">
         <v>213353714.5</v>
       </c>
-      <c r="T135">
+      <c r="T135" s="1">
         <v>3</v>
       </c>
-      <c r="U135">
+      <c r="U135" s="1">
         <v>3</v>
       </c>
-      <c r="V135">
-        <v>1</v>
-      </c>
-      <c r="W135">
-        <v>1</v>
-      </c>
-      <c r="X135" t="s">
+      <c r="V135" s="1">
+        <v>1</v>
+      </c>
+      <c r="W135" s="1">
+        <v>1</v>
+      </c>
+      <c r="X135" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="Y135" t="s">
+      <c r="Y135" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Z135">
+      <c r="Z135" s="1">
         <v>3</v>
       </c>
-      <c r="AA135">
-        <v>1</v>
-      </c>
-      <c r="AB135">
-        <v>0</v>
-      </c>
-      <c r="AC135" t="s">
+      <c r="AA135" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB135" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC135" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AD135" t="s">
+      <c r="AD135" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AG135" s="2"/>
-      <c r="AH135" s="2">
+      <c r="AG135" s="4"/>
+      <c r="AH135" s="4">
         <v>14.0728476821191</v>
       </c>
-      <c r="AI135" t="s">
+      <c r="AI135" s="1" t="s">
         <v>171</v>
       </c>
       <c r="AJ135" s="1" t="s">
@@ -13872,100 +13874,100 @@
         <v>206</v>
       </c>
     </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>2</v>
       </c>
-      <c r="B136">
-        <v>2</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="B136" s="1">
+        <v>2</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E136">
-        <v>1</v>
-      </c>
-      <c r="F136">
-        <v>1</v>
-      </c>
-      <c r="G136">
-        <v>1</v>
-      </c>
-      <c r="H136">
+      <c r="E136" s="1">
+        <v>1</v>
+      </c>
+      <c r="F136" s="1">
+        <v>1</v>
+      </c>
+      <c r="G136" s="1">
+        <v>1</v>
+      </c>
+      <c r="H136" s="1">
         <v>37</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="1">
         <v>33</v>
       </c>
-      <c r="J136">
+      <c r="J136" s="1">
         <v>26</v>
       </c>
-      <c r="K136">
+      <c r="K136" s="1">
         <v>40</v>
       </c>
-      <c r="L136">
+      <c r="L136" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M136">
-        <v>24</v>
-      </c>
-      <c r="N136" t="s">
+      <c r="M136" s="1">
+        <v>24</v>
+      </c>
+      <c r="N136" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O136" t="s">
+      <c r="O136" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="P136">
+      <c r="P136" s="1">
         <v>1541593693</v>
       </c>
-      <c r="Q136">
+      <c r="Q136" s="1">
         <v>254691843.90000001</v>
       </c>
-      <c r="R136">
+      <c r="R136" s="1">
         <v>492030391.80000001</v>
       </c>
-      <c r="T136">
+      <c r="T136" s="1">
         <v>3</v>
       </c>
-      <c r="U136">
+      <c r="U136" s="1">
         <v>3</v>
       </c>
-      <c r="V136">
-        <v>1</v>
-      </c>
-      <c r="W136">
-        <v>1</v>
-      </c>
-      <c r="X136" t="s">
+      <c r="V136" s="1">
+        <v>1</v>
+      </c>
+      <c r="W136" s="1">
+        <v>1</v>
+      </c>
+      <c r="X136" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="Y136" t="s">
+      <c r="Y136" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Z136">
+      <c r="Z136" s="1">
         <v>3</v>
       </c>
-      <c r="AA136">
-        <v>1</v>
-      </c>
-      <c r="AB136">
-        <v>0</v>
-      </c>
-      <c r="AC136" t="s">
+      <c r="AA136" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB136" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC136" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AD136" t="s">
+      <c r="AD136" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AG136" s="2"/>
-      <c r="AH136" s="2">
+      <c r="AG136" s="4"/>
+      <c r="AH136" s="4">
         <v>14.0728476821191</v>
       </c>
-      <c r="AI136" t="s">
+      <c r="AI136" s="1" t="s">
         <v>171</v>
       </c>
       <c r="AJ136" s="1" t="s">
@@ -13975,96 +13977,96 @@
         <v>202</v>
       </c>
     </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>2</v>
       </c>
-      <c r="B137">
-        <v>2</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="B137" s="1">
+        <v>2</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E137">
-        <v>1</v>
-      </c>
-      <c r="F137">
-        <v>1</v>
-      </c>
-      <c r="G137">
-        <v>1</v>
-      </c>
-      <c r="H137">
+      <c r="E137" s="1">
+        <v>1</v>
+      </c>
+      <c r="F137" s="1">
+        <v>1</v>
+      </c>
+      <c r="G137" s="1">
+        <v>1</v>
+      </c>
+      <c r="H137" s="1">
         <v>37</v>
       </c>
-      <c r="I137">
+      <c r="I137" s="1">
         <v>7</v>
       </c>
-      <c r="J137">
-        <v>0</v>
-      </c>
-      <c r="K137">
+      <c r="J137" s="1">
+        <v>0</v>
+      </c>
+      <c r="K137" s="1">
         <v>14</v>
       </c>
-      <c r="L137">
+      <c r="L137" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M137">
-        <v>24</v>
-      </c>
-      <c r="N137" t="s">
+      <c r="M137" s="1">
+        <v>24</v>
+      </c>
+      <c r="N137" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="O137" t="s">
+      <c r="O137" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="P137">
+      <c r="P137" s="1">
         <v>-5.0359712000000001E-2</v>
       </c>
-      <c r="Q137">
+      <c r="Q137" s="1">
         <v>-7.7697842000000003E-2</v>
       </c>
-      <c r="R137">
+      <c r="R137" s="1">
         <v>1.3669064999999999E-2</v>
       </c>
-      <c r="S137">
+      <c r="S137" s="1">
         <v>1.9424460000000001E-2</v>
       </c>
-      <c r="T137">
+      <c r="T137" s="1">
         <v>3</v>
       </c>
-      <c r="U137">
+      <c r="U137" s="1">
         <v>3</v>
       </c>
-      <c r="V137">
-        <v>1</v>
-      </c>
-      <c r="W137">
-        <v>1</v>
-      </c>
-      <c r="X137" t="s">
+      <c r="V137" s="1">
+        <v>1</v>
+      </c>
+      <c r="W137" s="1">
+        <v>1</v>
+      </c>
+      <c r="X137" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Y137" t="s">
+      <c r="Y137" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Z137">
+      <c r="Z137" s="1">
         <v>3</v>
       </c>
-      <c r="AA137">
-        <v>1</v>
-      </c>
-      <c r="AB137">
-        <v>0</v>
-      </c>
-      <c r="AC137" t="s">
+      <c r="AA137" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB137" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC137" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AD137" t="s">
+      <c r="AD137" s="1" t="s">
         <v>170</v>
       </c>
       <c r="AJ137" s="1" t="s">
@@ -14074,96 +14076,96 @@
         <v>206</v>
       </c>
     </row>
-    <row r="138" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>2</v>
       </c>
-      <c r="B138">
-        <v>2</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="B138" s="1">
+        <v>2</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E138">
-        <v>1</v>
-      </c>
-      <c r="F138">
-        <v>1</v>
-      </c>
-      <c r="G138">
-        <v>1</v>
-      </c>
-      <c r="H138">
+      <c r="E138" s="1">
+        <v>1</v>
+      </c>
+      <c r="F138" s="1">
+        <v>1</v>
+      </c>
+      <c r="G138" s="1">
+        <v>1</v>
+      </c>
+      <c r="H138" s="1">
         <v>37</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="1">
         <v>16</v>
       </c>
-      <c r="J138">
+      <c r="J138" s="1">
         <v>9</v>
       </c>
-      <c r="K138">
+      <c r="K138" s="1">
         <v>23</v>
       </c>
-      <c r="L138">
+      <c r="L138" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M138">
-        <v>24</v>
-      </c>
-      <c r="N138" t="s">
+      <c r="M138" s="1">
+        <v>24</v>
+      </c>
+      <c r="N138" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="O138" t="s">
+      <c r="O138" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="P138">
+      <c r="P138" s="1">
         <v>-0.10647482</v>
       </c>
-      <c r="Q138">
+      <c r="Q138" s="1">
         <v>-0.12805755399999999</v>
       </c>
-      <c r="R138">
+      <c r="R138" s="1">
         <v>2.8776980000000001E-3</v>
       </c>
-      <c r="S138">
+      <c r="S138" s="1">
         <v>3.5971219999999999E-3</v>
       </c>
-      <c r="T138">
+      <c r="T138" s="1">
         <v>3</v>
       </c>
-      <c r="U138">
+      <c r="U138" s="1">
         <v>3</v>
       </c>
-      <c r="V138">
-        <v>1</v>
-      </c>
-      <c r="W138">
-        <v>1</v>
-      </c>
-      <c r="X138" t="s">
+      <c r="V138" s="1">
+        <v>1</v>
+      </c>
+      <c r="W138" s="1">
+        <v>1</v>
+      </c>
+      <c r="X138" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Y138" t="s">
+      <c r="Y138" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Z138">
+      <c r="Z138" s="1">
         <v>3</v>
       </c>
-      <c r="AA138">
-        <v>1</v>
-      </c>
-      <c r="AB138">
-        <v>0</v>
-      </c>
-      <c r="AC138" t="s">
+      <c r="AA138" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB138" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC138" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AD138" t="s">
+      <c r="AD138" s="1" t="s">
         <v>170</v>
       </c>
       <c r="AJ138" s="1" t="s">
@@ -14173,90 +14175,90 @@
         <v>206</v>
       </c>
     </row>
-    <row r="139" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>2</v>
       </c>
-      <c r="B139">
-        <v>2</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="B139" s="1">
+        <v>2</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E139">
-        <v>1</v>
-      </c>
-      <c r="F139">
-        <v>1</v>
-      </c>
-      <c r="G139">
-        <v>1</v>
-      </c>
-      <c r="H139">
+      <c r="E139" s="1">
+        <v>1</v>
+      </c>
+      <c r="F139" s="1">
+        <v>1</v>
+      </c>
+      <c r="G139" s="1">
+        <v>1</v>
+      </c>
+      <c r="H139" s="1">
         <v>37</v>
       </c>
-      <c r="I139">
+      <c r="I139" s="1">
         <v>23</v>
       </c>
-      <c r="J139">
+      <c r="J139" s="1">
         <v>16</v>
       </c>
-      <c r="K139">
+      <c r="K139" s="1">
         <v>30</v>
       </c>
-      <c r="L139">
+      <c r="L139" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M139">
-        <v>24</v>
-      </c>
-      <c r="N139" t="s">
+      <c r="M139" s="1">
+        <v>24</v>
+      </c>
+      <c r="N139" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="O139" t="s">
+      <c r="O139" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="P139">
+      <c r="P139" s="1">
         <v>-0.161151079</v>
       </c>
-      <c r="Q139">
+      <c r="Q139" s="1">
         <v>-0.18920863299999999</v>
       </c>
-      <c r="T139">
+      <c r="T139" s="1">
         <v>3</v>
       </c>
-      <c r="U139">
+      <c r="U139" s="1">
         <v>3</v>
       </c>
-      <c r="V139">
-        <v>1</v>
-      </c>
-      <c r="W139">
-        <v>1</v>
-      </c>
-      <c r="X139" t="s">
+      <c r="V139" s="1">
+        <v>1</v>
+      </c>
+      <c r="W139" s="1">
+        <v>1</v>
+      </c>
+      <c r="X139" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Y139" t="s">
+      <c r="Y139" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Z139">
+      <c r="Z139" s="1">
         <v>3</v>
       </c>
-      <c r="AA139">
-        <v>1</v>
-      </c>
-      <c r="AB139">
-        <v>0</v>
-      </c>
-      <c r="AC139" t="s">
+      <c r="AA139" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB139" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC139" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AD139" t="s">
+      <c r="AD139" s="1" t="s">
         <v>170</v>
       </c>
       <c r="AJ139" s="1" t="s">
@@ -14266,96 +14268,96 @@
         <v>206</v>
       </c>
     </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>2</v>
       </c>
-      <c r="B140">
-        <v>2</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B140" s="1">
+        <v>2</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E140">
-        <v>1</v>
-      </c>
-      <c r="F140">
-        <v>1</v>
-      </c>
-      <c r="G140">
-        <v>1</v>
-      </c>
-      <c r="H140">
+      <c r="E140" s="1">
+        <v>1</v>
+      </c>
+      <c r="F140" s="1">
+        <v>1</v>
+      </c>
+      <c r="G140" s="1">
+        <v>1</v>
+      </c>
+      <c r="H140" s="1">
         <v>37</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="1">
         <v>7</v>
       </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
-      <c r="K140">
+      <c r="J140" s="1">
+        <v>0</v>
+      </c>
+      <c r="K140" s="1">
         <v>14</v>
       </c>
-      <c r="L140">
+      <c r="L140" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M140">
-        <v>24</v>
-      </c>
-      <c r="N140" t="s">
+      <c r="M140" s="1">
+        <v>24</v>
+      </c>
+      <c r="N140" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="O140" t="s">
+      <c r="O140" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="P140">
+      <c r="P140" s="1">
         <v>-1.8587361E-2</v>
       </c>
-      <c r="Q140">
+      <c r="Q140" s="1">
         <v>-3.3457249000000001E-2</v>
       </c>
-      <c r="R140">
+      <c r="R140" s="1">
         <v>2.973978E-3</v>
       </c>
-      <c r="S140">
+      <c r="S140" s="1">
         <v>3.7174719999999999E-3</v>
       </c>
-      <c r="T140">
+      <c r="T140" s="1">
         <v>3</v>
       </c>
-      <c r="U140">
+      <c r="U140" s="1">
         <v>3</v>
       </c>
-      <c r="V140">
-        <v>1</v>
-      </c>
-      <c r="W140">
-        <v>1</v>
-      </c>
-      <c r="X140" t="s">
+      <c r="V140" s="1">
+        <v>1</v>
+      </c>
+      <c r="W140" s="1">
+        <v>1</v>
+      </c>
+      <c r="X140" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="Y140" t="s">
+      <c r="Y140" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Z140">
+      <c r="Z140" s="1">
         <v>3</v>
       </c>
-      <c r="AA140">
-        <v>1</v>
-      </c>
-      <c r="AB140">
-        <v>0</v>
-      </c>
-      <c r="AC140" t="s">
+      <c r="AA140" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB140" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC140" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AD140" t="s">
+      <c r="AD140" s="1" t="s">
         <v>170</v>
       </c>
       <c r="AJ140" s="1" t="s">
@@ -14365,93 +14367,93 @@
         <v>206</v>
       </c>
     </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>2</v>
       </c>
-      <c r="B141">
-        <v>2</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="B141" s="1">
+        <v>2</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E141">
-        <v>1</v>
-      </c>
-      <c r="F141">
-        <v>1</v>
-      </c>
-      <c r="G141">
-        <v>1</v>
-      </c>
-      <c r="H141">
+      <c r="E141" s="1">
+        <v>1</v>
+      </c>
+      <c r="F141" s="1">
+        <v>1</v>
+      </c>
+      <c r="G141" s="1">
+        <v>1</v>
+      </c>
+      <c r="H141" s="1">
         <v>37</v>
       </c>
-      <c r="I141">
+      <c r="I141" s="1">
         <v>16</v>
       </c>
-      <c r="J141">
+      <c r="J141" s="1">
         <v>9</v>
       </c>
-      <c r="K141">
+      <c r="K141" s="1">
         <v>23</v>
       </c>
-      <c r="L141">
+      <c r="L141" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M141">
-        <v>24</v>
-      </c>
-      <c r="N141" t="s">
+      <c r="M141" s="1">
+        <v>24</v>
+      </c>
+      <c r="N141" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="O141" t="s">
+      <c r="O141" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="P141">
+      <c r="P141" s="1">
         <v>-5.7249070999999999E-2</v>
       </c>
-      <c r="Q141">
+      <c r="Q141" s="1">
         <v>-6.7657993E-2</v>
       </c>
-      <c r="R141">
+      <c r="R141" s="1">
         <v>2.973978E-3</v>
       </c>
-      <c r="T141">
+      <c r="T141" s="1">
         <v>3</v>
       </c>
-      <c r="U141">
+      <c r="U141" s="1">
         <v>3</v>
       </c>
-      <c r="V141">
-        <v>1</v>
-      </c>
-      <c r="W141">
-        <v>1</v>
-      </c>
-      <c r="X141" t="s">
+      <c r="V141" s="1">
+        <v>1</v>
+      </c>
+      <c r="W141" s="1">
+        <v>1</v>
+      </c>
+      <c r="X141" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="Y141" t="s">
+      <c r="Y141" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Z141">
+      <c r="Z141" s="1">
         <v>3</v>
       </c>
-      <c r="AA141">
-        <v>1</v>
-      </c>
-      <c r="AB141">
-        <v>0</v>
-      </c>
-      <c r="AC141" t="s">
+      <c r="AA141" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB141" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC141" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AD141" t="s">
+      <c r="AD141" s="1" t="s">
         <v>170</v>
       </c>
       <c r="AJ141" s="1" t="s">
@@ -14461,96 +14463,96 @@
         <v>206</v>
       </c>
     </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>2</v>
       </c>
-      <c r="B142">
-        <v>2</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="B142" s="1">
+        <v>2</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E142">
-        <v>1</v>
-      </c>
-      <c r="F142">
-        <v>1</v>
-      </c>
-      <c r="G142">
-        <v>1</v>
-      </c>
-      <c r="H142">
+      <c r="E142" s="1">
+        <v>1</v>
+      </c>
+      <c r="F142" s="1">
+        <v>1</v>
+      </c>
+      <c r="G142" s="1">
+        <v>1</v>
+      </c>
+      <c r="H142" s="1">
         <v>37</v>
       </c>
-      <c r="I142">
+      <c r="I142" s="1">
         <v>23</v>
       </c>
-      <c r="J142">
+      <c r="J142" s="1">
         <v>16</v>
       </c>
-      <c r="K142">
+      <c r="K142" s="1">
         <v>30</v>
       </c>
-      <c r="L142">
+      <c r="L142" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M142">
-        <v>24</v>
-      </c>
-      <c r="N142" t="s">
+      <c r="M142" s="1">
+        <v>24</v>
+      </c>
+      <c r="N142" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="O142" t="s">
+      <c r="O142" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="P142">
+      <c r="P142" s="1">
         <v>-9.1449814000000004E-2</v>
       </c>
-      <c r="Q142">
+      <c r="Q142" s="1">
         <v>-9.8884758000000003E-2</v>
       </c>
-      <c r="R142">
+      <c r="R142" s="1">
         <v>7.4349439999999998E-3</v>
       </c>
-      <c r="S142">
+      <c r="S142" s="1">
         <v>6.6914499999999998E-3</v>
       </c>
-      <c r="T142">
+      <c r="T142" s="1">
         <v>3</v>
       </c>
-      <c r="U142">
+      <c r="U142" s="1">
         <v>3</v>
       </c>
-      <c r="V142">
-        <v>1</v>
-      </c>
-      <c r="W142">
-        <v>1</v>
-      </c>
-      <c r="X142" t="s">
+      <c r="V142" s="1">
+        <v>1</v>
+      </c>
+      <c r="W142" s="1">
+        <v>1</v>
+      </c>
+      <c r="X142" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="Y142" t="s">
+      <c r="Y142" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Z142">
+      <c r="Z142" s="1">
         <v>3</v>
       </c>
-      <c r="AA142">
-        <v>1</v>
-      </c>
-      <c r="AB142">
-        <v>0</v>
-      </c>
-      <c r="AC142" t="s">
+      <c r="AA142" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB142" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC142" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AD142" t="s">
+      <c r="AD142" s="1" t="s">
         <v>170</v>
       </c>
       <c r="AJ142" s="1" t="s">
@@ -14560,93 +14562,93 @@
         <v>206</v>
       </c>
     </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>2</v>
       </c>
-      <c r="B143">
-        <v>2</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="B143" s="1">
+        <v>2</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E143">
-        <v>1</v>
-      </c>
-      <c r="F143">
-        <v>1</v>
-      </c>
-      <c r="G143">
-        <v>1</v>
-      </c>
-      <c r="H143">
+      <c r="E143" s="1">
+        <v>1</v>
+      </c>
+      <c r="F143" s="1">
+        <v>1</v>
+      </c>
+      <c r="G143" s="1">
+        <v>1</v>
+      </c>
+      <c r="H143" s="1">
         <v>37</v>
       </c>
-      <c r="I143">
+      <c r="I143" s="1">
         <v>7</v>
       </c>
-      <c r="J143">
-        <v>0</v>
-      </c>
-      <c r="K143">
+      <c r="J143" s="1">
+        <v>0</v>
+      </c>
+      <c r="K143" s="1">
         <v>14</v>
       </c>
-      <c r="L143">
+      <c r="L143" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M143">
-        <v>24</v>
-      </c>
-      <c r="N143" t="s">
+      <c r="M143" s="1">
+        <v>24</v>
+      </c>
+      <c r="N143" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="O143" t="s">
+      <c r="O143" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="P143">
+      <c r="P143" s="1">
         <v>-5.4901960999999999E-2</v>
       </c>
-      <c r="Q143">
+      <c r="Q143" s="1">
         <v>-3.1372549E-2</v>
       </c>
-      <c r="R143">
+      <c r="R143" s="1">
         <v>3.3333333E-2</v>
       </c>
-      <c r="T143">
+      <c r="T143" s="1">
         <v>3</v>
       </c>
-      <c r="U143">
+      <c r="U143" s="1">
         <v>3</v>
       </c>
-      <c r="V143">
-        <v>1</v>
-      </c>
-      <c r="W143">
-        <v>1</v>
-      </c>
-      <c r="X143" t="s">
+      <c r="V143" s="1">
+        <v>1</v>
+      </c>
+      <c r="W143" s="1">
+        <v>1</v>
+      </c>
+      <c r="X143" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Y143" t="s">
+      <c r="Y143" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Z143">
+      <c r="Z143" s="1">
         <v>3</v>
       </c>
-      <c r="AA143">
-        <v>1</v>
-      </c>
-      <c r="AB143">
-        <v>0</v>
-      </c>
-      <c r="AC143" t="s">
+      <c r="AA143" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB143" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC143" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AD143" t="s">
+      <c r="AD143" s="1" t="s">
         <v>175</v>
       </c>
       <c r="AJ143" s="1" t="s">
@@ -14656,96 +14658,96 @@
         <v>206</v>
       </c>
     </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>2</v>
       </c>
-      <c r="B144">
-        <v>2</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="B144" s="1">
+        <v>2</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-      <c r="F144">
-        <v>1</v>
-      </c>
-      <c r="G144">
-        <v>1</v>
-      </c>
-      <c r="H144">
+      <c r="E144" s="1">
+        <v>1</v>
+      </c>
+      <c r="F144" s="1">
+        <v>1</v>
+      </c>
+      <c r="G144" s="1">
+        <v>1</v>
+      </c>
+      <c r="H144" s="1">
         <v>37</v>
       </c>
-      <c r="I144">
+      <c r="I144" s="1">
         <v>16</v>
       </c>
-      <c r="J144">
+      <c r="J144" s="1">
         <v>9</v>
       </c>
-      <c r="K144">
+      <c r="K144" s="1">
         <v>23</v>
       </c>
-      <c r="L144">
+      <c r="L144" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M144">
-        <v>24</v>
-      </c>
-      <c r="N144" t="s">
+      <c r="M144" s="1">
+        <v>24</v>
+      </c>
+      <c r="N144" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="O144" t="s">
+      <c r="O144" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="P144">
+      <c r="P144" s="1">
         <v>0.27254901999999998</v>
       </c>
-      <c r="Q144">
+      <c r="Q144" s="1">
         <v>0.156862745</v>
       </c>
-      <c r="R144">
+      <c r="R144" s="1">
         <v>5.8823528999999999E-2</v>
       </c>
-      <c r="S144">
+      <c r="S144" s="1">
         <v>3.2352941000000003E-2</v>
       </c>
-      <c r="T144">
+      <c r="T144" s="1">
         <v>3</v>
       </c>
-      <c r="U144">
+      <c r="U144" s="1">
         <v>3</v>
       </c>
-      <c r="V144">
-        <v>1</v>
-      </c>
-      <c r="W144">
-        <v>1</v>
-      </c>
-      <c r="X144" t="s">
+      <c r="V144" s="1">
+        <v>1</v>
+      </c>
+      <c r="W144" s="1">
+        <v>1</v>
+      </c>
+      <c r="X144" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Y144" t="s">
+      <c r="Y144" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Z144">
+      <c r="Z144" s="1">
         <v>3</v>
       </c>
-      <c r="AA144">
-        <v>1</v>
-      </c>
-      <c r="AB144">
-        <v>0</v>
-      </c>
-      <c r="AC144" t="s">
+      <c r="AA144" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC144" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AD144" t="s">
+      <c r="AD144" s="1" t="s">
         <v>175</v>
       </c>
       <c r="AJ144" s="1" t="s">
@@ -14755,93 +14757,93 @@
         <v>206</v>
       </c>
     </row>
-    <row r="145" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>2</v>
       </c>
-      <c r="B145">
-        <v>2</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="B145" s="1">
+        <v>2</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E145">
-        <v>1</v>
-      </c>
-      <c r="F145">
-        <v>1</v>
-      </c>
-      <c r="G145">
-        <v>1</v>
-      </c>
-      <c r="H145">
+      <c r="E145" s="1">
+        <v>1</v>
+      </c>
+      <c r="F145" s="1">
+        <v>1</v>
+      </c>
+      <c r="G145" s="1">
+        <v>1</v>
+      </c>
+      <c r="H145" s="1">
         <v>37</v>
       </c>
-      <c r="I145">
+      <c r="I145" s="1">
         <v>23</v>
       </c>
-      <c r="J145">
+      <c r="J145" s="1">
         <v>16</v>
       </c>
-      <c r="K145">
+      <c r="K145" s="1">
         <v>30</v>
       </c>
-      <c r="L145">
+      <c r="L145" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M145">
-        <v>24</v>
-      </c>
-      <c r="N145" t="s">
+      <c r="M145" s="1">
+        <v>24</v>
+      </c>
+      <c r="N145" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="O145" t="s">
+      <c r="O145" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="P145">
+      <c r="P145" s="1">
         <v>0.16078431400000001</v>
       </c>
-      <c r="Q145">
-        <v>0</v>
-      </c>
-      <c r="R145">
+      <c r="Q145" s="1">
+        <v>0</v>
+      </c>
+      <c r="R145" s="1">
         <v>4.9019607999999999E-2</v>
       </c>
-      <c r="T145">
+      <c r="T145" s="1">
         <v>3</v>
       </c>
-      <c r="U145">
+      <c r="U145" s="1">
         <v>3</v>
       </c>
-      <c r="V145">
-        <v>1</v>
-      </c>
-      <c r="W145">
-        <v>1</v>
-      </c>
-      <c r="X145" t="s">
+      <c r="V145" s="1">
+        <v>1</v>
+      </c>
+      <c r="W145" s="1">
+        <v>1</v>
+      </c>
+      <c r="X145" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Y145" t="s">
+      <c r="Y145" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Z145">
+      <c r="Z145" s="1">
         <v>3</v>
       </c>
-      <c r="AA145">
-        <v>1</v>
-      </c>
-      <c r="AB145">
-        <v>0</v>
-      </c>
-      <c r="AC145" t="s">
+      <c r="AA145" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC145" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AD145" t="s">
+      <c r="AD145" s="1" t="s">
         <v>175</v>
       </c>
       <c r="AJ145" s="1" t="s">
@@ -14851,93 +14853,93 @@
         <v>206</v>
       </c>
     </row>
-    <row r="146" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>2</v>
       </c>
-      <c r="B146">
-        <v>2</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="B146" s="1">
+        <v>2</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E146">
-        <v>1</v>
-      </c>
-      <c r="F146">
-        <v>1</v>
-      </c>
-      <c r="G146">
-        <v>1</v>
-      </c>
-      <c r="H146">
+      <c r="E146" s="1">
+        <v>1</v>
+      </c>
+      <c r="F146" s="1">
+        <v>1</v>
+      </c>
+      <c r="G146" s="1">
+        <v>1</v>
+      </c>
+      <c r="H146" s="1">
         <v>37</v>
       </c>
-      <c r="I146">
+      <c r="I146" s="1">
         <v>33</v>
       </c>
-      <c r="J146">
+      <c r="J146" s="1">
         <v>26</v>
       </c>
-      <c r="K146">
+      <c r="K146" s="1">
         <v>40</v>
       </c>
-      <c r="L146">
+      <c r="L146" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M146">
-        <v>24</v>
-      </c>
-      <c r="N146" t="s">
+      <c r="M146" s="1">
+        <v>24</v>
+      </c>
+      <c r="N146" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="O146" t="s">
+      <c r="O146" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="P146">
+      <c r="P146" s="1">
         <v>-4.7058823999999999E-2</v>
       </c>
-      <c r="Q146">
+      <c r="Q146" s="1">
         <v>-0.101960784</v>
       </c>
-      <c r="R146">
+      <c r="R146" s="1">
         <v>8.8235290000000001E-3</v>
       </c>
-      <c r="T146">
+      <c r="T146" s="1">
         <v>3</v>
       </c>
-      <c r="U146">
+      <c r="U146" s="1">
         <v>3</v>
       </c>
-      <c r="V146">
-        <v>1</v>
-      </c>
-      <c r="W146">
-        <v>1</v>
-      </c>
-      <c r="X146" t="s">
+      <c r="V146" s="1">
+        <v>1</v>
+      </c>
+      <c r="W146" s="1">
+        <v>1</v>
+      </c>
+      <c r="X146" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Y146" t="s">
+      <c r="Y146" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Z146">
+      <c r="Z146" s="1">
         <v>3</v>
       </c>
-      <c r="AA146">
-        <v>1</v>
-      </c>
-      <c r="AB146">
-        <v>0</v>
-      </c>
-      <c r="AC146" t="s">
+      <c r="AA146" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB146" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC146" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AD146" t="s">
+      <c r="AD146" s="1" t="s">
         <v>175</v>
       </c>
       <c r="AJ146" s="1" t="s">
@@ -14947,96 +14949,96 @@
         <v>202</v>
       </c>
     </row>
-    <row r="147" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>2</v>
       </c>
-      <c r="B147">
-        <v>2</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="B147" s="1">
+        <v>2</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E147">
-        <v>1</v>
-      </c>
-      <c r="F147">
-        <v>1</v>
-      </c>
-      <c r="G147">
-        <v>1</v>
-      </c>
-      <c r="H147">
+      <c r="E147" s="1">
+        <v>1</v>
+      </c>
+      <c r="F147" s="1">
+        <v>1</v>
+      </c>
+      <c r="G147" s="1">
+        <v>1</v>
+      </c>
+      <c r="H147" s="1">
         <v>37</v>
       </c>
-      <c r="I147">
+      <c r="I147" s="1">
         <v>7</v>
       </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
-      <c r="K147">
+      <c r="J147" s="1">
+        <v>0</v>
+      </c>
+      <c r="K147" s="1">
         <v>14</v>
       </c>
-      <c r="L147">
+      <c r="L147" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M147">
-        <v>24</v>
-      </c>
-      <c r="N147" t="s">
+      <c r="M147" s="1">
+        <v>24</v>
+      </c>
+      <c r="N147" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="O147" t="s">
+      <c r="O147" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="P147">
+      <c r="P147" s="1">
         <v>-0.160526316</v>
       </c>
-      <c r="Q147">
+      <c r="Q147" s="1">
         <v>-0.11447368400000001</v>
       </c>
-      <c r="R147">
+      <c r="R147" s="1">
         <v>9.6710526000000005E-2</v>
       </c>
-      <c r="S147">
+      <c r="S147" s="1">
         <v>5.9868420999999998E-2</v>
       </c>
-      <c r="T147">
+      <c r="T147" s="1">
         <v>3</v>
       </c>
-      <c r="U147">
+      <c r="U147" s="1">
         <v>3</v>
       </c>
-      <c r="V147">
-        <v>1</v>
-      </c>
-      <c r="W147">
-        <v>1</v>
-      </c>
-      <c r="X147" t="s">
+      <c r="V147" s="1">
+        <v>1</v>
+      </c>
+      <c r="W147" s="1">
+        <v>1</v>
+      </c>
+      <c r="X147" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="Y147" t="s">
+      <c r="Y147" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Z147">
+      <c r="Z147" s="1">
         <v>3</v>
       </c>
-      <c r="AA147">
-        <v>1</v>
-      </c>
-      <c r="AB147">
-        <v>0</v>
-      </c>
-      <c r="AC147" t="s">
+      <c r="AA147" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC147" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AD147" t="s">
+      <c r="AD147" s="1" t="s">
         <v>175</v>
       </c>
       <c r="AJ147" s="1" t="s">
@@ -15046,96 +15048,96 @@
         <v>206</v>
       </c>
     </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>2</v>
       </c>
-      <c r="B148">
-        <v>2</v>
-      </c>
-      <c r="C148" t="s">
+      <c r="B148" s="1">
+        <v>2</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E148">
-        <v>1</v>
-      </c>
-      <c r="F148">
-        <v>1</v>
-      </c>
-      <c r="G148">
-        <v>1</v>
-      </c>
-      <c r="H148">
+      <c r="E148" s="1">
+        <v>1</v>
+      </c>
+      <c r="F148" s="1">
+        <v>1</v>
+      </c>
+      <c r="G148" s="1">
+        <v>1</v>
+      </c>
+      <c r="H148" s="1">
         <v>37</v>
       </c>
-      <c r="I148">
+      <c r="I148" s="1">
         <v>16</v>
       </c>
-      <c r="J148">
+      <c r="J148" s="1">
         <v>9</v>
       </c>
-      <c r="K148">
+      <c r="K148" s="1">
         <v>23</v>
       </c>
-      <c r="L148">
+      <c r="L148" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M148">
-        <v>24</v>
-      </c>
-      <c r="N148" t="s">
+      <c r="M148" s="1">
+        <v>24</v>
+      </c>
+      <c r="N148" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="O148" t="s">
+      <c r="O148" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="P148">
+      <c r="P148" s="1">
         <v>0.714473684</v>
       </c>
-      <c r="Q148">
+      <c r="Q148" s="1">
         <v>0.66842105299999999</v>
       </c>
-      <c r="R148">
+      <c r="R148" s="1">
         <v>4.1447367999999998E-2</v>
       </c>
-      <c r="S148">
+      <c r="S148" s="1">
         <v>5.9868420999999998E-2</v>
       </c>
-      <c r="T148">
+      <c r="T148" s="1">
         <v>3</v>
       </c>
-      <c r="U148">
+      <c r="U148" s="1">
         <v>3</v>
       </c>
-      <c r="V148">
-        <v>1</v>
-      </c>
-      <c r="W148">
-        <v>1</v>
-      </c>
-      <c r="X148" t="s">
+      <c r="V148" s="1">
+        <v>1</v>
+      </c>
+      <c r="W148" s="1">
+        <v>1</v>
+      </c>
+      <c r="X148" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="Y148" t="s">
+      <c r="Y148" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Z148">
+      <c r="Z148" s="1">
         <v>3</v>
       </c>
-      <c r="AA148">
-        <v>1</v>
-      </c>
-      <c r="AB148">
-        <v>0</v>
-      </c>
-      <c r="AC148" t="s">
+      <c r="AA148" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC148" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AD148" t="s">
+      <c r="AD148" s="1" t="s">
         <v>175</v>
       </c>
       <c r="AJ148" s="1" t="s">
@@ -15145,96 +15147,96 @@
         <v>206</v>
       </c>
     </row>
-    <row r="149" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>2</v>
       </c>
-      <c r="B149">
-        <v>2</v>
-      </c>
-      <c r="C149" t="s">
+      <c r="B149" s="1">
+        <v>2</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E149">
-        <v>1</v>
-      </c>
-      <c r="F149">
-        <v>1</v>
-      </c>
-      <c r="G149">
-        <v>1</v>
-      </c>
-      <c r="H149">
+      <c r="E149" s="1">
+        <v>1</v>
+      </c>
+      <c r="F149" s="1">
+        <v>1</v>
+      </c>
+      <c r="G149" s="1">
+        <v>1</v>
+      </c>
+      <c r="H149" s="1">
         <v>37</v>
       </c>
-      <c r="I149">
+      <c r="I149" s="1">
         <v>23</v>
       </c>
-      <c r="J149">
+      <c r="J149" s="1">
         <v>16</v>
       </c>
-      <c r="K149">
+      <c r="K149" s="1">
         <v>30</v>
       </c>
-      <c r="L149">
+      <c r="L149" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M149">
-        <v>24</v>
-      </c>
-      <c r="N149" t="s">
+      <c r="M149" s="1">
+        <v>24</v>
+      </c>
+      <c r="N149" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="O149" t="s">
+      <c r="O149" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="P149">
+      <c r="P149" s="1">
         <v>0.74210526300000001</v>
       </c>
-      <c r="Q149">
+      <c r="Q149" s="1">
         <v>0.34605263200000003</v>
       </c>
-      <c r="R149">
+      <c r="R149" s="1">
         <v>3.9144736999999999E-2</v>
       </c>
-      <c r="S149">
+      <c r="S149" s="1">
         <v>0.115131579</v>
       </c>
-      <c r="T149">
+      <c r="T149" s="1">
         <v>3</v>
       </c>
-      <c r="U149">
+      <c r="U149" s="1">
         <v>3</v>
       </c>
-      <c r="V149">
-        <v>1</v>
-      </c>
-      <c r="W149">
-        <v>1</v>
-      </c>
-      <c r="X149" t="s">
+      <c r="V149" s="1">
+        <v>1</v>
+      </c>
+      <c r="W149" s="1">
+        <v>1</v>
+      </c>
+      <c r="X149" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="Y149" t="s">
+      <c r="Y149" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Z149">
+      <c r="Z149" s="1">
         <v>3</v>
       </c>
-      <c r="AA149">
-        <v>1</v>
-      </c>
-      <c r="AB149">
-        <v>0</v>
-      </c>
-      <c r="AC149" t="s">
+      <c r="AA149" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC149" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AD149" t="s">
+      <c r="AD149" s="1" t="s">
         <v>175</v>
       </c>
       <c r="AJ149" s="1" t="s">
@@ -15244,96 +15246,96 @@
         <v>206</v>
       </c>
     </row>
-    <row r="150" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>2</v>
       </c>
-      <c r="B150">
-        <v>2</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="B150" s="1">
+        <v>2</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E150">
-        <v>1</v>
-      </c>
-      <c r="F150">
-        <v>1</v>
-      </c>
-      <c r="G150">
-        <v>1</v>
-      </c>
-      <c r="H150">
+      <c r="E150" s="1">
+        <v>1</v>
+      </c>
+      <c r="F150" s="1">
+        <v>1</v>
+      </c>
+      <c r="G150" s="1">
+        <v>1</v>
+      </c>
+      <c r="H150" s="1">
         <v>37</v>
       </c>
-      <c r="I150">
+      <c r="I150" s="1">
         <v>33</v>
       </c>
-      <c r="J150">
+      <c r="J150" s="1">
         <v>26</v>
       </c>
-      <c r="K150">
+      <c r="K150" s="1">
         <v>40</v>
       </c>
-      <c r="L150">
+      <c r="L150" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M150">
-        <v>24</v>
-      </c>
-      <c r="N150" t="s">
+      <c r="M150" s="1">
+        <v>24</v>
+      </c>
+      <c r="N150" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="O150" t="s">
+      <c r="O150" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="P150">
+      <c r="P150" s="1">
         <v>0.79736842100000005</v>
       </c>
-      <c r="Q150">
+      <c r="Q150" s="1">
         <v>0.27236842100000003</v>
       </c>
-      <c r="R150">
+      <c r="R150" s="1">
         <v>5.9868420999999998E-2</v>
       </c>
-      <c r="S150">
+      <c r="S150" s="1">
         <v>0.154276316</v>
       </c>
-      <c r="T150">
+      <c r="T150" s="1">
         <v>3</v>
       </c>
-      <c r="U150">
+      <c r="U150" s="1">
         <v>3</v>
       </c>
-      <c r="V150">
-        <v>1</v>
-      </c>
-      <c r="W150">
-        <v>1</v>
-      </c>
-      <c r="X150" t="s">
+      <c r="V150" s="1">
+        <v>1</v>
+      </c>
+      <c r="W150" s="1">
+        <v>1</v>
+      </c>
+      <c r="X150" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="Y150" t="s">
+      <c r="Y150" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Z150">
+      <c r="Z150" s="1">
         <v>3</v>
       </c>
-      <c r="AA150">
-        <v>1</v>
-      </c>
-      <c r="AB150">
-        <v>0</v>
-      </c>
-      <c r="AC150" t="s">
+      <c r="AA150" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC150" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AD150" t="s">
+      <c r="AD150" s="1" t="s">
         <v>175</v>
       </c>
       <c r="AJ150" s="1" t="s">
@@ -15429,7 +15431,7 @@
       <c r="AJ151" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AK151" s="3" t="s">
+      <c r="AK151" s="2" t="s">
         <v>206</v>
       </c>
     </row>
@@ -15519,7 +15521,7 @@
       <c r="AJ152" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AK152" s="3" t="s">
+      <c r="AK152" s="2" t="s">
         <v>206</v>
       </c>
     </row>
@@ -15612,7 +15614,7 @@
       <c r="AJ153" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AK153" s="3" t="s">
+      <c r="AK153" s="2" t="s">
         <v>202</v>
       </c>
     </row>
@@ -15705,7 +15707,7 @@
       <c r="AJ154" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AK154" s="3" t="s">
+      <c r="AK154" s="2" t="s">
         <v>202</v>
       </c>
     </row>
@@ -15798,7 +15800,7 @@
       <c r="AJ155" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AK155" s="3" t="s">
+      <c r="AK155" s="2" t="s">
         <v>202</v>
       </c>
     </row>
@@ -15891,7 +15893,7 @@
       <c r="AJ156" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AK156" s="3" t="s">
+      <c r="AK156" s="2" t="s">
         <v>206</v>
       </c>
     </row>
@@ -15984,7 +15986,7 @@
       <c r="AJ157" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AK157" s="3" t="s">
+      <c r="AK157" s="2" t="s">
         <v>206</v>
       </c>
     </row>
@@ -16077,7 +16079,7 @@
       <c r="AJ158" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AK158" s="3" t="s">
+      <c r="AK158" s="2" t="s">
         <v>206</v>
       </c>
     </row>

--- a/shared analysis files /metafor.xlsx
+++ b/shared analysis files /metafor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/shared analysis files /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421A892F-5F81-9945-92F6-4529B65FC9C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ABC6E8-7B93-9A4C-9641-AB15329A9035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="460" windowWidth="24000" windowHeight="15900" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
+    <workbookView xWindow="29880" yWindow="-5960" windowWidth="24000" windowHeight="15900" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
   </bookViews>
   <sheets>
     <sheet name="metafor" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="213">
   <si>
     <t>study_id</t>
   </si>
@@ -646,12 +646,33 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>Figure 2</t>
+  </si>
+  <si>
+    <t>bernhardt_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population growth rate </t>
+  </si>
+  <si>
+    <t>population growth rate day^-1</t>
+  </si>
+  <si>
+    <t>Tetraselmis</t>
+  </si>
+  <si>
+    <t>tetrahele</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -688,12 +709,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,11 +1030,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCFBC2B-929F-FD41-8C91-75842D1EBA74}">
-  <dimension ref="A1:AK158"/>
+  <dimension ref="A1:AK164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J123" sqref="A123:XFD150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF169" sqref="AF169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13288,7 +13310,7 @@
         <v>23</v>
       </c>
       <c r="L130" s="1">
-        <f t="shared" ref="L130:L158" si="4">K130-J130</f>
+        <f t="shared" ref="L130:L164" si="4">K130-J130</f>
         <v>14</v>
       </c>
       <c r="M130" s="1">
@@ -16081,6 +16103,546 @@
       </c>
       <c r="AK158" s="2" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159" t="s">
+        <v>208</v>
+      </c>
+      <c r="D159" t="s">
+        <v>207</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>16</v>
+      </c>
+      <c r="I159" s="5">
+        <v>5</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>10</v>
+      </c>
+      <c r="L159">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M159">
+        <v>10</v>
+      </c>
+      <c r="N159" t="s">
+        <v>209</v>
+      </c>
+      <c r="O159" t="s">
+        <v>210</v>
+      </c>
+      <c r="P159" s="2">
+        <v>0.28682171000000001</v>
+      </c>
+      <c r="Q159" s="2">
+        <v>0.33247422999999998</v>
+      </c>
+      <c r="R159">
+        <v>0.18143124999999999</v>
+      </c>
+      <c r="S159">
+        <v>0.12064242999999999</v>
+      </c>
+      <c r="T159">
+        <v>9</v>
+      </c>
+      <c r="U159">
+        <v>9</v>
+      </c>
+      <c r="V159">
+        <v>1</v>
+      </c>
+      <c r="W159">
+        <v>1</v>
+      </c>
+      <c r="X159" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y159" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z159">
+        <v>1</v>
+      </c>
+      <c r="AA159">
+        <v>1</v>
+      </c>
+      <c r="AB159">
+        <v>1</v>
+      </c>
+      <c r="AJ159" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="160" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160" t="s">
+        <v>208</v>
+      </c>
+      <c r="D160" t="s">
+        <v>207</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>16</v>
+      </c>
+      <c r="I160" s="5">
+        <v>10</v>
+      </c>
+      <c r="J160">
+        <v>5</v>
+      </c>
+      <c r="K160">
+        <v>15</v>
+      </c>
+      <c r="L160">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M160">
+        <v>10</v>
+      </c>
+      <c r="N160" t="s">
+        <v>209</v>
+      </c>
+      <c r="O160" t="s">
+        <v>210</v>
+      </c>
+      <c r="P160" s="2">
+        <v>0.58914728999999999</v>
+      </c>
+      <c r="Q160" s="2">
+        <v>0.71907215999999996</v>
+      </c>
+      <c r="R160">
+        <v>4.8381670000000002E-2</v>
+      </c>
+      <c r="S160">
+        <v>9.6513940000000006E-2</v>
+      </c>
+      <c r="T160">
+        <v>9</v>
+      </c>
+      <c r="U160">
+        <v>9</v>
+      </c>
+      <c r="V160">
+        <v>1</v>
+      </c>
+      <c r="W160">
+        <v>1</v>
+      </c>
+      <c r="X160" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y160" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z160">
+        <v>1</v>
+      </c>
+      <c r="AA160">
+        <v>1</v>
+      </c>
+      <c r="AB160">
+        <v>1</v>
+      </c>
+      <c r="AJ160" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="161" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161" t="s">
+        <v>208</v>
+      </c>
+      <c r="D161" t="s">
+        <v>207</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>16</v>
+      </c>
+      <c r="I161" s="5">
+        <v>15</v>
+      </c>
+      <c r="J161">
+        <v>10</v>
+      </c>
+      <c r="K161">
+        <v>20</v>
+      </c>
+      <c r="L161">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M161">
+        <v>10</v>
+      </c>
+      <c r="N161" t="s">
+        <v>209</v>
+      </c>
+      <c r="O161" t="s">
+        <v>210</v>
+      </c>
+      <c r="P161" s="2">
+        <v>1.0465116299999999</v>
+      </c>
+      <c r="Q161" s="2">
+        <v>0.88530927999999998</v>
+      </c>
+      <c r="R161">
+        <v>0.13304958</v>
+      </c>
+      <c r="S161">
+        <v>8.4449700000000003E-2</v>
+      </c>
+      <c r="T161">
+        <v>9</v>
+      </c>
+      <c r="U161">
+        <v>9</v>
+      </c>
+      <c r="V161">
+        <v>1</v>
+      </c>
+      <c r="W161">
+        <v>1</v>
+      </c>
+      <c r="X161" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y161" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z161">
+        <v>1</v>
+      </c>
+      <c r="AA161">
+        <v>1</v>
+      </c>
+      <c r="AB161">
+        <v>1</v>
+      </c>
+      <c r="AJ161" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="162" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s">
+        <v>208</v>
+      </c>
+      <c r="D162" t="s">
+        <v>207</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>16</v>
+      </c>
+      <c r="I162" s="5">
+        <v>20</v>
+      </c>
+      <c r="J162">
+        <v>15</v>
+      </c>
+      <c r="K162">
+        <v>25</v>
+      </c>
+      <c r="L162">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M162">
+        <v>10</v>
+      </c>
+      <c r="N162" t="s">
+        <v>209</v>
+      </c>
+      <c r="O162" t="s">
+        <v>210</v>
+      </c>
+      <c r="P162" s="2">
+        <v>1.3139534900000001</v>
+      </c>
+      <c r="Q162" s="2">
+        <v>1.2564432999999999</v>
+      </c>
+      <c r="R162">
+        <v>0.25400373999999998</v>
+      </c>
+      <c r="S162">
+        <v>0.31970242999999998</v>
+      </c>
+      <c r="T162">
+        <v>9</v>
+      </c>
+      <c r="U162">
+        <v>9</v>
+      </c>
+      <c r="V162">
+        <v>1</v>
+      </c>
+      <c r="W162">
+        <v>1</v>
+      </c>
+      <c r="X162" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y162" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z162">
+        <v>1</v>
+      </c>
+      <c r="AA162">
+        <v>1</v>
+      </c>
+      <c r="AB162">
+        <v>1</v>
+      </c>
+      <c r="AJ162" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="163" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163" t="s">
+        <v>208</v>
+      </c>
+      <c r="D163" t="s">
+        <v>207</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>16</v>
+      </c>
+      <c r="I163" s="5">
+        <v>24</v>
+      </c>
+      <c r="J163">
+        <v>19</v>
+      </c>
+      <c r="K163">
+        <v>29</v>
+      </c>
+      <c r="L163">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M163">
+        <v>10</v>
+      </c>
+      <c r="N163" t="s">
+        <v>209</v>
+      </c>
+      <c r="O163" t="s">
+        <v>210</v>
+      </c>
+      <c r="P163" s="2">
+        <v>1.4689922500000001</v>
+      </c>
+      <c r="Q163" s="2">
+        <v>1.1520618600000001</v>
+      </c>
+      <c r="R163">
+        <v>0.2237652</v>
+      </c>
+      <c r="S163">
+        <v>0.28954182000000001</v>
+      </c>
+      <c r="T163">
+        <v>9</v>
+      </c>
+      <c r="U163">
+        <v>9</v>
+      </c>
+      <c r="V163">
+        <v>1</v>
+      </c>
+      <c r="W163">
+        <v>1</v>
+      </c>
+      <c r="X163" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y163" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z163">
+        <v>1</v>
+      </c>
+      <c r="AA163">
+        <v>1</v>
+      </c>
+      <c r="AB163">
+        <v>1</v>
+      </c>
+      <c r="AJ163" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="164" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
+        <v>208</v>
+      </c>
+      <c r="D164" t="s">
+        <v>207</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>16</v>
+      </c>
+      <c r="I164" s="5">
+        <v>27</v>
+      </c>
+      <c r="J164">
+        <v>22</v>
+      </c>
+      <c r="K164">
+        <v>32</v>
+      </c>
+      <c r="L164">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M164">
+        <v>10</v>
+      </c>
+      <c r="N164" t="s">
+        <v>209</v>
+      </c>
+      <c r="O164" t="s">
+        <v>210</v>
+      </c>
+      <c r="P164" s="2">
+        <v>1.5503876000000001</v>
+      </c>
+      <c r="Q164" s="2">
+        <v>0.80412371000000005</v>
+      </c>
+      <c r="R164">
+        <v>9.0715619999999997E-2</v>
+      </c>
+      <c r="S164">
+        <v>0.69972606999999998</v>
+      </c>
+      <c r="T164">
+        <v>9</v>
+      </c>
+      <c r="U164">
+        <v>9</v>
+      </c>
+      <c r="V164">
+        <v>1</v>
+      </c>
+      <c r="W164">
+        <v>1</v>
+      </c>
+      <c r="X164" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y164" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z164">
+        <v>1</v>
+      </c>
+      <c r="AA164">
+        <v>1</v>
+      </c>
+      <c r="AB164">
+        <v>1</v>
+      </c>
+      <c r="AJ164" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/shared analysis files /metafor.xlsx
+++ b/shared analysis files /metafor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/shared analysis files /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ABC6E8-7B93-9A4C-9641-AB15329A9035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66AAEEE-54B7-344D-A254-516BB0A17F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29880" yWindow="-5960" windowWidth="24000" windowHeight="15900" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
+    <workbookView xWindow="28800" yWindow="-12820" windowWidth="24000" windowHeight="15900" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
   </bookViews>
   <sheets>
     <sheet name="metafor" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="219">
   <si>
     <t>study_id</t>
   </si>
@@ -664,6 +664,24 @@
   </si>
   <si>
     <t>tetrahele</t>
+  </si>
+  <si>
+    <t>fabricio2019_thermal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figure 2 </t>
+  </si>
+  <si>
+    <t>RMR</t>
+  </si>
+  <si>
+    <t>ml O2 * kg^-1 *h^-1</t>
+  </si>
+  <si>
+    <t>Crotalus</t>
+  </si>
+  <si>
+    <t>durissus</t>
   </si>
 </sst>
 </file>
@@ -1030,11 +1048,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCFBC2B-929F-FD41-8C91-75842D1EBA74}">
-  <dimension ref="A1:AK164"/>
+  <dimension ref="A1:AK167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF169" sqref="AF169"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S167" sqref="S167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13310,7 +13328,7 @@
         <v>23</v>
       </c>
       <c r="L130" s="1">
-        <f t="shared" ref="L130:L164" si="4">K130-J130</f>
+        <f t="shared" ref="L130:L165" si="4">K130-J130</f>
         <v>14</v>
       </c>
       <c r="M130" s="1">
@@ -16144,7 +16162,7 @@
         <v>10</v>
       </c>
       <c r="M159">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N159" t="s">
         <v>209</v>
@@ -16234,7 +16252,7 @@
         <v>10</v>
       </c>
       <c r="M160">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N160" t="s">
         <v>209</v>
@@ -16324,7 +16342,7 @@
         <v>10</v>
       </c>
       <c r="M161">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N161" t="s">
         <v>209</v>
@@ -16414,7 +16432,7 @@
         <v>10</v>
       </c>
       <c r="M162">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N162" t="s">
         <v>209</v>
@@ -16504,7 +16522,7 @@
         <v>10</v>
       </c>
       <c r="M163">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N163" t="s">
         <v>209</v>
@@ -16594,7 +16612,7 @@
         <v>10</v>
       </c>
       <c r="M164">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N164" t="s">
         <v>209</v>
@@ -16643,6 +16661,267 @@
       </c>
       <c r="AJ164" s="1" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="165" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
+        <v>213</v>
+      </c>
+      <c r="D165" t="s">
+        <v>214</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>25</v>
+      </c>
+      <c r="I165" s="5">
+        <v>20</v>
+      </c>
+      <c r="J165">
+        <v>15</v>
+      </c>
+      <c r="K165">
+        <v>25</v>
+      </c>
+      <c r="L165">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M165">
+        <v>24</v>
+      </c>
+      <c r="N165" t="s">
+        <v>215</v>
+      </c>
+      <c r="O165" t="s">
+        <v>216</v>
+      </c>
+      <c r="P165">
+        <v>13.153153153153101</v>
+      </c>
+      <c r="Q165">
+        <v>11.891891891891801</v>
+      </c>
+      <c r="R165">
+        <v>8.2749416080000007</v>
+      </c>
+      <c r="S165">
+        <v>3.0697364030697787</v>
+      </c>
+      <c r="T165">
+        <v>13</v>
+      </c>
+      <c r="U165">
+        <v>13</v>
+      </c>
+      <c r="V165">
+        <v>1</v>
+      </c>
+      <c r="W165">
+        <v>1</v>
+      </c>
+      <c r="X165" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y165" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z165">
+        <v>1</v>
+      </c>
+      <c r="AA165">
+        <v>2</v>
+      </c>
+      <c r="AB165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166">
+        <v>2</v>
+      </c>
+      <c r="C166" t="s">
+        <v>213</v>
+      </c>
+      <c r="D166" t="s">
+        <v>214</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>25</v>
+      </c>
+      <c r="I166" s="5">
+        <v>25</v>
+      </c>
+      <c r="J166">
+        <v>20</v>
+      </c>
+      <c r="K166">
+        <v>30</v>
+      </c>
+      <c r="L166">
+        <f t="shared" ref="L166:L167" si="5">K166-J166</f>
+        <v>10</v>
+      </c>
+      <c r="M166">
+        <v>24</v>
+      </c>
+      <c r="N166" t="s">
+        <v>215</v>
+      </c>
+      <c r="O166" t="s">
+        <v>216</v>
+      </c>
+      <c r="P166">
+        <v>17.218181818181801</v>
+      </c>
+      <c r="Q166">
+        <v>17.799999999999901</v>
+      </c>
+      <c r="R166">
+        <v>8.9427609427609625</v>
+      </c>
+      <c r="S166">
+        <v>3.0168350168349622</v>
+      </c>
+      <c r="T166">
+        <v>13</v>
+      </c>
+      <c r="U166">
+        <v>13</v>
+      </c>
+      <c r="V166">
+        <v>1</v>
+      </c>
+      <c r="W166">
+        <v>1</v>
+      </c>
+      <c r="X166" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y166" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z166">
+        <v>1</v>
+      </c>
+      <c r="AA166">
+        <v>2</v>
+      </c>
+      <c r="AB166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
+        <v>213</v>
+      </c>
+      <c r="D167" t="s">
+        <v>214</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>25</v>
+      </c>
+      <c r="I167" s="5">
+        <v>30</v>
+      </c>
+      <c r="J167">
+        <v>25</v>
+      </c>
+      <c r="K167">
+        <v>35</v>
+      </c>
+      <c r="L167">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="M167">
+        <v>24</v>
+      </c>
+      <c r="N167" t="s">
+        <v>215</v>
+      </c>
+      <c r="O167" t="s">
+        <v>216</v>
+      </c>
+      <c r="P167">
+        <v>35.698529411764603</v>
+      </c>
+      <c r="Q167">
+        <v>28.75</v>
+      </c>
+      <c r="R167">
+        <v>13.53485838779963</v>
+      </c>
+      <c r="S167">
+        <v>6.8627450980392553</v>
+      </c>
+      <c r="T167">
+        <v>13</v>
+      </c>
+      <c r="U167">
+        <v>13</v>
+      </c>
+      <c r="V167">
+        <v>1</v>
+      </c>
+      <c r="W167">
+        <v>1</v>
+      </c>
+      <c r="X167" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y167" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z167">
+        <v>1</v>
+      </c>
+      <c r="AA167">
+        <v>2</v>
+      </c>
+      <c r="AB167">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/shared analysis files /metafor.xlsx
+++ b/shared analysis files /metafor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/shared analysis files /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66AAEEE-54B7-344D-A254-516BB0A17F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F878ECD-5B85-4946-A87F-95D02C11884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-12820" windowWidth="24000" windowHeight="15900" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
+    <workbookView xWindow="28960" yWindow="-11920" windowWidth="24000" windowHeight="15900" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
   </bookViews>
   <sheets>
     <sheet name="metafor" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="262">
   <si>
     <t>study_id</t>
   </si>
@@ -682,6 +682,135 @@
   </si>
   <si>
     <t>durissus</t>
+  </si>
+  <si>
+    <t>bozinovic2016</t>
+  </si>
+  <si>
+    <t>Figure 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survival </t>
+  </si>
+  <si>
+    <t>bahar2012</t>
+  </si>
+  <si>
+    <t>Third instar to pupa</t>
+  </si>
+  <si>
+    <t>Third instar to adult</t>
+  </si>
+  <si>
+    <t>Adult eclosion to death</t>
+  </si>
+  <si>
+    <t>pupal weight</t>
+  </si>
+  <si>
+    <t>adult weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plutella </t>
+  </si>
+  <si>
+    <t>xylostella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diadegma </t>
+  </si>
+  <si>
+    <t>insulare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 2 </t>
+  </si>
+  <si>
+    <t>Table 4</t>
+  </si>
+  <si>
+    <t>egg to pupa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">egg to adult </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pupal shell weight </t>
+  </si>
+  <si>
+    <t>Figure 3</t>
+  </si>
+  <si>
+    <t>Figure 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortaility </t>
+  </si>
+  <si>
+    <t>Parasitism success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larval mortaility </t>
+  </si>
+  <si>
+    <t>Figure 1a</t>
+  </si>
+  <si>
+    <t>Figure 1b</t>
+  </si>
+  <si>
+    <t>Figure 1c</t>
+  </si>
+  <si>
+    <t>delnat2019</t>
+  </si>
+  <si>
+    <t>insecticide exposure</t>
+  </si>
+  <si>
+    <t>absence</t>
+  </si>
+  <si>
+    <t>presence</t>
+  </si>
+  <si>
+    <t>Culex</t>
+  </si>
+  <si>
+    <t>pipiens</t>
+  </si>
+  <si>
+    <t>dong2008</t>
+  </si>
+  <si>
+    <t>Hexokinase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apostichopus </t>
+  </si>
+  <si>
+    <t>japonicus</t>
+  </si>
+  <si>
+    <t>Pyruvate kinase</t>
+  </si>
+  <si>
+    <t>U mg * prot^-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOD </t>
+  </si>
+  <si>
+    <t>Catalase</t>
+  </si>
+  <si>
+    <t>Hsp70</t>
+  </si>
+  <si>
+    <t>RU^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group mean body weight </t>
   </si>
 </sst>
 </file>
@@ -1048,11 +1177,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCFBC2B-929F-FD41-8C91-75842D1EBA74}">
-  <dimension ref="A1:AK167"/>
+  <dimension ref="A1:AK239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S167" sqref="S167"/>
+      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z237" sqref="Z237:AB239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16785,7 +16914,7 @@
         <v>30</v>
       </c>
       <c r="L166">
-        <f t="shared" ref="L166:L167" si="5">K166-J166</f>
+        <f t="shared" ref="L166:L169" si="5">K166-J166</f>
         <v>10</v>
       </c>
       <c r="M166">
@@ -16921,6 +17050,6118 @@
         <v>2</v>
       </c>
       <c r="AB167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168" t="s">
+        <v>219</v>
+      </c>
+      <c r="D168" t="s">
+        <v>220</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="I168">
+        <v>20</v>
+      </c>
+      <c r="J168">
+        <v>15</v>
+      </c>
+      <c r="K168">
+        <v>25</v>
+      </c>
+      <c r="L168">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="M168">
+        <v>24</v>
+      </c>
+      <c r="N168" t="s">
+        <v>221</v>
+      </c>
+      <c r="O168" t="s">
+        <v>71</v>
+      </c>
+      <c r="P168">
+        <v>97.421731123388597</v>
+      </c>
+      <c r="Q168">
+        <v>94.843462246777094</v>
+      </c>
+      <c r="R168">
+        <v>2.3941068139963022</v>
+      </c>
+      <c r="S168">
+        <v>3.314917127071908</v>
+      </c>
+      <c r="T168">
+        <v>200</v>
+      </c>
+      <c r="U168">
+        <v>200</v>
+      </c>
+      <c r="V168">
+        <v>1</v>
+      </c>
+      <c r="W168">
+        <v>1</v>
+      </c>
+      <c r="X168" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y168" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z168">
+        <v>1</v>
+      </c>
+      <c r="AA168">
+        <v>2</v>
+      </c>
+      <c r="AB168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
+        <v>222</v>
+      </c>
+      <c r="D169" t="s">
+        <v>232</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="I169" s="5">
+        <v>7</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>14</v>
+      </c>
+      <c r="L169">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="M169">
+        <v>24</v>
+      </c>
+      <c r="N169" t="s">
+        <v>223</v>
+      </c>
+      <c r="O169" t="s">
+        <v>42</v>
+      </c>
+      <c r="P169">
+        <v>14.6</v>
+      </c>
+      <c r="Q169">
+        <v>8.81</v>
+      </c>
+      <c r="R169">
+        <v>0.96</v>
+      </c>
+      <c r="S169">
+        <v>1.02</v>
+      </c>
+      <c r="T169">
+        <v>36</v>
+      </c>
+      <c r="U169">
+        <v>36</v>
+      </c>
+      <c r="V169">
+        <v>0</v>
+      </c>
+      <c r="W169">
+        <v>0</v>
+      </c>
+      <c r="X169" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y169" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z169">
+        <v>1</v>
+      </c>
+      <c r="AA169">
+        <v>0</v>
+      </c>
+      <c r="AB169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>2</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170" t="s">
+        <v>222</v>
+      </c>
+      <c r="D170" t="s">
+        <v>232</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="I170" s="5">
+        <v>7</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>14</v>
+      </c>
+      <c r="L170">
+        <f t="shared" ref="L170:L175" si="6">K170-J170</f>
+        <v>14</v>
+      </c>
+      <c r="M170">
+        <v>24</v>
+      </c>
+      <c r="N170" t="s">
+        <v>224</v>
+      </c>
+      <c r="O170" t="s">
+        <v>42</v>
+      </c>
+      <c r="P170">
+        <v>35.1</v>
+      </c>
+      <c r="Q170">
+        <v>25.55</v>
+      </c>
+      <c r="R170">
+        <v>1.37</v>
+      </c>
+      <c r="S170">
+        <v>1.85</v>
+      </c>
+      <c r="T170">
+        <v>36</v>
+      </c>
+      <c r="U170">
+        <v>36</v>
+      </c>
+      <c r="V170">
+        <v>0</v>
+      </c>
+      <c r="W170">
+        <v>0</v>
+      </c>
+      <c r="X170" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y170" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z170">
+        <v>1</v>
+      </c>
+      <c r="AA170">
+        <v>0</v>
+      </c>
+      <c r="AB170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>3</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
+        <v>222</v>
+      </c>
+      <c r="D171" t="s">
+        <v>232</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="I171" s="5">
+        <v>7</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>14</v>
+      </c>
+      <c r="L171">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="M171">
+        <v>24</v>
+      </c>
+      <c r="N171" t="s">
+        <v>225</v>
+      </c>
+      <c r="O171" t="s">
+        <v>42</v>
+      </c>
+      <c r="P171">
+        <v>29.4</v>
+      </c>
+      <c r="Q171">
+        <v>26.45</v>
+      </c>
+      <c r="R171">
+        <v>1.76</v>
+      </c>
+      <c r="S171">
+        <v>1.78</v>
+      </c>
+      <c r="T171">
+        <v>36</v>
+      </c>
+      <c r="U171">
+        <v>36</v>
+      </c>
+      <c r="V171">
+        <v>0</v>
+      </c>
+      <c r="W171">
+        <v>0</v>
+      </c>
+      <c r="X171" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y171" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z171">
+        <v>1</v>
+      </c>
+      <c r="AA171">
+        <v>0</v>
+      </c>
+      <c r="AB171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>4</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172" t="s">
+        <v>222</v>
+      </c>
+      <c r="D172" t="s">
+        <v>232</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="I172" s="5">
+        <v>7</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>14</v>
+      </c>
+      <c r="L172">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="M172">
+        <v>24</v>
+      </c>
+      <c r="N172" t="s">
+        <v>226</v>
+      </c>
+      <c r="O172" t="s">
+        <v>48</v>
+      </c>
+      <c r="P172">
+        <v>7.89</v>
+      </c>
+      <c r="Q172">
+        <v>6.84</v>
+      </c>
+      <c r="R172">
+        <v>0.21</v>
+      </c>
+      <c r="S172">
+        <v>0.23</v>
+      </c>
+      <c r="T172">
+        <v>36</v>
+      </c>
+      <c r="U172">
+        <v>36</v>
+      </c>
+      <c r="V172">
+        <v>0</v>
+      </c>
+      <c r="W172">
+        <v>0</v>
+      </c>
+      <c r="X172" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y172" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z172">
+        <v>1</v>
+      </c>
+      <c r="AA172">
+        <v>0</v>
+      </c>
+      <c r="AB172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>5</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173" t="s">
+        <v>222</v>
+      </c>
+      <c r="D173" t="s">
+        <v>232</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="I173" s="5">
+        <v>7</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>14</v>
+      </c>
+      <c r="L173">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="M173">
+        <v>24</v>
+      </c>
+      <c r="N173" t="s">
+        <v>227</v>
+      </c>
+      <c r="O173" t="s">
+        <v>48</v>
+      </c>
+      <c r="P173">
+        <v>0.83</v>
+      </c>
+      <c r="Q173">
+        <v>0.71</v>
+      </c>
+      <c r="R173">
+        <v>0.04</v>
+      </c>
+      <c r="S173">
+        <v>0.05</v>
+      </c>
+      <c r="T173">
+        <v>36</v>
+      </c>
+      <c r="U173">
+        <v>36</v>
+      </c>
+      <c r="V173">
+        <v>0</v>
+      </c>
+      <c r="W173">
+        <v>0</v>
+      </c>
+      <c r="X173" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y173" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z173">
+        <v>1</v>
+      </c>
+      <c r="AA173">
+        <v>2</v>
+      </c>
+      <c r="AB173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174" t="s">
+        <v>222</v>
+      </c>
+      <c r="D174" t="s">
+        <v>232</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="I174" s="5">
+        <v>22</v>
+      </c>
+      <c r="J174">
+        <v>15</v>
+      </c>
+      <c r="K174">
+        <v>29</v>
+      </c>
+      <c r="L174">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="M174">
+        <v>24</v>
+      </c>
+      <c r="N174" t="s">
+        <v>223</v>
+      </c>
+      <c r="O174" t="s">
+        <v>42</v>
+      </c>
+      <c r="P174">
+        <v>3.6</v>
+      </c>
+      <c r="Q174">
+        <v>3.18</v>
+      </c>
+      <c r="R174">
+        <v>0.22</v>
+      </c>
+      <c r="S174">
+        <v>0.18</v>
+      </c>
+      <c r="T174">
+        <v>36</v>
+      </c>
+      <c r="U174">
+        <v>36</v>
+      </c>
+      <c r="V174">
+        <v>0</v>
+      </c>
+      <c r="W174">
+        <v>0</v>
+      </c>
+      <c r="X174" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y174" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z174">
+        <v>1</v>
+      </c>
+      <c r="AA174">
+        <v>0</v>
+      </c>
+      <c r="AB174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>2</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175" t="s">
+        <v>222</v>
+      </c>
+      <c r="D175" t="s">
+        <v>232</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="I175" s="5">
+        <v>22</v>
+      </c>
+      <c r="J175">
+        <v>15</v>
+      </c>
+      <c r="K175">
+        <v>29</v>
+      </c>
+      <c r="L175">
+        <f t="shared" ref="L175:L179" si="7">K175-J175</f>
+        <v>14</v>
+      </c>
+      <c r="M175">
+        <v>24</v>
+      </c>
+      <c r="N175" t="s">
+        <v>224</v>
+      </c>
+      <c r="O175" t="s">
+        <v>42</v>
+      </c>
+      <c r="P175">
+        <v>8.5</v>
+      </c>
+      <c r="Q175">
+        <v>8</v>
+      </c>
+      <c r="R175">
+        <v>0.31</v>
+      </c>
+      <c r="S175">
+        <v>0.65</v>
+      </c>
+      <c r="T175">
+        <v>36</v>
+      </c>
+      <c r="U175">
+        <v>36</v>
+      </c>
+      <c r="V175">
+        <v>0</v>
+      </c>
+      <c r="W175">
+        <v>0</v>
+      </c>
+      <c r="X175" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y175" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z175">
+        <v>1</v>
+      </c>
+      <c r="AA175">
+        <v>0</v>
+      </c>
+      <c r="AB175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>3</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176" t="s">
+        <v>222</v>
+      </c>
+      <c r="D176" t="s">
+        <v>232</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="I176" s="5">
+        <v>22</v>
+      </c>
+      <c r="J176">
+        <v>15</v>
+      </c>
+      <c r="K176">
+        <v>29</v>
+      </c>
+      <c r="L176">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="M176">
+        <v>24</v>
+      </c>
+      <c r="N176" t="s">
+        <v>225</v>
+      </c>
+      <c r="O176" t="s">
+        <v>42</v>
+      </c>
+      <c r="P176">
+        <v>7</v>
+      </c>
+      <c r="Q176">
+        <v>7.8</v>
+      </c>
+      <c r="R176">
+        <v>0.64</v>
+      </c>
+      <c r="S176">
+        <v>0.53</v>
+      </c>
+      <c r="T176">
+        <v>36</v>
+      </c>
+      <c r="U176">
+        <v>36</v>
+      </c>
+      <c r="V176">
+        <v>0</v>
+      </c>
+      <c r="W176">
+        <v>0</v>
+      </c>
+      <c r="X176" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y176" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z176">
+        <v>1</v>
+      </c>
+      <c r="AA176">
+        <v>0</v>
+      </c>
+      <c r="AB176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>4</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177" t="s">
+        <v>222</v>
+      </c>
+      <c r="D177" t="s">
+        <v>232</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="I177" s="5">
+        <v>22</v>
+      </c>
+      <c r="J177">
+        <v>15</v>
+      </c>
+      <c r="K177">
+        <v>29</v>
+      </c>
+      <c r="L177">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="M177">
+        <v>24</v>
+      </c>
+      <c r="N177" t="s">
+        <v>226</v>
+      </c>
+      <c r="O177" t="s">
+        <v>48</v>
+      </c>
+      <c r="P177">
+        <v>5.65</v>
+      </c>
+      <c r="Q177">
+        <v>6.08</v>
+      </c>
+      <c r="R177">
+        <v>0.21</v>
+      </c>
+      <c r="S177">
+        <v>0.19</v>
+      </c>
+      <c r="T177">
+        <v>36</v>
+      </c>
+      <c r="U177">
+        <v>36</v>
+      </c>
+      <c r="V177">
+        <v>0</v>
+      </c>
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y177" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z177">
+        <v>1</v>
+      </c>
+      <c r="AA177">
+        <v>0</v>
+      </c>
+      <c r="AB177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>5</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178" t="s">
+        <v>222</v>
+      </c>
+      <c r="D178" t="s">
+        <v>232</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="I178" s="5">
+        <v>22</v>
+      </c>
+      <c r="J178">
+        <v>15</v>
+      </c>
+      <c r="K178">
+        <v>29</v>
+      </c>
+      <c r="L178">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="M178">
+        <v>24</v>
+      </c>
+      <c r="N178" t="s">
+        <v>227</v>
+      </c>
+      <c r="O178" t="s">
+        <v>48</v>
+      </c>
+      <c r="P178">
+        <v>0.69</v>
+      </c>
+      <c r="Q178">
+        <v>0.64</v>
+      </c>
+      <c r="R178">
+        <v>0.04</v>
+      </c>
+      <c r="S178">
+        <v>0.06</v>
+      </c>
+      <c r="T178">
+        <v>36</v>
+      </c>
+      <c r="U178">
+        <v>36</v>
+      </c>
+      <c r="V178">
+        <v>0</v>
+      </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y178" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z178">
+        <v>1</v>
+      </c>
+      <c r="AA178">
+        <v>2</v>
+      </c>
+      <c r="AB178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>1</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179" t="s">
+        <v>222</v>
+      </c>
+      <c r="D179" t="s">
+        <v>232</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+      <c r="I179" s="5">
+        <v>30</v>
+      </c>
+      <c r="J179">
+        <v>23</v>
+      </c>
+      <c r="K179">
+        <v>37</v>
+      </c>
+      <c r="L179">
+        <v>14</v>
+      </c>
+      <c r="M179">
+        <v>24</v>
+      </c>
+      <c r="N179" t="s">
+        <v>223</v>
+      </c>
+      <c r="O179" t="s">
+        <v>42</v>
+      </c>
+      <c r="P179">
+        <v>2.69</v>
+      </c>
+      <c r="Q179">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R179">
+        <v>0.17</v>
+      </c>
+      <c r="S179">
+        <v>0.1</v>
+      </c>
+      <c r="T179">
+        <v>36</v>
+      </c>
+      <c r="U179">
+        <v>36</v>
+      </c>
+      <c r="V179">
+        <v>0</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y179" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z179">
+        <v>1</v>
+      </c>
+      <c r="AA179">
+        <v>0</v>
+      </c>
+      <c r="AB179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>2</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>222</v>
+      </c>
+      <c r="D180" t="s">
+        <v>232</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="I180" s="5">
+        <v>30</v>
+      </c>
+      <c r="J180">
+        <v>23</v>
+      </c>
+      <c r="K180">
+        <v>37</v>
+      </c>
+      <c r="L180">
+        <v>14</v>
+      </c>
+      <c r="M180">
+        <v>24</v>
+      </c>
+      <c r="N180" t="s">
+        <v>224</v>
+      </c>
+      <c r="O180" t="s">
+        <v>42</v>
+      </c>
+      <c r="P180">
+        <v>6.08</v>
+      </c>
+      <c r="Q180">
+        <v>6.31</v>
+      </c>
+      <c r="R180">
+        <v>0.24</v>
+      </c>
+      <c r="S180">
+        <v>0.25</v>
+      </c>
+      <c r="T180">
+        <v>36</v>
+      </c>
+      <c r="U180">
+        <v>36</v>
+      </c>
+      <c r="V180">
+        <v>0</v>
+      </c>
+      <c r="W180">
+        <v>0</v>
+      </c>
+      <c r="X180" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y180" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z180">
+        <v>1</v>
+      </c>
+      <c r="AA180">
+        <v>0</v>
+      </c>
+      <c r="AB180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>3</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181" t="s">
+        <v>222</v>
+      </c>
+      <c r="D181" t="s">
+        <v>232</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="I181" s="5">
+        <v>30</v>
+      </c>
+      <c r="J181">
+        <v>23</v>
+      </c>
+      <c r="K181">
+        <v>37</v>
+      </c>
+      <c r="L181">
+        <v>14</v>
+      </c>
+      <c r="M181">
+        <v>24</v>
+      </c>
+      <c r="N181" t="s">
+        <v>225</v>
+      </c>
+      <c r="O181" t="s">
+        <v>42</v>
+      </c>
+      <c r="P181">
+        <v>3.92</v>
+      </c>
+      <c r="Q181">
+        <v>3.9</v>
+      </c>
+      <c r="R181">
+        <v>0.39</v>
+      </c>
+      <c r="S181">
+        <v>0.31</v>
+      </c>
+      <c r="T181">
+        <v>36</v>
+      </c>
+      <c r="U181">
+        <v>36</v>
+      </c>
+      <c r="V181">
+        <v>0</v>
+      </c>
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y181" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z181">
+        <v>1</v>
+      </c>
+      <c r="AA181">
+        <v>0</v>
+      </c>
+      <c r="AB181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>4</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182" t="s">
+        <v>222</v>
+      </c>
+      <c r="D182" t="s">
+        <v>232</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+      <c r="I182" s="5">
+        <v>30</v>
+      </c>
+      <c r="J182">
+        <v>23</v>
+      </c>
+      <c r="K182">
+        <v>37</v>
+      </c>
+      <c r="L182">
+        <v>14</v>
+      </c>
+      <c r="M182">
+        <v>24</v>
+      </c>
+      <c r="N182" t="s">
+        <v>226</v>
+      </c>
+      <c r="O182" t="s">
+        <v>48</v>
+      </c>
+      <c r="P182">
+        <v>5.95</v>
+      </c>
+      <c r="Q182">
+        <v>6.02</v>
+      </c>
+      <c r="R182">
+        <v>0.15</v>
+      </c>
+      <c r="S182">
+        <v>0.09</v>
+      </c>
+      <c r="T182">
+        <v>36</v>
+      </c>
+      <c r="U182">
+        <v>36</v>
+      </c>
+      <c r="V182">
+        <v>0</v>
+      </c>
+      <c r="W182">
+        <v>0</v>
+      </c>
+      <c r="X182" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y182" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z182">
+        <v>1</v>
+      </c>
+      <c r="AA182">
+        <v>0</v>
+      </c>
+      <c r="AB182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>5</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183" t="s">
+        <v>222</v>
+      </c>
+      <c r="D183" t="s">
+        <v>232</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+      <c r="I183" s="5">
+        <v>30</v>
+      </c>
+      <c r="J183">
+        <v>23</v>
+      </c>
+      <c r="K183">
+        <v>37</v>
+      </c>
+      <c r="L183">
+        <v>14</v>
+      </c>
+      <c r="M183">
+        <v>24</v>
+      </c>
+      <c r="N183" t="s">
+        <v>227</v>
+      </c>
+      <c r="O183" t="s">
+        <v>48</v>
+      </c>
+      <c r="P183">
+        <v>0.69</v>
+      </c>
+      <c r="Q183">
+        <v>0.7</v>
+      </c>
+      <c r="R183">
+        <v>0.06</v>
+      </c>
+      <c r="S183">
+        <v>0.04</v>
+      </c>
+      <c r="T183">
+        <v>36</v>
+      </c>
+      <c r="U183">
+        <v>36</v>
+      </c>
+      <c r="V183">
+        <v>0</v>
+      </c>
+      <c r="W183">
+        <v>0</v>
+      </c>
+      <c r="X183" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y183" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z183">
+        <v>1</v>
+      </c>
+      <c r="AA183">
+        <v>2</v>
+      </c>
+      <c r="AB183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>1</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="C184" t="s">
+        <v>222</v>
+      </c>
+      <c r="D184" t="s">
+        <v>233</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+      <c r="I184" s="5">
+        <v>7</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>14</v>
+      </c>
+      <c r="L184">
+        <f t="shared" ref="L184" si="8">K184-J184</f>
+        <v>14</v>
+      </c>
+      <c r="M184">
+        <v>24</v>
+      </c>
+      <c r="N184" t="s">
+        <v>234</v>
+      </c>
+      <c r="O184" t="s">
+        <v>42</v>
+      </c>
+      <c r="P184">
+        <v>15.1</v>
+      </c>
+      <c r="Q184">
+        <v>12</v>
+      </c>
+      <c r="R184">
+        <v>0.97</v>
+      </c>
+      <c r="S184">
+        <v>0.68</v>
+      </c>
+      <c r="T184">
+        <v>36</v>
+      </c>
+      <c r="U184">
+        <v>36</v>
+      </c>
+      <c r="V184">
+        <v>0</v>
+      </c>
+      <c r="W184">
+        <v>0</v>
+      </c>
+      <c r="X184" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y184" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z184">
+        <v>1</v>
+      </c>
+      <c r="AA184">
+        <v>0</v>
+      </c>
+      <c r="AB184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>2</v>
+      </c>
+      <c r="B185">
+        <v>2</v>
+      </c>
+      <c r="C185" t="s">
+        <v>222</v>
+      </c>
+      <c r="D185" t="s">
+        <v>233</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="I185" s="5">
+        <v>7</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>14</v>
+      </c>
+      <c r="L185">
+        <f t="shared" ref="L185:L195" si="9">K185-J185</f>
+        <v>14</v>
+      </c>
+      <c r="M185">
+        <v>24</v>
+      </c>
+      <c r="N185" t="s">
+        <v>235</v>
+      </c>
+      <c r="O185" t="s">
+        <v>42</v>
+      </c>
+      <c r="P185">
+        <v>58.2</v>
+      </c>
+      <c r="Q185">
+        <v>48</v>
+      </c>
+      <c r="R185">
+        <v>1.44</v>
+      </c>
+      <c r="S185">
+        <v>1.22</v>
+      </c>
+      <c r="T185">
+        <v>36</v>
+      </c>
+      <c r="U185">
+        <v>36</v>
+      </c>
+      <c r="V185">
+        <v>0</v>
+      </c>
+      <c r="W185">
+        <v>0</v>
+      </c>
+      <c r="X185" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y185" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z185">
+        <v>1</v>
+      </c>
+      <c r="AA185">
+        <v>0</v>
+      </c>
+      <c r="AB185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>3</v>
+      </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186" t="s">
+        <v>222</v>
+      </c>
+      <c r="D186" t="s">
+        <v>233</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+      <c r="I186" s="5">
+        <v>7</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>14</v>
+      </c>
+      <c r="L186">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="M186">
+        <v>24</v>
+      </c>
+      <c r="N186" t="s">
+        <v>225</v>
+      </c>
+      <c r="O186" t="s">
+        <v>42</v>
+      </c>
+      <c r="P186">
+        <v>11.15</v>
+      </c>
+      <c r="Q186">
+        <v>9.26</v>
+      </c>
+      <c r="R186">
+        <v>0.92</v>
+      </c>
+      <c r="S186">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T186">
+        <v>36</v>
+      </c>
+      <c r="U186">
+        <v>36</v>
+      </c>
+      <c r="V186">
+        <v>0</v>
+      </c>
+      <c r="W186">
+        <v>0</v>
+      </c>
+      <c r="X186" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y186" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z186">
+        <v>1</v>
+      </c>
+      <c r="AA186">
+        <v>2</v>
+      </c>
+      <c r="AB186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>4</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187" t="s">
+        <v>222</v>
+      </c>
+      <c r="D187" t="s">
+        <v>233</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="I187" s="5">
+        <v>7</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>14</v>
+      </c>
+      <c r="L187">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="M187">
+        <v>24</v>
+      </c>
+      <c r="N187" t="s">
+        <v>226</v>
+      </c>
+      <c r="O187" t="s">
+        <v>48</v>
+      </c>
+      <c r="P187">
+        <v>4.63</v>
+      </c>
+      <c r="Q187">
+        <v>4.53</v>
+      </c>
+      <c r="R187">
+        <v>0.15</v>
+      </c>
+      <c r="S187">
+        <v>0.13</v>
+      </c>
+      <c r="T187">
+        <v>36</v>
+      </c>
+      <c r="U187">
+        <v>36</v>
+      </c>
+      <c r="V187">
+        <v>0</v>
+      </c>
+      <c r="W187">
+        <v>0</v>
+      </c>
+      <c r="X187" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y187" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z187">
+        <v>1</v>
+      </c>
+      <c r="AA187">
+        <v>0</v>
+      </c>
+      <c r="AB187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>5</v>
+      </c>
+      <c r="B188">
+        <v>2</v>
+      </c>
+      <c r="C188" t="s">
+        <v>222</v>
+      </c>
+      <c r="D188" t="s">
+        <v>233</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="I188" s="5">
+        <v>7</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>14</v>
+      </c>
+      <c r="L188">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="M188">
+        <v>24</v>
+      </c>
+      <c r="N188" t="s">
+        <v>236</v>
+      </c>
+      <c r="O188" t="s">
+        <v>48</v>
+      </c>
+      <c r="P188">
+        <v>0.83</v>
+      </c>
+      <c r="Q188">
+        <v>0.86</v>
+      </c>
+      <c r="R188">
+        <v>0.03</v>
+      </c>
+      <c r="S188">
+        <v>0.03</v>
+      </c>
+      <c r="T188">
+        <v>36</v>
+      </c>
+      <c r="U188">
+        <v>36</v>
+      </c>
+      <c r="V188">
+        <v>0</v>
+      </c>
+      <c r="W188">
+        <v>0</v>
+      </c>
+      <c r="X188" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y188" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z188">
+        <v>1</v>
+      </c>
+      <c r="AA188">
+        <v>0</v>
+      </c>
+      <c r="AB188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>6</v>
+      </c>
+      <c r="B189">
+        <v>2</v>
+      </c>
+      <c r="C189" t="s">
+        <v>222</v>
+      </c>
+      <c r="D189" t="s">
+        <v>233</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="I189" s="5">
+        <v>7</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>14</v>
+      </c>
+      <c r="L189">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="M189">
+        <v>24</v>
+      </c>
+      <c r="N189" t="s">
+        <v>227</v>
+      </c>
+      <c r="O189" t="s">
+        <v>48</v>
+      </c>
+      <c r="P189">
+        <v>0.43</v>
+      </c>
+      <c r="Q189">
+        <v>0.4</v>
+      </c>
+      <c r="R189">
+        <v>0.02</v>
+      </c>
+      <c r="S189">
+        <v>0.02</v>
+      </c>
+      <c r="T189">
+        <v>36</v>
+      </c>
+      <c r="U189">
+        <v>36</v>
+      </c>
+      <c r="V189">
+        <v>0</v>
+      </c>
+      <c r="W189">
+        <v>0</v>
+      </c>
+      <c r="X189" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y189" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z189">
+        <v>1</v>
+      </c>
+      <c r="AA189">
+        <v>2</v>
+      </c>
+      <c r="AB189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="B190">
+        <v>2</v>
+      </c>
+      <c r="C190" t="s">
+        <v>222</v>
+      </c>
+      <c r="D190" t="s">
+        <v>233</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="I190" s="5">
+        <v>22</v>
+      </c>
+      <c r="J190">
+        <v>15</v>
+      </c>
+      <c r="K190">
+        <v>29</v>
+      </c>
+      <c r="L190">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="M190">
+        <v>24</v>
+      </c>
+      <c r="N190" t="s">
+        <v>234</v>
+      </c>
+      <c r="O190" t="s">
+        <v>42</v>
+      </c>
+      <c r="P190">
+        <v>4.25</v>
+      </c>
+      <c r="Q190">
+        <v>3.45</v>
+      </c>
+      <c r="R190">
+        <v>0.16</v>
+      </c>
+      <c r="S190">
+        <v>0.13</v>
+      </c>
+      <c r="T190">
+        <v>36</v>
+      </c>
+      <c r="U190">
+        <v>36</v>
+      </c>
+      <c r="V190">
+        <v>0</v>
+      </c>
+      <c r="W190">
+        <v>0</v>
+      </c>
+      <c r="X190" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y190" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z190">
+        <v>1</v>
+      </c>
+      <c r="AA190">
+        <v>0</v>
+      </c>
+      <c r="AB190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>2</v>
+      </c>
+      <c r="B191">
+        <v>2</v>
+      </c>
+      <c r="C191" t="s">
+        <v>222</v>
+      </c>
+      <c r="D191" t="s">
+        <v>233</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="I191" s="5">
+        <v>22</v>
+      </c>
+      <c r="J191">
+        <v>15</v>
+      </c>
+      <c r="K191">
+        <v>29</v>
+      </c>
+      <c r="L191">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="M191">
+        <v>24</v>
+      </c>
+      <c r="N191" t="s">
+        <v>235</v>
+      </c>
+      <c r="O191" t="s">
+        <v>42</v>
+      </c>
+      <c r="P191">
+        <v>13.14</v>
+      </c>
+      <c r="Q191">
+        <v>11.42</v>
+      </c>
+      <c r="R191">
+        <v>0.3</v>
+      </c>
+      <c r="S191">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="T191">
+        <v>36</v>
+      </c>
+      <c r="U191">
+        <v>36</v>
+      </c>
+      <c r="V191">
+        <v>0</v>
+      </c>
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y191" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z191">
+        <v>1</v>
+      </c>
+      <c r="AA191">
+        <v>0</v>
+      </c>
+      <c r="AB191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>3</v>
+      </c>
+      <c r="B192">
+        <v>2</v>
+      </c>
+      <c r="C192" t="s">
+        <v>222</v>
+      </c>
+      <c r="D192" t="s">
+        <v>233</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="I192" s="5">
+        <v>22</v>
+      </c>
+      <c r="J192">
+        <v>15</v>
+      </c>
+      <c r="K192">
+        <v>29</v>
+      </c>
+      <c r="L192">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="M192">
+        <v>24</v>
+      </c>
+      <c r="N192" t="s">
+        <v>225</v>
+      </c>
+      <c r="O192" t="s">
+        <v>42</v>
+      </c>
+      <c r="P192">
+        <v>3.68</v>
+      </c>
+      <c r="Q192">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="R192">
+        <v>0.15</v>
+      </c>
+      <c r="S192">
+        <v>0.17</v>
+      </c>
+      <c r="T192">
+        <v>36</v>
+      </c>
+      <c r="U192">
+        <v>36</v>
+      </c>
+      <c r="V192">
+        <v>0</v>
+      </c>
+      <c r="W192">
+        <v>0</v>
+      </c>
+      <c r="X192" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y192" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z192">
+        <v>1</v>
+      </c>
+      <c r="AA192">
+        <v>2</v>
+      </c>
+      <c r="AB192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>4</v>
+      </c>
+      <c r="B193">
+        <v>2</v>
+      </c>
+      <c r="C193" t="s">
+        <v>222</v>
+      </c>
+      <c r="D193" t="s">
+        <v>233</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="I193" s="5">
+        <v>22</v>
+      </c>
+      <c r="J193">
+        <v>15</v>
+      </c>
+      <c r="K193">
+        <v>29</v>
+      </c>
+      <c r="L193">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="M193">
+        <v>24</v>
+      </c>
+      <c r="N193" t="s">
+        <v>226</v>
+      </c>
+      <c r="O193" t="s">
+        <v>48</v>
+      </c>
+      <c r="P193">
+        <v>4.55</v>
+      </c>
+      <c r="Q193">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="R193">
+        <v>0.1</v>
+      </c>
+      <c r="S193">
+        <v>0.11</v>
+      </c>
+      <c r="T193">
+        <v>36</v>
+      </c>
+      <c r="U193">
+        <v>36</v>
+      </c>
+      <c r="V193">
+        <v>0</v>
+      </c>
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y193" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z193">
+        <v>1</v>
+      </c>
+      <c r="AA193">
+        <v>0</v>
+      </c>
+      <c r="AB193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>5</v>
+      </c>
+      <c r="B194">
+        <v>2</v>
+      </c>
+      <c r="C194" t="s">
+        <v>222</v>
+      </c>
+      <c r="D194" t="s">
+        <v>233</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="I194" s="5">
+        <v>22</v>
+      </c>
+      <c r="J194">
+        <v>15</v>
+      </c>
+      <c r="K194">
+        <v>29</v>
+      </c>
+      <c r="L194">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="M194">
+        <v>24</v>
+      </c>
+      <c r="N194" t="s">
+        <v>236</v>
+      </c>
+      <c r="O194" t="s">
+        <v>48</v>
+      </c>
+      <c r="P194">
+        <v>0.88</v>
+      </c>
+      <c r="Q194">
+        <v>0.94</v>
+      </c>
+      <c r="R194">
+        <v>0.04</v>
+      </c>
+      <c r="S194">
+        <v>0.04</v>
+      </c>
+      <c r="T194">
+        <v>36</v>
+      </c>
+      <c r="U194">
+        <v>36</v>
+      </c>
+      <c r="V194">
+        <v>0</v>
+      </c>
+      <c r="W194">
+        <v>0</v>
+      </c>
+      <c r="X194" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y194" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z194">
+        <v>1</v>
+      </c>
+      <c r="AA194">
+        <v>0</v>
+      </c>
+      <c r="AB194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>6</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195" t="s">
+        <v>222</v>
+      </c>
+      <c r="D195" t="s">
+        <v>233</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="I195" s="5">
+        <v>22</v>
+      </c>
+      <c r="J195">
+        <v>15</v>
+      </c>
+      <c r="K195">
+        <v>29</v>
+      </c>
+      <c r="L195">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="M195">
+        <v>24</v>
+      </c>
+      <c r="N195" t="s">
+        <v>227</v>
+      </c>
+      <c r="O195" t="s">
+        <v>48</v>
+      </c>
+      <c r="P195">
+        <v>0.39</v>
+      </c>
+      <c r="Q195">
+        <v>0.41</v>
+      </c>
+      <c r="R195">
+        <v>0.01</v>
+      </c>
+      <c r="S195">
+        <v>0.02</v>
+      </c>
+      <c r="T195">
+        <v>36</v>
+      </c>
+      <c r="U195">
+        <v>36</v>
+      </c>
+      <c r="V195">
+        <v>0</v>
+      </c>
+      <c r="W195">
+        <v>0</v>
+      </c>
+      <c r="X195" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y195" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z195">
+        <v>1</v>
+      </c>
+      <c r="AA195">
+        <v>2</v>
+      </c>
+      <c r="AB195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>1</v>
+      </c>
+      <c r="B196">
+        <v>2</v>
+      </c>
+      <c r="C196" t="s">
+        <v>222</v>
+      </c>
+      <c r="D196" t="s">
+        <v>233</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="I196" s="5">
+        <v>30</v>
+      </c>
+      <c r="J196">
+        <v>23</v>
+      </c>
+      <c r="K196">
+        <v>37</v>
+      </c>
+      <c r="L196">
+        <v>14</v>
+      </c>
+      <c r="M196">
+        <v>24</v>
+      </c>
+      <c r="N196" t="s">
+        <v>234</v>
+      </c>
+      <c r="O196" t="s">
+        <v>42</v>
+      </c>
+      <c r="P196">
+        <v>3.26</v>
+      </c>
+      <c r="Q196">
+        <v>2.56</v>
+      </c>
+      <c r="R196">
+        <v>0.17</v>
+      </c>
+      <c r="S196">
+        <v>0.17</v>
+      </c>
+      <c r="T196">
+        <v>36</v>
+      </c>
+      <c r="U196">
+        <v>36</v>
+      </c>
+      <c r="V196">
+        <v>0</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y196" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z196">
+        <v>1</v>
+      </c>
+      <c r="AA196">
+        <v>0</v>
+      </c>
+      <c r="AB196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>2</v>
+      </c>
+      <c r="B197">
+        <v>2</v>
+      </c>
+      <c r="C197" t="s">
+        <v>222</v>
+      </c>
+      <c r="D197" t="s">
+        <v>233</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="I197" s="5">
+        <v>30</v>
+      </c>
+      <c r="J197">
+        <v>23</v>
+      </c>
+      <c r="K197">
+        <v>37</v>
+      </c>
+      <c r="L197">
+        <v>14</v>
+      </c>
+      <c r="M197">
+        <v>24</v>
+      </c>
+      <c r="N197" t="s">
+        <v>235</v>
+      </c>
+      <c r="O197" t="s">
+        <v>42</v>
+      </c>
+      <c r="P197">
+        <v>11.08</v>
+      </c>
+      <c r="Q197">
+        <v>10.75</v>
+      </c>
+      <c r="R197">
+        <v>0.31</v>
+      </c>
+      <c r="S197">
+        <v>0.25</v>
+      </c>
+      <c r="T197">
+        <v>36</v>
+      </c>
+      <c r="U197">
+        <v>36</v>
+      </c>
+      <c r="V197">
+        <v>0</v>
+      </c>
+      <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y197" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z197">
+        <v>1</v>
+      </c>
+      <c r="AA197">
+        <v>0</v>
+      </c>
+      <c r="AB197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>3</v>
+      </c>
+      <c r="B198">
+        <v>2</v>
+      </c>
+      <c r="C198" t="s">
+        <v>222</v>
+      </c>
+      <c r="D198" t="s">
+        <v>233</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="I198" s="5">
+        <v>30</v>
+      </c>
+      <c r="J198">
+        <v>23</v>
+      </c>
+      <c r="K198">
+        <v>37</v>
+      </c>
+      <c r="L198">
+        <v>14</v>
+      </c>
+      <c r="M198">
+        <v>24</v>
+      </c>
+      <c r="N198" t="s">
+        <v>225</v>
+      </c>
+      <c r="O198" t="s">
+        <v>42</v>
+      </c>
+      <c r="P198">
+        <v>2.77</v>
+      </c>
+      <c r="Q198">
+        <v>2.25</v>
+      </c>
+      <c r="R198">
+        <v>0.26</v>
+      </c>
+      <c r="S198">
+        <v>0.48</v>
+      </c>
+      <c r="T198">
+        <v>36</v>
+      </c>
+      <c r="U198">
+        <v>36</v>
+      </c>
+      <c r="V198">
+        <v>0</v>
+      </c>
+      <c r="W198">
+        <v>0</v>
+      </c>
+      <c r="X198" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y198" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z198">
+        <v>1</v>
+      </c>
+      <c r="AA198">
+        <v>2</v>
+      </c>
+      <c r="AB198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>4</v>
+      </c>
+      <c r="B199">
+        <v>2</v>
+      </c>
+      <c r="C199" t="s">
+        <v>222</v>
+      </c>
+      <c r="D199" t="s">
+        <v>233</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="I199" s="5">
+        <v>30</v>
+      </c>
+      <c r="J199">
+        <v>23</v>
+      </c>
+      <c r="K199">
+        <v>37</v>
+      </c>
+      <c r="L199">
+        <v>14</v>
+      </c>
+      <c r="M199">
+        <v>24</v>
+      </c>
+      <c r="N199" t="s">
+        <v>226</v>
+      </c>
+      <c r="O199" t="s">
+        <v>48</v>
+      </c>
+      <c r="P199">
+        <v>3.79</v>
+      </c>
+      <c r="Q199">
+        <v>3.29</v>
+      </c>
+      <c r="R199">
+        <v>0.22</v>
+      </c>
+      <c r="S199">
+        <v>0.19</v>
+      </c>
+      <c r="T199">
+        <v>36</v>
+      </c>
+      <c r="U199">
+        <v>36</v>
+      </c>
+      <c r="V199">
+        <v>0</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y199" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z199">
+        <v>1</v>
+      </c>
+      <c r="AA199">
+        <v>0</v>
+      </c>
+      <c r="AB199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>5</v>
+      </c>
+      <c r="B200">
+        <v>2</v>
+      </c>
+      <c r="C200" t="s">
+        <v>222</v>
+      </c>
+      <c r="D200" t="s">
+        <v>233</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="I200" s="5">
+        <v>30</v>
+      </c>
+      <c r="J200">
+        <v>23</v>
+      </c>
+      <c r="K200">
+        <v>37</v>
+      </c>
+      <c r="L200">
+        <v>14</v>
+      </c>
+      <c r="M200">
+        <v>24</v>
+      </c>
+      <c r="N200" t="s">
+        <v>236</v>
+      </c>
+      <c r="O200" t="s">
+        <v>48</v>
+      </c>
+      <c r="P200">
+        <v>1.02</v>
+      </c>
+      <c r="Q200">
+        <v>0.95</v>
+      </c>
+      <c r="R200">
+        <v>0.09</v>
+      </c>
+      <c r="S200">
+        <v>0.1</v>
+      </c>
+      <c r="T200">
+        <v>36</v>
+      </c>
+      <c r="U200">
+        <v>36</v>
+      </c>
+      <c r="V200">
+        <v>0</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y200" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z200">
+        <v>1</v>
+      </c>
+      <c r="AA200">
+        <v>0</v>
+      </c>
+      <c r="AB200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>6</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201" t="s">
+        <v>222</v>
+      </c>
+      <c r="D201" t="s">
+        <v>233</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="I201" s="5">
+        <v>30</v>
+      </c>
+      <c r="J201">
+        <v>23</v>
+      </c>
+      <c r="K201">
+        <v>37</v>
+      </c>
+      <c r="L201">
+        <v>14</v>
+      </c>
+      <c r="M201">
+        <v>24</v>
+      </c>
+      <c r="N201" t="s">
+        <v>227</v>
+      </c>
+      <c r="O201" t="s">
+        <v>48</v>
+      </c>
+      <c r="P201">
+        <v>0.36</v>
+      </c>
+      <c r="Q201">
+        <v>0.36</v>
+      </c>
+      <c r="R201">
+        <v>0.01</v>
+      </c>
+      <c r="S201">
+        <v>0.01</v>
+      </c>
+      <c r="T201">
+        <v>36</v>
+      </c>
+      <c r="U201">
+        <v>36</v>
+      </c>
+      <c r="V201">
+        <v>0</v>
+      </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y201" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z201">
+        <v>1</v>
+      </c>
+      <c r="AA201">
+        <v>2</v>
+      </c>
+      <c r="AB201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>1</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202" t="s">
+        <v>222</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="I202" s="5">
+        <v>7</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>14</v>
+      </c>
+      <c r="L202">
+        <f t="shared" ref="L202:L203" si="10">K202-J202</f>
+        <v>14</v>
+      </c>
+      <c r="M202">
+        <v>24</v>
+      </c>
+      <c r="N202" t="s">
+        <v>241</v>
+      </c>
+      <c r="O202" t="s">
+        <v>71</v>
+      </c>
+      <c r="P202" s="2">
+        <v>2.7518796999999999</v>
+      </c>
+      <c r="Q202" s="2">
+        <v>2.7518796999999999</v>
+      </c>
+      <c r="R202">
+        <v>2.7969924800000001</v>
+      </c>
+      <c r="S202">
+        <v>2.7969924800000001</v>
+      </c>
+      <c r="T202">
+        <v>36</v>
+      </c>
+      <c r="U202">
+        <v>36</v>
+      </c>
+      <c r="V202">
+        <v>1</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y202" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z202">
+        <v>1</v>
+      </c>
+      <c r="AA202">
+        <v>0</v>
+      </c>
+      <c r="AB202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>1</v>
+      </c>
+      <c r="B203">
+        <v>3</v>
+      </c>
+      <c r="C203" t="s">
+        <v>222</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="I203" s="5">
+        <v>22</v>
+      </c>
+      <c r="J203">
+        <v>15</v>
+      </c>
+      <c r="K203">
+        <v>29</v>
+      </c>
+      <c r="L203">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="M203">
+        <v>24</v>
+      </c>
+      <c r="N203" t="s">
+        <v>241</v>
+      </c>
+      <c r="O203" t="s">
+        <v>71</v>
+      </c>
+      <c r="P203" s="2">
+        <v>5.54887218</v>
+      </c>
+      <c r="Q203" s="2">
+        <v>2.7518796999999999</v>
+      </c>
+      <c r="R203">
+        <v>3.5187969899999998</v>
+      </c>
+      <c r="S203">
+        <v>2.7969924800000001</v>
+      </c>
+      <c r="T203">
+        <v>36</v>
+      </c>
+      <c r="U203">
+        <v>36</v>
+      </c>
+      <c r="V203">
+        <v>1</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y203" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z203">
+        <v>1</v>
+      </c>
+      <c r="AA203">
+        <v>0</v>
+      </c>
+      <c r="AB203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>1</v>
+      </c>
+      <c r="B204">
+        <v>3</v>
+      </c>
+      <c r="C204" t="s">
+        <v>222</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="I204" s="5">
+        <v>30</v>
+      </c>
+      <c r="J204">
+        <v>23</v>
+      </c>
+      <c r="K204">
+        <v>37</v>
+      </c>
+      <c r="L204">
+        <v>14</v>
+      </c>
+      <c r="M204">
+        <v>24</v>
+      </c>
+      <c r="N204" t="s">
+        <v>241</v>
+      </c>
+      <c r="O204" t="s">
+        <v>71</v>
+      </c>
+      <c r="P204" s="2">
+        <v>8.30075188</v>
+      </c>
+      <c r="Q204" s="2">
+        <v>11.0977444</v>
+      </c>
+      <c r="R204">
+        <v>3.78947368</v>
+      </c>
+      <c r="S204">
+        <v>5.5939849600000002</v>
+      </c>
+      <c r="T204">
+        <v>36</v>
+      </c>
+      <c r="U204">
+        <v>36</v>
+      </c>
+      <c r="V204">
+        <v>1</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y204" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z204">
+        <v>1</v>
+      </c>
+      <c r="AA204">
+        <v>0</v>
+      </c>
+      <c r="AB204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>1</v>
+      </c>
+      <c r="B205">
+        <v>4</v>
+      </c>
+      <c r="C205" t="s">
+        <v>222</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="I205" s="5">
+        <v>7</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>14</v>
+      </c>
+      <c r="L205">
+        <f t="shared" ref="L205:L206" si="11">K205-J205</f>
+        <v>14</v>
+      </c>
+      <c r="M205">
+        <v>24</v>
+      </c>
+      <c r="N205" t="s">
+        <v>240</v>
+      </c>
+      <c r="O205" t="s">
+        <v>71</v>
+      </c>
+      <c r="P205" s="2">
+        <v>55.509448800000001</v>
+      </c>
+      <c r="Q205" s="2">
+        <v>66.725154500000002</v>
+      </c>
+      <c r="R205">
+        <v>10.1960371</v>
+      </c>
+      <c r="S205">
+        <v>5.8823290699999999</v>
+      </c>
+      <c r="T205">
+        <v>36</v>
+      </c>
+      <c r="U205">
+        <v>36</v>
+      </c>
+      <c r="V205">
+        <v>1</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y205" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z205">
+        <v>1</v>
+      </c>
+      <c r="AA205">
+        <v>1</v>
+      </c>
+      <c r="AB205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="B206">
+        <v>4</v>
+      </c>
+      <c r="C206" t="s">
+        <v>222</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="I206" s="5">
+        <v>22</v>
+      </c>
+      <c r="J206">
+        <v>15</v>
+      </c>
+      <c r="K206">
+        <v>29</v>
+      </c>
+      <c r="L206">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="M206">
+        <v>24</v>
+      </c>
+      <c r="N206" t="s">
+        <v>240</v>
+      </c>
+      <c r="O206" t="s">
+        <v>71</v>
+      </c>
+      <c r="P206" s="2">
+        <v>66.764435000000006</v>
+      </c>
+      <c r="Q206" s="2">
+        <v>64.058303899999999</v>
+      </c>
+      <c r="R206">
+        <v>9.6078041499999998</v>
+      </c>
+      <c r="S206">
+        <v>5.09801853</v>
+      </c>
+      <c r="T206">
+        <v>36</v>
+      </c>
+      <c r="U206">
+        <v>36</v>
+      </c>
+      <c r="V206">
+        <v>1</v>
+      </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
+      <c r="X206" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y206" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z206">
+        <v>1</v>
+      </c>
+      <c r="AA206">
+        <v>1</v>
+      </c>
+      <c r="AB206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207">
+        <v>4</v>
+      </c>
+      <c r="C207" t="s">
+        <v>222</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="I207" s="5">
+        <v>30</v>
+      </c>
+      <c r="J207">
+        <v>23</v>
+      </c>
+      <c r="K207">
+        <v>37</v>
+      </c>
+      <c r="L207">
+        <v>14</v>
+      </c>
+      <c r="M207">
+        <v>24</v>
+      </c>
+      <c r="N207" t="s">
+        <v>240</v>
+      </c>
+      <c r="O207" t="s">
+        <v>71</v>
+      </c>
+      <c r="P207" s="2">
+        <v>52.921159099999997</v>
+      </c>
+      <c r="Q207" s="2">
+        <v>27.862177500000001</v>
+      </c>
+      <c r="R207">
+        <v>6.8627172500000002</v>
+      </c>
+      <c r="S207">
+        <v>7.0587948899999997</v>
+      </c>
+      <c r="T207">
+        <v>36</v>
+      </c>
+      <c r="U207">
+        <v>36</v>
+      </c>
+      <c r="V207">
+        <v>1</v>
+      </c>
+      <c r="W207">
+        <v>0</v>
+      </c>
+      <c r="X207" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y207" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z207">
+        <v>1</v>
+      </c>
+      <c r="AA207">
+        <v>1</v>
+      </c>
+      <c r="AB207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="B208">
+        <v>5</v>
+      </c>
+      <c r="C208" t="s">
+        <v>222</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="I208" s="5">
+        <v>22</v>
+      </c>
+      <c r="J208">
+        <v>15</v>
+      </c>
+      <c r="K208">
+        <v>29</v>
+      </c>
+      <c r="L208">
+        <f t="shared" ref="L208" si="12">K208-J208</f>
+        <v>14</v>
+      </c>
+      <c r="M208">
+        <v>24</v>
+      </c>
+      <c r="N208" t="s">
+        <v>239</v>
+      </c>
+      <c r="O208" t="s">
+        <v>71</v>
+      </c>
+      <c r="P208" s="2">
+        <v>8.4134030600000003</v>
+      </c>
+      <c r="Q208" s="2">
+        <v>16.598708800000001</v>
+      </c>
+      <c r="R208">
+        <v>4.7682119199999997</v>
+      </c>
+      <c r="S208">
+        <v>6.8876251499999999</v>
+      </c>
+      <c r="T208">
+        <v>36</v>
+      </c>
+      <c r="U208">
+        <v>36</v>
+      </c>
+      <c r="V208">
+        <v>1</v>
+      </c>
+      <c r="W208">
+        <v>0</v>
+      </c>
+      <c r="X208" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y208" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z208">
+        <v>1</v>
+      </c>
+      <c r="AA208">
+        <v>0</v>
+      </c>
+      <c r="AB208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="B209">
+        <v>5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>222</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="I209" s="5">
+        <v>30</v>
+      </c>
+      <c r="J209">
+        <v>23</v>
+      </c>
+      <c r="K209">
+        <v>37</v>
+      </c>
+      <c r="L209">
+        <v>14</v>
+      </c>
+      <c r="M209">
+        <v>24</v>
+      </c>
+      <c r="N209" t="s">
+        <v>239</v>
+      </c>
+      <c r="O209" t="s">
+        <v>71</v>
+      </c>
+      <c r="P209" s="2">
+        <v>27.698337599999999</v>
+      </c>
+      <c r="Q209" s="2">
+        <v>54.956698899999999</v>
+      </c>
+      <c r="R209">
+        <v>5.5629139099999998</v>
+      </c>
+      <c r="S209">
+        <v>4.9006622499999999</v>
+      </c>
+      <c r="T209">
+        <v>36</v>
+      </c>
+      <c r="U209">
+        <v>36</v>
+      </c>
+      <c r="V209">
+        <v>1</v>
+      </c>
+      <c r="W209">
+        <v>0</v>
+      </c>
+      <c r="X209" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y209" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z209">
+        <v>1</v>
+      </c>
+      <c r="AA209">
+        <v>0</v>
+      </c>
+      <c r="AB209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>1</v>
+      </c>
+      <c r="B210">
+        <v>5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>222</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+      <c r="I210" s="5">
+        <v>30</v>
+      </c>
+      <c r="J210">
+        <v>23</v>
+      </c>
+      <c r="K210">
+        <v>37</v>
+      </c>
+      <c r="L210">
+        <v>14</v>
+      </c>
+      <c r="M210">
+        <v>24</v>
+      </c>
+      <c r="N210" t="s">
+        <v>239</v>
+      </c>
+      <c r="O210" t="s">
+        <v>71</v>
+      </c>
+      <c r="P210" s="2">
+        <v>7.1631301499999998</v>
+      </c>
+      <c r="Q210" s="2">
+        <v>4.75282523</v>
+      </c>
+      <c r="R210">
+        <v>7.1525258100000002</v>
+      </c>
+      <c r="S210">
+        <v>4.7682119199999997</v>
+      </c>
+      <c r="T210">
+        <v>36</v>
+      </c>
+      <c r="U210">
+        <v>36</v>
+      </c>
+      <c r="V210">
+        <v>1</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y210" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z210">
+        <v>1</v>
+      </c>
+      <c r="AA210">
+        <v>0</v>
+      </c>
+      <c r="AB210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>1</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211" t="s">
+        <v>245</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="I211" s="5">
+        <v>20</v>
+      </c>
+      <c r="J211">
+        <v>16.5</v>
+      </c>
+      <c r="K211">
+        <v>23.5</v>
+      </c>
+      <c r="L211">
+        <v>7</v>
+      </c>
+      <c r="M211">
+        <v>24</v>
+      </c>
+      <c r="N211" t="s">
+        <v>239</v>
+      </c>
+      <c r="O211" t="s">
+        <v>71</v>
+      </c>
+      <c r="P211">
+        <v>0.57321539630984797</v>
+      </c>
+      <c r="Q211">
+        <v>0.55144772303225398</v>
+      </c>
+      <c r="R211">
+        <v>0.49823785502039197</v>
+      </c>
+      <c r="S211">
+        <v>0.24911892751019604</v>
+      </c>
+      <c r="T211">
+        <v>35</v>
+      </c>
+      <c r="U211">
+        <v>35</v>
+      </c>
+      <c r="V211">
+        <v>1</v>
+      </c>
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y211" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z211">
+        <v>1</v>
+      </c>
+      <c r="AA211">
+        <v>0</v>
+      </c>
+      <c r="AB211">
+        <v>1</v>
+      </c>
+      <c r="AC211" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD211" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="212" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
+        <v>245</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="I212" s="5">
+        <v>20</v>
+      </c>
+      <c r="J212">
+        <v>16.5</v>
+      </c>
+      <c r="K212">
+        <v>23.5</v>
+      </c>
+      <c r="L212">
+        <v>7</v>
+      </c>
+      <c r="M212">
+        <v>24</v>
+      </c>
+      <c r="N212" t="s">
+        <v>239</v>
+      </c>
+      <c r="O212" t="s">
+        <v>71</v>
+      </c>
+      <c r="P212">
+        <v>52.215810932209202</v>
+      </c>
+      <c r="Q212">
+        <v>65.148227489461604</v>
+      </c>
+      <c r="R212">
+        <v>4.2350217676732989</v>
+      </c>
+      <c r="S212">
+        <v>3.9846935249809974</v>
+      </c>
+      <c r="T212">
+        <v>35</v>
+      </c>
+      <c r="U212">
+        <v>36</v>
+      </c>
+      <c r="V212">
+        <v>1</v>
+      </c>
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y212" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z212">
+        <v>1</v>
+      </c>
+      <c r="AA212">
+        <v>0</v>
+      </c>
+      <c r="AB212">
+        <v>1</v>
+      </c>
+      <c r="AC212" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD212" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="213" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>1</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
+        <v>245</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="I213" s="5">
+        <v>20</v>
+      </c>
+      <c r="J213">
+        <v>13</v>
+      </c>
+      <c r="K213">
+        <v>27</v>
+      </c>
+      <c r="L213">
+        <v>14</v>
+      </c>
+      <c r="M213">
+        <v>24</v>
+      </c>
+      <c r="N213" t="s">
+        <v>239</v>
+      </c>
+      <c r="O213" t="s">
+        <v>71</v>
+      </c>
+      <c r="P213">
+        <v>0.57321539630984797</v>
+      </c>
+      <c r="Q213">
+        <v>0.77879897726485503</v>
+      </c>
+      <c r="R213">
+        <v>0.49823785502039197</v>
+      </c>
+      <c r="S213" s="2">
+        <v>0.49823785999999998</v>
+      </c>
+      <c r="T213">
+        <v>35</v>
+      </c>
+      <c r="U213">
+        <v>35</v>
+      </c>
+      <c r="V213">
+        <v>1</v>
+      </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y213" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z213">
+        <v>1</v>
+      </c>
+      <c r="AA213">
+        <v>0</v>
+      </c>
+      <c r="AB213">
+        <v>1</v>
+      </c>
+      <c r="AC213" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD213" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="214" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>1</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214" t="s">
+        <v>245</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="I214" s="5">
+        <v>20</v>
+      </c>
+      <c r="J214">
+        <v>13</v>
+      </c>
+      <c r="K214">
+        <v>27</v>
+      </c>
+      <c r="L214">
+        <v>14</v>
+      </c>
+      <c r="M214">
+        <v>24</v>
+      </c>
+      <c r="N214" t="s">
+        <v>239</v>
+      </c>
+      <c r="O214" t="s">
+        <v>71</v>
+      </c>
+      <c r="P214">
+        <v>52.215810932209202</v>
+      </c>
+      <c r="Q214" s="2">
+        <v>68.367424499999998</v>
+      </c>
+      <c r="R214">
+        <v>4.2350217676732989</v>
+      </c>
+      <c r="S214">
+        <v>3.8613433764079517</v>
+      </c>
+      <c r="T214">
+        <v>35</v>
+      </c>
+      <c r="U214">
+        <v>31</v>
+      </c>
+      <c r="V214">
+        <v>1</v>
+      </c>
+      <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y214" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z214">
+        <v>1</v>
+      </c>
+      <c r="AA214">
+        <v>0</v>
+      </c>
+      <c r="AB214">
+        <v>1</v>
+      </c>
+      <c r="AC214" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD214" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="215" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>1</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215" t="s">
+        <v>245</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="I215" s="5">
+        <v>20</v>
+      </c>
+      <c r="J215">
+        <v>16.5</v>
+      </c>
+      <c r="K215">
+        <v>23.5</v>
+      </c>
+      <c r="L215">
+        <v>7</v>
+      </c>
+      <c r="M215">
+        <v>24</v>
+      </c>
+      <c r="N215" t="s">
+        <v>239</v>
+      </c>
+      <c r="O215" t="s">
+        <v>71</v>
+      </c>
+      <c r="P215">
+        <v>1.9928825622776001</v>
+      </c>
+      <c r="Q215">
+        <v>3.4875444839857801</v>
+      </c>
+      <c r="R215">
+        <v>0.99644128113878483</v>
+      </c>
+      <c r="S215">
+        <v>1.6192170818505303</v>
+      </c>
+      <c r="T215">
+        <v>26</v>
+      </c>
+      <c r="U215">
+        <v>23</v>
+      </c>
+      <c r="V215">
+        <v>1</v>
+      </c>
+      <c r="W215">
+        <v>0</v>
+      </c>
+      <c r="X215" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y215" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z215">
+        <v>1</v>
+      </c>
+      <c r="AA215">
+        <v>2</v>
+      </c>
+      <c r="AB215">
+        <v>1</v>
+      </c>
+      <c r="AC215" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD215" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE215" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF215" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="216" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216" t="s">
+        <v>245</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="I216" s="5">
+        <v>20</v>
+      </c>
+      <c r="J216">
+        <v>16.5</v>
+      </c>
+      <c r="K216">
+        <v>23.5</v>
+      </c>
+      <c r="L216">
+        <v>7</v>
+      </c>
+      <c r="M216">
+        <v>24</v>
+      </c>
+      <c r="N216" t="s">
+        <v>239</v>
+      </c>
+      <c r="O216" t="s">
+        <v>71</v>
+      </c>
+      <c r="P216">
+        <v>48.576512455516003</v>
+      </c>
+      <c r="Q216">
+        <v>42.846975088967902</v>
+      </c>
+      <c r="R216">
+        <v>8.2206405693950479</v>
+      </c>
+      <c r="S216">
+        <v>7.7224199288255981</v>
+      </c>
+      <c r="T216">
+        <v>25</v>
+      </c>
+      <c r="U216">
+        <v>26</v>
+      </c>
+      <c r="V216">
+        <v>1</v>
+      </c>
+      <c r="W216">
+        <v>0</v>
+      </c>
+      <c r="X216" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y216" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z216">
+        <v>1</v>
+      </c>
+      <c r="AA216">
+        <v>2</v>
+      </c>
+      <c r="AB216">
+        <v>1</v>
+      </c>
+      <c r="AC216" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD216" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE216" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF216" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="217" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217" t="s">
+        <v>245</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="I217" s="5">
+        <v>20</v>
+      </c>
+      <c r="J217">
+        <v>13</v>
+      </c>
+      <c r="K217">
+        <v>27</v>
+      </c>
+      <c r="L217">
+        <v>14</v>
+      </c>
+      <c r="M217">
+        <v>24</v>
+      </c>
+      <c r="N217" t="s">
+        <v>239</v>
+      </c>
+      <c r="O217" t="s">
+        <v>71</v>
+      </c>
+      <c r="P217">
+        <v>1.9928825622776001</v>
+      </c>
+      <c r="Q217" s="2">
+        <v>1.99288256</v>
+      </c>
+      <c r="R217">
+        <v>0.99644128113878483</v>
+      </c>
+      <c r="S217">
+        <v>0.99644128113878483</v>
+      </c>
+      <c r="T217">
+        <v>26</v>
+      </c>
+      <c r="U217">
+        <v>27</v>
+      </c>
+      <c r="V217">
+        <v>1</v>
+      </c>
+      <c r="W217">
+        <v>0</v>
+      </c>
+      <c r="X217" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y217" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z217">
+        <v>1</v>
+      </c>
+      <c r="AA217">
+        <v>2</v>
+      </c>
+      <c r="AB217">
+        <v>1</v>
+      </c>
+      <c r="AC217" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD217" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE217" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF217" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="218" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218" t="s">
+        <v>245</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="I218" s="5">
+        <v>20</v>
+      </c>
+      <c r="J218">
+        <v>13</v>
+      </c>
+      <c r="K218">
+        <v>27</v>
+      </c>
+      <c r="L218">
+        <v>14</v>
+      </c>
+      <c r="M218">
+        <v>24</v>
+      </c>
+      <c r="N218" t="s">
+        <v>239</v>
+      </c>
+      <c r="O218" t="s">
+        <v>71</v>
+      </c>
+      <c r="P218">
+        <v>48.576512455516003</v>
+      </c>
+      <c r="Q218" s="2">
+        <v>57.544483999999997</v>
+      </c>
+      <c r="R218">
+        <v>8.2206405693950479</v>
+      </c>
+      <c r="S218">
+        <v>7.7224199288255981</v>
+      </c>
+      <c r="T218">
+        <v>25</v>
+      </c>
+      <c r="U218">
+        <v>25</v>
+      </c>
+      <c r="V218">
+        <v>1</v>
+      </c>
+      <c r="W218">
+        <v>0</v>
+      </c>
+      <c r="X218" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y218" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z218">
+        <v>1</v>
+      </c>
+      <c r="AA218">
+        <v>2</v>
+      </c>
+      <c r="AB218">
+        <v>1</v>
+      </c>
+      <c r="AC218" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD218" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE218" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF218" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="219" spans="1:32" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>1</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219" t="s">
+        <v>245</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
+      </c>
+      <c r="I219" s="5">
+        <v>20</v>
+      </c>
+      <c r="J219">
+        <v>16.5</v>
+      </c>
+      <c r="K219">
+        <v>23.5</v>
+      </c>
+      <c r="L219">
+        <v>7</v>
+      </c>
+      <c r="M219">
+        <v>24</v>
+      </c>
+      <c r="N219" t="s">
+        <v>239</v>
+      </c>
+      <c r="O219" t="s">
+        <v>71</v>
+      </c>
+      <c r="P219">
+        <v>0.249110320284714</v>
+      </c>
+      <c r="Q219">
+        <v>1.2455516014235</v>
+      </c>
+      <c r="R219">
+        <v>0.99644128113878594</v>
+      </c>
+      <c r="S219">
+        <v>0.74733096085408501</v>
+      </c>
+      <c r="T219">
+        <v>19</v>
+      </c>
+      <c r="U219">
+        <v>17</v>
+      </c>
+      <c r="V219">
+        <v>1</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y219" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z219">
+        <v>1</v>
+      </c>
+      <c r="AA219">
+        <v>2</v>
+      </c>
+      <c r="AB219">
+        <v>1</v>
+      </c>
+      <c r="AC219" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD219" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE219" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF219" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="220" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>1</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220" t="s">
+        <v>245</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+      <c r="G220">
+        <v>1</v>
+      </c>
+      <c r="I220" s="5">
+        <v>20</v>
+      </c>
+      <c r="J220">
+        <v>13</v>
+      </c>
+      <c r="K220">
+        <v>27</v>
+      </c>
+      <c r="L220">
+        <v>14</v>
+      </c>
+      <c r="M220">
+        <v>24</v>
+      </c>
+      <c r="N220" t="s">
+        <v>239</v>
+      </c>
+      <c r="O220" t="s">
+        <v>71</v>
+      </c>
+      <c r="P220">
+        <v>0.24911032028470001</v>
+      </c>
+      <c r="Q220">
+        <v>0.24911032028470001</v>
+      </c>
+      <c r="R220">
+        <v>0.249110320284714</v>
+      </c>
+      <c r="S220">
+        <v>0.99644128113879993</v>
+      </c>
+      <c r="T220">
+        <v>17</v>
+      </c>
+      <c r="U220">
+        <v>17</v>
+      </c>
+      <c r="V220">
+        <v>1</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y220" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z220">
+        <v>1</v>
+      </c>
+      <c r="AA220">
+        <v>2</v>
+      </c>
+      <c r="AB220">
+        <v>1</v>
+      </c>
+      <c r="AC220" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD220" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE220" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF220" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="221" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>1</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221" t="s">
+        <v>245</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+      <c r="G221">
+        <v>1</v>
+      </c>
+      <c r="I221" s="5">
+        <v>20</v>
+      </c>
+      <c r="J221">
+        <v>13</v>
+      </c>
+      <c r="K221">
+        <v>27</v>
+      </c>
+      <c r="L221">
+        <v>14</v>
+      </c>
+      <c r="M221">
+        <v>24</v>
+      </c>
+      <c r="N221" t="s">
+        <v>239</v>
+      </c>
+      <c r="O221" t="s">
+        <v>71</v>
+      </c>
+      <c r="P221">
+        <v>0.249110320284714</v>
+      </c>
+      <c r="Q221">
+        <v>0.24911032028470001</v>
+      </c>
+      <c r="R221">
+        <v>0.99644128113878594</v>
+      </c>
+      <c r="S221">
+        <v>0.99644128113879993</v>
+      </c>
+      <c r="T221">
+        <v>19</v>
+      </c>
+      <c r="U221">
+        <v>17</v>
+      </c>
+      <c r="V221">
+        <v>1</v>
+      </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y221" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z221">
+        <v>1</v>
+      </c>
+      <c r="AA221">
+        <v>2</v>
+      </c>
+      <c r="AB221">
+        <v>1</v>
+      </c>
+      <c r="AC221" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD221" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE221" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF221" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="222" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>1</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222" t="s">
+        <v>251</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="I222" s="5">
+        <v>18</v>
+      </c>
+      <c r="J222">
+        <v>16</v>
+      </c>
+      <c r="K222">
+        <v>20</v>
+      </c>
+      <c r="L222">
+        <v>4</v>
+      </c>
+      <c r="M222">
+        <v>24</v>
+      </c>
+      <c r="N222" t="s">
+        <v>252</v>
+      </c>
+      <c r="O222" t="s">
+        <v>256</v>
+      </c>
+      <c r="P222">
+        <v>1.78</v>
+      </c>
+      <c r="Q222">
+        <v>7.14</v>
+      </c>
+      <c r="R222">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S222">
+        <v>1.42</v>
+      </c>
+      <c r="T222">
+        <v>5</v>
+      </c>
+      <c r="U222">
+        <v>5</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y222" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z222">
+        <v>1</v>
+      </c>
+      <c r="AA222">
+        <v>1</v>
+      </c>
+      <c r="AB222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>1</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223" t="s">
+        <v>251</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+      <c r="I223" s="5">
+        <v>18</v>
+      </c>
+      <c r="J223">
+        <v>14</v>
+      </c>
+      <c r="K223">
+        <v>22</v>
+      </c>
+      <c r="L223">
+        <v>8</v>
+      </c>
+      <c r="M223">
+        <v>24</v>
+      </c>
+      <c r="N223" t="s">
+        <v>252</v>
+      </c>
+      <c r="O223" t="s">
+        <v>256</v>
+      </c>
+      <c r="P223">
+        <v>1.78</v>
+      </c>
+      <c r="Q223">
+        <v>4.53</v>
+      </c>
+      <c r="R223">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S223">
+        <v>0.84</v>
+      </c>
+      <c r="T223">
+        <v>5</v>
+      </c>
+      <c r="U223">
+        <v>5</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y223" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z223">
+        <v>1</v>
+      </c>
+      <c r="AA223">
+        <v>1</v>
+      </c>
+      <c r="AB223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>1</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224" t="s">
+        <v>251</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="I224" s="5">
+        <v>18</v>
+      </c>
+      <c r="J224">
+        <v>12</v>
+      </c>
+      <c r="K224">
+        <v>24</v>
+      </c>
+      <c r="L224">
+        <v>12</v>
+      </c>
+      <c r="M224">
+        <v>24</v>
+      </c>
+      <c r="N224" t="s">
+        <v>252</v>
+      </c>
+      <c r="O224" t="s">
+        <v>256</v>
+      </c>
+      <c r="P224">
+        <v>1.78</v>
+      </c>
+      <c r="Q224">
+        <v>2.9</v>
+      </c>
+      <c r="R224">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S224">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T224">
+        <v>5</v>
+      </c>
+      <c r="U224">
+        <v>5</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y224" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z224">
+        <v>1</v>
+      </c>
+      <c r="AA224">
+        <v>1</v>
+      </c>
+      <c r="AB224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>2</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225" t="s">
+        <v>251</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+      <c r="I225" s="5">
+        <v>18</v>
+      </c>
+      <c r="J225">
+        <v>16</v>
+      </c>
+      <c r="K225">
+        <v>20</v>
+      </c>
+      <c r="L225">
+        <v>4</v>
+      </c>
+      <c r="M225">
+        <v>24</v>
+      </c>
+      <c r="N225" t="s">
+        <v>255</v>
+      </c>
+      <c r="O225" t="s">
+        <v>256</v>
+      </c>
+      <c r="P225">
+        <v>47.93</v>
+      </c>
+      <c r="Q225">
+        <v>58.54</v>
+      </c>
+      <c r="R225">
+        <v>4.07</v>
+      </c>
+      <c r="S225">
+        <v>6.24</v>
+      </c>
+      <c r="T225">
+        <v>5</v>
+      </c>
+      <c r="U225">
+        <v>5</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y225" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z225">
+        <v>1</v>
+      </c>
+      <c r="AA225">
+        <v>1</v>
+      </c>
+      <c r="AB225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>2</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226" t="s">
+        <v>251</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="I226" s="5">
+        <v>18</v>
+      </c>
+      <c r="J226">
+        <v>14</v>
+      </c>
+      <c r="K226">
+        <v>22</v>
+      </c>
+      <c r="L226">
+        <v>8</v>
+      </c>
+      <c r="M226">
+        <v>24</v>
+      </c>
+      <c r="N226" t="s">
+        <v>255</v>
+      </c>
+      <c r="O226" t="s">
+        <v>256</v>
+      </c>
+      <c r="P226">
+        <v>47.93</v>
+      </c>
+      <c r="Q226">
+        <v>43.49</v>
+      </c>
+      <c r="R226">
+        <v>4.07</v>
+      </c>
+      <c r="S226">
+        <v>5.94</v>
+      </c>
+      <c r="T226">
+        <v>5</v>
+      </c>
+      <c r="U226">
+        <v>5</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y226" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z226">
+        <v>1</v>
+      </c>
+      <c r="AA226">
+        <v>1</v>
+      </c>
+      <c r="AB226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>2</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227" t="s">
+        <v>251</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>1</v>
+      </c>
+      <c r="I227" s="5">
+        <v>18</v>
+      </c>
+      <c r="J227">
+        <v>12</v>
+      </c>
+      <c r="K227">
+        <v>24</v>
+      </c>
+      <c r="L227">
+        <v>12</v>
+      </c>
+      <c r="M227">
+        <v>24</v>
+      </c>
+      <c r="N227" t="s">
+        <v>255</v>
+      </c>
+      <c r="O227" t="s">
+        <v>256</v>
+      </c>
+      <c r="P227">
+        <v>47.93</v>
+      </c>
+      <c r="Q227">
+        <v>37.03</v>
+      </c>
+      <c r="R227">
+        <v>4.07</v>
+      </c>
+      <c r="S227">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="T227">
+        <v>5</v>
+      </c>
+      <c r="U227">
+        <v>5</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y227" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z227">
+        <v>1</v>
+      </c>
+      <c r="AA227">
+        <v>1</v>
+      </c>
+      <c r="AB227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>3</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228" t="s">
+        <v>251</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>1</v>
+      </c>
+      <c r="I228" s="5">
+        <v>18</v>
+      </c>
+      <c r="J228">
+        <v>16</v>
+      </c>
+      <c r="K228">
+        <v>20</v>
+      </c>
+      <c r="L228">
+        <v>4</v>
+      </c>
+      <c r="M228">
+        <v>24</v>
+      </c>
+      <c r="N228" t="s">
+        <v>257</v>
+      </c>
+      <c r="O228" t="s">
+        <v>256</v>
+      </c>
+      <c r="P228">
+        <v>49.71</v>
+      </c>
+      <c r="Q228">
+        <v>41.27</v>
+      </c>
+      <c r="R228">
+        <v>5.96</v>
+      </c>
+      <c r="S228">
+        <v>8.82</v>
+      </c>
+      <c r="T228">
+        <v>5</v>
+      </c>
+      <c r="U228">
+        <v>5</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y228" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z228">
+        <v>1</v>
+      </c>
+      <c r="AA228">
+        <v>1</v>
+      </c>
+      <c r="AB228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>3</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>251</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+      <c r="I229" s="5">
+        <v>18</v>
+      </c>
+      <c r="J229">
+        <v>14</v>
+      </c>
+      <c r="K229">
+        <v>22</v>
+      </c>
+      <c r="L229">
+        <v>8</v>
+      </c>
+      <c r="M229">
+        <v>24</v>
+      </c>
+      <c r="N229" t="s">
+        <v>257</v>
+      </c>
+      <c r="O229" t="s">
+        <v>256</v>
+      </c>
+      <c r="P229">
+        <v>49.71</v>
+      </c>
+      <c r="Q229">
+        <v>62.89</v>
+      </c>
+      <c r="R229">
+        <v>5.96</v>
+      </c>
+      <c r="S229">
+        <v>3.73</v>
+      </c>
+      <c r="T229">
+        <v>5</v>
+      </c>
+      <c r="U229">
+        <v>5</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y229" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z229">
+        <v>1</v>
+      </c>
+      <c r="AA229">
+        <v>1</v>
+      </c>
+      <c r="AB229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>3</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230" t="s">
+        <v>251</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+      <c r="I230" s="5">
+        <v>18</v>
+      </c>
+      <c r="J230">
+        <v>12</v>
+      </c>
+      <c r="K230">
+        <v>24</v>
+      </c>
+      <c r="L230">
+        <v>12</v>
+      </c>
+      <c r="M230">
+        <v>24</v>
+      </c>
+      <c r="N230" t="s">
+        <v>257</v>
+      </c>
+      <c r="O230" t="s">
+        <v>256</v>
+      </c>
+      <c r="P230">
+        <v>49.71</v>
+      </c>
+      <c r="Q230">
+        <v>66.17</v>
+      </c>
+      <c r="R230">
+        <v>5.96</v>
+      </c>
+      <c r="S230">
+        <v>4.57</v>
+      </c>
+      <c r="T230">
+        <v>5</v>
+      </c>
+      <c r="U230">
+        <v>5</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y230" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z230">
+        <v>1</v>
+      </c>
+      <c r="AA230">
+        <v>1</v>
+      </c>
+      <c r="AB230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>4</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
+        <v>251</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
+      </c>
+      <c r="I231" s="5">
+        <v>18</v>
+      </c>
+      <c r="J231">
+        <v>16</v>
+      </c>
+      <c r="K231">
+        <v>20</v>
+      </c>
+      <c r="L231">
+        <v>4</v>
+      </c>
+      <c r="M231">
+        <v>24</v>
+      </c>
+      <c r="N231" t="s">
+        <v>258</v>
+      </c>
+      <c r="O231" t="s">
+        <v>256</v>
+      </c>
+      <c r="P231">
+        <v>42.59</v>
+      </c>
+      <c r="Q231">
+        <v>52.57</v>
+      </c>
+      <c r="R231">
+        <v>5.09</v>
+      </c>
+      <c r="S231">
+        <v>4.29</v>
+      </c>
+      <c r="T231">
+        <v>5</v>
+      </c>
+      <c r="U231">
+        <v>5</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y231" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z231">
+        <v>1</v>
+      </c>
+      <c r="AA231">
+        <v>1</v>
+      </c>
+      <c r="AB231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>4</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232" t="s">
+        <v>251</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+      <c r="I232" s="5">
+        <v>18</v>
+      </c>
+      <c r="J232">
+        <v>14</v>
+      </c>
+      <c r="K232">
+        <v>22</v>
+      </c>
+      <c r="L232">
+        <v>8</v>
+      </c>
+      <c r="M232">
+        <v>24</v>
+      </c>
+      <c r="N232" t="s">
+        <v>258</v>
+      </c>
+      <c r="O232" t="s">
+        <v>256</v>
+      </c>
+      <c r="P232">
+        <v>42.59</v>
+      </c>
+      <c r="Q232">
+        <v>48.74</v>
+      </c>
+      <c r="R232">
+        <v>5.09</v>
+      </c>
+      <c r="S232">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="T232">
+        <v>5</v>
+      </c>
+      <c r="U232">
+        <v>5</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y232" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z232">
+        <v>1</v>
+      </c>
+      <c r="AA232">
+        <v>1</v>
+      </c>
+      <c r="AB232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>4</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233" t="s">
+        <v>251</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>1</v>
+      </c>
+      <c r="I233" s="5">
+        <v>18</v>
+      </c>
+      <c r="J233">
+        <v>12</v>
+      </c>
+      <c r="K233">
+        <v>24</v>
+      </c>
+      <c r="L233">
+        <v>12</v>
+      </c>
+      <c r="M233">
+        <v>24</v>
+      </c>
+      <c r="N233" t="s">
+        <v>258</v>
+      </c>
+      <c r="O233" t="s">
+        <v>256</v>
+      </c>
+      <c r="P233">
+        <v>42.59</v>
+      </c>
+      <c r="Q233">
+        <v>52.55</v>
+      </c>
+      <c r="R233">
+        <v>5.09</v>
+      </c>
+      <c r="S233">
+        <v>4.92</v>
+      </c>
+      <c r="T233">
+        <v>5</v>
+      </c>
+      <c r="U233">
+        <v>5</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y233" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z233">
+        <v>1</v>
+      </c>
+      <c r="AA233">
+        <v>1</v>
+      </c>
+      <c r="AB233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>5</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
+        <v>251</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+      <c r="I234" s="5">
+        <v>18</v>
+      </c>
+      <c r="J234">
+        <v>16</v>
+      </c>
+      <c r="K234">
+        <v>20</v>
+      </c>
+      <c r="L234">
+        <v>4</v>
+      </c>
+      <c r="M234">
+        <v>24</v>
+      </c>
+      <c r="N234" t="s">
+        <v>259</v>
+      </c>
+      <c r="O234" t="s">
+        <v>260</v>
+      </c>
+      <c r="P234">
+        <v>21.11</v>
+      </c>
+      <c r="Q234">
+        <v>7.69</v>
+      </c>
+      <c r="R234">
+        <v>10.66</v>
+      </c>
+      <c r="S234">
+        <v>5.19</v>
+      </c>
+      <c r="T234">
+        <v>5</v>
+      </c>
+      <c r="U234">
+        <v>5</v>
+      </c>
+      <c r="V234">
+        <v>0</v>
+      </c>
+      <c r="W234">
+        <v>0</v>
+      </c>
+      <c r="X234" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y234" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z234">
+        <v>1</v>
+      </c>
+      <c r="AA234">
+        <v>1</v>
+      </c>
+      <c r="AB234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>5</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235" t="s">
+        <v>251</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+      <c r="I235" s="5">
+        <v>18</v>
+      </c>
+      <c r="J235">
+        <v>14</v>
+      </c>
+      <c r="K235">
+        <v>22</v>
+      </c>
+      <c r="L235">
+        <v>8</v>
+      </c>
+      <c r="M235">
+        <v>24</v>
+      </c>
+      <c r="N235" t="s">
+        <v>259</v>
+      </c>
+      <c r="O235" t="s">
+        <v>260</v>
+      </c>
+      <c r="P235">
+        <v>21.11</v>
+      </c>
+      <c r="Q235">
+        <v>35.99</v>
+      </c>
+      <c r="R235">
+        <v>10.66</v>
+      </c>
+      <c r="S235">
+        <v>17.37</v>
+      </c>
+      <c r="T235">
+        <v>5</v>
+      </c>
+      <c r="U235">
+        <v>5</v>
+      </c>
+      <c r="V235">
+        <v>0</v>
+      </c>
+      <c r="W235">
+        <v>0</v>
+      </c>
+      <c r="X235" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y235" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z235">
+        <v>1</v>
+      </c>
+      <c r="AA235">
+        <v>1</v>
+      </c>
+      <c r="AB235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>5</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236" t="s">
+        <v>251</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
+      <c r="I236" s="5">
+        <v>18</v>
+      </c>
+      <c r="J236">
+        <v>12</v>
+      </c>
+      <c r="K236">
+        <v>24</v>
+      </c>
+      <c r="L236">
+        <v>12</v>
+      </c>
+      <c r="M236">
+        <v>24</v>
+      </c>
+      <c r="N236" t="s">
+        <v>259</v>
+      </c>
+      <c r="O236" t="s">
+        <v>260</v>
+      </c>
+      <c r="P236">
+        <v>21.11</v>
+      </c>
+      <c r="Q236">
+        <v>97.01</v>
+      </c>
+      <c r="R236">
+        <v>10.66</v>
+      </c>
+      <c r="S236">
+        <v>20.72</v>
+      </c>
+      <c r="T236">
+        <v>5</v>
+      </c>
+      <c r="U236">
+        <v>5</v>
+      </c>
+      <c r="V236">
+        <v>0</v>
+      </c>
+      <c r="W236">
+        <v>0</v>
+      </c>
+      <c r="X236" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y236" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z236">
+        <v>1</v>
+      </c>
+      <c r="AA236">
+        <v>1</v>
+      </c>
+      <c r="AB236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>1</v>
+      </c>
+      <c r="B237">
+        <v>2</v>
+      </c>
+      <c r="C237" t="s">
+        <v>251</v>
+      </c>
+      <c r="D237" t="s">
+        <v>207</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="I237" s="5">
+        <v>18</v>
+      </c>
+      <c r="J237">
+        <v>16</v>
+      </c>
+      <c r="K237">
+        <v>20</v>
+      </c>
+      <c r="L237">
+        <v>4</v>
+      </c>
+      <c r="M237">
+        <v>24</v>
+      </c>
+      <c r="N237" t="s">
+        <v>261</v>
+      </c>
+      <c r="O237" t="s">
+        <v>31</v>
+      </c>
+      <c r="P237">
+        <v>4.8267477203647404</v>
+      </c>
+      <c r="Q237">
+        <v>6.1945288753799304</v>
+      </c>
+      <c r="R237">
+        <v>0.38753799392097532</v>
+      </c>
+      <c r="S237">
+        <v>0.28115501519756503</v>
+      </c>
+      <c r="T237">
+        <v>5</v>
+      </c>
+      <c r="U237">
+        <v>5</v>
+      </c>
+      <c r="V237">
+        <v>0</v>
+      </c>
+      <c r="W237">
+        <v>0</v>
+      </c>
+      <c r="X237" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y237" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z237">
+        <v>1</v>
+      </c>
+      <c r="AA237">
+        <v>1</v>
+      </c>
+      <c r="AB237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>1</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="C238" t="s">
+        <v>251</v>
+      </c>
+      <c r="D238" t="s">
+        <v>207</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="I238" s="5">
+        <v>18</v>
+      </c>
+      <c r="J238">
+        <v>14</v>
+      </c>
+      <c r="K238">
+        <v>22</v>
+      </c>
+      <c r="L238">
+        <v>8</v>
+      </c>
+      <c r="M238">
+        <v>24</v>
+      </c>
+      <c r="N238" t="s">
+        <v>261</v>
+      </c>
+      <c r="O238" t="s">
+        <v>31</v>
+      </c>
+      <c r="P238">
+        <v>4.8267477203647404</v>
+      </c>
+      <c r="Q238">
+        <v>4.5531914893616996</v>
+      </c>
+      <c r="R238">
+        <v>0.38753799392097532</v>
+      </c>
+      <c r="S238">
+        <v>0.41033434650456035</v>
+      </c>
+      <c r="T238">
+        <v>5</v>
+      </c>
+      <c r="U238">
+        <v>5</v>
+      </c>
+      <c r="V238">
+        <v>0</v>
+      </c>
+      <c r="W238">
+        <v>0</v>
+      </c>
+      <c r="X238" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y238" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z238">
+        <v>1</v>
+      </c>
+      <c r="AA238">
+        <v>1</v>
+      </c>
+      <c r="AB238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>1</v>
+      </c>
+      <c r="B239">
+        <v>2</v>
+      </c>
+      <c r="C239" t="s">
+        <v>251</v>
+      </c>
+      <c r="D239" t="s">
+        <v>207</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="I239" s="5">
+        <v>18</v>
+      </c>
+      <c r="J239">
+        <v>12</v>
+      </c>
+      <c r="K239">
+        <v>24</v>
+      </c>
+      <c r="L239">
+        <v>12</v>
+      </c>
+      <c r="M239">
+        <v>24</v>
+      </c>
+      <c r="N239" t="s">
+        <v>261</v>
+      </c>
+      <c r="O239" t="s">
+        <v>31</v>
+      </c>
+      <c r="P239">
+        <v>4.8267477203647404</v>
+      </c>
+      <c r="Q239">
+        <v>3.8085106382978702</v>
+      </c>
+      <c r="R239">
+        <v>0.38753799392097532</v>
+      </c>
+      <c r="S239">
+        <v>0.5091185410334349</v>
+      </c>
+      <c r="T239">
+        <v>5</v>
+      </c>
+      <c r="U239">
+        <v>5</v>
+      </c>
+      <c r="V239">
+        <v>0</v>
+      </c>
+      <c r="W239">
+        <v>0</v>
+      </c>
+      <c r="X239" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y239" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z239">
+        <v>1</v>
+      </c>
+      <c r="AA239">
+        <v>1</v>
+      </c>
+      <c r="AB239">
         <v>2</v>
       </c>
     </row>

--- a/shared analysis files /metafor.xlsx
+++ b/shared analysis files /metafor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/shared analysis files /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F878ECD-5B85-4946-A87F-95D02C11884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1B740A-9C26-1F4D-80DE-14E7FF11886B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28960" yWindow="-11920" windowWidth="24000" windowHeight="15900" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
+    <workbookView xWindow="28500" yWindow="-12460" windowWidth="24000" windowHeight="14500" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
   </bookViews>
   <sheets>
     <sheet name="metafor" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="302">
   <si>
     <t>study_id</t>
   </si>
@@ -811,6 +811,126 @@
   </si>
   <si>
     <t xml:space="preserve">group mean body weight </t>
+  </si>
+  <si>
+    <t>Figure 3a</t>
+  </si>
+  <si>
+    <t>Figure 3b</t>
+  </si>
+  <si>
+    <t>maek2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tribolium </t>
+  </si>
+  <si>
+    <t>castaneum </t>
+  </si>
+  <si>
+    <t>michel2010</t>
+  </si>
+  <si>
+    <t>body size</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vipera </t>
+  </si>
+  <si>
+    <t>aspis</t>
+  </si>
+  <si>
+    <t>peng2014</t>
+  </si>
+  <si>
+    <t>final mass</t>
+  </si>
+  <si>
+    <t>final length</t>
+  </si>
+  <si>
+    <t>specific growth rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feeding rate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">feeding efficiency </t>
+  </si>
+  <si>
+    <t>percent *d^-1</t>
+  </si>
+  <si>
+    <t>percent body mass * d^-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parabramis </t>
+  </si>
+  <si>
+    <t>pekinensis</t>
+  </si>
+  <si>
+    <t>saatkamp2011</t>
+  </si>
+  <si>
+    <t>Figure 2a</t>
+  </si>
+  <si>
+    <t>Figure 2b</t>
+  </si>
+  <si>
+    <t>Figure 2c</t>
+  </si>
+  <si>
+    <t>germination pattern</t>
+  </si>
+  <si>
+    <t>number of germinated seeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papaver </t>
+  </si>
+  <si>
+    <t>argemone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Androsace </t>
+  </si>
+  <si>
+    <t>maxima</t>
+  </si>
+  <si>
+    <t>Vaccaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hispanica</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>light exposure</t>
+  </si>
+  <si>
+    <t>sheldon2020</t>
+  </si>
+  <si>
+    <t>glycogen mass</t>
+  </si>
+  <si>
+    <t>lipid mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phanaeus </t>
+  </si>
+  <si>
+    <t>vindex</t>
   </si>
 </sst>
 </file>
@@ -1177,11 +1297,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCFBC2B-929F-FD41-8C91-75842D1EBA74}">
-  <dimension ref="A1:AK239"/>
+  <dimension ref="A1:AK265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z237" sqref="Z237:AB239"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W268" sqref="W268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23165,6 +23285,2212 @@
         <v>2</v>
       </c>
     </row>
+    <row r="240" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>1</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240" t="s">
+        <v>264</v>
+      </c>
+      <c r="D240" t="s">
+        <v>207</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="I240">
+        <v>25</v>
+      </c>
+      <c r="J240">
+        <v>20</v>
+      </c>
+      <c r="K240">
+        <v>30</v>
+      </c>
+      <c r="L240">
+        <v>10</v>
+      </c>
+      <c r="M240">
+        <v>24</v>
+      </c>
+      <c r="N240" t="s">
+        <v>121</v>
+      </c>
+      <c r="O240" t="s">
+        <v>42</v>
+      </c>
+      <c r="P240">
+        <v>42.396734733900402</v>
+      </c>
+      <c r="Q240">
+        <v>37.772902213614998</v>
+      </c>
+      <c r="R240">
+        <v>4.2860766161617807</v>
+      </c>
+      <c r="S240">
+        <v>5.1039634982850908</v>
+      </c>
+      <c r="T240">
+        <v>346</v>
+      </c>
+      <c r="U240">
+        <v>371</v>
+      </c>
+      <c r="V240">
+        <v>1</v>
+      </c>
+      <c r="W240">
+        <v>1</v>
+      </c>
+      <c r="X240" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y240" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z240">
+        <v>1</v>
+      </c>
+      <c r="AA240">
+        <v>0</v>
+      </c>
+      <c r="AB240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>1</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241" t="s">
+        <v>264</v>
+      </c>
+      <c r="D241" t="s">
+        <v>207</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="I241">
+        <v>30</v>
+      </c>
+      <c r="J241">
+        <v>25</v>
+      </c>
+      <c r="K241">
+        <v>35</v>
+      </c>
+      <c r="L241">
+        <v>10</v>
+      </c>
+      <c r="M241">
+        <v>24</v>
+      </c>
+      <c r="N241" t="s">
+        <v>121</v>
+      </c>
+      <c r="O241" t="s">
+        <v>42</v>
+      </c>
+      <c r="P241">
+        <v>24.122521020763301</v>
+      </c>
+      <c r="Q241">
+        <v>26.003113279238999</v>
+      </c>
+      <c r="R241">
+        <v>5.0247262910146659</v>
+      </c>
+      <c r="S241">
+        <v>4.9474140569569345</v>
+      </c>
+      <c r="T241">
+        <v>393</v>
+      </c>
+      <c r="U241">
+        <v>381</v>
+      </c>
+      <c r="V241">
+        <v>1</v>
+      </c>
+      <c r="W241">
+        <v>1</v>
+      </c>
+      <c r="X241" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y241" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z241">
+        <v>1</v>
+      </c>
+      <c r="AA241">
+        <v>0</v>
+      </c>
+      <c r="AB241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>1</v>
+      </c>
+      <c r="B242">
+        <v>2</v>
+      </c>
+      <c r="C242" t="s">
+        <v>264</v>
+      </c>
+      <c r="D242" t="s">
+        <v>262</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="I242">
+        <v>25</v>
+      </c>
+      <c r="J242">
+        <v>20</v>
+      </c>
+      <c r="K242">
+        <v>30</v>
+      </c>
+      <c r="L242">
+        <v>10</v>
+      </c>
+      <c r="M242">
+        <v>24</v>
+      </c>
+      <c r="N242" t="s">
+        <v>30</v>
+      </c>
+      <c r="O242" t="s">
+        <v>48</v>
+      </c>
+      <c r="P242">
+        <v>2.1613740458015198</v>
+      </c>
+      <c r="Q242">
+        <v>2.2826717557251901</v>
+      </c>
+      <c r="R242">
+        <v>1.159426258256486</v>
+      </c>
+      <c r="S242">
+        <v>1.2005850228742168</v>
+      </c>
+      <c r="T242">
+        <v>346</v>
+      </c>
+      <c r="U242">
+        <v>371</v>
+      </c>
+      <c r="V242">
+        <v>1</v>
+      </c>
+      <c r="W242">
+        <v>1</v>
+      </c>
+      <c r="X242" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y242" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z242">
+        <v>1</v>
+      </c>
+      <c r="AA242">
+        <v>0</v>
+      </c>
+      <c r="AB242">
+        <v>1</v>
+      </c>
+      <c r="AC242" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD242" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="243" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>1</v>
+      </c>
+      <c r="B243">
+        <v>2</v>
+      </c>
+      <c r="C243" t="s">
+        <v>264</v>
+      </c>
+      <c r="D243" t="s">
+        <v>262</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="I243">
+        <v>30</v>
+      </c>
+      <c r="J243">
+        <v>25</v>
+      </c>
+      <c r="K243">
+        <v>35</v>
+      </c>
+      <c r="L243">
+        <v>10</v>
+      </c>
+      <c r="M243">
+        <v>24</v>
+      </c>
+      <c r="N243" t="s">
+        <v>30</v>
+      </c>
+      <c r="O243" t="s">
+        <v>48</v>
+      </c>
+      <c r="P243">
+        <v>2.30458015267175</v>
+      </c>
+      <c r="Q243">
+        <v>2.2746564885496099</v>
+      </c>
+      <c r="R243">
+        <v>1.2301548156154944</v>
+      </c>
+      <c r="S243">
+        <v>1.2112272140857991</v>
+      </c>
+      <c r="T243">
+        <v>393</v>
+      </c>
+      <c r="U243">
+        <v>381</v>
+      </c>
+      <c r="V243">
+        <v>1</v>
+      </c>
+      <c r="W243">
+        <v>1</v>
+      </c>
+      <c r="X243" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y243" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z243">
+        <v>1</v>
+      </c>
+      <c r="AA243">
+        <v>0</v>
+      </c>
+      <c r="AB243">
+        <v>1</v>
+      </c>
+      <c r="AC243" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD243" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="244" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>1</v>
+      </c>
+      <c r="B244">
+        <v>2</v>
+      </c>
+      <c r="C244" t="s">
+        <v>264</v>
+      </c>
+      <c r="D244" t="s">
+        <v>263</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="I244">
+        <v>25</v>
+      </c>
+      <c r="J244">
+        <v>20</v>
+      </c>
+      <c r="K244">
+        <v>30</v>
+      </c>
+      <c r="L244">
+        <v>10</v>
+      </c>
+      <c r="M244">
+        <v>24</v>
+      </c>
+      <c r="N244" t="s">
+        <v>30</v>
+      </c>
+      <c r="O244" t="s">
+        <v>48</v>
+      </c>
+      <c r="P244">
+        <v>2.0689312977099199</v>
+      </c>
+      <c r="Q244">
+        <v>2.19022900763358</v>
+      </c>
+      <c r="R244">
+        <v>1.1542502481750587</v>
+      </c>
+      <c r="S244">
+        <v>1.1952252683077982</v>
+      </c>
+      <c r="T244">
+        <v>346</v>
+      </c>
+      <c r="U244">
+        <v>371</v>
+      </c>
+      <c r="V244">
+        <v>1</v>
+      </c>
+      <c r="W244">
+        <v>1</v>
+      </c>
+      <c r="X244" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y244" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z244">
+        <v>1</v>
+      </c>
+      <c r="AA244">
+        <v>0</v>
+      </c>
+      <c r="AB244">
+        <v>1</v>
+      </c>
+      <c r="AC244" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD244" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>1</v>
+      </c>
+      <c r="B245">
+        <v>2</v>
+      </c>
+      <c r="C245" t="s">
+        <v>264</v>
+      </c>
+      <c r="D245" t="s">
+        <v>263</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="G245">
+        <v>1</v>
+      </c>
+      <c r="I245">
+        <v>30</v>
+      </c>
+      <c r="J245">
+        <v>25</v>
+      </c>
+      <c r="K245">
+        <v>35</v>
+      </c>
+      <c r="L245">
+        <v>10</v>
+      </c>
+      <c r="M245">
+        <v>24</v>
+      </c>
+      <c r="N245" t="s">
+        <v>30</v>
+      </c>
+      <c r="O245" t="s">
+        <v>48</v>
+      </c>
+      <c r="P245">
+        <v>2.2233587786259501</v>
+      </c>
+      <c r="Q245">
+        <v>2.1800763358778599</v>
+      </c>
+      <c r="R245">
+        <v>1.2356712049232081</v>
+      </c>
+      <c r="S245">
+        <v>1.2057957019149945</v>
+      </c>
+      <c r="T245">
+        <v>393</v>
+      </c>
+      <c r="U245">
+        <v>381</v>
+      </c>
+      <c r="V245">
+        <v>1</v>
+      </c>
+      <c r="W245">
+        <v>1</v>
+      </c>
+      <c r="X245" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y245" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z245">
+        <v>1</v>
+      </c>
+      <c r="AA245">
+        <v>0</v>
+      </c>
+      <c r="AB245">
+        <v>1</v>
+      </c>
+      <c r="AC245" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD245" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>1</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246" t="s">
+        <v>267</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+      <c r="G246">
+        <v>1</v>
+      </c>
+      <c r="I246">
+        <v>23</v>
+      </c>
+      <c r="J246">
+        <v>18</v>
+      </c>
+      <c r="K246">
+        <v>28</v>
+      </c>
+      <c r="L246">
+        <v>10</v>
+      </c>
+      <c r="M246" s="2">
+        <v>24</v>
+      </c>
+      <c r="N246" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O246" t="s">
+        <v>31</v>
+      </c>
+      <c r="P246" s="2">
+        <v>73.880596999999995</v>
+      </c>
+      <c r="Q246" s="2">
+        <v>71.300639700000005</v>
+      </c>
+      <c r="R246">
+        <v>26.9722814</v>
+      </c>
+      <c r="S246">
+        <v>25.095948799999999</v>
+      </c>
+      <c r="T246">
+        <v>8</v>
+      </c>
+      <c r="U246">
+        <v>8</v>
+      </c>
+      <c r="V246">
+        <v>1</v>
+      </c>
+      <c r="W246">
+        <v>0</v>
+      </c>
+      <c r="X246" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y246" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z246">
+        <v>1</v>
+      </c>
+      <c r="AA246">
+        <v>2</v>
+      </c>
+      <c r="AB246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>1</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247" t="s">
+        <v>267</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+      <c r="I247">
+        <v>23</v>
+      </c>
+      <c r="J247">
+        <v>18</v>
+      </c>
+      <c r="K247">
+        <v>28</v>
+      </c>
+      <c r="L247">
+        <v>10</v>
+      </c>
+      <c r="M247" s="2">
+        <v>12</v>
+      </c>
+      <c r="N247" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O247" t="s">
+        <v>31</v>
+      </c>
+      <c r="P247" s="2">
+        <v>73.880596999999995</v>
+      </c>
+      <c r="Q247" s="2">
+        <v>76.695095899999998</v>
+      </c>
+      <c r="R247">
+        <v>26.9722814</v>
+      </c>
+      <c r="S247">
+        <v>26.268656700000001</v>
+      </c>
+      <c r="T247">
+        <v>8</v>
+      </c>
+      <c r="U247">
+        <v>8</v>
+      </c>
+      <c r="V247">
+        <v>1</v>
+      </c>
+      <c r="W247">
+        <v>0</v>
+      </c>
+      <c r="X247" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y247" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z247">
+        <v>1</v>
+      </c>
+      <c r="AA247">
+        <v>2</v>
+      </c>
+      <c r="AB247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>1</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248" t="s">
+        <v>267</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="I248">
+        <v>23</v>
+      </c>
+      <c r="J248">
+        <v>18</v>
+      </c>
+      <c r="K248">
+        <v>28</v>
+      </c>
+      <c r="L248">
+        <v>10</v>
+      </c>
+      <c r="M248" s="2">
+        <v>48</v>
+      </c>
+      <c r="N248" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O248" t="s">
+        <v>31</v>
+      </c>
+      <c r="P248" s="2">
+        <v>73.880596999999995</v>
+      </c>
+      <c r="Q248" s="2">
+        <v>73.176972300000003</v>
+      </c>
+      <c r="R248">
+        <v>26.9722814</v>
+      </c>
+      <c r="S248">
+        <v>22.515991499999998</v>
+      </c>
+      <c r="T248">
+        <v>8</v>
+      </c>
+      <c r="U248">
+        <v>8</v>
+      </c>
+      <c r="V248">
+        <v>1</v>
+      </c>
+      <c r="W248">
+        <v>0</v>
+      </c>
+      <c r="X248" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y248" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z248">
+        <v>1</v>
+      </c>
+      <c r="AA248">
+        <v>2</v>
+      </c>
+      <c r="AB248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>2</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249" t="s">
+        <v>267</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="I249">
+        <v>23</v>
+      </c>
+      <c r="J249">
+        <v>18</v>
+      </c>
+      <c r="K249">
+        <v>28</v>
+      </c>
+      <c r="L249">
+        <v>10</v>
+      </c>
+      <c r="M249" s="2">
+        <v>24</v>
+      </c>
+      <c r="N249" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="O249" t="s">
+        <v>269</v>
+      </c>
+      <c r="P249" s="2">
+        <v>209.21108699999999</v>
+      </c>
+      <c r="Q249" s="2">
+        <v>209.91471200000001</v>
+      </c>
+      <c r="R249">
+        <v>9.61620469</v>
+      </c>
+      <c r="S249">
+        <v>10.0852878</v>
+      </c>
+      <c r="T249">
+        <v>8</v>
+      </c>
+      <c r="U249">
+        <v>8</v>
+      </c>
+      <c r="V249">
+        <v>1</v>
+      </c>
+      <c r="W249">
+        <v>0</v>
+      </c>
+      <c r="X249" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y249" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z249">
+        <v>1</v>
+      </c>
+      <c r="AA249">
+        <v>2</v>
+      </c>
+      <c r="AB249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>2</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250" t="s">
+        <v>267</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+      <c r="I250">
+        <v>23</v>
+      </c>
+      <c r="J250">
+        <v>18</v>
+      </c>
+      <c r="K250">
+        <v>28</v>
+      </c>
+      <c r="L250">
+        <v>10</v>
+      </c>
+      <c r="M250" s="2">
+        <v>12</v>
+      </c>
+      <c r="N250" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="O250" t="s">
+        <v>269</v>
+      </c>
+      <c r="P250" s="2">
+        <v>209.21108699999999</v>
+      </c>
+      <c r="Q250" s="2">
+        <v>209.445629</v>
+      </c>
+      <c r="R250">
+        <v>9.61620469</v>
+      </c>
+      <c r="S250">
+        <v>10.554371</v>
+      </c>
+      <c r="T250">
+        <v>8</v>
+      </c>
+      <c r="U250">
+        <v>8</v>
+      </c>
+      <c r="V250">
+        <v>1</v>
+      </c>
+      <c r="W250">
+        <v>0</v>
+      </c>
+      <c r="X250" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y250" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z250">
+        <v>1</v>
+      </c>
+      <c r="AA250">
+        <v>2</v>
+      </c>
+      <c r="AB250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>2</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251" t="s">
+        <v>267</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="I251">
+        <v>23</v>
+      </c>
+      <c r="J251">
+        <v>18</v>
+      </c>
+      <c r="K251">
+        <v>28</v>
+      </c>
+      <c r="L251">
+        <v>10</v>
+      </c>
+      <c r="M251" s="2">
+        <v>48</v>
+      </c>
+      <c r="N251" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="O251" t="s">
+        <v>269</v>
+      </c>
+      <c r="P251" s="2">
+        <v>209.21108699999999</v>
+      </c>
+      <c r="Q251" s="2">
+        <v>209.21108699999999</v>
+      </c>
+      <c r="R251">
+        <v>9.61620469</v>
+      </c>
+      <c r="S251">
+        <v>10.554371</v>
+      </c>
+      <c r="T251">
+        <v>8</v>
+      </c>
+      <c r="U251">
+        <v>8</v>
+      </c>
+      <c r="V251">
+        <v>1</v>
+      </c>
+      <c r="W251">
+        <v>0</v>
+      </c>
+      <c r="X251" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y251" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z251">
+        <v>1</v>
+      </c>
+      <c r="AA251">
+        <v>2</v>
+      </c>
+      <c r="AB251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>1</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252" t="s">
+        <v>272</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="I252">
+        <v>20</v>
+      </c>
+      <c r="J252">
+        <v>15</v>
+      </c>
+      <c r="K252">
+        <v>25</v>
+      </c>
+      <c r="L252">
+        <v>10</v>
+      </c>
+      <c r="M252" s="2">
+        <v>24</v>
+      </c>
+      <c r="N252" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="O252" t="s">
+        <v>31</v>
+      </c>
+      <c r="P252" s="2">
+        <v>7.78</v>
+      </c>
+      <c r="Q252" s="2">
+        <v>7.46</v>
+      </c>
+      <c r="R252" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S252" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="T252" s="2">
+        <v>30</v>
+      </c>
+      <c r="U252" s="2">
+        <v>30</v>
+      </c>
+      <c r="V252" s="2">
+        <v>0</v>
+      </c>
+      <c r="W252" s="2">
+        <v>0</v>
+      </c>
+      <c r="X252" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y252" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z252" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA252" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>2</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253" t="s">
+        <v>272</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
+      </c>
+      <c r="I253">
+        <v>20</v>
+      </c>
+      <c r="J253">
+        <v>15</v>
+      </c>
+      <c r="K253">
+        <v>25</v>
+      </c>
+      <c r="L253">
+        <v>10</v>
+      </c>
+      <c r="M253" s="2">
+        <v>24</v>
+      </c>
+      <c r="N253" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="O253" t="s">
+        <v>269</v>
+      </c>
+      <c r="P253" s="2">
+        <v>7.54</v>
+      </c>
+      <c r="Q253" s="2">
+        <v>7.47</v>
+      </c>
+      <c r="R253" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="S253" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="T253" s="2">
+        <v>30</v>
+      </c>
+      <c r="U253" s="2">
+        <v>30</v>
+      </c>
+      <c r="V253" s="2">
+        <v>0</v>
+      </c>
+      <c r="W253" s="2">
+        <v>0</v>
+      </c>
+      <c r="X253" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y253" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z253" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA253" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>3</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254" t="s">
+        <v>272</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="I254">
+        <v>20</v>
+      </c>
+      <c r="J254">
+        <v>15</v>
+      </c>
+      <c r="K254">
+        <v>25</v>
+      </c>
+      <c r="L254">
+        <v>10</v>
+      </c>
+      <c r="M254" s="2">
+        <v>24</v>
+      </c>
+      <c r="N254" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="O254" t="s">
+        <v>278</v>
+      </c>
+      <c r="P254" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="Q254" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="R254" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="S254" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T254" s="2">
+        <v>30</v>
+      </c>
+      <c r="U254" s="2">
+        <v>30</v>
+      </c>
+      <c r="V254" s="2">
+        <v>0</v>
+      </c>
+      <c r="W254" s="2">
+        <v>0</v>
+      </c>
+      <c r="X254" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y254" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z254" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA254" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>4</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255" t="s">
+        <v>272</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="I255">
+        <v>20</v>
+      </c>
+      <c r="J255">
+        <v>15</v>
+      </c>
+      <c r="K255">
+        <v>25</v>
+      </c>
+      <c r="L255">
+        <v>10</v>
+      </c>
+      <c r="M255" s="2">
+        <v>24</v>
+      </c>
+      <c r="N255" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="O255" t="s">
+        <v>279</v>
+      </c>
+      <c r="P255" s="2">
+        <v>2.62</v>
+      </c>
+      <c r="Q255" s="2">
+        <v>3.03</v>
+      </c>
+      <c r="R255" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="S255" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="T255" s="2">
+        <v>30</v>
+      </c>
+      <c r="U255" s="2">
+        <v>30</v>
+      </c>
+      <c r="V255" s="2">
+        <v>0</v>
+      </c>
+      <c r="W255" s="2">
+        <v>0</v>
+      </c>
+      <c r="X255" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y255" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z255" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA255" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>5</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256" t="s">
+        <v>272</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="I256">
+        <v>20</v>
+      </c>
+      <c r="J256">
+        <v>15</v>
+      </c>
+      <c r="K256">
+        <v>25</v>
+      </c>
+      <c r="L256">
+        <v>10</v>
+      </c>
+      <c r="M256" s="2">
+        <v>24</v>
+      </c>
+      <c r="N256" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="O256" t="s">
+        <v>71</v>
+      </c>
+      <c r="P256" s="2">
+        <v>26.21</v>
+      </c>
+      <c r="Q256" s="2">
+        <v>24.41</v>
+      </c>
+      <c r="R256" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="S256" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="T256" s="2">
+        <v>30</v>
+      </c>
+      <c r="U256" s="2">
+        <v>30</v>
+      </c>
+      <c r="V256" s="2">
+        <v>0</v>
+      </c>
+      <c r="W256" s="2">
+        <v>0</v>
+      </c>
+      <c r="X256" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y256" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z256" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA256" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>1</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257" t="s">
+        <v>282</v>
+      </c>
+      <c r="D257" t="s">
+        <v>283</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>1</v>
+      </c>
+      <c r="G257">
+        <v>1</v>
+      </c>
+      <c r="I257">
+        <v>12</v>
+      </c>
+      <c r="J257">
+        <v>8</v>
+      </c>
+      <c r="K257">
+        <v>16</v>
+      </c>
+      <c r="L257">
+        <v>12</v>
+      </c>
+      <c r="M257" s="2">
+        <v>24</v>
+      </c>
+      <c r="N257" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="O257" t="s">
+        <v>287</v>
+      </c>
+      <c r="P257">
+        <v>10.4813393791419</v>
+      </c>
+      <c r="Q257">
+        <v>9.0152307871177708</v>
+      </c>
+      <c r="R257">
+        <v>5.8316503536051254</v>
+      </c>
+      <c r="S257">
+        <v>2.6267402153926365</v>
+      </c>
+      <c r="T257" s="2">
+        <v>200</v>
+      </c>
+      <c r="U257" s="2">
+        <v>200</v>
+      </c>
+      <c r="V257" s="2">
+        <v>1</v>
+      </c>
+      <c r="W257" s="2">
+        <v>1</v>
+      </c>
+      <c r="X257" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y257" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z257" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA257" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB257" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>1</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258" t="s">
+        <v>282</v>
+      </c>
+      <c r="D258" t="s">
+        <v>283</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+      <c r="G258">
+        <v>1</v>
+      </c>
+      <c r="I258">
+        <v>12</v>
+      </c>
+      <c r="J258">
+        <v>8</v>
+      </c>
+      <c r="K258">
+        <v>16</v>
+      </c>
+      <c r="L258">
+        <v>12</v>
+      </c>
+      <c r="M258" s="2">
+        <v>24</v>
+      </c>
+      <c r="N258" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="O258" t="s">
+        <v>287</v>
+      </c>
+      <c r="P258">
+        <v>0.45731116536836303</v>
+      </c>
+      <c r="Q258">
+        <v>1.97031352943455</v>
+      </c>
+      <c r="R258">
+        <v>0.788022064617805</v>
+      </c>
+      <c r="S258">
+        <v>1.3659049120042006</v>
+      </c>
+      <c r="T258" s="2">
+        <v>200</v>
+      </c>
+      <c r="U258" s="2">
+        <v>200</v>
+      </c>
+      <c r="V258" s="2">
+        <v>1</v>
+      </c>
+      <c r="W258" s="2">
+        <v>1</v>
+      </c>
+      <c r="X258" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y258" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z258" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA258" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB258" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC258" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD258" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="259" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>1</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259" t="s">
+        <v>282</v>
+      </c>
+      <c r="D259" t="s">
+        <v>284</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+      <c r="G259">
+        <v>1</v>
+      </c>
+      <c r="I259">
+        <v>12</v>
+      </c>
+      <c r="J259">
+        <v>8</v>
+      </c>
+      <c r="K259">
+        <v>16</v>
+      </c>
+      <c r="L259">
+        <v>12</v>
+      </c>
+      <c r="M259" s="2">
+        <v>24</v>
+      </c>
+      <c r="N259" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="O259" t="s">
+        <v>287</v>
+      </c>
+      <c r="P259">
+        <v>3.9669682305912</v>
+      </c>
+      <c r="Q259">
+        <v>4.9689669682305899</v>
+      </c>
+      <c r="R259">
+        <v>2.5855015545737188</v>
+      </c>
+      <c r="S259">
+        <v>3.0383149823503337</v>
+      </c>
+      <c r="T259" s="2">
+        <v>200</v>
+      </c>
+      <c r="U259" s="2">
+        <v>200</v>
+      </c>
+      <c r="V259" s="2">
+        <v>1</v>
+      </c>
+      <c r="W259" s="2">
+        <v>1</v>
+      </c>
+      <c r="X259" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y259" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z259" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA259" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB259" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC259" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD259" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>1</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260" t="s">
+        <v>282</v>
+      </c>
+      <c r="D260" t="s">
+        <v>284</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260">
+        <v>1</v>
+      </c>
+      <c r="G260">
+        <v>1</v>
+      </c>
+      <c r="I260">
+        <v>12</v>
+      </c>
+      <c r="J260">
+        <v>8</v>
+      </c>
+      <c r="K260">
+        <v>16</v>
+      </c>
+      <c r="L260">
+        <v>12</v>
+      </c>
+      <c r="M260" s="2">
+        <v>24</v>
+      </c>
+      <c r="N260" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="O260" t="s">
+        <v>287</v>
+      </c>
+      <c r="P260">
+        <v>8.4171049863244303</v>
+      </c>
+      <c r="Q260">
+        <v>13.399011150851999</v>
+      </c>
+      <c r="R260">
+        <v>3.3562428407788665</v>
+      </c>
+      <c r="S260">
+        <v>3.6281179138321482</v>
+      </c>
+      <c r="T260" s="2">
+        <v>200</v>
+      </c>
+      <c r="U260" s="2">
+        <v>200</v>
+      </c>
+      <c r="V260" s="2">
+        <v>1</v>
+      </c>
+      <c r="W260" s="2">
+        <v>1</v>
+      </c>
+      <c r="X260" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y260" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z260" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA260" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB260" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC260" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD260" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>1</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261" t="s">
+        <v>282</v>
+      </c>
+      <c r="D261" t="s">
+        <v>285</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="I261">
+        <v>12</v>
+      </c>
+      <c r="J261">
+        <v>8</v>
+      </c>
+      <c r="K261">
+        <v>16</v>
+      </c>
+      <c r="L261">
+        <v>12</v>
+      </c>
+      <c r="M261" s="2">
+        <v>24</v>
+      </c>
+      <c r="N261" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="O261" t="s">
+        <v>287</v>
+      </c>
+      <c r="P261">
+        <v>19.367650405887201</v>
+      </c>
+      <c r="Q261">
+        <v>16.793490630000001</v>
+      </c>
+      <c r="R261">
+        <v>1.8725044747349633</v>
+      </c>
+      <c r="S261">
+        <v>3.2496269883418525</v>
+      </c>
+      <c r="T261" s="2">
+        <v>200</v>
+      </c>
+      <c r="U261" s="2">
+        <v>200</v>
+      </c>
+      <c r="V261" s="2">
+        <v>1</v>
+      </c>
+      <c r="W261" s="2">
+        <v>1</v>
+      </c>
+      <c r="X261" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y261" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z261" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA261" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB261" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC261" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD261" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>1</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262" t="s">
+        <v>297</v>
+      </c>
+      <c r="D262" t="s">
+        <v>283</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="I262">
+        <v>20</v>
+      </c>
+      <c r="J262">
+        <v>8</v>
+      </c>
+      <c r="K262">
+        <v>32</v>
+      </c>
+      <c r="L262">
+        <v>24</v>
+      </c>
+      <c r="M262" s="2">
+        <v>24</v>
+      </c>
+      <c r="N262" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="O262" t="s">
+        <v>48</v>
+      </c>
+      <c r="P262">
+        <v>3.2102996254681599</v>
+      </c>
+      <c r="Q262">
+        <v>7.3937265917602604</v>
+      </c>
+      <c r="R262">
+        <v>3.456790123456785</v>
+      </c>
+      <c r="S262">
+        <v>2.4938271604938294</v>
+      </c>
+      <c r="T262" s="2">
+        <v>5</v>
+      </c>
+      <c r="U262" s="2">
+        <v>5</v>
+      </c>
+      <c r="V262" s="2">
+        <v>1</v>
+      </c>
+      <c r="W262" s="2">
+        <v>1</v>
+      </c>
+      <c r="X262" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y262" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z262" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA262" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB262" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>1</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263" t="s">
+        <v>297</v>
+      </c>
+      <c r="D263" t="s">
+        <v>283</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>1</v>
+      </c>
+      <c r="G263">
+        <v>1</v>
+      </c>
+      <c r="I263">
+        <v>20</v>
+      </c>
+      <c r="J263">
+        <v>15</v>
+      </c>
+      <c r="K263">
+        <v>25</v>
+      </c>
+      <c r="L263">
+        <v>10</v>
+      </c>
+      <c r="M263" s="2">
+        <v>24</v>
+      </c>
+      <c r="N263" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="O263" t="s">
+        <v>48</v>
+      </c>
+      <c r="P263">
+        <v>3.2102996254681599</v>
+      </c>
+      <c r="Q263">
+        <v>8.9769662921348292</v>
+      </c>
+      <c r="R263">
+        <v>3.456790123456785</v>
+      </c>
+      <c r="S263">
+        <v>4.8888888888888893</v>
+      </c>
+      <c r="T263" s="2">
+        <v>5</v>
+      </c>
+      <c r="U263" s="2">
+        <v>5</v>
+      </c>
+      <c r="V263" s="2">
+        <v>1</v>
+      </c>
+      <c r="W263" s="2">
+        <v>1</v>
+      </c>
+      <c r="X263" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y263" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z263" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA263" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB263" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>2</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264" t="s">
+        <v>297</v>
+      </c>
+      <c r="D264" t="s">
+        <v>284</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>1</v>
+      </c>
+      <c r="G264">
+        <v>1</v>
+      </c>
+      <c r="I264">
+        <v>20</v>
+      </c>
+      <c r="J264">
+        <v>8</v>
+      </c>
+      <c r="K264">
+        <v>32</v>
+      </c>
+      <c r="L264">
+        <v>24</v>
+      </c>
+      <c r="M264" s="2">
+        <v>24</v>
+      </c>
+      <c r="N264" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="O264" t="s">
+        <v>48</v>
+      </c>
+      <c r="P264">
+        <v>155</v>
+      </c>
+      <c r="Q264">
+        <v>209.444444444444</v>
+      </c>
+      <c r="R264">
+        <v>31.68724279835407</v>
+      </c>
+      <c r="S264">
+        <v>21.399176954732592</v>
+      </c>
+      <c r="T264" s="2">
+        <v>5</v>
+      </c>
+      <c r="U264" s="2">
+        <v>5</v>
+      </c>
+      <c r="V264" s="2">
+        <v>1</v>
+      </c>
+      <c r="W264" s="2">
+        <v>1</v>
+      </c>
+      <c r="X264" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y264" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z264" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA264" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB264" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>2</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265" t="s">
+        <v>297</v>
+      </c>
+      <c r="D265" t="s">
+        <v>284</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>1</v>
+      </c>
+      <c r="G265">
+        <v>1</v>
+      </c>
+      <c r="I265">
+        <v>20</v>
+      </c>
+      <c r="J265">
+        <v>15</v>
+      </c>
+      <c r="K265">
+        <v>25</v>
+      </c>
+      <c r="L265">
+        <v>10</v>
+      </c>
+      <c r="M265" s="2">
+        <v>24</v>
+      </c>
+      <c r="N265" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="O265" t="s">
+        <v>48</v>
+      </c>
+      <c r="P265">
+        <v>155</v>
+      </c>
+      <c r="Q265">
+        <v>177.777777777777</v>
+      </c>
+      <c r="R265">
+        <v>31.68724279835407</v>
+      </c>
+      <c r="S265">
+        <v>83.950617283950223</v>
+      </c>
+      <c r="T265" s="2">
+        <v>5</v>
+      </c>
+      <c r="U265" s="2">
+        <v>5</v>
+      </c>
+      <c r="V265" s="2">
+        <v>1</v>
+      </c>
+      <c r="W265" s="2">
+        <v>1</v>
+      </c>
+      <c r="X265" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y265" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z265" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA265" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB265" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/shared analysis files /metafor.xlsx
+++ b/shared analysis files /metafor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/shared analysis files /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1B740A-9C26-1F4D-80DE-14E7FF11886B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12930B6D-8B69-F147-915B-BAE7279C75E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28500" yWindow="-12460" windowWidth="24000" windowHeight="14500" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
+    <workbookView xWindow="4960" yWindow="1640" windowWidth="24000" windowHeight="15900" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
   </bookViews>
   <sheets>
     <sheet name="metafor" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="319">
   <si>
     <t>study_id</t>
   </si>
@@ -696,6 +696,9 @@
     <t>bahar2012</t>
   </si>
   <si>
+    <t>Table 1</t>
+  </si>
+  <si>
     <t>Third instar to pupa</t>
   </si>
   <si>
@@ -931,6 +934,54 @@
   </si>
   <si>
     <t>vindex</t>
+  </si>
+  <si>
+    <t>vatansever2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longevity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cales </t>
+  </si>
+  <si>
+    <t>noacki</t>
+  </si>
+  <si>
+    <t>verheyen2020</t>
+  </si>
+  <si>
+    <t>Figure 1</t>
+  </si>
+  <si>
+    <t>Sqrt of available energy</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>Chlorpyrifos concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absent </t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">high </t>
   </si>
 </sst>
 </file>
@@ -1297,11 +1348,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCFBC2B-929F-FD41-8C91-75842D1EBA74}">
-  <dimension ref="A1:AK265"/>
+  <dimension ref="A1:AK297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W268" sqref="W268"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S290" sqref="S290:S291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17268,7 +17319,7 @@
         <v>222</v>
       </c>
       <c r="D169" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -17296,7 +17347,7 @@
         <v>24</v>
       </c>
       <c r="N169" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O169" t="s">
         <v>42</v>
@@ -17326,10 +17377,10 @@
         <v>0</v>
       </c>
       <c r="X169" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y169" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z169">
         <v>1</v>
@@ -17352,7 +17403,7 @@
         <v>222</v>
       </c>
       <c r="D170" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -17380,7 +17431,7 @@
         <v>24</v>
       </c>
       <c r="N170" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O170" t="s">
         <v>42</v>
@@ -17410,10 +17461,10 @@
         <v>0</v>
       </c>
       <c r="X170" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y170" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z170">
         <v>1</v>
@@ -17436,7 +17487,7 @@
         <v>222</v>
       </c>
       <c r="D171" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -17464,7 +17515,7 @@
         <v>24</v>
       </c>
       <c r="N171" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O171" t="s">
         <v>42</v>
@@ -17494,10 +17545,10 @@
         <v>0</v>
       </c>
       <c r="X171" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y171" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z171">
         <v>1</v>
@@ -17520,7 +17571,7 @@
         <v>222</v>
       </c>
       <c r="D172" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -17548,7 +17599,7 @@
         <v>24</v>
       </c>
       <c r="N172" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O172" t="s">
         <v>48</v>
@@ -17578,10 +17629,10 @@
         <v>0</v>
       </c>
       <c r="X172" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y172" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z172">
         <v>1</v>
@@ -17604,7 +17655,7 @@
         <v>222</v>
       </c>
       <c r="D173" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -17632,7 +17683,7 @@
         <v>24</v>
       </c>
       <c r="N173" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O173" t="s">
         <v>48</v>
@@ -17662,10 +17713,10 @@
         <v>0</v>
       </c>
       <c r="X173" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y173" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z173">
         <v>1</v>
@@ -17688,7 +17739,7 @@
         <v>222</v>
       </c>
       <c r="D174" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -17716,7 +17767,7 @@
         <v>24</v>
       </c>
       <c r="N174" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O174" t="s">
         <v>42</v>
@@ -17746,10 +17797,10 @@
         <v>0</v>
       </c>
       <c r="X174" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y174" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z174">
         <v>1</v>
@@ -17772,7 +17823,7 @@
         <v>222</v>
       </c>
       <c r="D175" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -17800,7 +17851,7 @@
         <v>24</v>
       </c>
       <c r="N175" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O175" t="s">
         <v>42</v>
@@ -17830,10 +17881,10 @@
         <v>0</v>
       </c>
       <c r="X175" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y175" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z175">
         <v>1</v>
@@ -17856,7 +17907,7 @@
         <v>222</v>
       </c>
       <c r="D176" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -17884,7 +17935,7 @@
         <v>24</v>
       </c>
       <c r="N176" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O176" t="s">
         <v>42</v>
@@ -17914,10 +17965,10 @@
         <v>0</v>
       </c>
       <c r="X176" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y176" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z176">
         <v>1</v>
@@ -17940,7 +17991,7 @@
         <v>222</v>
       </c>
       <c r="D177" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -17968,7 +18019,7 @@
         <v>24</v>
       </c>
       <c r="N177" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O177" t="s">
         <v>48</v>
@@ -17998,10 +18049,10 @@
         <v>0</v>
       </c>
       <c r="X177" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y177" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z177">
         <v>1</v>
@@ -18024,7 +18075,7 @@
         <v>222</v>
       </c>
       <c r="D178" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -18052,7 +18103,7 @@
         <v>24</v>
       </c>
       <c r="N178" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O178" t="s">
         <v>48</v>
@@ -18082,10 +18133,10 @@
         <v>0</v>
       </c>
       <c r="X178" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y178" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z178">
         <v>1</v>
@@ -18108,7 +18159,7 @@
         <v>222</v>
       </c>
       <c r="D179" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -18135,7 +18186,7 @@
         <v>24</v>
       </c>
       <c r="N179" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O179" t="s">
         <v>42</v>
@@ -18165,10 +18216,10 @@
         <v>0</v>
       </c>
       <c r="X179" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y179" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z179">
         <v>1</v>
@@ -18191,7 +18242,7 @@
         <v>222</v>
       </c>
       <c r="D180" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -18218,7 +18269,7 @@
         <v>24</v>
       </c>
       <c r="N180" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O180" t="s">
         <v>42</v>
@@ -18248,10 +18299,10 @@
         <v>0</v>
       </c>
       <c r="X180" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y180" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z180">
         <v>1</v>
@@ -18274,7 +18325,7 @@
         <v>222</v>
       </c>
       <c r="D181" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -18301,7 +18352,7 @@
         <v>24</v>
       </c>
       <c r="N181" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O181" t="s">
         <v>42</v>
@@ -18331,10 +18382,10 @@
         <v>0</v>
       </c>
       <c r="X181" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y181" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z181">
         <v>1</v>
@@ -18357,7 +18408,7 @@
         <v>222</v>
       </c>
       <c r="D182" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -18384,7 +18435,7 @@
         <v>24</v>
       </c>
       <c r="N182" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O182" t="s">
         <v>48</v>
@@ -18414,10 +18465,10 @@
         <v>0</v>
       </c>
       <c r="X182" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y182" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z182">
         <v>1</v>
@@ -18440,7 +18491,7 @@
         <v>222</v>
       </c>
       <c r="D183" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -18467,7 +18518,7 @@
         <v>24</v>
       </c>
       <c r="N183" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O183" t="s">
         <v>48</v>
@@ -18497,10 +18548,10 @@
         <v>0</v>
       </c>
       <c r="X183" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y183" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z183">
         <v>1</v>
@@ -18523,7 +18574,7 @@
         <v>222</v>
       </c>
       <c r="D184" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -18551,7 +18602,7 @@
         <v>24</v>
       </c>
       <c r="N184" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O184" t="s">
         <v>42</v>
@@ -18581,10 +18632,10 @@
         <v>0</v>
       </c>
       <c r="X184" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y184" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z184">
         <v>1</v>
@@ -18607,7 +18658,7 @@
         <v>222</v>
       </c>
       <c r="D185" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -18635,7 +18686,7 @@
         <v>24</v>
       </c>
       <c r="N185" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O185" t="s">
         <v>42</v>
@@ -18665,10 +18716,10 @@
         <v>0</v>
       </c>
       <c r="X185" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y185" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z185">
         <v>1</v>
@@ -18691,7 +18742,7 @@
         <v>222</v>
       </c>
       <c r="D186" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -18719,7 +18770,7 @@
         <v>24</v>
       </c>
       <c r="N186" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O186" t="s">
         <v>42</v>
@@ -18749,10 +18800,10 @@
         <v>0</v>
       </c>
       <c r="X186" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y186" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z186">
         <v>1</v>
@@ -18775,7 +18826,7 @@
         <v>222</v>
       </c>
       <c r="D187" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -18803,7 +18854,7 @@
         <v>24</v>
       </c>
       <c r="N187" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O187" t="s">
         <v>48</v>
@@ -18833,10 +18884,10 @@
         <v>0</v>
       </c>
       <c r="X187" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y187" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z187">
         <v>1</v>
@@ -18859,7 +18910,7 @@
         <v>222</v>
       </c>
       <c r="D188" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -18887,7 +18938,7 @@
         <v>24</v>
       </c>
       <c r="N188" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O188" t="s">
         <v>48</v>
@@ -18917,10 +18968,10 @@
         <v>0</v>
       </c>
       <c r="X188" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y188" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z188">
         <v>1</v>
@@ -18943,7 +18994,7 @@
         <v>222</v>
       </c>
       <c r="D189" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -18971,7 +19022,7 @@
         <v>24</v>
       </c>
       <c r="N189" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O189" t="s">
         <v>48</v>
@@ -19001,10 +19052,10 @@
         <v>0</v>
       </c>
       <c r="X189" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y189" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z189">
         <v>1</v>
@@ -19027,7 +19078,7 @@
         <v>222</v>
       </c>
       <c r="D190" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -19055,7 +19106,7 @@
         <v>24</v>
       </c>
       <c r="N190" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O190" t="s">
         <v>42</v>
@@ -19085,10 +19136,10 @@
         <v>0</v>
       </c>
       <c r="X190" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y190" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z190">
         <v>1</v>
@@ -19111,7 +19162,7 @@
         <v>222</v>
       </c>
       <c r="D191" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -19139,7 +19190,7 @@
         <v>24</v>
       </c>
       <c r="N191" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O191" t="s">
         <v>42</v>
@@ -19169,10 +19220,10 @@
         <v>0</v>
       </c>
       <c r="X191" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y191" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z191">
         <v>1</v>
@@ -19195,7 +19246,7 @@
         <v>222</v>
       </c>
       <c r="D192" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -19223,7 +19274,7 @@
         <v>24</v>
       </c>
       <c r="N192" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O192" t="s">
         <v>42</v>
@@ -19253,10 +19304,10 @@
         <v>0</v>
       </c>
       <c r="X192" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y192" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z192">
         <v>1</v>
@@ -19279,7 +19330,7 @@
         <v>222</v>
       </c>
       <c r="D193" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -19307,7 +19358,7 @@
         <v>24</v>
       </c>
       <c r="N193" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O193" t="s">
         <v>48</v>
@@ -19337,10 +19388,10 @@
         <v>0</v>
       </c>
       <c r="X193" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y193" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z193">
         <v>1</v>
@@ -19363,7 +19414,7 @@
         <v>222</v>
       </c>
       <c r="D194" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -19391,7 +19442,7 @@
         <v>24</v>
       </c>
       <c r="N194" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O194" t="s">
         <v>48</v>
@@ -19421,10 +19472,10 @@
         <v>0</v>
       </c>
       <c r="X194" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y194" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z194">
         <v>1</v>
@@ -19447,7 +19498,7 @@
         <v>222</v>
       </c>
       <c r="D195" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -19475,7 +19526,7 @@
         <v>24</v>
       </c>
       <c r="N195" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O195" t="s">
         <v>48</v>
@@ -19505,10 +19556,10 @@
         <v>0</v>
       </c>
       <c r="X195" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y195" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z195">
         <v>1</v>
@@ -19531,7 +19582,7 @@
         <v>222</v>
       </c>
       <c r="D196" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -19558,7 +19609,7 @@
         <v>24</v>
       </c>
       <c r="N196" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O196" t="s">
         <v>42</v>
@@ -19588,10 +19639,10 @@
         <v>0</v>
       </c>
       <c r="X196" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y196" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z196">
         <v>1</v>
@@ -19614,7 +19665,7 @@
         <v>222</v>
       </c>
       <c r="D197" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -19641,7 +19692,7 @@
         <v>24</v>
       </c>
       <c r="N197" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O197" t="s">
         <v>42</v>
@@ -19671,10 +19722,10 @@
         <v>0</v>
       </c>
       <c r="X197" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y197" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z197">
         <v>1</v>
@@ -19697,7 +19748,7 @@
         <v>222</v>
       </c>
       <c r="D198" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -19724,7 +19775,7 @@
         <v>24</v>
       </c>
       <c r="N198" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O198" t="s">
         <v>42</v>
@@ -19754,10 +19805,10 @@
         <v>0</v>
       </c>
       <c r="X198" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y198" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z198">
         <v>1</v>
@@ -19780,7 +19831,7 @@
         <v>222</v>
       </c>
       <c r="D199" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -19807,7 +19858,7 @@
         <v>24</v>
       </c>
       <c r="N199" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O199" t="s">
         <v>48</v>
@@ -19837,10 +19888,10 @@
         <v>0</v>
       </c>
       <c r="X199" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y199" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z199">
         <v>1</v>
@@ -19863,7 +19914,7 @@
         <v>222</v>
       </c>
       <c r="D200" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -19890,7 +19941,7 @@
         <v>24</v>
       </c>
       <c r="N200" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O200" t="s">
         <v>48</v>
@@ -19920,10 +19971,10 @@
         <v>0</v>
       </c>
       <c r="X200" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y200" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z200">
         <v>1</v>
@@ -19946,7 +19997,7 @@
         <v>222</v>
       </c>
       <c r="D201" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -19973,7 +20024,7 @@
         <v>24</v>
       </c>
       <c r="N201" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O201" t="s">
         <v>48</v>
@@ -20003,10 +20054,10 @@
         <v>0</v>
       </c>
       <c r="X201" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y201" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z201">
         <v>1</v>
@@ -20029,7 +20080,7 @@
         <v>222</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -20057,7 +20108,7 @@
         <v>24</v>
       </c>
       <c r="N202" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O202" t="s">
         <v>71</v>
@@ -20087,10 +20138,10 @@
         <v>0</v>
       </c>
       <c r="X202" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y202" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z202">
         <v>1</v>
@@ -20113,7 +20164,7 @@
         <v>222</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -20141,7 +20192,7 @@
         <v>24</v>
       </c>
       <c r="N203" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O203" t="s">
         <v>71</v>
@@ -20171,10 +20222,10 @@
         <v>0</v>
       </c>
       <c r="X203" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y203" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z203">
         <v>1</v>
@@ -20197,7 +20248,7 @@
         <v>222</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -20224,7 +20275,7 @@
         <v>24</v>
       </c>
       <c r="N204" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O204" t="s">
         <v>71</v>
@@ -20254,10 +20305,10 @@
         <v>0</v>
       </c>
       <c r="X204" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y204" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z204">
         <v>1</v>
@@ -20308,7 +20359,7 @@
         <v>24</v>
       </c>
       <c r="N205" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O205" t="s">
         <v>71</v>
@@ -20338,10 +20389,10 @@
         <v>0</v>
       </c>
       <c r="X205" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y205" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z205">
         <v>1</v>
@@ -20392,7 +20443,7 @@
         <v>24</v>
       </c>
       <c r="N206" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O206" t="s">
         <v>71</v>
@@ -20422,10 +20473,10 @@
         <v>0</v>
       </c>
       <c r="X206" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y206" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z206">
         <v>1</v>
@@ -20475,7 +20526,7 @@
         <v>24</v>
       </c>
       <c r="N207" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O207" t="s">
         <v>71</v>
@@ -20505,10 +20556,10 @@
         <v>0</v>
       </c>
       <c r="X207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y207" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z207">
         <v>1</v>
@@ -20531,7 +20582,7 @@
         <v>222</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -20559,7 +20610,7 @@
         <v>24</v>
       </c>
       <c r="N208" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O208" t="s">
         <v>71</v>
@@ -20589,10 +20640,10 @@
         <v>0</v>
       </c>
       <c r="X208" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y208" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z208">
         <v>1</v>
@@ -20615,7 +20666,7 @@
         <v>222</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E209">
         <v>1</v>
@@ -20642,7 +20693,7 @@
         <v>24</v>
       </c>
       <c r="N209" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O209" t="s">
         <v>71</v>
@@ -20672,10 +20723,10 @@
         <v>0</v>
       </c>
       <c r="X209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y209" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z209">
         <v>1</v>
@@ -20698,7 +20749,7 @@
         <v>222</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -20725,7 +20776,7 @@
         <v>24</v>
       </c>
       <c r="N210" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O210" t="s">
         <v>71</v>
@@ -20755,10 +20806,10 @@
         <v>0</v>
       </c>
       <c r="X210" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y210" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z210">
         <v>1</v>
@@ -20778,10 +20829,10 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -20808,7 +20859,7 @@
         <v>24</v>
       </c>
       <c r="N211" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O211" t="s">
         <v>71</v>
@@ -20838,10 +20889,10 @@
         <v>0</v>
       </c>
       <c r="X211" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y211" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z211">
         <v>1</v>
@@ -20853,10 +20904,10 @@
         <v>1</v>
       </c>
       <c r="AC211" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AD211" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="212" spans="1:32" x14ac:dyDescent="0.2">
@@ -20867,10 +20918,10 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -20897,7 +20948,7 @@
         <v>24</v>
       </c>
       <c r="N212" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O212" t="s">
         <v>71</v>
@@ -20927,25 +20978,25 @@
         <v>0</v>
       </c>
       <c r="X212" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y212" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z212">
+        <v>1</v>
+      </c>
+      <c r="AA212">
+        <v>0</v>
+      </c>
+      <c r="AB212">
+        <v>1</v>
+      </c>
+      <c r="AC212" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD212" t="s">
         <v>249</v>
-      </c>
-      <c r="Y212" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z212">
-        <v>1</v>
-      </c>
-      <c r="AA212">
-        <v>0</v>
-      </c>
-      <c r="AB212">
-        <v>1</v>
-      </c>
-      <c r="AC212" t="s">
-        <v>246</v>
-      </c>
-      <c r="AD212" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="213" spans="1:32" x14ac:dyDescent="0.2">
@@ -20956,10 +21007,10 @@
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -20986,7 +21037,7 @@
         <v>24</v>
       </c>
       <c r="N213" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O213" t="s">
         <v>71</v>
@@ -21016,10 +21067,10 @@
         <v>0</v>
       </c>
       <c r="X213" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y213" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z213">
         <v>1</v>
@@ -21031,10 +21082,10 @@
         <v>1</v>
       </c>
       <c r="AC213" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AD213" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="214" spans="1:32" x14ac:dyDescent="0.2">
@@ -21045,10 +21096,10 @@
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -21075,7 +21126,7 @@
         <v>24</v>
       </c>
       <c r="N214" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O214" t="s">
         <v>71</v>
@@ -21105,25 +21156,25 @@
         <v>0</v>
       </c>
       <c r="X214" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y214" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z214">
+        <v>1</v>
+      </c>
+      <c r="AA214">
+        <v>0</v>
+      </c>
+      <c r="AB214">
+        <v>1</v>
+      </c>
+      <c r="AC214" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD214" t="s">
         <v>249</v>
-      </c>
-      <c r="Y214" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z214">
-        <v>1</v>
-      </c>
-      <c r="AA214">
-        <v>0</v>
-      </c>
-      <c r="AB214">
-        <v>1</v>
-      </c>
-      <c r="AC214" t="s">
-        <v>246</v>
-      </c>
-      <c r="AD214" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="215" spans="1:32" x14ac:dyDescent="0.2">
@@ -21134,10 +21185,10 @@
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -21164,7 +21215,7 @@
         <v>24</v>
       </c>
       <c r="N215" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O215" t="s">
         <v>71</v>
@@ -21194,10 +21245,10 @@
         <v>0</v>
       </c>
       <c r="X215" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y215" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z215">
         <v>1</v>
@@ -21209,10 +21260,10 @@
         <v>1</v>
       </c>
       <c r="AC215" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AD215" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AE215" t="s">
         <v>33</v>
@@ -21229,10 +21280,10 @@
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -21259,7 +21310,7 @@
         <v>24</v>
       </c>
       <c r="N216" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O216" t="s">
         <v>71</v>
@@ -21289,25 +21340,25 @@
         <v>0</v>
       </c>
       <c r="X216" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y216" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z216">
+        <v>1</v>
+      </c>
+      <c r="AA216">
+        <v>2</v>
+      </c>
+      <c r="AB216">
+        <v>1</v>
+      </c>
+      <c r="AC216" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD216" t="s">
         <v>249</v>
-      </c>
-      <c r="Y216" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z216">
-        <v>1</v>
-      </c>
-      <c r="AA216">
-        <v>2</v>
-      </c>
-      <c r="AB216">
-        <v>1</v>
-      </c>
-      <c r="AC216" t="s">
-        <v>246</v>
-      </c>
-      <c r="AD216" t="s">
-        <v>248</v>
       </c>
       <c r="AE216" t="s">
         <v>33</v>
@@ -21324,10 +21375,10 @@
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -21354,7 +21405,7 @@
         <v>24</v>
       </c>
       <c r="N217" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O217" t="s">
         <v>71</v>
@@ -21384,10 +21435,10 @@
         <v>0</v>
       </c>
       <c r="X217" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y217" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z217">
         <v>1</v>
@@ -21399,10 +21450,10 @@
         <v>1</v>
       </c>
       <c r="AC217" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AD217" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AE217" t="s">
         <v>33</v>
@@ -21419,10 +21470,10 @@
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E218">
         <v>1</v>
@@ -21449,7 +21500,7 @@
         <v>24</v>
       </c>
       <c r="N218" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O218" t="s">
         <v>71</v>
@@ -21479,25 +21530,25 @@
         <v>0</v>
       </c>
       <c r="X218" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y218" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z218">
+        <v>1</v>
+      </c>
+      <c r="AA218">
+        <v>2</v>
+      </c>
+      <c r="AB218">
+        <v>1</v>
+      </c>
+      <c r="AC218" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD218" t="s">
         <v>249</v>
-      </c>
-      <c r="Y218" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z218">
-        <v>1</v>
-      </c>
-      <c r="AA218">
-        <v>2</v>
-      </c>
-      <c r="AB218">
-        <v>1</v>
-      </c>
-      <c r="AC218" t="s">
-        <v>246</v>
-      </c>
-      <c r="AD218" t="s">
-        <v>248</v>
       </c>
       <c r="AE218" t="s">
         <v>33</v>
@@ -21514,10 +21565,10 @@
         <v>1</v>
       </c>
       <c r="C219" t="s">
+        <v>246</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -21544,7 +21595,7 @@
         <v>24</v>
       </c>
       <c r="N219" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O219" t="s">
         <v>71</v>
@@ -21574,25 +21625,25 @@
         <v>0</v>
       </c>
       <c r="X219" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y219" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z219">
+        <v>1</v>
+      </c>
+      <c r="AA219">
+        <v>2</v>
+      </c>
+      <c r="AB219">
+        <v>1</v>
+      </c>
+      <c r="AC219" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD219" t="s">
         <v>249</v>
-      </c>
-      <c r="Y219" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z219">
-        <v>1</v>
-      </c>
-      <c r="AA219">
-        <v>2</v>
-      </c>
-      <c r="AB219">
-        <v>1</v>
-      </c>
-      <c r="AC219" t="s">
-        <v>246</v>
-      </c>
-      <c r="AD219" t="s">
-        <v>248</v>
       </c>
       <c r="AE219" t="s">
         <v>33</v>
@@ -21609,10 +21660,10 @@
         <v>1</v>
       </c>
       <c r="C220" t="s">
+        <v>246</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -21639,7 +21690,7 @@
         <v>24</v>
       </c>
       <c r="N220" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O220" t="s">
         <v>71</v>
@@ -21669,10 +21720,10 @@
         <v>0</v>
       </c>
       <c r="X220" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y220" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z220">
         <v>1</v>
@@ -21684,10 +21735,10 @@
         <v>1</v>
       </c>
       <c r="AC220" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AD220" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AE220" t="s">
         <v>33</v>
@@ -21704,10 +21755,10 @@
         <v>1</v>
       </c>
       <c r="C221" t="s">
+        <v>246</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="E221">
         <v>1</v>
@@ -21734,7 +21785,7 @@
         <v>24</v>
       </c>
       <c r="N221" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O221" t="s">
         <v>71</v>
@@ -21764,25 +21815,25 @@
         <v>0</v>
       </c>
       <c r="X221" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y221" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z221">
+        <v>1</v>
+      </c>
+      <c r="AA221">
+        <v>2</v>
+      </c>
+      <c r="AB221">
+        <v>1</v>
+      </c>
+      <c r="AC221" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD221" t="s">
         <v>249</v>
-      </c>
-      <c r="Y221" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z221">
-        <v>1</v>
-      </c>
-      <c r="AA221">
-        <v>2</v>
-      </c>
-      <c r="AB221">
-        <v>1</v>
-      </c>
-      <c r="AC221" t="s">
-        <v>246</v>
-      </c>
-      <c r="AD221" t="s">
-        <v>248</v>
       </c>
       <c r="AE221" t="s">
         <v>33</v>
@@ -21799,10 +21850,10 @@
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -21829,10 +21880,10 @@
         <v>24</v>
       </c>
       <c r="N222" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O222" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P222">
         <v>1.78</v>
@@ -21859,10 +21910,10 @@
         <v>0</v>
       </c>
       <c r="X222" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y222" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z222">
         <v>1</v>
@@ -21882,10 +21933,10 @@
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -21912,10 +21963,10 @@
         <v>24</v>
       </c>
       <c r="N223" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O223" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P223">
         <v>1.78</v>
@@ -21942,10 +21993,10 @@
         <v>0</v>
       </c>
       <c r="X223" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y223" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z223">
         <v>1</v>
@@ -21965,10 +22016,10 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -21995,10 +22046,10 @@
         <v>24</v>
       </c>
       <c r="N224" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O224" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P224">
         <v>1.78</v>
@@ -22025,10 +22076,10 @@
         <v>0</v>
       </c>
       <c r="X224" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y224" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z224">
         <v>1</v>
@@ -22048,10 +22099,10 @@
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -22078,10 +22129,10 @@
         <v>24</v>
       </c>
       <c r="N225" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O225" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P225">
         <v>47.93</v>
@@ -22108,10 +22159,10 @@
         <v>0</v>
       </c>
       <c r="X225" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y225" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z225">
         <v>1</v>
@@ -22131,10 +22182,10 @@
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -22161,10 +22212,10 @@
         <v>24</v>
       </c>
       <c r="N226" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O226" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P226">
         <v>47.93</v>
@@ -22191,10 +22242,10 @@
         <v>0</v>
       </c>
       <c r="X226" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y226" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z226">
         <v>1</v>
@@ -22214,10 +22265,10 @@
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -22244,10 +22295,10 @@
         <v>24</v>
       </c>
       <c r="N227" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O227" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P227">
         <v>47.93</v>
@@ -22274,10 +22325,10 @@
         <v>0</v>
       </c>
       <c r="X227" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y227" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z227">
         <v>1</v>
@@ -22297,10 +22348,10 @@
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -22327,10 +22378,10 @@
         <v>24</v>
       </c>
       <c r="N228" t="s">
+        <v>258</v>
+      </c>
+      <c r="O228" t="s">
         <v>257</v>
-      </c>
-      <c r="O228" t="s">
-        <v>256</v>
       </c>
       <c r="P228">
         <v>49.71</v>
@@ -22357,10 +22408,10 @@
         <v>0</v>
       </c>
       <c r="X228" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y228" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z228">
         <v>1</v>
@@ -22380,10 +22431,10 @@
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -22410,10 +22461,10 @@
         <v>24</v>
       </c>
       <c r="N229" t="s">
+        <v>258</v>
+      </c>
+      <c r="O229" t="s">
         <v>257</v>
-      </c>
-      <c r="O229" t="s">
-        <v>256</v>
       </c>
       <c r="P229">
         <v>49.71</v>
@@ -22440,10 +22491,10 @@
         <v>0</v>
       </c>
       <c r="X229" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y229" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z229">
         <v>1</v>
@@ -22463,10 +22514,10 @@
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -22493,10 +22544,10 @@
         <v>24</v>
       </c>
       <c r="N230" t="s">
+        <v>258</v>
+      </c>
+      <c r="O230" t="s">
         <v>257</v>
-      </c>
-      <c r="O230" t="s">
-        <v>256</v>
       </c>
       <c r="P230">
         <v>49.71</v>
@@ -22523,10 +22574,10 @@
         <v>0</v>
       </c>
       <c r="X230" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y230" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z230">
         <v>1</v>
@@ -22546,10 +22597,10 @@
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -22576,10 +22627,10 @@
         <v>24</v>
       </c>
       <c r="N231" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O231" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P231">
         <v>42.59</v>
@@ -22606,10 +22657,10 @@
         <v>0</v>
       </c>
       <c r="X231" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y231" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z231">
         <v>1</v>
@@ -22629,10 +22680,10 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -22659,10 +22710,10 @@
         <v>24</v>
       </c>
       <c r="N232" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O232" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P232">
         <v>42.59</v>
@@ -22689,10 +22740,10 @@
         <v>0</v>
       </c>
       <c r="X232" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y232" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z232">
         <v>1</v>
@@ -22712,10 +22763,10 @@
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -22742,10 +22793,10 @@
         <v>24</v>
       </c>
       <c r="N233" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O233" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P233">
         <v>42.59</v>
@@ -22772,10 +22823,10 @@
         <v>0</v>
       </c>
       <c r="X233" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y233" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z233">
         <v>1</v>
@@ -22795,10 +22846,10 @@
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -22825,10 +22876,10 @@
         <v>24</v>
       </c>
       <c r="N234" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O234" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P234">
         <v>21.11</v>
@@ -22855,10 +22906,10 @@
         <v>0</v>
       </c>
       <c r="X234" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y234" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z234">
         <v>1</v>
@@ -22878,10 +22929,10 @@
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -22908,10 +22959,10 @@
         <v>24</v>
       </c>
       <c r="N235" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O235" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P235">
         <v>21.11</v>
@@ -22938,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="X235" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y235" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z235">
         <v>1</v>
@@ -22961,10 +23012,10 @@
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -22991,10 +23042,10 @@
         <v>24</v>
       </c>
       <c r="N236" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O236" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P236">
         <v>21.11</v>
@@ -23021,10 +23072,10 @@
         <v>0</v>
       </c>
       <c r="X236" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y236" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z236">
         <v>1</v>
@@ -23044,7 +23095,7 @@
         <v>2</v>
       </c>
       <c r="C237" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D237" t="s">
         <v>207</v>
@@ -23074,7 +23125,7 @@
         <v>24</v>
       </c>
       <c r="N237" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O237" t="s">
         <v>31</v>
@@ -23104,10 +23155,10 @@
         <v>0</v>
       </c>
       <c r="X237" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y237" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z237">
         <v>1</v>
@@ -23127,7 +23178,7 @@
         <v>2</v>
       </c>
       <c r="C238" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D238" t="s">
         <v>207</v>
@@ -23157,7 +23208,7 @@
         <v>24</v>
       </c>
       <c r="N238" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O238" t="s">
         <v>31</v>
@@ -23187,10 +23238,10 @@
         <v>0</v>
       </c>
       <c r="X238" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y238" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z238">
         <v>1</v>
@@ -23210,7 +23261,7 @@
         <v>2</v>
       </c>
       <c r="C239" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D239" t="s">
         <v>207</v>
@@ -23240,7 +23291,7 @@
         <v>24</v>
       </c>
       <c r="N239" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O239" t="s">
         <v>31</v>
@@ -23270,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X239" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y239" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z239">
         <v>1</v>
@@ -23293,7 +23344,7 @@
         <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D240" t="s">
         <v>207</v>
@@ -23353,10 +23404,10 @@
         <v>1</v>
       </c>
       <c r="X240" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y240" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z240">
         <v>1</v>
@@ -23376,7 +23427,7 @@
         <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D241" t="s">
         <v>207</v>
@@ -23436,10 +23487,10 @@
         <v>1</v>
       </c>
       <c r="X241" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y241" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z241">
         <v>1</v>
@@ -23459,10 +23510,10 @@
         <v>2</v>
       </c>
       <c r="C242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D242" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -23519,10 +23570,10 @@
         <v>1</v>
       </c>
       <c r="X242" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z242">
         <v>1</v>
@@ -23548,10 +23599,10 @@
         <v>2</v>
       </c>
       <c r="C243" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D243" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -23608,10 +23659,10 @@
         <v>1</v>
       </c>
       <c r="X243" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y243" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z243">
         <v>1</v>
@@ -23637,10 +23688,10 @@
         <v>2</v>
       </c>
       <c r="C244" t="s">
+        <v>265</v>
+      </c>
+      <c r="D244" t="s">
         <v>264</v>
-      </c>
-      <c r="D244" t="s">
-        <v>263</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -23697,10 +23748,10 @@
         <v>1</v>
       </c>
       <c r="X244" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y244" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z244">
         <v>1</v>
@@ -23726,10 +23777,10 @@
         <v>2</v>
       </c>
       <c r="C245" t="s">
+        <v>265</v>
+      </c>
+      <c r="D245" t="s">
         <v>264</v>
-      </c>
-      <c r="D245" t="s">
-        <v>263</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -23786,10 +23837,10 @@
         <v>1</v>
       </c>
       <c r="X245" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y245" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z245">
         <v>1</v>
@@ -23815,7 +23866,7 @@
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>207</v>
@@ -23875,10 +23926,10 @@
         <v>0</v>
       </c>
       <c r="X246" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y246" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z246">
         <v>1</v>
@@ -23898,7 +23949,7 @@
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>207</v>
@@ -23958,10 +24009,10 @@
         <v>0</v>
       </c>
       <c r="X247" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y247" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z247">
         <v>1</v>
@@ -23981,7 +24032,7 @@
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>207</v>
@@ -24041,10 +24092,10 @@
         <v>0</v>
       </c>
       <c r="X248" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y248" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z248">
         <v>1</v>
@@ -24064,7 +24115,7 @@
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>207</v>
@@ -24094,10 +24145,10 @@
         <v>24</v>
       </c>
       <c r="N249" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O249" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P249" s="2">
         <v>209.21108699999999</v>
@@ -24124,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="X249" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y249" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z249">
         <v>1</v>
@@ -24147,7 +24198,7 @@
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>207</v>
@@ -24177,10 +24228,10 @@
         <v>12</v>
       </c>
       <c r="N250" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O250" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P250" s="2">
         <v>209.21108699999999</v>
@@ -24207,10 +24258,10 @@
         <v>0</v>
       </c>
       <c r="X250" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y250" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z250">
         <v>1</v>
@@ -24230,7 +24281,7 @@
         <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>207</v>
@@ -24260,10 +24311,10 @@
         <v>48</v>
       </c>
       <c r="N251" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O251" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P251" s="2">
         <v>209.21108699999999</v>
@@ -24290,10 +24341,10 @@
         <v>0</v>
       </c>
       <c r="X251" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y251" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z251">
         <v>1</v>
@@ -24313,10 +24364,10 @@
         <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -24343,7 +24394,7 @@
         <v>24</v>
       </c>
       <c r="N252" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O252" t="s">
         <v>31</v>
@@ -24373,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="X252" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y252" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z252" s="2">
         <v>1</v>
@@ -24396,10 +24447,10 @@
         <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -24426,10 +24477,10 @@
         <v>24</v>
       </c>
       <c r="N253" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O253" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P253" s="2">
         <v>7.54</v>
@@ -24456,10 +24507,10 @@
         <v>0</v>
       </c>
       <c r="X253" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y253" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z253" s="2">
         <v>1</v>
@@ -24479,10 +24530,10 @@
         <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -24509,10 +24560,10 @@
         <v>24</v>
       </c>
       <c r="N254" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O254" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P254" s="2">
         <v>0.71</v>
@@ -24539,10 +24590,10 @@
         <v>0</v>
       </c>
       <c r="X254" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y254" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z254" s="2">
         <v>1</v>
@@ -24562,10 +24613,10 @@
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -24592,10 +24643,10 @@
         <v>24</v>
       </c>
       <c r="N255" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O255" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P255" s="2">
         <v>2.62</v>
@@ -24622,10 +24673,10 @@
         <v>0</v>
       </c>
       <c r="X255" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y255" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z255" s="2">
         <v>1</v>
@@ -24645,10 +24696,10 @@
         <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -24675,7 +24726,7 @@
         <v>24</v>
       </c>
       <c r="N256" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O256" t="s">
         <v>71</v>
@@ -24705,10 +24756,10 @@
         <v>0</v>
       </c>
       <c r="X256" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y256" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z256" s="2">
         <v>1</v>
@@ -24728,10 +24779,10 @@
         <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D257" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -24758,10 +24809,10 @@
         <v>24</v>
       </c>
       <c r="N257" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O257" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P257">
         <v>10.4813393791419</v>
@@ -24788,10 +24839,10 @@
         <v>1</v>
       </c>
       <c r="X257" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Y257" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z257" s="2">
         <v>0</v>
@@ -24811,10 +24862,10 @@
         <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D258" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -24841,10 +24892,10 @@
         <v>24</v>
       </c>
       <c r="N258" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O258" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P258">
         <v>0.45731116536836303</v>
@@ -24871,10 +24922,10 @@
         <v>1</v>
       </c>
       <c r="X258" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Y258" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z258" s="2">
         <v>0</v>
@@ -24886,10 +24937,10 @@
         <v>2</v>
       </c>
       <c r="AC258" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AD258" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="259" spans="1:30" x14ac:dyDescent="0.2">
@@ -24900,10 +24951,10 @@
         <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D259" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -24930,10 +24981,10 @@
         <v>24</v>
       </c>
       <c r="N259" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O259" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P259">
         <v>3.9669682305912</v>
@@ -24960,10 +25011,10 @@
         <v>1</v>
       </c>
       <c r="X259" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y259" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Z259" s="2">
         <v>0</v>
@@ -24975,10 +25026,10 @@
         <v>2</v>
       </c>
       <c r="AC259" t="s">
+        <v>297</v>
+      </c>
+      <c r="AD259" t="s">
         <v>296</v>
-      </c>
-      <c r="AD259" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="260" spans="1:30" x14ac:dyDescent="0.2">
@@ -24989,10 +25040,10 @@
         <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D260" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -25019,10 +25070,10 @@
         <v>24</v>
       </c>
       <c r="N260" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O260" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P260">
         <v>8.4171049863244303</v>
@@ -25049,10 +25100,10 @@
         <v>1</v>
       </c>
       <c r="X260" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y260" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Z260" s="2">
         <v>0</v>
@@ -25064,10 +25115,10 @@
         <v>2</v>
       </c>
       <c r="AC260" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AD260" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="261" spans="1:30" x14ac:dyDescent="0.2">
@@ -25078,10 +25129,10 @@
         <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D261" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -25108,10 +25159,10 @@
         <v>24</v>
       </c>
       <c r="N261" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O261" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P261">
         <v>19.367650405887201</v>
@@ -25138,10 +25189,10 @@
         <v>1</v>
       </c>
       <c r="X261" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Y261" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Z261" s="2">
         <v>0</v>
@@ -25153,10 +25204,10 @@
         <v>2</v>
       </c>
       <c r="AC261" t="s">
+        <v>297</v>
+      </c>
+      <c r="AD261" t="s">
         <v>296</v>
-      </c>
-      <c r="AD261" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="262" spans="1:30" x14ac:dyDescent="0.2">
@@ -25167,10 +25218,10 @@
         <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D262" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -25197,7 +25248,7 @@
         <v>24</v>
       </c>
       <c r="N262" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O262" t="s">
         <v>48</v>
@@ -25227,10 +25278,10 @@
         <v>1</v>
       </c>
       <c r="X262" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Y262" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z262" s="2">
         <v>1</v>
@@ -25250,10 +25301,10 @@
         <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D263" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -25280,7 +25331,7 @@
         <v>24</v>
       </c>
       <c r="N263" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O263" t="s">
         <v>48</v>
@@ -25310,10 +25361,10 @@
         <v>1</v>
       </c>
       <c r="X263" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Y263" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z263" s="2">
         <v>1</v>
@@ -25333,10 +25384,10 @@
         <v>1</v>
       </c>
       <c r="C264" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D264" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -25363,7 +25414,7 @@
         <v>24</v>
       </c>
       <c r="N264" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O264" t="s">
         <v>48</v>
@@ -25393,10 +25444,10 @@
         <v>1</v>
       </c>
       <c r="X264" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Y264" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z264" s="2">
         <v>1</v>
@@ -25416,10 +25467,10 @@
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D265" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -25446,7 +25497,7 @@
         <v>24</v>
       </c>
       <c r="N265" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O265" t="s">
         <v>48</v>
@@ -25476,10 +25527,10 @@
         <v>1</v>
       </c>
       <c r="X265" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Y265" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z265" s="2">
         <v>1</v>
@@ -25489,6 +25540,2614 @@
       </c>
       <c r="AB265" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>1</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266" t="s">
+        <v>303</v>
+      </c>
+      <c r="D266" t="s">
+        <v>223</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <v>1</v>
+      </c>
+      <c r="G266">
+        <v>1</v>
+      </c>
+      <c r="I266">
+        <v>22</v>
+      </c>
+      <c r="J266">
+        <v>18</v>
+      </c>
+      <c r="K266">
+        <v>26</v>
+      </c>
+      <c r="L266">
+        <v>8</v>
+      </c>
+      <c r="M266" s="2">
+        <v>24</v>
+      </c>
+      <c r="N266" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O266" t="s">
+        <v>42</v>
+      </c>
+      <c r="P266">
+        <v>36.5</v>
+      </c>
+      <c r="Q266">
+        <v>32.4</v>
+      </c>
+      <c r="R266">
+        <v>0.42</v>
+      </c>
+      <c r="S266">
+        <v>0.96</v>
+      </c>
+      <c r="T266" s="2">
+        <v>22</v>
+      </c>
+      <c r="U266" s="2">
+        <v>12</v>
+      </c>
+      <c r="V266" s="2">
+        <v>0</v>
+      </c>
+      <c r="W266" s="2">
+        <v>1</v>
+      </c>
+      <c r="X266" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y266" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z266" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA266" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC266" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD266" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="267" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>1</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267" t="s">
+        <v>303</v>
+      </c>
+      <c r="D267" t="s">
+        <v>223</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>1</v>
+      </c>
+      <c r="G267">
+        <v>1</v>
+      </c>
+      <c r="I267">
+        <v>22</v>
+      </c>
+      <c r="J267">
+        <v>18</v>
+      </c>
+      <c r="K267">
+        <v>26</v>
+      </c>
+      <c r="L267">
+        <v>8</v>
+      </c>
+      <c r="M267" s="2">
+        <v>24</v>
+      </c>
+      <c r="N267" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O267" t="s">
+        <v>42</v>
+      </c>
+      <c r="P267">
+        <v>36.5</v>
+      </c>
+      <c r="Q267">
+        <v>29.2</v>
+      </c>
+      <c r="R267">
+        <v>0.64</v>
+      </c>
+      <c r="S267">
+        <v>0.94</v>
+      </c>
+      <c r="T267" s="2">
+        <v>13</v>
+      </c>
+      <c r="U267" s="2">
+        <v>9</v>
+      </c>
+      <c r="V267" s="2">
+        <v>0</v>
+      </c>
+      <c r="W267" s="2">
+        <v>1</v>
+      </c>
+      <c r="X267" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y267" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z267" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA267" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC267" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD267" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="268" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>1</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268" t="s">
+        <v>303</v>
+      </c>
+      <c r="D268" t="s">
+        <v>223</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268">
+        <v>1</v>
+      </c>
+      <c r="G268">
+        <v>1</v>
+      </c>
+      <c r="I268">
+        <v>30</v>
+      </c>
+      <c r="J268">
+        <v>26</v>
+      </c>
+      <c r="K268">
+        <v>34</v>
+      </c>
+      <c r="L268">
+        <v>8</v>
+      </c>
+      <c r="M268" s="2">
+        <v>24</v>
+      </c>
+      <c r="N268" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O268" t="s">
+        <v>42</v>
+      </c>
+      <c r="P268">
+        <v>18.5</v>
+      </c>
+      <c r="Q268">
+        <v>21</v>
+      </c>
+      <c r="R268">
+        <v>0.27</v>
+      </c>
+      <c r="S268">
+        <v>0.6</v>
+      </c>
+      <c r="T268" s="2">
+        <v>24</v>
+      </c>
+      <c r="U268" s="2">
+        <v>12</v>
+      </c>
+      <c r="V268" s="2">
+        <v>0</v>
+      </c>
+      <c r="W268" s="2">
+        <v>1</v>
+      </c>
+      <c r="X268" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y268" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z268" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA268" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC268" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD268" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="269" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>1</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269" t="s">
+        <v>303</v>
+      </c>
+      <c r="D269" t="s">
+        <v>223</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>1</v>
+      </c>
+      <c r="G269">
+        <v>1</v>
+      </c>
+      <c r="I269">
+        <v>30</v>
+      </c>
+      <c r="J269">
+        <v>26</v>
+      </c>
+      <c r="K269">
+        <v>34</v>
+      </c>
+      <c r="L269">
+        <v>8</v>
+      </c>
+      <c r="M269" s="2">
+        <v>24</v>
+      </c>
+      <c r="N269" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O269" t="s">
+        <v>42</v>
+      </c>
+      <c r="P269">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="Q269">
+        <v>22.1</v>
+      </c>
+      <c r="R269">
+        <v>0.36</v>
+      </c>
+      <c r="S269">
+        <v>0.85</v>
+      </c>
+      <c r="T269" s="2">
+        <v>15</v>
+      </c>
+      <c r="U269" s="2">
+        <v>8</v>
+      </c>
+      <c r="V269" s="2">
+        <v>0</v>
+      </c>
+      <c r="W269" s="2">
+        <v>1</v>
+      </c>
+      <c r="X269" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y269" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z269" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA269" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC269" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD269" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="270" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>2</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270" t="s">
+        <v>303</v>
+      </c>
+      <c r="D270" t="s">
+        <v>223</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270">
+        <v>1</v>
+      </c>
+      <c r="G270">
+        <v>1</v>
+      </c>
+      <c r="I270">
+        <v>22</v>
+      </c>
+      <c r="J270">
+        <v>18</v>
+      </c>
+      <c r="K270">
+        <v>26</v>
+      </c>
+      <c r="L270">
+        <v>8</v>
+      </c>
+      <c r="M270" s="2">
+        <v>24</v>
+      </c>
+      <c r="N270" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="O270" t="s">
+        <v>42</v>
+      </c>
+      <c r="P270">
+        <v>8</v>
+      </c>
+      <c r="Q270">
+        <v>7.6</v>
+      </c>
+      <c r="R270">
+        <v>0.26</v>
+      </c>
+      <c r="S270">
+        <v>0.19</v>
+      </c>
+      <c r="T270" s="2">
+        <v>32</v>
+      </c>
+      <c r="U270" s="2">
+        <v>37</v>
+      </c>
+      <c r="V270" s="2">
+        <v>0</v>
+      </c>
+      <c r="W270" s="2">
+        <v>1</v>
+      </c>
+      <c r="X270" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y270" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z270" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA270" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC270" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD270" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="271" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>2</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271" t="s">
+        <v>303</v>
+      </c>
+      <c r="D271" t="s">
+        <v>223</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <v>1</v>
+      </c>
+      <c r="G271">
+        <v>1</v>
+      </c>
+      <c r="I271">
+        <v>22</v>
+      </c>
+      <c r="J271">
+        <v>18</v>
+      </c>
+      <c r="K271">
+        <v>26</v>
+      </c>
+      <c r="L271">
+        <v>8</v>
+      </c>
+      <c r="M271" s="2">
+        <v>24</v>
+      </c>
+      <c r="N271" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="O271" t="s">
+        <v>42</v>
+      </c>
+      <c r="P271">
+        <v>7.5</v>
+      </c>
+      <c r="Q271">
+        <v>7.4</v>
+      </c>
+      <c r="R271">
+        <v>0.33</v>
+      </c>
+      <c r="S271">
+        <v>0.26</v>
+      </c>
+      <c r="T271" s="2">
+        <v>12</v>
+      </c>
+      <c r="U271" s="2">
+        <v>12</v>
+      </c>
+      <c r="V271" s="2">
+        <v>0</v>
+      </c>
+      <c r="W271" s="2">
+        <v>1</v>
+      </c>
+      <c r="X271" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y271" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z271" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA271" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC271" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD271" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="272" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>2</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272" t="s">
+        <v>303</v>
+      </c>
+      <c r="D272" t="s">
+        <v>223</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <v>1</v>
+      </c>
+      <c r="G272">
+        <v>1</v>
+      </c>
+      <c r="I272">
+        <v>30</v>
+      </c>
+      <c r="J272">
+        <v>26</v>
+      </c>
+      <c r="K272">
+        <v>34</v>
+      </c>
+      <c r="L272">
+        <v>8</v>
+      </c>
+      <c r="M272" s="2">
+        <v>24</v>
+      </c>
+      <c r="N272" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="O272" t="s">
+        <v>42</v>
+      </c>
+      <c r="P272">
+        <v>7</v>
+      </c>
+      <c r="Q272">
+        <v>6.2</v>
+      </c>
+      <c r="R272">
+        <v>0.32</v>
+      </c>
+      <c r="S272">
+        <v>0.48</v>
+      </c>
+      <c r="T272" s="2">
+        <v>21</v>
+      </c>
+      <c r="U272" s="2">
+        <v>19</v>
+      </c>
+      <c r="V272" s="2">
+        <v>0</v>
+      </c>
+      <c r="W272" s="2">
+        <v>1</v>
+      </c>
+      <c r="X272" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y272" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z272" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA272" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC272" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD272" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="273" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>2</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+      <c r="C273" t="s">
+        <v>303</v>
+      </c>
+      <c r="D273" t="s">
+        <v>223</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273">
+        <v>1</v>
+      </c>
+      <c r="G273">
+        <v>1</v>
+      </c>
+      <c r="I273">
+        <v>30</v>
+      </c>
+      <c r="J273">
+        <v>26</v>
+      </c>
+      <c r="K273">
+        <v>34</v>
+      </c>
+      <c r="L273">
+        <v>8</v>
+      </c>
+      <c r="M273" s="2">
+        <v>24</v>
+      </c>
+      <c r="N273" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="O273" t="s">
+        <v>42</v>
+      </c>
+      <c r="P273">
+        <v>7</v>
+      </c>
+      <c r="Q273">
+        <v>6.2</v>
+      </c>
+      <c r="R273">
+        <v>0.39</v>
+      </c>
+      <c r="S273">
+        <v>0.34</v>
+      </c>
+      <c r="T273" s="2">
+        <v>18</v>
+      </c>
+      <c r="U273" s="2">
+        <v>16</v>
+      </c>
+      <c r="V273" s="2">
+        <v>0</v>
+      </c>
+      <c r="W273" s="2">
+        <v>1</v>
+      </c>
+      <c r="X273" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y273" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z273" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA273" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC273" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD273" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="274" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>1</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="C274" t="s">
+        <v>307</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274">
+        <v>1</v>
+      </c>
+      <c r="G274">
+        <v>1</v>
+      </c>
+      <c r="H274">
+        <v>22</v>
+      </c>
+      <c r="I274">
+        <v>20</v>
+      </c>
+      <c r="J274">
+        <v>17.5</v>
+      </c>
+      <c r="K274">
+        <v>22.25</v>
+      </c>
+      <c r="L274">
+        <v>5</v>
+      </c>
+      <c r="M274" s="2">
+        <v>24</v>
+      </c>
+      <c r="N274" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O274" t="s">
+        <v>310</v>
+      </c>
+      <c r="P274" s="2">
+        <v>1.2813793099999999</v>
+      </c>
+      <c r="Q274" s="2">
+        <v>1.2224137900000001</v>
+      </c>
+      <c r="R274">
+        <v>3.7241379999999998E-2</v>
+      </c>
+      <c r="S274">
+        <v>3.7241379999999998E-2</v>
+      </c>
+      <c r="T274" s="2">
+        <v>24</v>
+      </c>
+      <c r="U274" s="2">
+        <v>24</v>
+      </c>
+      <c r="V274" s="2">
+        <v>1</v>
+      </c>
+      <c r="W274" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC274" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD274" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE274" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF274" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="275" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>1</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275" t="s">
+        <v>307</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>1</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
+      <c r="H275">
+        <v>22</v>
+      </c>
+      <c r="I275">
+        <v>20</v>
+      </c>
+      <c r="J275">
+        <v>10</v>
+      </c>
+      <c r="K275">
+        <v>30</v>
+      </c>
+      <c r="L275">
+        <v>20</v>
+      </c>
+      <c r="M275" s="2">
+        <v>24</v>
+      </c>
+      <c r="N275" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O275" t="s">
+        <v>310</v>
+      </c>
+      <c r="P275" s="2">
+        <v>1.2813793099999999</v>
+      </c>
+      <c r="Q275" s="2">
+        <v>1.2037930999999999</v>
+      </c>
+      <c r="R275">
+        <v>3.7241379999999998E-2</v>
+      </c>
+      <c r="S275">
+        <v>3.7241379999999998E-2</v>
+      </c>
+      <c r="T275" s="2">
+        <v>24</v>
+      </c>
+      <c r="U275" s="2">
+        <v>24</v>
+      </c>
+      <c r="V275" s="2">
+        <v>1</v>
+      </c>
+      <c r="W275" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC275" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD275" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE275" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF275" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="276" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>1</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276" t="s">
+        <v>307</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>1</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+      <c r="H276">
+        <v>22</v>
+      </c>
+      <c r="I276">
+        <v>20</v>
+      </c>
+      <c r="J276">
+        <v>17.5</v>
+      </c>
+      <c r="K276">
+        <v>22.25</v>
+      </c>
+      <c r="L276">
+        <v>5</v>
+      </c>
+      <c r="M276" s="2">
+        <v>24</v>
+      </c>
+      <c r="N276" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O276" t="s">
+        <v>310</v>
+      </c>
+      <c r="P276" s="2">
+        <v>1.1634482799999999</v>
+      </c>
+      <c r="Q276" s="2">
+        <v>1.1944827600000001</v>
+      </c>
+      <c r="R276">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="S276">
+        <v>3.7241379999999998E-2</v>
+      </c>
+      <c r="T276" s="2">
+        <v>24</v>
+      </c>
+      <c r="U276" s="2">
+        <v>24</v>
+      </c>
+      <c r="V276" s="2">
+        <v>1</v>
+      </c>
+      <c r="W276" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC276" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD276" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE276" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF276" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="277" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>1</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+      <c r="C277" t="s">
+        <v>307</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="H277">
+        <v>22</v>
+      </c>
+      <c r="I277">
+        <v>20</v>
+      </c>
+      <c r="J277">
+        <v>10</v>
+      </c>
+      <c r="K277">
+        <v>30</v>
+      </c>
+      <c r="L277">
+        <v>20</v>
+      </c>
+      <c r="M277" s="2">
+        <v>24</v>
+      </c>
+      <c r="N277" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O277" t="s">
+        <v>310</v>
+      </c>
+      <c r="P277" s="2">
+        <v>1.1634482799999999</v>
+      </c>
+      <c r="Q277" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="R277">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="S277">
+        <v>3.7241379999999998E-2</v>
+      </c>
+      <c r="T277" s="2">
+        <v>24</v>
+      </c>
+      <c r="U277" s="2">
+        <v>24</v>
+      </c>
+      <c r="V277" s="2">
+        <v>1</v>
+      </c>
+      <c r="W277" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC277" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD277" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE277" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF277" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="278" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>1</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278" t="s">
+        <v>307</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="H278">
+        <v>22</v>
+      </c>
+      <c r="I278">
+        <v>20</v>
+      </c>
+      <c r="J278">
+        <v>17.5</v>
+      </c>
+      <c r="K278">
+        <v>22.25</v>
+      </c>
+      <c r="L278">
+        <v>5</v>
+      </c>
+      <c r="M278" s="2">
+        <v>24</v>
+      </c>
+      <c r="N278" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O278" t="s">
+        <v>310</v>
+      </c>
+      <c r="P278" s="2">
+        <v>1.2379310299999999</v>
+      </c>
+      <c r="Q278" s="2">
+        <v>1.2317241400000001</v>
+      </c>
+      <c r="R278">
+        <v>3.7241379999999998E-2</v>
+      </c>
+      <c r="S278">
+        <v>3.7241379999999998E-2</v>
+      </c>
+      <c r="T278" s="2">
+        <v>24</v>
+      </c>
+      <c r="U278" s="2">
+        <v>24</v>
+      </c>
+      <c r="V278" s="2">
+        <v>1</v>
+      </c>
+      <c r="W278" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC278" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD278" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE278" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF278" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="279" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>1</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="C279" t="s">
+        <v>307</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+      <c r="H279">
+        <v>22</v>
+      </c>
+      <c r="I279">
+        <v>20</v>
+      </c>
+      <c r="J279">
+        <v>10</v>
+      </c>
+      <c r="K279">
+        <v>30</v>
+      </c>
+      <c r="L279">
+        <v>20</v>
+      </c>
+      <c r="M279" s="2">
+        <v>24</v>
+      </c>
+      <c r="N279" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O279" t="s">
+        <v>310</v>
+      </c>
+      <c r="P279" s="2">
+        <v>1.2379310299999999</v>
+      </c>
+      <c r="Q279" s="2">
+        <v>1.1479310300000001</v>
+      </c>
+      <c r="R279">
+        <v>3.7241379999999998E-2</v>
+      </c>
+      <c r="S279">
+        <v>3.7241379999999998E-2</v>
+      </c>
+      <c r="T279" s="2">
+        <v>24</v>
+      </c>
+      <c r="U279" s="2">
+        <v>24</v>
+      </c>
+      <c r="V279" s="2">
+        <v>1</v>
+      </c>
+      <c r="W279" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC279" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD279" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE279" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF279" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="280" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>1</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+      <c r="C280" t="s">
+        <v>307</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
+      <c r="G280">
+        <v>1</v>
+      </c>
+      <c r="H280">
+        <v>22</v>
+      </c>
+      <c r="I280">
+        <v>20</v>
+      </c>
+      <c r="J280">
+        <v>17.5</v>
+      </c>
+      <c r="K280">
+        <v>22.25</v>
+      </c>
+      <c r="L280">
+        <v>5</v>
+      </c>
+      <c r="M280" s="2">
+        <v>24</v>
+      </c>
+      <c r="N280" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O280" t="s">
+        <v>310</v>
+      </c>
+      <c r="P280" s="2">
+        <v>1.0858620699999999</v>
+      </c>
+      <c r="Q280" s="2">
+        <v>1.1634482799999999</v>
+      </c>
+      <c r="R280">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="S280">
+        <v>3.7241379999999998E-2</v>
+      </c>
+      <c r="T280" s="2">
+        <v>24</v>
+      </c>
+      <c r="U280" s="2">
+        <v>24</v>
+      </c>
+      <c r="V280" s="2">
+        <v>1</v>
+      </c>
+      <c r="W280" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC280" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD280" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE280" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF280" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="281" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>1</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281" t="s">
+        <v>307</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>1</v>
+      </c>
+      <c r="G281">
+        <v>1</v>
+      </c>
+      <c r="H281">
+        <v>22</v>
+      </c>
+      <c r="I281">
+        <v>20</v>
+      </c>
+      <c r="J281">
+        <v>10</v>
+      </c>
+      <c r="K281">
+        <v>30</v>
+      </c>
+      <c r="L281">
+        <v>20</v>
+      </c>
+      <c r="M281" s="2">
+        <v>24</v>
+      </c>
+      <c r="N281" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O281" t="s">
+        <v>310</v>
+      </c>
+      <c r="P281" s="2">
+        <v>1.0858620699999999</v>
+      </c>
+      <c r="Q281" s="2">
+        <v>1.13241379</v>
+      </c>
+      <c r="R281">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="S281">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="T281" s="2">
+        <v>24</v>
+      </c>
+      <c r="U281" s="2">
+        <v>24</v>
+      </c>
+      <c r="V281" s="2">
+        <v>1</v>
+      </c>
+      <c r="W281" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC281" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD281" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE281" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF281" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="282" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>1</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282" t="s">
+        <v>307</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>1</v>
+      </c>
+      <c r="G282">
+        <v>1</v>
+      </c>
+      <c r="H282">
+        <v>22</v>
+      </c>
+      <c r="I282">
+        <v>24</v>
+      </c>
+      <c r="J282">
+        <v>21.5</v>
+      </c>
+      <c r="K282">
+        <v>26.5</v>
+      </c>
+      <c r="L282">
+        <v>5</v>
+      </c>
+      <c r="M282" s="2">
+        <v>24</v>
+      </c>
+      <c r="N282" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O282" t="s">
+        <v>310</v>
+      </c>
+      <c r="P282" s="2">
+        <v>1.16655172</v>
+      </c>
+      <c r="Q282" s="2">
+        <v>1.17896552</v>
+      </c>
+      <c r="R282">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="S282">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="T282" s="2">
+        <v>24</v>
+      </c>
+      <c r="U282" s="2">
+        <v>24</v>
+      </c>
+      <c r="V282" s="2">
+        <v>1</v>
+      </c>
+      <c r="W282" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC282" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD282" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE282" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF282" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="283" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>1</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+      <c r="C283" t="s">
+        <v>307</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="H283">
+        <v>22</v>
+      </c>
+      <c r="I283">
+        <v>24</v>
+      </c>
+      <c r="J283">
+        <v>14</v>
+      </c>
+      <c r="K283">
+        <v>34</v>
+      </c>
+      <c r="L283">
+        <v>20</v>
+      </c>
+      <c r="M283" s="2">
+        <v>24</v>
+      </c>
+      <c r="N283" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O283" t="s">
+        <v>310</v>
+      </c>
+      <c r="P283" s="2">
+        <v>1.16655172</v>
+      </c>
+      <c r="Q283" s="2">
+        <v>1.1634482799999999</v>
+      </c>
+      <c r="R283">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="S283">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="T283" s="2">
+        <v>24</v>
+      </c>
+      <c r="U283" s="2">
+        <v>24</v>
+      </c>
+      <c r="V283" s="2">
+        <v>1</v>
+      </c>
+      <c r="W283" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC283" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD283" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE283" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF283" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="284" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>1</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284" t="s">
+        <v>307</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="H284">
+        <v>22</v>
+      </c>
+      <c r="I284">
+        <v>24</v>
+      </c>
+      <c r="J284">
+        <v>21.5</v>
+      </c>
+      <c r="K284">
+        <v>26.5</v>
+      </c>
+      <c r="L284">
+        <v>5</v>
+      </c>
+      <c r="M284" s="2">
+        <v>24</v>
+      </c>
+      <c r="N284" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O284" t="s">
+        <v>310</v>
+      </c>
+      <c r="P284" s="2">
+        <v>1.07344828</v>
+      </c>
+      <c r="Q284" s="2">
+        <v>1.0889655199999999</v>
+      </c>
+      <c r="R284">
+        <v>3.7241379999999998E-2</v>
+      </c>
+      <c r="S284">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="T284" s="2">
+        <v>24</v>
+      </c>
+      <c r="U284" s="2">
+        <v>24</v>
+      </c>
+      <c r="V284" s="2">
+        <v>1</v>
+      </c>
+      <c r="W284" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC284" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD284" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE284" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF284" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="285" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>1</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="C285" t="s">
+        <v>307</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>1</v>
+      </c>
+      <c r="G285">
+        <v>1</v>
+      </c>
+      <c r="H285">
+        <v>22</v>
+      </c>
+      <c r="I285">
+        <v>24</v>
+      </c>
+      <c r="J285">
+        <v>14</v>
+      </c>
+      <c r="K285">
+        <v>34</v>
+      </c>
+      <c r="L285">
+        <v>20</v>
+      </c>
+      <c r="M285" s="2">
+        <v>24</v>
+      </c>
+      <c r="N285" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O285" t="s">
+        <v>310</v>
+      </c>
+      <c r="P285" s="2">
+        <v>1.07344828</v>
+      </c>
+      <c r="Q285" s="2">
+        <v>1.13862069</v>
+      </c>
+      <c r="R285">
+        <v>3.7241379999999998E-2</v>
+      </c>
+      <c r="S285">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="T285" s="2">
+        <v>24</v>
+      </c>
+      <c r="U285" s="2">
+        <v>24</v>
+      </c>
+      <c r="V285" s="2">
+        <v>1</v>
+      </c>
+      <c r="W285" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC285" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD285" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE285" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF285" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="286" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>1</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+      <c r="C286" t="s">
+        <v>307</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>1</v>
+      </c>
+      <c r="G286">
+        <v>1</v>
+      </c>
+      <c r="H286">
+        <v>22</v>
+      </c>
+      <c r="I286">
+        <v>24</v>
+      </c>
+      <c r="J286">
+        <v>21.5</v>
+      </c>
+      <c r="K286">
+        <v>26.5</v>
+      </c>
+      <c r="L286">
+        <v>5</v>
+      </c>
+      <c r="M286" s="2">
+        <v>24</v>
+      </c>
+      <c r="N286" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O286" t="s">
+        <v>310</v>
+      </c>
+      <c r="P286" s="2">
+        <v>1.0144827599999999</v>
+      </c>
+      <c r="Q286" s="2">
+        <v>1.06724138</v>
+      </c>
+      <c r="R286">
+        <v>3.4137929999999997E-2</v>
+      </c>
+      <c r="S286">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="T286" s="2">
+        <v>24</v>
+      </c>
+      <c r="U286" s="2">
+        <v>24</v>
+      </c>
+      <c r="V286" s="2">
+        <v>1</v>
+      </c>
+      <c r="W286" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC286" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD286" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE286" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF286" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="287" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>1</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287" t="s">
+        <v>307</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287">
+        <v>1</v>
+      </c>
+      <c r="G287">
+        <v>1</v>
+      </c>
+      <c r="H287">
+        <v>22</v>
+      </c>
+      <c r="I287">
+        <v>24</v>
+      </c>
+      <c r="J287">
+        <v>14</v>
+      </c>
+      <c r="K287">
+        <v>34</v>
+      </c>
+      <c r="L287">
+        <v>20</v>
+      </c>
+      <c r="M287" s="2">
+        <v>24</v>
+      </c>
+      <c r="N287" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O287" t="s">
+        <v>310</v>
+      </c>
+      <c r="P287" s="2">
+        <v>1.0144827599999999</v>
+      </c>
+      <c r="Q287" s="2">
+        <v>1.0827586199999999</v>
+      </c>
+      <c r="R287">
+        <v>3.4137929999999997E-2</v>
+      </c>
+      <c r="S287">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="T287" s="2">
+        <v>24</v>
+      </c>
+      <c r="U287" s="2">
+        <v>24</v>
+      </c>
+      <c r="V287" s="2">
+        <v>1</v>
+      </c>
+      <c r="W287" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC287" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD287" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE287" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF287" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="288" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>1</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+      <c r="C288" t="s">
+        <v>307</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
+      <c r="H288">
+        <v>22</v>
+      </c>
+      <c r="I288">
+        <v>24</v>
+      </c>
+      <c r="J288">
+        <v>21.5</v>
+      </c>
+      <c r="K288">
+        <v>26.5</v>
+      </c>
+      <c r="L288">
+        <v>5</v>
+      </c>
+      <c r="M288" s="2">
+        <v>24</v>
+      </c>
+      <c r="N288" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O288" t="s">
+        <v>310</v>
+      </c>
+      <c r="P288" s="2">
+        <v>1.0827586199999999</v>
+      </c>
+      <c r="Q288" s="2">
+        <v>0.98965517000000003</v>
+      </c>
+      <c r="R288">
+        <v>3.4137929999999997E-2</v>
+      </c>
+      <c r="S288">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="T288" s="2">
+        <v>24</v>
+      </c>
+      <c r="U288" s="2">
+        <v>24</v>
+      </c>
+      <c r="V288" s="2">
+        <v>1</v>
+      </c>
+      <c r="W288" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC288" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD288" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE288" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF288" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="289" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>1</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+      <c r="C289" t="s">
+        <v>307</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>1</v>
+      </c>
+      <c r="G289">
+        <v>1</v>
+      </c>
+      <c r="H289">
+        <v>22</v>
+      </c>
+      <c r="I289">
+        <v>24</v>
+      </c>
+      <c r="J289">
+        <v>14</v>
+      </c>
+      <c r="K289">
+        <v>34</v>
+      </c>
+      <c r="L289">
+        <v>20</v>
+      </c>
+      <c r="M289" s="2">
+        <v>24</v>
+      </c>
+      <c r="N289" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O289" t="s">
+        <v>310</v>
+      </c>
+      <c r="P289" s="2">
+        <v>1.0827586199999999</v>
+      </c>
+      <c r="Q289" s="2">
+        <v>0.98655172000000002</v>
+      </c>
+      <c r="R289">
+        <v>3.4137929999999997E-2</v>
+      </c>
+      <c r="S289">
+        <v>3.7241379999999998E-2</v>
+      </c>
+      <c r="T289" s="2">
+        <v>24</v>
+      </c>
+      <c r="U289" s="2">
+        <v>24</v>
+      </c>
+      <c r="V289" s="2">
+        <v>1</v>
+      </c>
+      <c r="W289" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC289" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD289" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE289" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF289" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="290" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>1</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290" t="s">
+        <v>307</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
+      </c>
+      <c r="G290">
+        <v>1</v>
+      </c>
+      <c r="H290">
+        <v>22</v>
+      </c>
+      <c r="I290" s="2">
+        <v>20</v>
+      </c>
+      <c r="J290">
+        <v>21.5</v>
+      </c>
+      <c r="K290">
+        <v>26.5</v>
+      </c>
+      <c r="L290">
+        <v>5</v>
+      </c>
+      <c r="M290" s="2">
+        <v>24</v>
+      </c>
+      <c r="N290" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O290" t="s">
+        <v>310</v>
+      </c>
+      <c r="P290" s="2">
+        <v>1.14172414</v>
+      </c>
+      <c r="Q290" s="2">
+        <v>1.0175862099999999</v>
+      </c>
+      <c r="R290">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="S290">
+        <v>3.7241379999999998E-2</v>
+      </c>
+      <c r="T290" s="2">
+        <v>24</v>
+      </c>
+      <c r="U290" s="2">
+        <v>24</v>
+      </c>
+      <c r="V290" s="2">
+        <v>1</v>
+      </c>
+      <c r="W290" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC290" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD290" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE290" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF290" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="291" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>1</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+      <c r="C291" t="s">
+        <v>307</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="H291">
+        <v>22</v>
+      </c>
+      <c r="I291" s="2">
+        <v>20</v>
+      </c>
+      <c r="J291">
+        <v>14</v>
+      </c>
+      <c r="K291">
+        <v>34</v>
+      </c>
+      <c r="L291">
+        <v>20</v>
+      </c>
+      <c r="M291" s="2">
+        <v>24</v>
+      </c>
+      <c r="N291" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O291" t="s">
+        <v>310</v>
+      </c>
+      <c r="P291" s="2">
+        <v>1.14172414</v>
+      </c>
+      <c r="Q291" s="2">
+        <v>1.0548275899999999</v>
+      </c>
+      <c r="R291">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="S291">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="T291" s="2">
+        <v>24</v>
+      </c>
+      <c r="U291" s="2">
+        <v>24</v>
+      </c>
+      <c r="V291" s="2">
+        <v>1</v>
+      </c>
+      <c r="W291" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC291" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD291" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE291" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF291" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="292" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>1</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+      <c r="C292" t="s">
+        <v>307</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="H292">
+        <v>22</v>
+      </c>
+      <c r="I292" s="2">
+        <v>20</v>
+      </c>
+      <c r="J292">
+        <v>21.5</v>
+      </c>
+      <c r="K292">
+        <v>26.5</v>
+      </c>
+      <c r="L292">
+        <v>5</v>
+      </c>
+      <c r="M292" s="2">
+        <v>24</v>
+      </c>
+      <c r="N292" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O292" t="s">
+        <v>310</v>
+      </c>
+      <c r="T292" s="2">
+        <v>24</v>
+      </c>
+      <c r="U292" s="2">
+        <v>24</v>
+      </c>
+      <c r="V292" s="2">
+        <v>1</v>
+      </c>
+      <c r="W292" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC292" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD292" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE292" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF292" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="293" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>1</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+      <c r="C293" t="s">
+        <v>307</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
+      <c r="H293">
+        <v>22</v>
+      </c>
+      <c r="I293" s="2">
+        <v>20</v>
+      </c>
+      <c r="J293">
+        <v>14</v>
+      </c>
+      <c r="K293">
+        <v>34</v>
+      </c>
+      <c r="L293">
+        <v>20</v>
+      </c>
+      <c r="M293" s="2">
+        <v>24</v>
+      </c>
+      <c r="N293" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O293" t="s">
+        <v>310</v>
+      </c>
+      <c r="T293" s="2">
+        <v>24</v>
+      </c>
+      <c r="U293" s="2">
+        <v>24</v>
+      </c>
+      <c r="V293" s="2">
+        <v>1</v>
+      </c>
+      <c r="W293" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC293" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD293" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE293" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF293" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="294" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>1</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="C294" t="s">
+        <v>307</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>1</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
+      <c r="H294">
+        <v>22</v>
+      </c>
+      <c r="I294" s="2">
+        <v>20</v>
+      </c>
+      <c r="J294">
+        <v>21.5</v>
+      </c>
+      <c r="K294">
+        <v>26.5</v>
+      </c>
+      <c r="L294">
+        <v>5</v>
+      </c>
+      <c r="M294" s="2">
+        <v>24</v>
+      </c>
+      <c r="N294" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O294" t="s">
+        <v>310</v>
+      </c>
+      <c r="T294" s="2">
+        <v>24</v>
+      </c>
+      <c r="U294" s="2">
+        <v>24</v>
+      </c>
+      <c r="V294" s="2">
+        <v>1</v>
+      </c>
+      <c r="W294" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC294" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD294" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE294" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF294" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="295" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>1</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295" t="s">
+        <v>307</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>1</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
+      </c>
+      <c r="H295">
+        <v>22</v>
+      </c>
+      <c r="I295" s="2">
+        <v>20</v>
+      </c>
+      <c r="J295">
+        <v>14</v>
+      </c>
+      <c r="K295">
+        <v>34</v>
+      </c>
+      <c r="L295">
+        <v>20</v>
+      </c>
+      <c r="M295" s="2">
+        <v>24</v>
+      </c>
+      <c r="N295" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O295" t="s">
+        <v>310</v>
+      </c>
+      <c r="T295" s="2">
+        <v>24</v>
+      </c>
+      <c r="U295" s="2">
+        <v>24</v>
+      </c>
+      <c r="V295" s="2">
+        <v>1</v>
+      </c>
+      <c r="W295" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC295" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD295" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE295" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF295" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="296" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>1</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296" t="s">
+        <v>307</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>1</v>
+      </c>
+      <c r="G296">
+        <v>1</v>
+      </c>
+      <c r="H296">
+        <v>22</v>
+      </c>
+      <c r="I296" s="2">
+        <v>20</v>
+      </c>
+      <c r="J296">
+        <v>21.5</v>
+      </c>
+      <c r="K296">
+        <v>26.5</v>
+      </c>
+      <c r="L296">
+        <v>5</v>
+      </c>
+      <c r="M296" s="2">
+        <v>24</v>
+      </c>
+      <c r="N296" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O296" t="s">
+        <v>310</v>
+      </c>
+      <c r="T296" s="2">
+        <v>24</v>
+      </c>
+      <c r="U296" s="2">
+        <v>24</v>
+      </c>
+      <c r="V296" s="2">
+        <v>1</v>
+      </c>
+      <c r="W296" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC296" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD296" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE296" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF296" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="297" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>1</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+      <c r="C297" t="s">
+        <v>307</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>1</v>
+      </c>
+      <c r="G297">
+        <v>1</v>
+      </c>
+      <c r="H297">
+        <v>22</v>
+      </c>
+      <c r="I297" s="2">
+        <v>20</v>
+      </c>
+      <c r="J297">
+        <v>14</v>
+      </c>
+      <c r="K297">
+        <v>34</v>
+      </c>
+      <c r="L297">
+        <v>20</v>
+      </c>
+      <c r="M297" s="2">
+        <v>24</v>
+      </c>
+      <c r="N297" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O297" t="s">
+        <v>310</v>
+      </c>
+      <c r="T297" s="2">
+        <v>24</v>
+      </c>
+      <c r="U297" s="2">
+        <v>24</v>
+      </c>
+      <c r="V297" s="2">
+        <v>1</v>
+      </c>
+      <c r="W297" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC297" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD297" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE297" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF297" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/shared analysis files /metafor.xlsx
+++ b/shared analysis files /metafor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/shared analysis files /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12930B6D-8B69-F147-915B-BAE7279C75E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDB460E-3A42-9D49-9567-3E5EBFA592AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="1640" windowWidth="24000" windowHeight="15900" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
+    <workbookView xWindow="28800" yWindow="-11120" windowWidth="24000" windowHeight="15900" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
   </bookViews>
   <sheets>
     <sheet name="metafor" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2984" uniqueCount="321">
   <si>
     <t>study_id</t>
   </si>
@@ -983,6 +983,12 @@
   <si>
     <t xml:space="preserve">high </t>
   </si>
+  <si>
+    <t>Energy consumption</t>
+  </si>
+  <si>
+    <t>Sqrt Cellular energy allocation (CEA)</t>
+  </si>
 </sst>
 </file>
 
@@ -1348,11 +1354,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCFBC2B-929F-FD41-8C91-75842D1EBA74}">
-  <dimension ref="A1:AK297"/>
+  <dimension ref="A1:AK369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S290" sqref="S290:S291"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S368" sqref="S368:S369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27770,6 +27776,18 @@
       <c r="O292" t="s">
         <v>310</v>
       </c>
+      <c r="P292" s="2">
+        <v>1.0796551700000001</v>
+      </c>
+      <c r="Q292" s="2">
+        <v>1.0051724099999999</v>
+      </c>
+      <c r="R292">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="S292">
+        <v>3.7241379999999998E-2</v>
+      </c>
       <c r="T292" s="2">
         <v>24</v>
       </c>
@@ -27841,6 +27859,18 @@
       <c r="O293" t="s">
         <v>310</v>
       </c>
+      <c r="P293" s="2">
+        <v>1.0796551700000001</v>
+      </c>
+      <c r="Q293" s="2">
+        <v>1.05793103</v>
+      </c>
+      <c r="R293">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="S293">
+        <v>3.5689659999999998E-2</v>
+      </c>
       <c r="T293" s="2">
         <v>24</v>
       </c>
@@ -27912,6 +27942,18 @@
       <c r="O294" t="s">
         <v>310</v>
       </c>
+      <c r="P294" s="2">
+        <v>1.11068966</v>
+      </c>
+      <c r="Q294" s="2">
+        <v>0.99896552000000005</v>
+      </c>
+      <c r="R294">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="S294">
+        <v>3.5689659999999998E-2</v>
+      </c>
       <c r="T294" s="2">
         <v>24</v>
       </c>
@@ -27983,6 +28025,18 @@
       <c r="O295" t="s">
         <v>310</v>
       </c>
+      <c r="P295" s="2">
+        <v>1.11068966</v>
+      </c>
+      <c r="Q295" s="2">
+        <v>0.91827586000000005</v>
+      </c>
+      <c r="R295">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="S295">
+        <v>3.5689659999999998E-2</v>
+      </c>
       <c r="T295" s="2">
         <v>24</v>
       </c>
@@ -28054,6 +28108,18 @@
       <c r="O296" t="s">
         <v>310</v>
       </c>
+      <c r="P296" s="2">
+        <v>1.0765517200000001</v>
+      </c>
+      <c r="Q296" s="2">
+        <v>0.95551724000000005</v>
+      </c>
+      <c r="R296">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="S296">
+        <v>3.5689659999999998E-2</v>
+      </c>
       <c r="T296" s="2">
         <v>24</v>
       </c>
@@ -28125,6 +28191,18 @@
       <c r="O297" t="s">
         <v>310</v>
       </c>
+      <c r="P297" s="2">
+        <v>1.0765517200000001</v>
+      </c>
+      <c r="Q297" s="2">
+        <v>0.94620689999999996</v>
+      </c>
+      <c r="R297">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="S297">
+        <v>3.5689659999999998E-2</v>
+      </c>
       <c r="T297" s="2">
         <v>24</v>
       </c>
@@ -28147,6 +28225,5886 @@
         <v>313</v>
       </c>
       <c r="AF297" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="298" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>1</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="C298" t="s">
+        <v>307</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>1</v>
+      </c>
+      <c r="G298">
+        <v>1</v>
+      </c>
+      <c r="H298">
+        <v>22</v>
+      </c>
+      <c r="I298">
+        <v>24</v>
+      </c>
+      <c r="J298">
+        <v>21.5</v>
+      </c>
+      <c r="K298">
+        <v>26.5</v>
+      </c>
+      <c r="L298">
+        <v>5</v>
+      </c>
+      <c r="M298" s="2">
+        <v>24</v>
+      </c>
+      <c r="N298" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O298" t="s">
+        <v>310</v>
+      </c>
+      <c r="P298" s="2">
+        <v>1.0858620699999999</v>
+      </c>
+      <c r="Q298" s="2">
+        <v>1.13241379</v>
+      </c>
+      <c r="R298">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="S298">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="T298" s="2">
+        <v>24</v>
+      </c>
+      <c r="U298" s="2">
+        <v>24</v>
+      </c>
+      <c r="V298" s="2">
+        <v>1</v>
+      </c>
+      <c r="W298" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC298" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD298" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE298" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF298" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="299" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>1</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="C299" t="s">
+        <v>307</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>1</v>
+      </c>
+      <c r="G299">
+        <v>1</v>
+      </c>
+      <c r="H299">
+        <v>22</v>
+      </c>
+      <c r="I299">
+        <v>24</v>
+      </c>
+      <c r="J299">
+        <v>14</v>
+      </c>
+      <c r="K299">
+        <v>34</v>
+      </c>
+      <c r="L299">
+        <v>20</v>
+      </c>
+      <c r="M299" s="2">
+        <v>24</v>
+      </c>
+      <c r="N299" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O299" t="s">
+        <v>310</v>
+      </c>
+      <c r="P299" s="2">
+        <v>1.0858620699999999</v>
+      </c>
+      <c r="Q299" s="2">
+        <v>1.10448276</v>
+      </c>
+      <c r="R299">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="S299">
+        <v>3.4137929999999997E-2</v>
+      </c>
+      <c r="T299" s="2">
+        <v>24</v>
+      </c>
+      <c r="U299" s="2">
+        <v>24</v>
+      </c>
+      <c r="V299" s="2">
+        <v>1</v>
+      </c>
+      <c r="W299" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC299" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD299" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE299" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF299" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="300" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>1</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300" t="s">
+        <v>307</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300">
+        <v>1</v>
+      </c>
+      <c r="G300">
+        <v>1</v>
+      </c>
+      <c r="H300">
+        <v>22</v>
+      </c>
+      <c r="I300">
+        <v>24</v>
+      </c>
+      <c r="J300">
+        <v>21.5</v>
+      </c>
+      <c r="K300">
+        <v>26.5</v>
+      </c>
+      <c r="L300">
+        <v>5</v>
+      </c>
+      <c r="M300" s="2">
+        <v>24</v>
+      </c>
+      <c r="N300" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O300" t="s">
+        <v>310</v>
+      </c>
+      <c r="P300" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="Q300" s="2">
+        <v>1.1168965500000001</v>
+      </c>
+      <c r="R300">
+        <v>3.4137929999999997E-2</v>
+      </c>
+      <c r="S300">
+        <v>3.4137929999999997E-2</v>
+      </c>
+      <c r="T300" s="2">
+        <v>24</v>
+      </c>
+      <c r="U300" s="2">
+        <v>24</v>
+      </c>
+      <c r="V300" s="2">
+        <v>1</v>
+      </c>
+      <c r="W300" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC300" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD300" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE300" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF300" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="301" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>1</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+      <c r="C301" t="s">
+        <v>307</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301">
+        <v>1</v>
+      </c>
+      <c r="G301">
+        <v>1</v>
+      </c>
+      <c r="H301">
+        <v>22</v>
+      </c>
+      <c r="I301">
+        <v>24</v>
+      </c>
+      <c r="J301">
+        <v>14</v>
+      </c>
+      <c r="K301">
+        <v>34</v>
+      </c>
+      <c r="L301">
+        <v>20</v>
+      </c>
+      <c r="M301" s="2">
+        <v>24</v>
+      </c>
+      <c r="N301" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O301" t="s">
+        <v>310</v>
+      </c>
+      <c r="P301" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="Q301" s="2">
+        <v>0.94620689999999996</v>
+      </c>
+      <c r="R301">
+        <v>3.4137929999999997E-2</v>
+      </c>
+      <c r="S301">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="T301" s="2">
+        <v>24</v>
+      </c>
+      <c r="U301" s="2">
+        <v>24</v>
+      </c>
+      <c r="V301" s="2">
+        <v>1</v>
+      </c>
+      <c r="W301" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC301" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD301" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE301" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF301" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="302" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>1</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302" t="s">
+        <v>307</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>1</v>
+      </c>
+      <c r="G302">
+        <v>1</v>
+      </c>
+      <c r="H302">
+        <v>22</v>
+      </c>
+      <c r="I302">
+        <v>24</v>
+      </c>
+      <c r="J302">
+        <v>21.5</v>
+      </c>
+      <c r="K302">
+        <v>26.5</v>
+      </c>
+      <c r="L302">
+        <v>5</v>
+      </c>
+      <c r="M302" s="2">
+        <v>24</v>
+      </c>
+      <c r="N302" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O302" t="s">
+        <v>310</v>
+      </c>
+      <c r="P302" s="2">
+        <v>1.0082758599999999</v>
+      </c>
+      <c r="Q302" s="2">
+        <v>0.99275862000000004</v>
+      </c>
+      <c r="R302">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="S302">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="T302" s="2">
+        <v>24</v>
+      </c>
+      <c r="U302" s="2">
+        <v>24</v>
+      </c>
+      <c r="V302" s="2">
+        <v>1</v>
+      </c>
+      <c r="W302" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC302" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD302" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE302" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF302" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="303" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>1</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+      <c r="C303" t="s">
+        <v>307</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303">
+        <v>1</v>
+      </c>
+      <c r="G303">
+        <v>1</v>
+      </c>
+      <c r="H303">
+        <v>22</v>
+      </c>
+      <c r="I303">
+        <v>24</v>
+      </c>
+      <c r="J303">
+        <v>14</v>
+      </c>
+      <c r="K303">
+        <v>34</v>
+      </c>
+      <c r="L303">
+        <v>20</v>
+      </c>
+      <c r="M303" s="2">
+        <v>24</v>
+      </c>
+      <c r="N303" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O303" t="s">
+        <v>310</v>
+      </c>
+      <c r="P303" s="2">
+        <v>1.0082758599999999</v>
+      </c>
+      <c r="Q303" s="2">
+        <v>0.96793103000000003</v>
+      </c>
+      <c r="R303">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="S303">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="T303" s="2">
+        <v>24</v>
+      </c>
+      <c r="U303" s="2">
+        <v>24</v>
+      </c>
+      <c r="V303" s="2">
+        <v>1</v>
+      </c>
+      <c r="W303" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC303" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD303" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE303" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF303" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="304" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>1</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+      <c r="C304" t="s">
+        <v>307</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304">
+        <v>1</v>
+      </c>
+      <c r="G304">
+        <v>1</v>
+      </c>
+      <c r="H304">
+        <v>22</v>
+      </c>
+      <c r="I304">
+        <v>24</v>
+      </c>
+      <c r="J304">
+        <v>21.5</v>
+      </c>
+      <c r="K304">
+        <v>26.5</v>
+      </c>
+      <c r="L304">
+        <v>5</v>
+      </c>
+      <c r="M304" s="2">
+        <v>24</v>
+      </c>
+      <c r="N304" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O304" t="s">
+        <v>310</v>
+      </c>
+      <c r="P304" s="2">
+        <v>1.0113793099999999</v>
+      </c>
+      <c r="Q304" s="2">
+        <v>0.95862069000000005</v>
+      </c>
+      <c r="R304">
+        <v>3.7241379999999998E-2</v>
+      </c>
+      <c r="S304">
+        <v>3.5689659999999998E-2</v>
+      </c>
+      <c r="T304" s="2">
+        <v>24</v>
+      </c>
+      <c r="U304" s="2">
+        <v>24</v>
+      </c>
+      <c r="V304" s="2">
+        <v>1</v>
+      </c>
+      <c r="W304" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC304" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD304" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE304" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF304" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="305" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>1</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+      <c r="C305" t="s">
+        <v>307</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305">
+        <v>1</v>
+      </c>
+      <c r="G305">
+        <v>1</v>
+      </c>
+      <c r="H305">
+        <v>22</v>
+      </c>
+      <c r="I305">
+        <v>24</v>
+      </c>
+      <c r="J305">
+        <v>14</v>
+      </c>
+      <c r="K305">
+        <v>34</v>
+      </c>
+      <c r="L305">
+        <v>20</v>
+      </c>
+      <c r="M305" s="2">
+        <v>24</v>
+      </c>
+      <c r="N305" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O305" t="s">
+        <v>310</v>
+      </c>
+      <c r="P305" s="2">
+        <v>1.0113793099999999</v>
+      </c>
+      <c r="Q305" s="2">
+        <v>0.95862069000000005</v>
+      </c>
+      <c r="R305">
+        <v>3.7241379999999998E-2</v>
+      </c>
+      <c r="S305">
+        <v>3.4137929999999997E-2</v>
+      </c>
+      <c r="T305" s="2">
+        <v>24</v>
+      </c>
+      <c r="U305" s="2">
+        <v>24</v>
+      </c>
+      <c r="V305" s="2">
+        <v>1</v>
+      </c>
+      <c r="W305" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC305" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD305" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE305" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF305" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="306" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>1</v>
+      </c>
+      <c r="B306">
+        <v>2</v>
+      </c>
+      <c r="C306" t="s">
+        <v>307</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306">
+        <v>1</v>
+      </c>
+      <c r="G306">
+        <v>1</v>
+      </c>
+      <c r="H306">
+        <v>22</v>
+      </c>
+      <c r="I306" s="2">
+        <v>20</v>
+      </c>
+      <c r="J306">
+        <v>21.5</v>
+      </c>
+      <c r="K306">
+        <v>26.5</v>
+      </c>
+      <c r="L306">
+        <v>5</v>
+      </c>
+      <c r="M306" s="2">
+        <v>24</v>
+      </c>
+      <c r="N306" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O306" t="s">
+        <v>310</v>
+      </c>
+      <c r="P306" s="2">
+        <v>1.29512195</v>
+      </c>
+      <c r="Q306" s="2">
+        <v>1.2512195100000001</v>
+      </c>
+      <c r="R306">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="S306">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="T306" s="2">
+        <v>24</v>
+      </c>
+      <c r="U306" s="2">
+        <v>24</v>
+      </c>
+      <c r="V306" s="2">
+        <v>1</v>
+      </c>
+      <c r="W306" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC306" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD306" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE306" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF306" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="307" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>1</v>
+      </c>
+      <c r="B307">
+        <v>2</v>
+      </c>
+      <c r="C307" t="s">
+        <v>307</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307">
+        <v>1</v>
+      </c>
+      <c r="G307">
+        <v>1</v>
+      </c>
+      <c r="H307">
+        <v>22</v>
+      </c>
+      <c r="I307" s="2">
+        <v>20</v>
+      </c>
+      <c r="J307">
+        <v>14</v>
+      </c>
+      <c r="K307">
+        <v>34</v>
+      </c>
+      <c r="L307">
+        <v>20</v>
+      </c>
+      <c r="M307" s="2">
+        <v>24</v>
+      </c>
+      <c r="N307" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O307" t="s">
+        <v>310</v>
+      </c>
+      <c r="P307" s="2">
+        <v>1.29512195</v>
+      </c>
+      <c r="Q307" s="2">
+        <v>1.1451219500000001</v>
+      </c>
+      <c r="R307">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="S307">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="T307" s="2">
+        <v>24</v>
+      </c>
+      <c r="U307" s="2">
+        <v>24</v>
+      </c>
+      <c r="V307" s="2">
+        <v>1</v>
+      </c>
+      <c r="W307" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC307" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD307" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE307" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF307" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="308" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>1</v>
+      </c>
+      <c r="B308">
+        <v>2</v>
+      </c>
+      <c r="C308" t="s">
+        <v>307</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308">
+        <v>1</v>
+      </c>
+      <c r="G308">
+        <v>1</v>
+      </c>
+      <c r="H308">
+        <v>22</v>
+      </c>
+      <c r="I308" s="2">
+        <v>20</v>
+      </c>
+      <c r="J308">
+        <v>21.5</v>
+      </c>
+      <c r="K308">
+        <v>26.5</v>
+      </c>
+      <c r="L308">
+        <v>5</v>
+      </c>
+      <c r="M308" s="2">
+        <v>24</v>
+      </c>
+      <c r="N308" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O308" t="s">
+        <v>310</v>
+      </c>
+      <c r="P308" s="2">
+        <v>1.23292683</v>
+      </c>
+      <c r="Q308" s="2">
+        <v>1.1817073199999999</v>
+      </c>
+      <c r="R308">
+        <v>6.9512199999999996E-2</v>
+      </c>
+      <c r="S308">
+        <v>7.3170730000000003E-2</v>
+      </c>
+      <c r="T308" s="2">
+        <v>24</v>
+      </c>
+      <c r="U308" s="2">
+        <v>24</v>
+      </c>
+      <c r="V308" s="2">
+        <v>1</v>
+      </c>
+      <c r="W308" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC308" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD308" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE308" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF308" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="309" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>1</v>
+      </c>
+      <c r="B309">
+        <v>2</v>
+      </c>
+      <c r="C309" t="s">
+        <v>307</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>1</v>
+      </c>
+      <c r="G309">
+        <v>1</v>
+      </c>
+      <c r="H309">
+        <v>22</v>
+      </c>
+      <c r="I309" s="2">
+        <v>20</v>
+      </c>
+      <c r="J309">
+        <v>14</v>
+      </c>
+      <c r="K309">
+        <v>34</v>
+      </c>
+      <c r="L309">
+        <v>20</v>
+      </c>
+      <c r="M309" s="2">
+        <v>24</v>
+      </c>
+      <c r="N309" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O309" t="s">
+        <v>310</v>
+      </c>
+      <c r="P309" s="2">
+        <v>1.23292683</v>
+      </c>
+      <c r="Q309" s="2">
+        <v>1.2036585399999999</v>
+      </c>
+      <c r="R309">
+        <v>6.9512199999999996E-2</v>
+      </c>
+      <c r="S309">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="T309" s="2">
+        <v>24</v>
+      </c>
+      <c r="U309" s="2">
+        <v>24</v>
+      </c>
+      <c r="V309" s="2">
+        <v>1</v>
+      </c>
+      <c r="W309" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC309" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD309" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE309" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF309" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="310" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>1</v>
+      </c>
+      <c r="B310">
+        <v>2</v>
+      </c>
+      <c r="C310" t="s">
+        <v>307</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E310">
+        <v>0</v>
+      </c>
+      <c r="F310">
+        <v>1</v>
+      </c>
+      <c r="G310">
+        <v>1</v>
+      </c>
+      <c r="H310">
+        <v>22</v>
+      </c>
+      <c r="I310" s="2">
+        <v>20</v>
+      </c>
+      <c r="J310">
+        <v>21.5</v>
+      </c>
+      <c r="K310">
+        <v>26.5</v>
+      </c>
+      <c r="L310">
+        <v>5</v>
+      </c>
+      <c r="M310" s="2">
+        <v>24</v>
+      </c>
+      <c r="N310" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O310" t="s">
+        <v>310</v>
+      </c>
+      <c r="P310" s="2">
+        <v>1.4597560999999999</v>
+      </c>
+      <c r="Q310" s="2">
+        <v>1.31707317</v>
+      </c>
+      <c r="R310">
+        <v>7.3170730000000003E-2</v>
+      </c>
+      <c r="S310">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="T310" s="2">
+        <v>24</v>
+      </c>
+      <c r="U310" s="2">
+        <v>24</v>
+      </c>
+      <c r="V310" s="2">
+        <v>1</v>
+      </c>
+      <c r="W310" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC310" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD310" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE310" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF310" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="311" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>1</v>
+      </c>
+      <c r="B311">
+        <v>2</v>
+      </c>
+      <c r="C311" t="s">
+        <v>307</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="F311">
+        <v>1</v>
+      </c>
+      <c r="G311">
+        <v>1</v>
+      </c>
+      <c r="H311">
+        <v>22</v>
+      </c>
+      <c r="I311" s="2">
+        <v>20</v>
+      </c>
+      <c r="J311">
+        <v>14</v>
+      </c>
+      <c r="K311">
+        <v>34</v>
+      </c>
+      <c r="L311">
+        <v>20</v>
+      </c>
+      <c r="M311" s="2">
+        <v>24</v>
+      </c>
+      <c r="N311" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O311" t="s">
+        <v>310</v>
+      </c>
+      <c r="P311" s="2">
+        <v>1.4597560999999999</v>
+      </c>
+      <c r="Q311" s="2">
+        <v>1.2585365900000001</v>
+      </c>
+      <c r="R311">
+        <v>7.3170730000000003E-2</v>
+      </c>
+      <c r="S311">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="T311" s="2">
+        <v>24</v>
+      </c>
+      <c r="U311" s="2">
+        <v>24</v>
+      </c>
+      <c r="V311" s="2">
+        <v>1</v>
+      </c>
+      <c r="W311" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC311" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD311" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE311" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF311" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="312" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>1</v>
+      </c>
+      <c r="B312">
+        <v>2</v>
+      </c>
+      <c r="C312" t="s">
+        <v>307</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="F312">
+        <v>1</v>
+      </c>
+      <c r="G312">
+        <v>1</v>
+      </c>
+      <c r="H312">
+        <v>22</v>
+      </c>
+      <c r="I312" s="2">
+        <v>20</v>
+      </c>
+      <c r="J312">
+        <v>21.5</v>
+      </c>
+      <c r="K312">
+        <v>26.5</v>
+      </c>
+      <c r="L312">
+        <v>5</v>
+      </c>
+      <c r="M312" s="2">
+        <v>24</v>
+      </c>
+      <c r="N312" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O312" t="s">
+        <v>310</v>
+      </c>
+      <c r="P312" s="2">
+        <v>1.31341463</v>
+      </c>
+      <c r="Q312" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="R312">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="S312">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="T312" s="2">
+        <v>24</v>
+      </c>
+      <c r="U312" s="2">
+        <v>24</v>
+      </c>
+      <c r="V312" s="2">
+        <v>1</v>
+      </c>
+      <c r="W312" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC312" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD312" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE312" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF312" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="313" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>1</v>
+      </c>
+      <c r="B313">
+        <v>2</v>
+      </c>
+      <c r="C313" t="s">
+        <v>307</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313">
+        <v>1</v>
+      </c>
+      <c r="G313">
+        <v>1</v>
+      </c>
+      <c r="H313">
+        <v>22</v>
+      </c>
+      <c r="I313" s="2">
+        <v>20</v>
+      </c>
+      <c r="J313">
+        <v>14</v>
+      </c>
+      <c r="K313">
+        <v>34</v>
+      </c>
+      <c r="L313">
+        <v>20</v>
+      </c>
+      <c r="M313" s="2">
+        <v>24</v>
+      </c>
+      <c r="N313" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O313" t="s">
+        <v>310</v>
+      </c>
+      <c r="P313" s="2">
+        <v>1.31341463</v>
+      </c>
+      <c r="Q313" s="2">
+        <v>1.2036585399999999</v>
+      </c>
+      <c r="R313">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="S313">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="T313" s="2">
+        <v>24</v>
+      </c>
+      <c r="U313" s="2">
+        <v>24</v>
+      </c>
+      <c r="V313" s="2">
+        <v>1</v>
+      </c>
+      <c r="W313" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC313" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD313" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE313" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF313" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="314" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>1</v>
+      </c>
+      <c r="B314">
+        <v>2</v>
+      </c>
+      <c r="C314" t="s">
+        <v>307</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="F314">
+        <v>1</v>
+      </c>
+      <c r="G314">
+        <v>1</v>
+      </c>
+      <c r="H314">
+        <v>22</v>
+      </c>
+      <c r="I314">
+        <v>24</v>
+      </c>
+      <c r="J314">
+        <v>21.5</v>
+      </c>
+      <c r="K314">
+        <v>26.5</v>
+      </c>
+      <c r="L314">
+        <v>5</v>
+      </c>
+      <c r="M314" s="2">
+        <v>24</v>
+      </c>
+      <c r="N314" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O314" t="s">
+        <v>310</v>
+      </c>
+      <c r="P314" s="2">
+        <v>1.02439024</v>
+      </c>
+      <c r="Q314" s="2">
+        <v>1.1195122</v>
+      </c>
+      <c r="R314">
+        <v>6.9512199999999996E-2</v>
+      </c>
+      <c r="S314" s="2">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="T314" s="2">
+        <v>24</v>
+      </c>
+      <c r="U314" s="2">
+        <v>24</v>
+      </c>
+      <c r="V314" s="2">
+        <v>1</v>
+      </c>
+      <c r="W314" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC314" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD314" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE314" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF314" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="315" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>1</v>
+      </c>
+      <c r="B315">
+        <v>2</v>
+      </c>
+      <c r="C315" t="s">
+        <v>307</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315">
+        <v>1</v>
+      </c>
+      <c r="G315">
+        <v>1</v>
+      </c>
+      <c r="H315">
+        <v>22</v>
+      </c>
+      <c r="I315">
+        <v>24</v>
+      </c>
+      <c r="J315">
+        <v>14</v>
+      </c>
+      <c r="K315">
+        <v>34</v>
+      </c>
+      <c r="L315">
+        <v>20</v>
+      </c>
+      <c r="M315" s="2">
+        <v>24</v>
+      </c>
+      <c r="N315" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O315" t="s">
+        <v>310</v>
+      </c>
+      <c r="P315" s="2">
+        <v>1.02439024</v>
+      </c>
+      <c r="Q315" s="2">
+        <v>1.1451219500000001</v>
+      </c>
+      <c r="R315">
+        <v>6.9512199999999996E-2</v>
+      </c>
+      <c r="S315" s="2">
+        <v>7.3170730000000003E-2</v>
+      </c>
+      <c r="T315" s="2">
+        <v>24</v>
+      </c>
+      <c r="U315" s="2">
+        <v>24</v>
+      </c>
+      <c r="V315" s="2">
+        <v>1</v>
+      </c>
+      <c r="W315" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC315" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD315" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE315" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF315" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>1</v>
+      </c>
+      <c r="B316">
+        <v>2</v>
+      </c>
+      <c r="C316" t="s">
+        <v>307</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="F316">
+        <v>1</v>
+      </c>
+      <c r="G316">
+        <v>1</v>
+      </c>
+      <c r="H316">
+        <v>22</v>
+      </c>
+      <c r="I316">
+        <v>24</v>
+      </c>
+      <c r="J316">
+        <v>21.5</v>
+      </c>
+      <c r="K316">
+        <v>26.5</v>
+      </c>
+      <c r="L316">
+        <v>5</v>
+      </c>
+      <c r="M316" s="2">
+        <v>24</v>
+      </c>
+      <c r="N316" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O316" t="s">
+        <v>310</v>
+      </c>
+      <c r="P316" s="2">
+        <v>1.01341463</v>
+      </c>
+      <c r="Q316" s="2">
+        <v>1.12317073</v>
+      </c>
+      <c r="R316">
+        <v>6.9512199999999996E-2</v>
+      </c>
+      <c r="S316">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="T316" s="2">
+        <v>24</v>
+      </c>
+      <c r="U316" s="2">
+        <v>24</v>
+      </c>
+      <c r="V316" s="2">
+        <v>1</v>
+      </c>
+      <c r="W316" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC316" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD316" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE316" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF316" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>1</v>
+      </c>
+      <c r="B317">
+        <v>2</v>
+      </c>
+      <c r="C317" t="s">
+        <v>307</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="F317">
+        <v>1</v>
+      </c>
+      <c r="G317">
+        <v>1</v>
+      </c>
+      <c r="H317">
+        <v>22</v>
+      </c>
+      <c r="I317">
+        <v>24</v>
+      </c>
+      <c r="J317">
+        <v>14</v>
+      </c>
+      <c r="K317">
+        <v>34</v>
+      </c>
+      <c r="L317">
+        <v>20</v>
+      </c>
+      <c r="M317" s="2">
+        <v>24</v>
+      </c>
+      <c r="N317" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O317" t="s">
+        <v>310</v>
+      </c>
+      <c r="P317" s="2">
+        <v>1.01341463</v>
+      </c>
+      <c r="Q317" s="2">
+        <v>1.1451219500000001</v>
+      </c>
+      <c r="R317">
+        <v>6.9512199999999996E-2</v>
+      </c>
+      <c r="S317">
+        <v>7.3170730000000003E-2</v>
+      </c>
+      <c r="T317" s="2">
+        <v>24</v>
+      </c>
+      <c r="U317" s="2">
+        <v>24</v>
+      </c>
+      <c r="V317" s="2">
+        <v>1</v>
+      </c>
+      <c r="W317" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC317" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD317" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE317" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF317" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="318" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>1</v>
+      </c>
+      <c r="B318">
+        <v>2</v>
+      </c>
+      <c r="C318" t="s">
+        <v>307</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="F318">
+        <v>1</v>
+      </c>
+      <c r="G318">
+        <v>1</v>
+      </c>
+      <c r="H318">
+        <v>22</v>
+      </c>
+      <c r="I318">
+        <v>24</v>
+      </c>
+      <c r="J318">
+        <v>21.5</v>
+      </c>
+      <c r="K318">
+        <v>26.5</v>
+      </c>
+      <c r="L318">
+        <v>5</v>
+      </c>
+      <c r="M318" s="2">
+        <v>24</v>
+      </c>
+      <c r="N318" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O318" t="s">
+        <v>310</v>
+      </c>
+      <c r="P318" s="2">
+        <v>1.0902438999999999</v>
+      </c>
+      <c r="Q318" s="2">
+        <v>1.1085365899999999</v>
+      </c>
+      <c r="R318">
+        <v>7.3170730000000003E-2</v>
+      </c>
+      <c r="S318">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="T318" s="2">
+        <v>24</v>
+      </c>
+      <c r="U318" s="2">
+        <v>24</v>
+      </c>
+      <c r="V318" s="2">
+        <v>1</v>
+      </c>
+      <c r="W318" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC318" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD318" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE318" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF318" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="319" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>1</v>
+      </c>
+      <c r="B319">
+        <v>2</v>
+      </c>
+      <c r="C319" t="s">
+        <v>307</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>1</v>
+      </c>
+      <c r="G319">
+        <v>1</v>
+      </c>
+      <c r="H319">
+        <v>22</v>
+      </c>
+      <c r="I319">
+        <v>24</v>
+      </c>
+      <c r="J319">
+        <v>14</v>
+      </c>
+      <c r="K319">
+        <v>34</v>
+      </c>
+      <c r="L319">
+        <v>20</v>
+      </c>
+      <c r="M319" s="2">
+        <v>24</v>
+      </c>
+      <c r="N319" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O319" t="s">
+        <v>310</v>
+      </c>
+      <c r="P319" s="2">
+        <v>1.0902438999999999</v>
+      </c>
+      <c r="Q319" s="2">
+        <v>1.01707317</v>
+      </c>
+      <c r="R319">
+        <v>7.3170730000000003E-2</v>
+      </c>
+      <c r="S319">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="T319" s="2">
+        <v>24</v>
+      </c>
+      <c r="U319" s="2">
+        <v>24</v>
+      </c>
+      <c r="V319" s="2">
+        <v>1</v>
+      </c>
+      <c r="W319" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC319" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD319" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE319" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF319" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="320" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>1</v>
+      </c>
+      <c r="B320">
+        <v>2</v>
+      </c>
+      <c r="C320" t="s">
+        <v>307</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320">
+        <v>1</v>
+      </c>
+      <c r="G320">
+        <v>1</v>
+      </c>
+      <c r="H320">
+        <v>22</v>
+      </c>
+      <c r="I320">
+        <v>24</v>
+      </c>
+      <c r="J320">
+        <v>21.5</v>
+      </c>
+      <c r="K320">
+        <v>26.5</v>
+      </c>
+      <c r="L320">
+        <v>5</v>
+      </c>
+      <c r="M320" s="2">
+        <v>24</v>
+      </c>
+      <c r="N320" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O320" t="s">
+        <v>310</v>
+      </c>
+      <c r="P320" s="2">
+        <v>1.0829268299999999</v>
+      </c>
+      <c r="Q320" s="2">
+        <v>1.13780488</v>
+      </c>
+      <c r="R320">
+        <v>6.9512199999999996E-2</v>
+      </c>
+      <c r="S320">
+        <v>6.9512199999999996E-2</v>
+      </c>
+      <c r="T320" s="2">
+        <v>24</v>
+      </c>
+      <c r="U320" s="2">
+        <v>24</v>
+      </c>
+      <c r="V320" s="2">
+        <v>1</v>
+      </c>
+      <c r="W320" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC320" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD320" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE320" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF320" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="321" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>1</v>
+      </c>
+      <c r="B321">
+        <v>2</v>
+      </c>
+      <c r="C321" t="s">
+        <v>307</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321">
+        <v>1</v>
+      </c>
+      <c r="G321">
+        <v>1</v>
+      </c>
+      <c r="H321">
+        <v>22</v>
+      </c>
+      <c r="I321">
+        <v>24</v>
+      </c>
+      <c r="J321">
+        <v>14</v>
+      </c>
+      <c r="K321">
+        <v>34</v>
+      </c>
+      <c r="L321">
+        <v>20</v>
+      </c>
+      <c r="M321" s="2">
+        <v>24</v>
+      </c>
+      <c r="N321" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O321" t="s">
+        <v>310</v>
+      </c>
+      <c r="P321" s="2">
+        <v>1.0829268299999999</v>
+      </c>
+      <c r="Q321" s="2">
+        <v>1.1597561000000001</v>
+      </c>
+      <c r="R321">
+        <v>6.9512199999999996E-2</v>
+      </c>
+      <c r="S321">
+        <v>7.3170730000000003E-2</v>
+      </c>
+      <c r="T321" s="2">
+        <v>24</v>
+      </c>
+      <c r="U321" s="2">
+        <v>24</v>
+      </c>
+      <c r="V321" s="2">
+        <v>1</v>
+      </c>
+      <c r="W321" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC321" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD321" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE321" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF321" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="322" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>1</v>
+      </c>
+      <c r="B322">
+        <v>2</v>
+      </c>
+      <c r="C322" t="s">
+        <v>307</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322">
+        <v>1</v>
+      </c>
+      <c r="G322">
+        <v>1</v>
+      </c>
+      <c r="H322">
+        <v>22</v>
+      </c>
+      <c r="I322" s="2">
+        <v>20</v>
+      </c>
+      <c r="J322">
+        <v>21.5</v>
+      </c>
+      <c r="K322">
+        <v>26.5</v>
+      </c>
+      <c r="L322">
+        <v>5</v>
+      </c>
+      <c r="M322" s="2">
+        <v>24</v>
+      </c>
+      <c r="N322" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O322" t="s">
+        <v>310</v>
+      </c>
+      <c r="P322" s="2">
+        <v>1.19634146</v>
+      </c>
+      <c r="Q322" s="2">
+        <v>0.99878049000000002</v>
+      </c>
+      <c r="R322">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="S322">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="T322" s="2">
+        <v>24</v>
+      </c>
+      <c r="U322" s="2">
+        <v>24</v>
+      </c>
+      <c r="V322" s="2">
+        <v>1</v>
+      </c>
+      <c r="W322" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC322" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD322" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE322" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF322" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="323" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>1</v>
+      </c>
+      <c r="B323">
+        <v>2</v>
+      </c>
+      <c r="C323" t="s">
+        <v>307</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="F323">
+        <v>1</v>
+      </c>
+      <c r="G323">
+        <v>1</v>
+      </c>
+      <c r="H323">
+        <v>22</v>
+      </c>
+      <c r="I323" s="2">
+        <v>20</v>
+      </c>
+      <c r="J323">
+        <v>14</v>
+      </c>
+      <c r="K323">
+        <v>34</v>
+      </c>
+      <c r="L323">
+        <v>20</v>
+      </c>
+      <c r="M323" s="2">
+        <v>24</v>
+      </c>
+      <c r="N323" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O323" t="s">
+        <v>310</v>
+      </c>
+      <c r="P323" s="2">
+        <v>1.19634146</v>
+      </c>
+      <c r="Q323" s="2">
+        <v>1.0060975599999999</v>
+      </c>
+      <c r="R323">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="S323">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="T323" s="2">
+        <v>24</v>
+      </c>
+      <c r="U323" s="2">
+        <v>24</v>
+      </c>
+      <c r="V323" s="2">
+        <v>1</v>
+      </c>
+      <c r="W323" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC323" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD323" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE323" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF323" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="324" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>1</v>
+      </c>
+      <c r="B324">
+        <v>2</v>
+      </c>
+      <c r="C324" t="s">
+        <v>307</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324">
+        <v>1</v>
+      </c>
+      <c r="G324">
+        <v>1</v>
+      </c>
+      <c r="H324">
+        <v>22</v>
+      </c>
+      <c r="I324" s="2">
+        <v>20</v>
+      </c>
+      <c r="J324">
+        <v>21.5</v>
+      </c>
+      <c r="K324">
+        <v>26.5</v>
+      </c>
+      <c r="L324">
+        <v>5</v>
+      </c>
+      <c r="M324" s="2">
+        <v>24</v>
+      </c>
+      <c r="N324" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O324" t="s">
+        <v>310</v>
+      </c>
+      <c r="P324" s="2">
+        <v>1.1560975600000001</v>
+      </c>
+      <c r="Q324" s="2">
+        <v>1.11585366</v>
+      </c>
+      <c r="R324">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="S324">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="T324" s="2">
+        <v>24</v>
+      </c>
+      <c r="U324" s="2">
+        <v>24</v>
+      </c>
+      <c r="V324" s="2">
+        <v>1</v>
+      </c>
+      <c r="W324" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC324" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD324" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE324" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF324" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="325" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>1</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
+      </c>
+      <c r="C325" t="s">
+        <v>307</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="F325">
+        <v>1</v>
+      </c>
+      <c r="G325">
+        <v>1</v>
+      </c>
+      <c r="H325">
+        <v>22</v>
+      </c>
+      <c r="I325" s="2">
+        <v>20</v>
+      </c>
+      <c r="J325">
+        <v>14</v>
+      </c>
+      <c r="K325">
+        <v>34</v>
+      </c>
+      <c r="L325">
+        <v>20</v>
+      </c>
+      <c r="M325" s="2">
+        <v>24</v>
+      </c>
+      <c r="N325" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O325" t="s">
+        <v>310</v>
+      </c>
+      <c r="P325" s="2">
+        <v>1.1560975600000001</v>
+      </c>
+      <c r="Q325" s="2">
+        <v>0.99512195000000003</v>
+      </c>
+      <c r="R325">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="S325">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="T325" s="2">
+        <v>24</v>
+      </c>
+      <c r="U325" s="2">
+        <v>24</v>
+      </c>
+      <c r="V325" s="2">
+        <v>1</v>
+      </c>
+      <c r="W325" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC325" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD325" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE325" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF325" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="326" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>1</v>
+      </c>
+      <c r="B326">
+        <v>2</v>
+      </c>
+      <c r="C326" t="s">
+        <v>307</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="F326">
+        <v>1</v>
+      </c>
+      <c r="G326">
+        <v>1</v>
+      </c>
+      <c r="H326">
+        <v>22</v>
+      </c>
+      <c r="I326" s="2">
+        <v>20</v>
+      </c>
+      <c r="J326">
+        <v>21.5</v>
+      </c>
+      <c r="K326">
+        <v>26.5</v>
+      </c>
+      <c r="L326">
+        <v>5</v>
+      </c>
+      <c r="M326" s="2">
+        <v>24</v>
+      </c>
+      <c r="N326" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O326" t="s">
+        <v>310</v>
+      </c>
+      <c r="P326" s="2">
+        <v>1.1743902399999999</v>
+      </c>
+      <c r="Q326" s="2">
+        <v>1.1414634100000001</v>
+      </c>
+      <c r="R326">
+        <v>7.3170730000000003E-2</v>
+      </c>
+      <c r="S326">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="T326" s="2">
+        <v>24</v>
+      </c>
+      <c r="U326" s="2">
+        <v>24</v>
+      </c>
+      <c r="V326" s="2">
+        <v>1</v>
+      </c>
+      <c r="W326" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC326" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD326" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE326" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF326" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="327" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>1</v>
+      </c>
+      <c r="B327">
+        <v>2</v>
+      </c>
+      <c r="C327" t="s">
+        <v>307</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="F327">
+        <v>1</v>
+      </c>
+      <c r="G327">
+        <v>1</v>
+      </c>
+      <c r="H327">
+        <v>22</v>
+      </c>
+      <c r="I327" s="2">
+        <v>20</v>
+      </c>
+      <c r="J327">
+        <v>14</v>
+      </c>
+      <c r="K327">
+        <v>34</v>
+      </c>
+      <c r="L327">
+        <v>20</v>
+      </c>
+      <c r="M327" s="2">
+        <v>24</v>
+      </c>
+      <c r="N327" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O327" t="s">
+        <v>310</v>
+      </c>
+      <c r="P327" s="2">
+        <v>1.1743902399999999</v>
+      </c>
+      <c r="Q327" s="2">
+        <v>0.97317072999999998</v>
+      </c>
+      <c r="R327">
+        <v>7.3170730000000003E-2</v>
+      </c>
+      <c r="S327">
+        <v>7.3170730000000003E-2</v>
+      </c>
+      <c r="T327" s="2">
+        <v>24</v>
+      </c>
+      <c r="U327" s="2">
+        <v>24</v>
+      </c>
+      <c r="V327" s="2">
+        <v>1</v>
+      </c>
+      <c r="W327" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC327" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD327" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE327" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF327" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="328" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>1</v>
+      </c>
+      <c r="B328">
+        <v>2</v>
+      </c>
+      <c r="C328" t="s">
+        <v>307</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="F328">
+        <v>1</v>
+      </c>
+      <c r="G328">
+        <v>1</v>
+      </c>
+      <c r="H328">
+        <v>22</v>
+      </c>
+      <c r="I328" s="2">
+        <v>20</v>
+      </c>
+      <c r="J328">
+        <v>21.5</v>
+      </c>
+      <c r="K328">
+        <v>26.5</v>
+      </c>
+      <c r="L328">
+        <v>5</v>
+      </c>
+      <c r="M328" s="2">
+        <v>24</v>
+      </c>
+      <c r="N328" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O328" t="s">
+        <v>310</v>
+      </c>
+      <c r="P328" s="2">
+        <v>1.2402439000000001</v>
+      </c>
+      <c r="Q328" s="2">
+        <v>1.1085365899999999</v>
+      </c>
+      <c r="R328">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="S328">
+        <v>6.9512199999999996E-2</v>
+      </c>
+      <c r="T328" s="2">
+        <v>24</v>
+      </c>
+      <c r="U328" s="2">
+        <v>24</v>
+      </c>
+      <c r="V328" s="2">
+        <v>1</v>
+      </c>
+      <c r="W328" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC328" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD328" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE328" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF328" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="329" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>1</v>
+      </c>
+      <c r="B329">
+        <v>2</v>
+      </c>
+      <c r="C329" t="s">
+        <v>307</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="F329">
+        <v>1</v>
+      </c>
+      <c r="G329">
+        <v>1</v>
+      </c>
+      <c r="H329">
+        <v>22</v>
+      </c>
+      <c r="I329" s="2">
+        <v>20</v>
+      </c>
+      <c r="J329">
+        <v>14</v>
+      </c>
+      <c r="K329">
+        <v>34</v>
+      </c>
+      <c r="L329">
+        <v>20</v>
+      </c>
+      <c r="M329" s="2">
+        <v>24</v>
+      </c>
+      <c r="N329" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O329" t="s">
+        <v>310</v>
+      </c>
+      <c r="P329" s="2">
+        <v>1.2402439000000001</v>
+      </c>
+      <c r="Q329" s="2">
+        <v>0.99512195000000003</v>
+      </c>
+      <c r="R329">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="S329">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="T329" s="2">
+        <v>24</v>
+      </c>
+      <c r="U329" s="2">
+        <v>24</v>
+      </c>
+      <c r="V329" s="2">
+        <v>1</v>
+      </c>
+      <c r="W329" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC329" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD329" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE329" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF329" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="330" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>1</v>
+      </c>
+      <c r="B330">
+        <v>2</v>
+      </c>
+      <c r="C330" t="s">
+        <v>307</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E330">
+        <v>0</v>
+      </c>
+      <c r="F330">
+        <v>1</v>
+      </c>
+      <c r="G330">
+        <v>1</v>
+      </c>
+      <c r="H330">
+        <v>22</v>
+      </c>
+      <c r="I330">
+        <v>24</v>
+      </c>
+      <c r="J330">
+        <v>21.5</v>
+      </c>
+      <c r="K330">
+        <v>26.5</v>
+      </c>
+      <c r="L330">
+        <v>5</v>
+      </c>
+      <c r="M330" s="2">
+        <v>24</v>
+      </c>
+      <c r="N330" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O330" t="s">
+        <v>310</v>
+      </c>
+      <c r="P330" s="2">
+        <v>1.0097560999999999</v>
+      </c>
+      <c r="Q330" s="2">
+        <v>1.0829268299999999</v>
+      </c>
+      <c r="R330">
+        <v>6.9512199999999996E-2</v>
+      </c>
+      <c r="S330">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="T330" s="2">
+        <v>24</v>
+      </c>
+      <c r="U330" s="2">
+        <v>24</v>
+      </c>
+      <c r="V330" s="2">
+        <v>1</v>
+      </c>
+      <c r="W330" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC330" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD330" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE330" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF330" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="331" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>1</v>
+      </c>
+      <c r="B331">
+        <v>2</v>
+      </c>
+      <c r="C331" t="s">
+        <v>307</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E331">
+        <v>0</v>
+      </c>
+      <c r="F331">
+        <v>1</v>
+      </c>
+      <c r="G331">
+        <v>1</v>
+      </c>
+      <c r="H331">
+        <v>22</v>
+      </c>
+      <c r="I331">
+        <v>24</v>
+      </c>
+      <c r="J331">
+        <v>14</v>
+      </c>
+      <c r="K331">
+        <v>34</v>
+      </c>
+      <c r="L331">
+        <v>20</v>
+      </c>
+      <c r="M331" s="2">
+        <v>24</v>
+      </c>
+      <c r="N331" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O331" t="s">
+        <v>310</v>
+      </c>
+      <c r="P331" s="2">
+        <v>1.0097560999999999</v>
+      </c>
+      <c r="Q331" s="2">
+        <v>0.94756098</v>
+      </c>
+      <c r="R331">
+        <v>6.9512199999999996E-2</v>
+      </c>
+      <c r="S331">
+        <v>6.9512199999999996E-2</v>
+      </c>
+      <c r="T331" s="2">
+        <v>24</v>
+      </c>
+      <c r="U331" s="2">
+        <v>24</v>
+      </c>
+      <c r="V331" s="2">
+        <v>1</v>
+      </c>
+      <c r="W331" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC331" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD331" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE331" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF331" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="332" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>1</v>
+      </c>
+      <c r="B332">
+        <v>2</v>
+      </c>
+      <c r="C332" t="s">
+        <v>307</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="F332">
+        <v>1</v>
+      </c>
+      <c r="G332">
+        <v>1</v>
+      </c>
+      <c r="H332">
+        <v>22</v>
+      </c>
+      <c r="I332">
+        <v>24</v>
+      </c>
+      <c r="J332">
+        <v>21.5</v>
+      </c>
+      <c r="K332">
+        <v>26.5</v>
+      </c>
+      <c r="L332">
+        <v>5</v>
+      </c>
+      <c r="M332" s="2">
+        <v>24</v>
+      </c>
+      <c r="N332" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O332" t="s">
+        <v>310</v>
+      </c>
+      <c r="P332" s="2">
+        <v>0.95853659000000002</v>
+      </c>
+      <c r="Q332" s="2">
+        <v>1.1414634100000001</v>
+      </c>
+      <c r="R332">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="S332">
+        <v>6.9512199999999996E-2</v>
+      </c>
+      <c r="T332" s="2">
+        <v>24</v>
+      </c>
+      <c r="U332" s="2">
+        <v>24</v>
+      </c>
+      <c r="V332" s="2">
+        <v>1</v>
+      </c>
+      <c r="W332" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC332" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD332" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE332" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF332" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="333" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>1</v>
+      </c>
+      <c r="B333">
+        <v>2</v>
+      </c>
+      <c r="C333" t="s">
+        <v>307</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E333">
+        <v>0</v>
+      </c>
+      <c r="F333">
+        <v>1</v>
+      </c>
+      <c r="G333">
+        <v>1</v>
+      </c>
+      <c r="H333">
+        <v>22</v>
+      </c>
+      <c r="I333">
+        <v>24</v>
+      </c>
+      <c r="J333">
+        <v>14</v>
+      </c>
+      <c r="K333">
+        <v>34</v>
+      </c>
+      <c r="L333">
+        <v>20</v>
+      </c>
+      <c r="M333" s="2">
+        <v>24</v>
+      </c>
+      <c r="N333" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O333" t="s">
+        <v>310</v>
+      </c>
+      <c r="P333" s="2">
+        <v>0.95853659000000002</v>
+      </c>
+      <c r="Q333" s="2">
+        <v>1.01707317</v>
+      </c>
+      <c r="R333">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="S333">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="T333" s="2">
+        <v>24</v>
+      </c>
+      <c r="U333" s="2">
+        <v>24</v>
+      </c>
+      <c r="V333" s="2">
+        <v>1</v>
+      </c>
+      <c r="W333" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC333" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD333" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE333" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF333" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="334" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>1</v>
+      </c>
+      <c r="B334">
+        <v>2</v>
+      </c>
+      <c r="C334" t="s">
+        <v>307</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E334">
+        <v>0</v>
+      </c>
+      <c r="F334">
+        <v>1</v>
+      </c>
+      <c r="G334">
+        <v>1</v>
+      </c>
+      <c r="H334">
+        <v>22</v>
+      </c>
+      <c r="I334">
+        <v>24</v>
+      </c>
+      <c r="J334">
+        <v>21.5</v>
+      </c>
+      <c r="K334">
+        <v>26.5</v>
+      </c>
+      <c r="L334">
+        <v>5</v>
+      </c>
+      <c r="M334" s="2">
+        <v>24</v>
+      </c>
+      <c r="N334" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O334" t="s">
+        <v>310</v>
+      </c>
+      <c r="P334" s="2">
+        <v>1.0060975599999999</v>
+      </c>
+      <c r="Q334" s="2">
+        <v>1.13780488</v>
+      </c>
+      <c r="R334">
+        <v>6.9512199999999996E-2</v>
+      </c>
+      <c r="S334">
+        <v>7.1341459999999995E-2</v>
+      </c>
+      <c r="T334" s="2">
+        <v>24</v>
+      </c>
+      <c r="U334" s="2">
+        <v>24</v>
+      </c>
+      <c r="V334" s="2">
+        <v>1</v>
+      </c>
+      <c r="W334" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC334" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD334" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE334" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF334" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="335" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>1</v>
+      </c>
+      <c r="B335">
+        <v>2</v>
+      </c>
+      <c r="C335" t="s">
+        <v>307</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E335">
+        <v>0</v>
+      </c>
+      <c r="F335">
+        <v>1</v>
+      </c>
+      <c r="G335">
+        <v>1</v>
+      </c>
+      <c r="H335">
+        <v>22</v>
+      </c>
+      <c r="I335">
+        <v>24</v>
+      </c>
+      <c r="J335">
+        <v>14</v>
+      </c>
+      <c r="K335">
+        <v>34</v>
+      </c>
+      <c r="L335">
+        <v>20</v>
+      </c>
+      <c r="M335" s="2">
+        <v>24</v>
+      </c>
+      <c r="N335" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O335" t="s">
+        <v>310</v>
+      </c>
+      <c r="P335" s="2">
+        <v>1.0060975599999999</v>
+      </c>
+      <c r="Q335" s="2">
+        <v>1.0463414600000001</v>
+      </c>
+      <c r="R335">
+        <v>6.9512199999999996E-2</v>
+      </c>
+      <c r="S335">
+        <v>6.9512199999999996E-2</v>
+      </c>
+      <c r="T335" s="2">
+        <v>24</v>
+      </c>
+      <c r="U335" s="2">
+        <v>24</v>
+      </c>
+      <c r="V335" s="2">
+        <v>1</v>
+      </c>
+      <c r="W335" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC335" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD335" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE335" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF335" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="336" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>1</v>
+      </c>
+      <c r="B336">
+        <v>2</v>
+      </c>
+      <c r="C336" t="s">
+        <v>307</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E336">
+        <v>0</v>
+      </c>
+      <c r="F336">
+        <v>1</v>
+      </c>
+      <c r="G336">
+        <v>1</v>
+      </c>
+      <c r="H336">
+        <v>22</v>
+      </c>
+      <c r="I336">
+        <v>24</v>
+      </c>
+      <c r="J336">
+        <v>21.5</v>
+      </c>
+      <c r="K336">
+        <v>26.5</v>
+      </c>
+      <c r="L336">
+        <v>5</v>
+      </c>
+      <c r="M336" s="2">
+        <v>24</v>
+      </c>
+      <c r="N336" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O336" t="s">
+        <v>310</v>
+      </c>
+      <c r="P336" s="2">
+        <v>1.0463414600000001</v>
+      </c>
+      <c r="Q336" s="2">
+        <v>1.01707317</v>
+      </c>
+      <c r="R336">
+        <v>6.9512199999999996E-2</v>
+      </c>
+      <c r="S336">
+        <v>6.9512199999999996E-2</v>
+      </c>
+      <c r="T336" s="2">
+        <v>24</v>
+      </c>
+      <c r="U336" s="2">
+        <v>24</v>
+      </c>
+      <c r="V336" s="2">
+        <v>1</v>
+      </c>
+      <c r="W336" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC336" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD336" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE336" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF336" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="337" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>1</v>
+      </c>
+      <c r="B337">
+        <v>2</v>
+      </c>
+      <c r="C337" t="s">
+        <v>307</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E337">
+        <v>0</v>
+      </c>
+      <c r="F337">
+        <v>1</v>
+      </c>
+      <c r="G337">
+        <v>1</v>
+      </c>
+      <c r="H337">
+        <v>22</v>
+      </c>
+      <c r="I337">
+        <v>24</v>
+      </c>
+      <c r="J337">
+        <v>14</v>
+      </c>
+      <c r="K337">
+        <v>34</v>
+      </c>
+      <c r="L337">
+        <v>20</v>
+      </c>
+      <c r="M337" s="2">
+        <v>24</v>
+      </c>
+      <c r="N337" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O337" t="s">
+        <v>310</v>
+      </c>
+      <c r="P337" s="2">
+        <v>1.0463414600000001</v>
+      </c>
+      <c r="Q337" s="2">
+        <v>1.01707317</v>
+      </c>
+      <c r="R337">
+        <v>6.9512199999999996E-2</v>
+      </c>
+      <c r="S337">
+        <v>6.9512199999999996E-2</v>
+      </c>
+      <c r="T337" s="2">
+        <v>24</v>
+      </c>
+      <c r="U337" s="2">
+        <v>24</v>
+      </c>
+      <c r="V337" s="2">
+        <v>1</v>
+      </c>
+      <c r="W337" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC337" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD337" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE337" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF337" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="338" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>1</v>
+      </c>
+      <c r="B338">
+        <v>3</v>
+      </c>
+      <c r="C338" t="s">
+        <v>307</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338">
+        <v>1</v>
+      </c>
+      <c r="G338">
+        <v>1</v>
+      </c>
+      <c r="H338">
+        <v>22</v>
+      </c>
+      <c r="I338" s="2">
+        <v>20</v>
+      </c>
+      <c r="J338">
+        <v>21.5</v>
+      </c>
+      <c r="K338">
+        <v>26.5</v>
+      </c>
+      <c r="L338">
+        <v>5</v>
+      </c>
+      <c r="M338" s="2">
+        <v>24</v>
+      </c>
+      <c r="N338" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P338">
+        <v>1.1747112462006</v>
+      </c>
+      <c r="Q338">
+        <v>1.14941091330149</v>
+      </c>
+      <c r="R338">
+        <v>4.1134751773050038E-2</v>
+      </c>
+      <c r="S338">
+        <v>4.2553191489364983E-2</v>
+      </c>
+      <c r="T338" s="2">
+        <v>24</v>
+      </c>
+      <c r="U338" s="2">
+        <v>24</v>
+      </c>
+      <c r="V338" s="2">
+        <v>1</v>
+      </c>
+      <c r="W338" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC338" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD338" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE338" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF338" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="339" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>1</v>
+      </c>
+      <c r="B339">
+        <v>3</v>
+      </c>
+      <c r="C339" t="s">
+        <v>307</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E339">
+        <v>0</v>
+      </c>
+      <c r="F339">
+        <v>1</v>
+      </c>
+      <c r="G339">
+        <v>1</v>
+      </c>
+      <c r="H339">
+        <v>22</v>
+      </c>
+      <c r="I339" s="2">
+        <v>20</v>
+      </c>
+      <c r="J339">
+        <v>14</v>
+      </c>
+      <c r="K339">
+        <v>34</v>
+      </c>
+      <c r="L339">
+        <v>20</v>
+      </c>
+      <c r="M339" s="2">
+        <v>24</v>
+      </c>
+      <c r="N339" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P339">
+        <v>1.1747112462006</v>
+      </c>
+      <c r="Q339">
+        <v>1.2092053842813699</v>
+      </c>
+      <c r="R339">
+        <v>4.1134751773050038E-2</v>
+      </c>
+      <c r="S339">
+        <v>4.2558981039220067E-2</v>
+      </c>
+      <c r="T339" s="2">
+        <v>24</v>
+      </c>
+      <c r="U339" s="2">
+        <v>24</v>
+      </c>
+      <c r="V339" s="2">
+        <v>1</v>
+      </c>
+      <c r="W339" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC339" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD339" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE339" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF339" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="340" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>1</v>
+      </c>
+      <c r="B340">
+        <v>3</v>
+      </c>
+      <c r="C340" t="s">
+        <v>307</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E340">
+        <v>0</v>
+      </c>
+      <c r="F340">
+        <v>1</v>
+      </c>
+      <c r="G340">
+        <v>1</v>
+      </c>
+      <c r="H340">
+        <v>22</v>
+      </c>
+      <c r="I340" s="2">
+        <v>20</v>
+      </c>
+      <c r="J340">
+        <v>21.5</v>
+      </c>
+      <c r="K340">
+        <v>26.5</v>
+      </c>
+      <c r="L340">
+        <v>5</v>
+      </c>
+      <c r="M340" s="2">
+        <v>24</v>
+      </c>
+      <c r="N340" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P340">
+        <v>1.0905543493993299</v>
+      </c>
+      <c r="Q340">
+        <v>1.1588710377768101</v>
+      </c>
+      <c r="R340">
+        <v>4.1134751773050038E-2</v>
+      </c>
+      <c r="S340">
+        <v>4.1134751773050038E-2</v>
+      </c>
+      <c r="T340" s="2">
+        <v>24</v>
+      </c>
+      <c r="U340" s="2">
+        <v>24</v>
+      </c>
+      <c r="V340" s="2">
+        <v>1</v>
+      </c>
+      <c r="W340" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC340" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD340" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE340" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF340" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="341" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>1</v>
+      </c>
+      <c r="B341">
+        <v>3</v>
+      </c>
+      <c r="C341" t="s">
+        <v>307</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E341">
+        <v>0</v>
+      </c>
+      <c r="F341">
+        <v>1</v>
+      </c>
+      <c r="G341">
+        <v>1</v>
+      </c>
+      <c r="H341">
+        <v>22</v>
+      </c>
+      <c r="I341" s="2">
+        <v>20</v>
+      </c>
+      <c r="J341">
+        <v>14</v>
+      </c>
+      <c r="K341">
+        <v>34</v>
+      </c>
+      <c r="L341">
+        <v>20</v>
+      </c>
+      <c r="M341" s="2">
+        <v>24</v>
+      </c>
+      <c r="N341" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P341">
+        <v>1.0905543493993299</v>
+      </c>
+      <c r="Q341">
+        <v>1.0683224779273399</v>
+      </c>
+      <c r="R341">
+        <v>4.1134751773050038E-2</v>
+      </c>
+      <c r="S341">
+        <v>4.1134751773049927E-2</v>
+      </c>
+      <c r="T341" s="2">
+        <v>24</v>
+      </c>
+      <c r="U341" s="2">
+        <v>24</v>
+      </c>
+      <c r="V341" s="2">
+        <v>1</v>
+      </c>
+      <c r="W341" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC341" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD341" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE341" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF341" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="342" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>1</v>
+      </c>
+      <c r="B342">
+        <v>3</v>
+      </c>
+      <c r="C342" t="s">
+        <v>307</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342">
+        <v>1</v>
+      </c>
+      <c r="G342">
+        <v>1</v>
+      </c>
+      <c r="H342">
+        <v>22</v>
+      </c>
+      <c r="I342" s="2">
+        <v>20</v>
+      </c>
+      <c r="J342">
+        <v>21.5</v>
+      </c>
+      <c r="K342">
+        <v>26.5</v>
+      </c>
+      <c r="L342">
+        <v>5</v>
+      </c>
+      <c r="M342" s="2">
+        <v>24</v>
+      </c>
+      <c r="N342" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P342">
+        <v>1.06313504125054</v>
+      </c>
+      <c r="Q342">
+        <v>1.1229410913301401</v>
+      </c>
+      <c r="R342">
+        <v>4.1134751773049927E-2</v>
+      </c>
+      <c r="S342">
+        <v>4.1134751773049927E-2</v>
+      </c>
+      <c r="T342" s="2">
+        <v>24</v>
+      </c>
+      <c r="U342" s="2">
+        <v>24</v>
+      </c>
+      <c r="V342" s="2">
+        <v>1</v>
+      </c>
+      <c r="W342" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC342" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD342" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE342" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF342" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="343" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>1</v>
+      </c>
+      <c r="B343">
+        <v>3</v>
+      </c>
+      <c r="C343" t="s">
+        <v>307</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E343">
+        <v>0</v>
+      </c>
+      <c r="F343">
+        <v>1</v>
+      </c>
+      <c r="G343">
+        <v>1</v>
+      </c>
+      <c r="H343">
+        <v>22</v>
+      </c>
+      <c r="I343" s="2">
+        <v>20</v>
+      </c>
+      <c r="J343">
+        <v>14</v>
+      </c>
+      <c r="K343">
+        <v>34</v>
+      </c>
+      <c r="L343">
+        <v>20</v>
+      </c>
+      <c r="M343" s="2">
+        <v>24</v>
+      </c>
+      <c r="N343" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P343">
+        <v>1.06313504125054</v>
+      </c>
+      <c r="Q343">
+        <v>1.0806194818352799</v>
+      </c>
+      <c r="R343">
+        <v>4.1134751773049927E-2</v>
+      </c>
+      <c r="S343">
+        <v>3.9716312056739977E-2</v>
+      </c>
+      <c r="T343" s="2">
+        <v>24</v>
+      </c>
+      <c r="U343" s="2">
+        <v>24</v>
+      </c>
+      <c r="V343" s="2">
+        <v>1</v>
+      </c>
+      <c r="W343" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC343" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD343" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE343" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF343" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="344" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>1</v>
+      </c>
+      <c r="B344">
+        <v>3</v>
+      </c>
+      <c r="C344" t="s">
+        <v>307</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E344">
+        <v>0</v>
+      </c>
+      <c r="F344">
+        <v>1</v>
+      </c>
+      <c r="G344">
+        <v>1</v>
+      </c>
+      <c r="H344">
+        <v>22</v>
+      </c>
+      <c r="I344" s="2">
+        <v>20</v>
+      </c>
+      <c r="J344">
+        <v>21.5</v>
+      </c>
+      <c r="K344">
+        <v>26.5</v>
+      </c>
+      <c r="L344">
+        <v>5</v>
+      </c>
+      <c r="M344" s="2">
+        <v>24</v>
+      </c>
+      <c r="N344" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P344">
+        <v>1.0016731799102601</v>
+      </c>
+      <c r="Q344">
+        <v>1.0501317122593701</v>
+      </c>
+      <c r="R344">
+        <v>4.113475177304704E-2</v>
+      </c>
+      <c r="S344" s="2">
+        <v>4.3971629999999998E-2</v>
+      </c>
+      <c r="T344" s="2">
+        <v>24</v>
+      </c>
+      <c r="U344" s="2">
+        <v>24</v>
+      </c>
+      <c r="V344" s="2">
+        <v>1</v>
+      </c>
+      <c r="W344" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC344" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD344" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE344" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF344" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="345" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>1</v>
+      </c>
+      <c r="B345">
+        <v>3</v>
+      </c>
+      <c r="C345" t="s">
+        <v>307</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E345">
+        <v>0</v>
+      </c>
+      <c r="F345">
+        <v>1</v>
+      </c>
+      <c r="G345">
+        <v>1</v>
+      </c>
+      <c r="H345">
+        <v>22</v>
+      </c>
+      <c r="I345" s="2">
+        <v>20</v>
+      </c>
+      <c r="J345">
+        <v>14</v>
+      </c>
+      <c r="K345">
+        <v>34</v>
+      </c>
+      <c r="L345">
+        <v>20</v>
+      </c>
+      <c r="M345" s="2">
+        <v>24</v>
+      </c>
+      <c r="N345" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P345">
+        <v>1.0016731799102601</v>
+      </c>
+      <c r="Q345">
+        <v>1.0929164857432301</v>
+      </c>
+      <c r="R345">
+        <v>4.113475177304704E-2</v>
+      </c>
+      <c r="S345" s="2">
+        <v>3.9716309999999998E-2</v>
+      </c>
+      <c r="T345" s="2">
+        <v>24</v>
+      </c>
+      <c r="U345" s="2">
+        <v>24</v>
+      </c>
+      <c r="V345" s="2">
+        <v>1</v>
+      </c>
+      <c r="W345" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC345" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD345" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE345" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF345" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="346" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>1</v>
+      </c>
+      <c r="B346">
+        <v>3</v>
+      </c>
+      <c r="C346" t="s">
+        <v>307</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E346">
+        <v>0</v>
+      </c>
+      <c r="F346">
+        <v>1</v>
+      </c>
+      <c r="G346">
+        <v>1</v>
+      </c>
+      <c r="H346">
+        <v>22</v>
+      </c>
+      <c r="I346">
+        <v>24</v>
+      </c>
+      <c r="J346">
+        <v>21.5</v>
+      </c>
+      <c r="K346">
+        <v>26.5</v>
+      </c>
+      <c r="L346">
+        <v>5</v>
+      </c>
+      <c r="M346" s="2">
+        <v>24</v>
+      </c>
+      <c r="N346" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P346">
+        <v>1.2041916341004399</v>
+      </c>
+      <c r="Q346">
+        <v>1.15618468664061</v>
+      </c>
+      <c r="R346">
+        <v>3.9716312056739977E-2</v>
+      </c>
+      <c r="S346">
+        <v>3.9716312056739977E-2</v>
+      </c>
+      <c r="T346" s="2">
+        <v>24</v>
+      </c>
+      <c r="U346" s="2">
+        <v>24</v>
+      </c>
+      <c r="V346" s="2">
+        <v>1</v>
+      </c>
+      <c r="W346" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC346" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD346" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE346" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF346" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="347" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>1</v>
+      </c>
+      <c r="B347">
+        <v>3</v>
+      </c>
+      <c r="C347" t="s">
+        <v>307</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+      <c r="F347">
+        <v>1</v>
+      </c>
+      <c r="G347">
+        <v>1</v>
+      </c>
+      <c r="H347">
+        <v>22</v>
+      </c>
+      <c r="I347">
+        <v>24</v>
+      </c>
+      <c r="J347">
+        <v>14</v>
+      </c>
+      <c r="K347">
+        <v>34</v>
+      </c>
+      <c r="L347">
+        <v>20</v>
+      </c>
+      <c r="M347" s="2">
+        <v>24</v>
+      </c>
+      <c r="N347" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P347">
+        <v>1.2041916341004399</v>
+      </c>
+      <c r="Q347">
+        <v>1.13939499203936</v>
+      </c>
+      <c r="R347">
+        <v>3.9716312056739977E-2</v>
+      </c>
+      <c r="S347">
+        <v>4.2553191489364983E-2</v>
+      </c>
+      <c r="T347" s="2">
+        <v>24</v>
+      </c>
+      <c r="U347" s="2">
+        <v>24</v>
+      </c>
+      <c r="V347" s="2">
+        <v>1</v>
+      </c>
+      <c r="W347" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC347" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD347" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE347" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF347" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="348" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>1</v>
+      </c>
+      <c r="B348">
+        <v>3</v>
+      </c>
+      <c r="C348" t="s">
+        <v>307</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E348">
+        <v>0</v>
+      </c>
+      <c r="F348">
+        <v>1</v>
+      </c>
+      <c r="G348">
+        <v>1</v>
+      </c>
+      <c r="H348">
+        <v>22</v>
+      </c>
+      <c r="I348">
+        <v>24</v>
+      </c>
+      <c r="J348">
+        <v>21.5</v>
+      </c>
+      <c r="K348">
+        <v>26.5</v>
+      </c>
+      <c r="L348">
+        <v>5</v>
+      </c>
+      <c r="M348" s="2">
+        <v>24</v>
+      </c>
+      <c r="N348" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P348">
+        <v>1.1285337964973201</v>
+      </c>
+      <c r="Q348">
+        <v>1.0805384281372099</v>
+      </c>
+      <c r="R348">
+        <v>4.1134751773050038E-2</v>
+      </c>
+      <c r="S348">
+        <v>4.2553191489359987E-2</v>
+      </c>
+      <c r="T348" s="2">
+        <v>24</v>
+      </c>
+      <c r="U348" s="2">
+        <v>24</v>
+      </c>
+      <c r="V348" s="2">
+        <v>1</v>
+      </c>
+      <c r="W348" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC348" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD348" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE348" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF348" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="349" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>1</v>
+      </c>
+      <c r="B349">
+        <v>3</v>
+      </c>
+      <c r="C349" t="s">
+        <v>307</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E349">
+        <v>0</v>
+      </c>
+      <c r="F349">
+        <v>1</v>
+      </c>
+      <c r="G349">
+        <v>1</v>
+      </c>
+      <c r="H349">
+        <v>22</v>
+      </c>
+      <c r="I349">
+        <v>24</v>
+      </c>
+      <c r="J349">
+        <v>14</v>
+      </c>
+      <c r="K349">
+        <v>34</v>
+      </c>
+      <c r="L349">
+        <v>20</v>
+      </c>
+      <c r="M349" s="2">
+        <v>24</v>
+      </c>
+      <c r="N349" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P349">
+        <v>1.1285337964973201</v>
+      </c>
+      <c r="Q349">
+        <v>1.12898538138659</v>
+      </c>
+      <c r="R349">
+        <v>4.1134751773050038E-2</v>
+      </c>
+      <c r="S349">
+        <v>4.2553191489359987E-2</v>
+      </c>
+      <c r="T349" s="2">
+        <v>24</v>
+      </c>
+      <c r="U349" s="2">
+        <v>24</v>
+      </c>
+      <c r="V349" s="2">
+        <v>1</v>
+      </c>
+      <c r="W349" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC349" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD349" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE349" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF349" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="350" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>1</v>
+      </c>
+      <c r="B350">
+        <v>3</v>
+      </c>
+      <c r="C350" t="s">
+        <v>307</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E350">
+        <v>0</v>
+      </c>
+      <c r="F350">
+        <v>1</v>
+      </c>
+      <c r="G350">
+        <v>1</v>
+      </c>
+      <c r="H350">
+        <v>22</v>
+      </c>
+      <c r="I350">
+        <v>24</v>
+      </c>
+      <c r="J350">
+        <v>21.5</v>
+      </c>
+      <c r="K350">
+        <v>26.5</v>
+      </c>
+      <c r="L350">
+        <v>5</v>
+      </c>
+      <c r="M350" s="2">
+        <v>24</v>
+      </c>
+      <c r="N350" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P350">
+        <v>1.0216702851353301</v>
+      </c>
+      <c r="Q350">
+        <v>1.0587812997539401</v>
+      </c>
+      <c r="R350">
+        <v>4.1134751773048539E-2</v>
+      </c>
+      <c r="S350">
+        <v>4.1134751773050038E-2</v>
+      </c>
+      <c r="T350" s="2">
+        <v>24</v>
+      </c>
+      <c r="U350" s="2">
+        <v>24</v>
+      </c>
+      <c r="V350" s="2">
+        <v>1</v>
+      </c>
+      <c r="W350" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC350" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD350" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE350" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF350" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="351" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>1</v>
+      </c>
+      <c r="B351">
+        <v>3</v>
+      </c>
+      <c r="C351" t="s">
+        <v>307</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E351">
+        <v>0</v>
+      </c>
+      <c r="F351">
+        <v>1</v>
+      </c>
+      <c r="G351">
+        <v>1</v>
+      </c>
+      <c r="H351">
+        <v>22</v>
+      </c>
+      <c r="I351">
+        <v>24</v>
+      </c>
+      <c r="J351">
+        <v>14</v>
+      </c>
+      <c r="K351">
+        <v>34</v>
+      </c>
+      <c r="L351">
+        <v>20</v>
+      </c>
+      <c r="M351" s="2">
+        <v>24</v>
+      </c>
+      <c r="N351" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P351">
+        <v>1.0216702851353301</v>
+      </c>
+      <c r="Q351">
+        <v>1.1327601678969399</v>
+      </c>
+      <c r="R351">
+        <v>4.1134751773048539E-2</v>
+      </c>
+      <c r="S351">
+        <v>4.2553191489360098E-2</v>
+      </c>
+      <c r="T351" s="2">
+        <v>24</v>
+      </c>
+      <c r="U351" s="2">
+        <v>24</v>
+      </c>
+      <c r="V351" s="2">
+        <v>1</v>
+      </c>
+      <c r="W351" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC351" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD351" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE351" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF351" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="352" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>1</v>
+      </c>
+      <c r="B352">
+        <v>3</v>
+      </c>
+      <c r="C352" t="s">
+        <v>307</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+      <c r="F352">
+        <v>1</v>
+      </c>
+      <c r="G352">
+        <v>1</v>
+      </c>
+      <c r="H352">
+        <v>22</v>
+      </c>
+      <c r="I352">
+        <v>24</v>
+      </c>
+      <c r="J352">
+        <v>21.5</v>
+      </c>
+      <c r="K352">
+        <v>26.5</v>
+      </c>
+      <c r="L352">
+        <v>5</v>
+      </c>
+      <c r="M352" s="2">
+        <v>24</v>
+      </c>
+      <c r="N352" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P352">
+        <v>1.09070487769575</v>
+      </c>
+      <c r="Q352">
+        <v>0.98028658271819302</v>
+      </c>
+      <c r="R352">
+        <v>3.9716312056734981E-2</v>
+      </c>
+      <c r="S352">
+        <v>4.1134751773049483E-2</v>
+      </c>
+      <c r="T352" s="2">
+        <v>24</v>
+      </c>
+      <c r="U352" s="2">
+        <v>24</v>
+      </c>
+      <c r="V352" s="2">
+        <v>1</v>
+      </c>
+      <c r="W352" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC352" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD352" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE352" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF352" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="353" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>1</v>
+      </c>
+      <c r="B353">
+        <v>3</v>
+      </c>
+      <c r="C353" t="s">
+        <v>307</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E353">
+        <v>0</v>
+      </c>
+      <c r="F353">
+        <v>1</v>
+      </c>
+      <c r="G353">
+        <v>1</v>
+      </c>
+      <c r="H353">
+        <v>22</v>
+      </c>
+      <c r="I353">
+        <v>24</v>
+      </c>
+      <c r="J353">
+        <v>14</v>
+      </c>
+      <c r="K353">
+        <v>34</v>
+      </c>
+      <c r="L353">
+        <v>20</v>
+      </c>
+      <c r="M353" s="2">
+        <v>24</v>
+      </c>
+      <c r="N353" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P353">
+        <v>1.09070487769575</v>
+      </c>
+      <c r="Q353">
+        <v>0.97768128528006903</v>
+      </c>
+      <c r="R353">
+        <v>3.9716312056734981E-2</v>
+      </c>
+      <c r="S353">
+        <v>4.2553191489358433E-2</v>
+      </c>
+      <c r="T353" s="2">
+        <v>24</v>
+      </c>
+      <c r="U353" s="2">
+        <v>24</v>
+      </c>
+      <c r="V353" s="2">
+        <v>1</v>
+      </c>
+      <c r="W353" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC353" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD353" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE353" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF353" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="354" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>1</v>
+      </c>
+      <c r="B354">
+        <v>3</v>
+      </c>
+      <c r="C354" t="s">
+        <v>307</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E354">
+        <v>0</v>
+      </c>
+      <c r="F354">
+        <v>1</v>
+      </c>
+      <c r="G354">
+        <v>1</v>
+      </c>
+      <c r="H354">
+        <v>22</v>
+      </c>
+      <c r="I354" s="2">
+        <v>20</v>
+      </c>
+      <c r="J354">
+        <v>21.5</v>
+      </c>
+      <c r="K354">
+        <v>26.5</v>
+      </c>
+      <c r="L354">
+        <v>5</v>
+      </c>
+      <c r="M354" s="2">
+        <v>24</v>
+      </c>
+      <c r="N354" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P354">
+        <v>1.1031292517006801</v>
+      </c>
+      <c r="Q354">
+        <v>1.08350267766681</v>
+      </c>
+      <c r="R354">
+        <v>3.9716312056734981E-2</v>
+      </c>
+      <c r="S354">
+        <v>4.1134751773049927E-2</v>
+      </c>
+      <c r="T354" s="2">
+        <v>24</v>
+      </c>
+      <c r="U354" s="2">
+        <v>24</v>
+      </c>
+      <c r="V354" s="2">
+        <v>1</v>
+      </c>
+      <c r="W354" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC354" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD354" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE354" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF354" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="355" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>1</v>
+      </c>
+      <c r="B355">
+        <v>3</v>
+      </c>
+      <c r="C355" t="s">
+        <v>307</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E355">
+        <v>0</v>
+      </c>
+      <c r="F355">
+        <v>1</v>
+      </c>
+      <c r="G355">
+        <v>1</v>
+      </c>
+      <c r="H355">
+        <v>22</v>
+      </c>
+      <c r="I355" s="2">
+        <v>20</v>
+      </c>
+      <c r="J355">
+        <v>14</v>
+      </c>
+      <c r="K355">
+        <v>34</v>
+      </c>
+      <c r="L355">
+        <v>20</v>
+      </c>
+      <c r="M355" s="2">
+        <v>24</v>
+      </c>
+      <c r="N355" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P355">
+        <v>1.1031292517006801</v>
+      </c>
+      <c r="Q355">
+        <v>1.1064292951223</v>
+      </c>
+      <c r="R355">
+        <v>3.9716312056734981E-2</v>
+      </c>
+      <c r="S355">
+        <v>3.9722101606599947E-2</v>
+      </c>
+      <c r="T355" s="2">
+        <v>24</v>
+      </c>
+      <c r="U355" s="2">
+        <v>24</v>
+      </c>
+      <c r="V355" s="2">
+        <v>1</v>
+      </c>
+      <c r="W355" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC355" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD355" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE355" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF355" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="356" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>1</v>
+      </c>
+      <c r="B356">
+        <v>3</v>
+      </c>
+      <c r="C356" t="s">
+        <v>307</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E356">
+        <v>0</v>
+      </c>
+      <c r="F356">
+        <v>1</v>
+      </c>
+      <c r="G356">
+        <v>1</v>
+      </c>
+      <c r="H356">
+        <v>22</v>
+      </c>
+      <c r="I356" s="2">
+        <v>20</v>
+      </c>
+      <c r="J356">
+        <v>21.5</v>
+      </c>
+      <c r="K356">
+        <v>26.5</v>
+      </c>
+      <c r="L356">
+        <v>5</v>
+      </c>
+      <c r="M356" s="2">
+        <v>24</v>
+      </c>
+      <c r="N356" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P356">
+        <v>1.0615487045882099</v>
+      </c>
+      <c r="Q356">
+        <v>1.0107164567954801</v>
+      </c>
+      <c r="R356">
+        <v>4.1134751773049927E-2</v>
+      </c>
+      <c r="S356">
+        <v>4.113475177304704E-2</v>
+      </c>
+      <c r="T356" s="2">
+        <v>24</v>
+      </c>
+      <c r="U356" s="2">
+        <v>24</v>
+      </c>
+      <c r="V356" s="2">
+        <v>1</v>
+      </c>
+      <c r="W356" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC356" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD356" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE356" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF356" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="357" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>1</v>
+      </c>
+      <c r="B357">
+        <v>3</v>
+      </c>
+      <c r="C357" t="s">
+        <v>307</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E357">
+        <v>0</v>
+      </c>
+      <c r="F357">
+        <v>1</v>
+      </c>
+      <c r="G357">
+        <v>1</v>
+      </c>
+      <c r="H357">
+        <v>22</v>
+      </c>
+      <c r="I357" s="2">
+        <v>20</v>
+      </c>
+      <c r="J357">
+        <v>14</v>
+      </c>
+      <c r="K357">
+        <v>34</v>
+      </c>
+      <c r="L357">
+        <v>20</v>
+      </c>
+      <c r="M357" s="2">
+        <v>24</v>
+      </c>
+      <c r="N357" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P357">
+        <v>1.0615487045882099</v>
+      </c>
+      <c r="Q357">
+        <v>1.1301085540599201</v>
+      </c>
+      <c r="R357">
+        <v>4.1134751773049927E-2</v>
+      </c>
+      <c r="S357">
+        <v>3.9716312056734981E-2</v>
+      </c>
+      <c r="T357" s="2">
+        <v>24</v>
+      </c>
+      <c r="U357" s="2">
+        <v>24</v>
+      </c>
+      <c r="V357" s="2">
+        <v>1</v>
+      </c>
+      <c r="W357" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC357" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD357" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE357" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF357" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="358" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>1</v>
+      </c>
+      <c r="B358">
+        <v>3</v>
+      </c>
+      <c r="C358" t="s">
+        <v>307</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E358">
+        <v>0</v>
+      </c>
+      <c r="F358">
+        <v>1</v>
+      </c>
+      <c r="G358">
+        <v>1</v>
+      </c>
+      <c r="H358">
+        <v>22</v>
+      </c>
+      <c r="I358" s="2">
+        <v>20</v>
+      </c>
+      <c r="J358">
+        <v>21.5</v>
+      </c>
+      <c r="K358">
+        <v>26.5</v>
+      </c>
+      <c r="L358">
+        <v>5</v>
+      </c>
+      <c r="M358" s="2">
+        <v>24</v>
+      </c>
+      <c r="N358" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P358">
+        <v>1.1022376610218501</v>
+      </c>
+      <c r="Q358">
+        <v>0.98048342741351802</v>
+      </c>
+      <c r="R358">
+        <v>4.2553191489359987E-2</v>
+      </c>
+      <c r="S358">
+        <v>3.9716312056734482E-2</v>
+      </c>
+      <c r="T358" s="2">
+        <v>24</v>
+      </c>
+      <c r="U358" s="2">
+        <v>24</v>
+      </c>
+      <c r="V358" s="2">
+        <v>1</v>
+      </c>
+      <c r="W358" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC358" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD358" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE358" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF358" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="359" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>1</v>
+      </c>
+      <c r="B359">
+        <v>3</v>
+      </c>
+      <c r="C359" t="s">
+        <v>307</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
+      <c r="F359">
+        <v>1</v>
+      </c>
+      <c r="G359">
+        <v>1</v>
+      </c>
+      <c r="H359">
+        <v>22</v>
+      </c>
+      <c r="I359" s="2">
+        <v>20</v>
+      </c>
+      <c r="J359">
+        <v>14</v>
+      </c>
+      <c r="K359">
+        <v>34</v>
+      </c>
+      <c r="L359">
+        <v>20</v>
+      </c>
+      <c r="M359" s="2">
+        <v>24</v>
+      </c>
+      <c r="N359" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P359">
+        <v>1.1022376610218501</v>
+      </c>
+      <c r="Q359">
+        <v>0.98072658850774297</v>
+      </c>
+      <c r="R359">
+        <v>4.2553191489359987E-2</v>
+      </c>
+      <c r="S359">
+        <v>3.971631205673698E-2</v>
+      </c>
+      <c r="T359" s="2">
+        <v>24</v>
+      </c>
+      <c r="U359" s="2">
+        <v>24</v>
+      </c>
+      <c r="V359" s="2">
+        <v>1</v>
+      </c>
+      <c r="W359" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC359" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD359" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE359" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF359" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="360" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>1</v>
+      </c>
+      <c r="B360">
+        <v>3</v>
+      </c>
+      <c r="C360" t="s">
+        <v>307</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E360">
+        <v>0</v>
+      </c>
+      <c r="F360">
+        <v>1</v>
+      </c>
+      <c r="G360">
+        <v>1</v>
+      </c>
+      <c r="H360">
+        <v>22</v>
+      </c>
+      <c r="I360" s="2">
+        <v>20</v>
+      </c>
+      <c r="J360">
+        <v>21.5</v>
+      </c>
+      <c r="K360">
+        <v>26.5</v>
+      </c>
+      <c r="L360">
+        <v>5</v>
+      </c>
+      <c r="M360" s="2">
+        <v>24</v>
+      </c>
+      <c r="N360" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P360">
+        <v>1.03228831958315</v>
+      </c>
+      <c r="Q360">
+        <v>0.97863077145751898</v>
+      </c>
+      <c r="R360">
+        <v>4.1134751773049927E-2</v>
+      </c>
+      <c r="S360">
+        <v>4.1134751773048484E-2</v>
+      </c>
+      <c r="T360" s="2">
+        <v>24</v>
+      </c>
+      <c r="U360" s="2">
+        <v>24</v>
+      </c>
+      <c r="V360" s="2">
+        <v>1</v>
+      </c>
+      <c r="W360" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC360" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD360" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE360" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF360" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="361" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>1</v>
+      </c>
+      <c r="B361">
+        <v>3</v>
+      </c>
+      <c r="C361" t="s">
+        <v>307</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E361">
+        <v>0</v>
+      </c>
+      <c r="F361">
+        <v>1</v>
+      </c>
+      <c r="G361">
+        <v>1</v>
+      </c>
+      <c r="H361">
+        <v>22</v>
+      </c>
+      <c r="I361" s="2">
+        <v>20</v>
+      </c>
+      <c r="J361">
+        <v>14</v>
+      </c>
+      <c r="K361">
+        <v>34</v>
+      </c>
+      <c r="L361">
+        <v>20</v>
+      </c>
+      <c r="M361" s="2">
+        <v>24</v>
+      </c>
+      <c r="N361" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P361">
+        <v>1.03228831958315</v>
+      </c>
+      <c r="Q361">
+        <v>1.00155738891301</v>
+      </c>
+      <c r="R361">
+        <v>4.1134751773049927E-2</v>
+      </c>
+      <c r="S361">
+        <v>3.9716312056732983E-2</v>
+      </c>
+      <c r="T361" s="2">
+        <v>24</v>
+      </c>
+      <c r="U361" s="2">
+        <v>24</v>
+      </c>
+      <c r="V361" s="2">
+        <v>1</v>
+      </c>
+      <c r="W361" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC361" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD361" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE361" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF361" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="362" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>1</v>
+      </c>
+      <c r="B362">
+        <v>3</v>
+      </c>
+      <c r="C362" t="s">
+        <v>307</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E362">
+        <v>0</v>
+      </c>
+      <c r="F362">
+        <v>1</v>
+      </c>
+      <c r="G362">
+        <v>1</v>
+      </c>
+      <c r="H362">
+        <v>22</v>
+      </c>
+      <c r="I362">
+        <v>24</v>
+      </c>
+      <c r="J362">
+        <v>21.5</v>
+      </c>
+      <c r="K362">
+        <v>26.5</v>
+      </c>
+      <c r="L362">
+        <v>5</v>
+      </c>
+      <c r="M362" s="2">
+        <v>24</v>
+      </c>
+      <c r="N362" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P362">
+        <v>1.1383528730641099</v>
+      </c>
+      <c r="Q362">
+        <v>1.1612679114198801</v>
+      </c>
+      <c r="R362">
+        <v>3.9716312056739977E-2</v>
+      </c>
+      <c r="S362">
+        <v>3.9716312056734981E-2</v>
+      </c>
+      <c r="T362" s="2">
+        <v>24</v>
+      </c>
+      <c r="U362" s="2">
+        <v>24</v>
+      </c>
+      <c r="V362" s="2">
+        <v>1</v>
+      </c>
+      <c r="W362" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC362" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD362" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE362" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF362" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="363" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>1</v>
+      </c>
+      <c r="B363">
+        <v>3</v>
+      </c>
+      <c r="C363" t="s">
+        <v>307</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E363">
+        <v>0</v>
+      </c>
+      <c r="F363">
+        <v>1</v>
+      </c>
+      <c r="G363">
+        <v>1</v>
+      </c>
+      <c r="H363">
+        <v>22</v>
+      </c>
+      <c r="I363">
+        <v>24</v>
+      </c>
+      <c r="J363">
+        <v>14</v>
+      </c>
+      <c r="K363">
+        <v>34</v>
+      </c>
+      <c r="L363">
+        <v>20</v>
+      </c>
+      <c r="M363" s="2">
+        <v>24</v>
+      </c>
+      <c r="N363" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P363">
+        <v>1.1383528730641099</v>
+      </c>
+      <c r="Q363">
+        <v>1.2012158054711199</v>
+      </c>
+      <c r="R363">
+        <v>3.9716312056739977E-2</v>
+      </c>
+      <c r="S363">
+        <v>4.1134751773049927E-2</v>
+      </c>
+      <c r="T363" s="2">
+        <v>24</v>
+      </c>
+      <c r="U363" s="2">
+        <v>24</v>
+      </c>
+      <c r="V363" s="2">
+        <v>1</v>
+      </c>
+      <c r="W363" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC363" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD363" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE363" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF363" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="364" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>1</v>
+      </c>
+      <c r="B364">
+        <v>3</v>
+      </c>
+      <c r="C364" t="s">
+        <v>307</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E364">
+        <v>0</v>
+      </c>
+      <c r="F364">
+        <v>1</v>
+      </c>
+      <c r="G364">
+        <v>1</v>
+      </c>
+      <c r="H364">
+        <v>22</v>
+      </c>
+      <c r="I364">
+        <v>24</v>
+      </c>
+      <c r="J364">
+        <v>21.5</v>
+      </c>
+      <c r="K364">
+        <v>26.5</v>
+      </c>
+      <c r="L364">
+        <v>5</v>
+      </c>
+      <c r="M364" s="2">
+        <v>24</v>
+      </c>
+      <c r="N364" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P364">
+        <v>1.1279548415110701</v>
+      </c>
+      <c r="Q364">
+        <v>1.12533796497322</v>
+      </c>
+      <c r="R364">
+        <v>3.9716312056739977E-2</v>
+      </c>
+      <c r="S364">
+        <v>3.9716312056739977E-2</v>
+      </c>
+      <c r="T364" s="2">
+        <v>24</v>
+      </c>
+      <c r="U364" s="2">
+        <v>24</v>
+      </c>
+      <c r="V364" s="2">
+        <v>1</v>
+      </c>
+      <c r="W364" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC364" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD364" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE364" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF364" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="365" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>1</v>
+      </c>
+      <c r="B365">
+        <v>3</v>
+      </c>
+      <c r="C365" t="s">
+        <v>307</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E365">
+        <v>0</v>
+      </c>
+      <c r="F365">
+        <v>1</v>
+      </c>
+      <c r="G365">
+        <v>1</v>
+      </c>
+      <c r="H365">
+        <v>22</v>
+      </c>
+      <c r="I365">
+        <v>24</v>
+      </c>
+      <c r="J365">
+        <v>14</v>
+      </c>
+      <c r="K365">
+        <v>34</v>
+      </c>
+      <c r="L365">
+        <v>20</v>
+      </c>
+      <c r="M365" s="2">
+        <v>24</v>
+      </c>
+      <c r="N365" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P365">
+        <v>1.1279548415110701</v>
+      </c>
+      <c r="Q365">
+        <v>0.98088869590389305</v>
+      </c>
+      <c r="R365">
+        <v>3.9716312056739977E-2</v>
+      </c>
+      <c r="S365">
+        <v>3.971631205673698E-2</v>
+      </c>
+      <c r="T365" s="2">
+        <v>24</v>
+      </c>
+      <c r="U365" s="2">
+        <v>24</v>
+      </c>
+      <c r="V365" s="2">
+        <v>1</v>
+      </c>
+      <c r="W365" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC365" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD365" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE365" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF365" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="366" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>1</v>
+      </c>
+      <c r="B366">
+        <v>3</v>
+      </c>
+      <c r="C366" t="s">
+        <v>307</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E366">
+        <v>0</v>
+      </c>
+      <c r="F366">
+        <v>1</v>
+      </c>
+      <c r="G366">
+        <v>1</v>
+      </c>
+      <c r="H366">
+        <v>22</v>
+      </c>
+      <c r="I366">
+        <v>24</v>
+      </c>
+      <c r="J366">
+        <v>21.5</v>
+      </c>
+      <c r="K366">
+        <v>26.5</v>
+      </c>
+      <c r="L366">
+        <v>5</v>
+      </c>
+      <c r="M366" s="2">
+        <v>24</v>
+      </c>
+      <c r="N366" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P366">
+        <v>1.06931828050369</v>
+      </c>
+      <c r="Q366">
+        <v>1.0099638153133501</v>
+      </c>
+      <c r="R366">
+        <v>3.9716312056739977E-2</v>
+      </c>
+      <c r="S366">
+        <v>3.9716312056734482E-2</v>
+      </c>
+      <c r="T366" s="2">
+        <v>24</v>
+      </c>
+      <c r="U366" s="2">
+        <v>24</v>
+      </c>
+      <c r="V366" s="2">
+        <v>1</v>
+      </c>
+      <c r="W366" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC366" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD366" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE366" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF366" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="367" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>1</v>
+      </c>
+      <c r="B367">
+        <v>3</v>
+      </c>
+      <c r="C367" t="s">
+        <v>307</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E367">
+        <v>0</v>
+      </c>
+      <c r="F367">
+        <v>1</v>
+      </c>
+      <c r="G367">
+        <v>1</v>
+      </c>
+      <c r="H367">
+        <v>22</v>
+      </c>
+      <c r="I367">
+        <v>24</v>
+      </c>
+      <c r="J367">
+        <v>14</v>
+      </c>
+      <c r="K367">
+        <v>34</v>
+      </c>
+      <c r="L367">
+        <v>20</v>
+      </c>
+      <c r="M367" s="2">
+        <v>24</v>
+      </c>
+      <c r="N367" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P367">
+        <v>1.06931828050369</v>
+      </c>
+      <c r="Q367">
+        <v>1.0073469387755101</v>
+      </c>
+      <c r="R367">
+        <v>3.9716312056739977E-2</v>
+      </c>
+      <c r="S367">
+        <v>3.971052250687146E-2</v>
+      </c>
+      <c r="T367" s="2">
+        <v>24</v>
+      </c>
+      <c r="U367" s="2">
+        <v>24</v>
+      </c>
+      <c r="V367" s="2">
+        <v>1</v>
+      </c>
+      <c r="W367" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC367" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD367" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE367" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF367" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="368" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>1</v>
+      </c>
+      <c r="B368">
+        <v>3</v>
+      </c>
+      <c r="C368" t="s">
+        <v>307</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E368">
+        <v>0</v>
+      </c>
+      <c r="F368">
+        <v>1</v>
+      </c>
+      <c r="G368">
+        <v>1</v>
+      </c>
+      <c r="H368">
+        <v>22</v>
+      </c>
+      <c r="I368">
+        <v>24</v>
+      </c>
+      <c r="J368">
+        <v>21.5</v>
+      </c>
+      <c r="K368">
+        <v>26.5</v>
+      </c>
+      <c r="L368">
+        <v>5</v>
+      </c>
+      <c r="M368" s="2">
+        <v>24</v>
+      </c>
+      <c r="N368" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P368">
+        <v>1.0560717904182899</v>
+      </c>
+      <c r="Q368">
+        <v>0.99956578376031202</v>
+      </c>
+      <c r="R368">
+        <v>3.9716312056739977E-2</v>
+      </c>
+      <c r="S368">
+        <v>4.1134751773047484E-2</v>
+      </c>
+      <c r="T368" s="2">
+        <v>24</v>
+      </c>
+      <c r="U368" s="2">
+        <v>24</v>
+      </c>
+      <c r="V368" s="2">
+        <v>1</v>
+      </c>
+      <c r="W368" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC368" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD368" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE368" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF368" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="369" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>1</v>
+      </c>
+      <c r="B369">
+        <v>3</v>
+      </c>
+      <c r="C369" t="s">
+        <v>307</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E369">
+        <v>0</v>
+      </c>
+      <c r="F369">
+        <v>1</v>
+      </c>
+      <c r="G369">
+        <v>1</v>
+      </c>
+      <c r="H369">
+        <v>22</v>
+      </c>
+      <c r="I369">
+        <v>24</v>
+      </c>
+      <c r="J369">
+        <v>14</v>
+      </c>
+      <c r="K369">
+        <v>34</v>
+      </c>
+      <c r="L369">
+        <v>20</v>
+      </c>
+      <c r="M369" s="2">
+        <v>24</v>
+      </c>
+      <c r="N369" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P369">
+        <v>1.0560717904182899</v>
+      </c>
+      <c r="Q369">
+        <v>0.99978578665508699</v>
+      </c>
+      <c r="R369">
+        <v>3.9716312056739977E-2</v>
+      </c>
+      <c r="S369">
+        <v>3.9716312056734981E-2</v>
+      </c>
+      <c r="T369" s="2">
+        <v>24</v>
+      </c>
+      <c r="U369" s="2">
+        <v>24</v>
+      </c>
+      <c r="V369" s="2">
+        <v>1</v>
+      </c>
+      <c r="W369" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC369" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD369" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE369" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF369" t="s">
         <v>318</v>
       </c>
     </row>

--- a/shared analysis files /metafor.xlsx
+++ b/shared analysis files /metafor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/shared analysis files /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDB460E-3A42-9D49-9567-3E5EBFA592AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB07E494-ADF0-D84E-B659-A4ACA3142F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-11120" windowWidth="24000" windowHeight="15900" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2984" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="323">
   <si>
     <t>study_id</t>
   </si>
@@ -989,6 +989,12 @@
   <si>
     <t>Sqrt Cellular energy allocation (CEA)</t>
   </si>
+  <si>
+    <t xml:space="preserve">Ischnura </t>
+  </si>
+  <si>
+    <t>elegans </t>
+  </si>
 </sst>
 </file>
 
@@ -1357,8 +1363,8 @@
   <dimension ref="A1:AK369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S368" sqref="S368:S369"/>
+      <pane ySplit="1" topLeftCell="A330" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N338" sqref="N338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26306,6 +26312,21 @@
       <c r="W274" s="2">
         <v>0</v>
       </c>
+      <c r="X274" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y274" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z274" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA274" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB274" s="2">
+        <v>1</v>
+      </c>
       <c r="AC274" t="s">
         <v>311</v>
       </c>
@@ -26389,6 +26410,21 @@
       <c r="W275" s="2">
         <v>0</v>
       </c>
+      <c r="X275" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y275" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z275" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA275" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB275" s="2">
+        <v>1</v>
+      </c>
       <c r="AC275" t="s">
         <v>311</v>
       </c>
@@ -26472,6 +26508,21 @@
       <c r="W276" s="2">
         <v>0</v>
       </c>
+      <c r="X276" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y276" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z276" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA276" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB276" s="2">
+        <v>1</v>
+      </c>
       <c r="AC276" t="s">
         <v>311</v>
       </c>
@@ -26555,6 +26606,21 @@
       <c r="W277" s="2">
         <v>0</v>
       </c>
+      <c r="X277" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y277" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z277" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA277" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB277" s="2">
+        <v>1</v>
+      </c>
       <c r="AC277" t="s">
         <v>311</v>
       </c>
@@ -26638,6 +26704,21 @@
       <c r="W278" s="2">
         <v>0</v>
       </c>
+      <c r="X278" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y278" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z278" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA278" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB278" s="2">
+        <v>1</v>
+      </c>
       <c r="AC278" t="s">
         <v>311</v>
       </c>
@@ -26721,6 +26802,21 @@
       <c r="W279" s="2">
         <v>0</v>
       </c>
+      <c r="X279" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y279" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z279" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA279" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB279" s="2">
+        <v>1</v>
+      </c>
       <c r="AC279" t="s">
         <v>311</v>
       </c>
@@ -26804,6 +26900,21 @@
       <c r="W280" s="2">
         <v>0</v>
       </c>
+      <c r="X280" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y280" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z280" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA280" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB280" s="2">
+        <v>1</v>
+      </c>
       <c r="AC280" t="s">
         <v>311</v>
       </c>
@@ -26887,6 +26998,21 @@
       <c r="W281" s="2">
         <v>0</v>
       </c>
+      <c r="X281" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y281" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z281" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA281" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB281" s="2">
+        <v>1</v>
+      </c>
       <c r="AC281" t="s">
         <v>311</v>
       </c>
@@ -26970,6 +27096,21 @@
       <c r="W282" s="2">
         <v>0</v>
       </c>
+      <c r="X282" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y282" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z282" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA282" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB282" s="2">
+        <v>1</v>
+      </c>
       <c r="AC282" t="s">
         <v>311</v>
       </c>
@@ -27053,6 +27194,21 @@
       <c r="W283" s="2">
         <v>0</v>
       </c>
+      <c r="X283" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y283" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z283" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA283" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB283" s="2">
+        <v>1</v>
+      </c>
       <c r="AC283" t="s">
         <v>311</v>
       </c>
@@ -27136,6 +27292,21 @@
       <c r="W284" s="2">
         <v>0</v>
       </c>
+      <c r="X284" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y284" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z284" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA284" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB284" s="2">
+        <v>1</v>
+      </c>
       <c r="AC284" t="s">
         <v>311</v>
       </c>
@@ -27219,6 +27390,21 @@
       <c r="W285" s="2">
         <v>0</v>
       </c>
+      <c r="X285" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y285" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z285" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA285" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB285" s="2">
+        <v>1</v>
+      </c>
       <c r="AC285" t="s">
         <v>311</v>
       </c>
@@ -27302,6 +27488,21 @@
       <c r="W286" s="2">
         <v>0</v>
       </c>
+      <c r="X286" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y286" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z286" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA286" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB286" s="2">
+        <v>1</v>
+      </c>
       <c r="AC286" t="s">
         <v>311</v>
       </c>
@@ -27385,6 +27586,21 @@
       <c r="W287" s="2">
         <v>0</v>
       </c>
+      <c r="X287" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y287" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z287" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA287" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB287" s="2">
+        <v>1</v>
+      </c>
       <c r="AC287" t="s">
         <v>311</v>
       </c>
@@ -27468,6 +27684,21 @@
       <c r="W288" s="2">
         <v>0</v>
       </c>
+      <c r="X288" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y288" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z288" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA288" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB288" s="2">
+        <v>1</v>
+      </c>
       <c r="AC288" t="s">
         <v>311</v>
       </c>
@@ -27551,6 +27782,21 @@
       <c r="W289" s="2">
         <v>0</v>
       </c>
+      <c r="X289" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y289" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z289" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA289" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB289" s="2">
+        <v>1</v>
+      </c>
       <c r="AC289" t="s">
         <v>311</v>
       </c>
@@ -27634,6 +27880,21 @@
       <c r="W290" s="2">
         <v>0</v>
       </c>
+      <c r="X290" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y290" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z290" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA290" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB290" s="2">
+        <v>1</v>
+      </c>
       <c r="AC290" t="s">
         <v>311</v>
       </c>
@@ -27717,6 +27978,21 @@
       <c r="W291" s="2">
         <v>0</v>
       </c>
+      <c r="X291" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y291" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z291" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA291" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB291" s="2">
+        <v>1</v>
+      </c>
       <c r="AC291" t="s">
         <v>311</v>
       </c>
@@ -27800,6 +28076,21 @@
       <c r="W292" s="2">
         <v>0</v>
       </c>
+      <c r="X292" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y292" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z292" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA292" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB292" s="2">
+        <v>1</v>
+      </c>
       <c r="AC292" t="s">
         <v>311</v>
       </c>
@@ -27883,6 +28174,21 @@
       <c r="W293" s="2">
         <v>0</v>
       </c>
+      <c r="X293" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y293" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z293" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA293" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB293" s="2">
+        <v>1</v>
+      </c>
       <c r="AC293" t="s">
         <v>311</v>
       </c>
@@ -27966,6 +28272,21 @@
       <c r="W294" s="2">
         <v>0</v>
       </c>
+      <c r="X294" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y294" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z294" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA294" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB294" s="2">
+        <v>1</v>
+      </c>
       <c r="AC294" t="s">
         <v>311</v>
       </c>
@@ -28049,6 +28370,21 @@
       <c r="W295" s="2">
         <v>0</v>
       </c>
+      <c r="X295" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y295" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z295" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA295" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB295" s="2">
+        <v>1</v>
+      </c>
       <c r="AC295" t="s">
         <v>311</v>
       </c>
@@ -28132,6 +28468,21 @@
       <c r="W296" s="2">
         <v>0</v>
       </c>
+      <c r="X296" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y296" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z296" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA296" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB296" s="2">
+        <v>1</v>
+      </c>
       <c r="AC296" t="s">
         <v>311</v>
       </c>
@@ -28215,6 +28566,21 @@
       <c r="W297" s="2">
         <v>0</v>
       </c>
+      <c r="X297" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y297" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z297" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA297" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB297" s="2">
+        <v>1</v>
+      </c>
       <c r="AC297" t="s">
         <v>311</v>
       </c>
@@ -28298,6 +28664,21 @@
       <c r="W298" s="2">
         <v>0</v>
       </c>
+      <c r="X298" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y298" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z298" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA298" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB298" s="2">
+        <v>1</v>
+      </c>
       <c r="AC298" t="s">
         <v>311</v>
       </c>
@@ -28381,6 +28762,21 @@
       <c r="W299" s="2">
         <v>0</v>
       </c>
+      <c r="X299" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y299" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z299" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA299" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB299" s="2">
+        <v>1</v>
+      </c>
       <c r="AC299" t="s">
         <v>311</v>
       </c>
@@ -28464,6 +28860,21 @@
       <c r="W300" s="2">
         <v>0</v>
       </c>
+      <c r="X300" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y300" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z300" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA300" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB300" s="2">
+        <v>1</v>
+      </c>
       <c r="AC300" t="s">
         <v>311</v>
       </c>
@@ -28547,6 +28958,21 @@
       <c r="W301" s="2">
         <v>0</v>
       </c>
+      <c r="X301" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y301" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z301" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA301" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB301" s="2">
+        <v>1</v>
+      </c>
       <c r="AC301" t="s">
         <v>311</v>
       </c>
@@ -28630,6 +29056,21 @@
       <c r="W302" s="2">
         <v>0</v>
       </c>
+      <c r="X302" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y302" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z302" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA302" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB302" s="2">
+        <v>1</v>
+      </c>
       <c r="AC302" t="s">
         <v>311</v>
       </c>
@@ -28713,6 +29154,21 @@
       <c r="W303" s="2">
         <v>0</v>
       </c>
+      <c r="X303" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y303" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z303" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA303" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB303" s="2">
+        <v>1</v>
+      </c>
       <c r="AC303" t="s">
         <v>311</v>
       </c>
@@ -28796,6 +29252,21 @@
       <c r="W304" s="2">
         <v>0</v>
       </c>
+      <c r="X304" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y304" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z304" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA304" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB304" s="2">
+        <v>1</v>
+      </c>
       <c r="AC304" t="s">
         <v>311</v>
       </c>
@@ -28879,6 +29350,21 @@
       <c r="W305" s="2">
         <v>0</v>
       </c>
+      <c r="X305" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y305" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z305" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA305" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB305" s="2">
+        <v>1</v>
+      </c>
       <c r="AC305" t="s">
         <v>311</v>
       </c>
@@ -28962,6 +29448,21 @@
       <c r="W306" s="2">
         <v>0</v>
       </c>
+      <c r="X306" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y306" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z306" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA306" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB306" s="2">
+        <v>1</v>
+      </c>
       <c r="AC306" t="s">
         <v>311</v>
       </c>
@@ -29045,6 +29546,21 @@
       <c r="W307" s="2">
         <v>0</v>
       </c>
+      <c r="X307" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y307" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z307" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA307" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB307" s="2">
+        <v>1</v>
+      </c>
       <c r="AC307" t="s">
         <v>311</v>
       </c>
@@ -29128,6 +29644,21 @@
       <c r="W308" s="2">
         <v>0</v>
       </c>
+      <c r="X308" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y308" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z308" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA308" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB308" s="2">
+        <v>1</v>
+      </c>
       <c r="AC308" t="s">
         <v>311</v>
       </c>
@@ -29211,6 +29742,21 @@
       <c r="W309" s="2">
         <v>0</v>
       </c>
+      <c r="X309" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y309" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z309" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA309" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB309" s="2">
+        <v>1</v>
+      </c>
       <c r="AC309" t="s">
         <v>311</v>
       </c>
@@ -29294,6 +29840,21 @@
       <c r="W310" s="2">
         <v>0</v>
       </c>
+      <c r="X310" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y310" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z310" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA310" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB310" s="2">
+        <v>1</v>
+      </c>
       <c r="AC310" t="s">
         <v>311</v>
       </c>
@@ -29377,6 +29938,21 @@
       <c r="W311" s="2">
         <v>0</v>
       </c>
+      <c r="X311" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y311" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z311" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA311" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB311" s="2">
+        <v>1</v>
+      </c>
       <c r="AC311" t="s">
         <v>311</v>
       </c>
@@ -29460,6 +30036,21 @@
       <c r="W312" s="2">
         <v>0</v>
       </c>
+      <c r="X312" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y312" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z312" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA312" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB312" s="2">
+        <v>1</v>
+      </c>
       <c r="AC312" t="s">
         <v>311</v>
       </c>
@@ -29543,6 +30134,21 @@
       <c r="W313" s="2">
         <v>0</v>
       </c>
+      <c r="X313" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y313" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z313" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA313" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB313" s="2">
+        <v>1</v>
+      </c>
       <c r="AC313" t="s">
         <v>311</v>
       </c>
@@ -29626,6 +30232,21 @@
       <c r="W314" s="2">
         <v>0</v>
       </c>
+      <c r="X314" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y314" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z314" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA314" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB314" s="2">
+        <v>1</v>
+      </c>
       <c r="AC314" t="s">
         <v>311</v>
       </c>
@@ -29709,6 +30330,21 @@
       <c r="W315" s="2">
         <v>0</v>
       </c>
+      <c r="X315" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y315" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z315" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA315" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB315" s="2">
+        <v>1</v>
+      </c>
       <c r="AC315" t="s">
         <v>311</v>
       </c>
@@ -29792,6 +30428,21 @@
       <c r="W316" s="2">
         <v>0</v>
       </c>
+      <c r="X316" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y316" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z316" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA316" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB316" s="2">
+        <v>1</v>
+      </c>
       <c r="AC316" t="s">
         <v>311</v>
       </c>
@@ -29875,6 +30526,21 @@
       <c r="W317" s="2">
         <v>0</v>
       </c>
+      <c r="X317" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y317" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z317" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA317" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB317" s="2">
+        <v>1</v>
+      </c>
       <c r="AC317" t="s">
         <v>311</v>
       </c>
@@ -29958,6 +30624,21 @@
       <c r="W318" s="2">
         <v>0</v>
       </c>
+      <c r="X318" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y318" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z318" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA318" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB318" s="2">
+        <v>1</v>
+      </c>
       <c r="AC318" t="s">
         <v>311</v>
       </c>
@@ -30041,6 +30722,21 @@
       <c r="W319" s="2">
         <v>0</v>
       </c>
+      <c r="X319" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y319" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z319" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA319" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB319" s="2">
+        <v>1</v>
+      </c>
       <c r="AC319" t="s">
         <v>311</v>
       </c>
@@ -30124,6 +30820,21 @@
       <c r="W320" s="2">
         <v>0</v>
       </c>
+      <c r="X320" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y320" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z320" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA320" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB320" s="2">
+        <v>1</v>
+      </c>
       <c r="AC320" t="s">
         <v>311</v>
       </c>
@@ -30207,6 +30918,21 @@
       <c r="W321" s="2">
         <v>0</v>
       </c>
+      <c r="X321" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y321" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z321" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA321" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB321" s="2">
+        <v>1</v>
+      </c>
       <c r="AC321" t="s">
         <v>311</v>
       </c>
@@ -30290,6 +31016,21 @@
       <c r="W322" s="2">
         <v>0</v>
       </c>
+      <c r="X322" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y322" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z322" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA322" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB322" s="2">
+        <v>1</v>
+      </c>
       <c r="AC322" t="s">
         <v>311</v>
       </c>
@@ -30373,6 +31114,21 @@
       <c r="W323" s="2">
         <v>0</v>
       </c>
+      <c r="X323" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y323" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z323" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA323" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB323" s="2">
+        <v>1</v>
+      </c>
       <c r="AC323" t="s">
         <v>311</v>
       </c>
@@ -30456,6 +31212,21 @@
       <c r="W324" s="2">
         <v>0</v>
       </c>
+      <c r="X324" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y324" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z324" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA324" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB324" s="2">
+        <v>1</v>
+      </c>
       <c r="AC324" t="s">
         <v>311</v>
       </c>
@@ -30539,6 +31310,21 @@
       <c r="W325" s="2">
         <v>0</v>
       </c>
+      <c r="X325" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y325" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z325" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA325" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB325" s="2">
+        <v>1</v>
+      </c>
       <c r="AC325" t="s">
         <v>311</v>
       </c>
@@ -30622,6 +31408,21 @@
       <c r="W326" s="2">
         <v>0</v>
       </c>
+      <c r="X326" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y326" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z326" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA326" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB326" s="2">
+        <v>1</v>
+      </c>
       <c r="AC326" t="s">
         <v>311</v>
       </c>
@@ -30705,6 +31506,21 @@
       <c r="W327" s="2">
         <v>0</v>
       </c>
+      <c r="X327" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y327" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z327" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA327" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB327" s="2">
+        <v>1</v>
+      </c>
       <c r="AC327" t="s">
         <v>311</v>
       </c>
@@ -30788,6 +31604,21 @@
       <c r="W328" s="2">
         <v>0</v>
       </c>
+      <c r="X328" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y328" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z328" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA328" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB328" s="2">
+        <v>1</v>
+      </c>
       <c r="AC328" t="s">
         <v>311</v>
       </c>
@@ -30871,6 +31702,21 @@
       <c r="W329" s="2">
         <v>0</v>
       </c>
+      <c r="X329" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y329" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z329" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA329" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB329" s="2">
+        <v>1</v>
+      </c>
       <c r="AC329" t="s">
         <v>311</v>
       </c>
@@ -30954,6 +31800,21 @@
       <c r="W330" s="2">
         <v>0</v>
       </c>
+      <c r="X330" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y330" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z330" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA330" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB330" s="2">
+        <v>1</v>
+      </c>
       <c r="AC330" t="s">
         <v>311</v>
       </c>
@@ -31037,6 +31898,21 @@
       <c r="W331" s="2">
         <v>0</v>
       </c>
+      <c r="X331" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y331" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z331" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA331" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB331" s="2">
+        <v>1</v>
+      </c>
       <c r="AC331" t="s">
         <v>311</v>
       </c>
@@ -31120,6 +31996,21 @@
       <c r="W332" s="2">
         <v>0</v>
       </c>
+      <c r="X332" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y332" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z332" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA332" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB332" s="2">
+        <v>1</v>
+      </c>
       <c r="AC332" t="s">
         <v>311</v>
       </c>
@@ -31203,6 +32094,21 @@
       <c r="W333" s="2">
         <v>0</v>
       </c>
+      <c r="X333" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y333" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z333" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA333" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB333" s="2">
+        <v>1</v>
+      </c>
       <c r="AC333" t="s">
         <v>311</v>
       </c>
@@ -31286,6 +32192,21 @@
       <c r="W334" s="2">
         <v>0</v>
       </c>
+      <c r="X334" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y334" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z334" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA334" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB334" s="2">
+        <v>1</v>
+      </c>
       <c r="AC334" t="s">
         <v>311</v>
       </c>
@@ -31369,6 +32290,21 @@
       <c r="W335" s="2">
         <v>0</v>
       </c>
+      <c r="X335" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y335" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z335" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA335" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB335" s="2">
+        <v>1</v>
+      </c>
       <c r="AC335" t="s">
         <v>311</v>
       </c>
@@ -31452,6 +32388,21 @@
       <c r="W336" s="2">
         <v>0</v>
       </c>
+      <c r="X336" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y336" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z336" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA336" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB336" s="2">
+        <v>1</v>
+      </c>
       <c r="AC336" t="s">
         <v>311</v>
       </c>
@@ -31535,6 +32486,21 @@
       <c r="W337" s="2">
         <v>0</v>
       </c>
+      <c r="X337" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y337" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z337" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA337" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB337" s="2">
+        <v>1</v>
+      </c>
       <c r="AC337" t="s">
         <v>311</v>
       </c>
@@ -31615,6 +32581,21 @@
       <c r="W338" s="2">
         <v>0</v>
       </c>
+      <c r="X338" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y338" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z338" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA338" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB338" s="2">
+        <v>1</v>
+      </c>
       <c r="AC338" t="s">
         <v>311</v>
       </c>
@@ -31695,6 +32676,21 @@
       <c r="W339" s="2">
         <v>0</v>
       </c>
+      <c r="X339" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y339" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z339" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA339" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB339" s="2">
+        <v>1</v>
+      </c>
       <c r="AC339" t="s">
         <v>311</v>
       </c>
@@ -31775,6 +32771,21 @@
       <c r="W340" s="2">
         <v>0</v>
       </c>
+      <c r="X340" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y340" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z340" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA340" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB340" s="2">
+        <v>1</v>
+      </c>
       <c r="AC340" t="s">
         <v>311</v>
       </c>
@@ -31855,6 +32866,21 @@
       <c r="W341" s="2">
         <v>0</v>
       </c>
+      <c r="X341" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y341" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z341" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA341" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB341" s="2">
+        <v>1</v>
+      </c>
       <c r="AC341" t="s">
         <v>311</v>
       </c>
@@ -31935,6 +32961,21 @@
       <c r="W342" s="2">
         <v>0</v>
       </c>
+      <c r="X342" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y342" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z342" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA342" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB342" s="2">
+        <v>1</v>
+      </c>
       <c r="AC342" t="s">
         <v>311</v>
       </c>
@@ -32015,6 +33056,21 @@
       <c r="W343" s="2">
         <v>0</v>
       </c>
+      <c r="X343" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y343" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z343" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA343" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB343" s="2">
+        <v>1</v>
+      </c>
       <c r="AC343" t="s">
         <v>311</v>
       </c>
@@ -32095,6 +33151,21 @@
       <c r="W344" s="2">
         <v>0</v>
       </c>
+      <c r="X344" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y344" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z344" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA344" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB344" s="2">
+        <v>1</v>
+      </c>
       <c r="AC344" t="s">
         <v>311</v>
       </c>
@@ -32175,6 +33246,21 @@
       <c r="W345" s="2">
         <v>0</v>
       </c>
+      <c r="X345" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y345" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z345" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA345" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB345" s="2">
+        <v>1</v>
+      </c>
       <c r="AC345" t="s">
         <v>311</v>
       </c>
@@ -32255,6 +33341,21 @@
       <c r="W346" s="2">
         <v>0</v>
       </c>
+      <c r="X346" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y346" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z346" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA346" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB346" s="2">
+        <v>1</v>
+      </c>
       <c r="AC346" t="s">
         <v>311</v>
       </c>
@@ -32335,6 +33436,21 @@
       <c r="W347" s="2">
         <v>0</v>
       </c>
+      <c r="X347" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y347" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z347" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA347" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB347" s="2">
+        <v>1</v>
+      </c>
       <c r="AC347" t="s">
         <v>311</v>
       </c>
@@ -32415,6 +33531,21 @@
       <c r="W348" s="2">
         <v>0</v>
       </c>
+      <c r="X348" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y348" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z348" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA348" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB348" s="2">
+        <v>1</v>
+      </c>
       <c r="AC348" t="s">
         <v>311</v>
       </c>
@@ -32495,6 +33626,21 @@
       <c r="W349" s="2">
         <v>0</v>
       </c>
+      <c r="X349" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y349" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z349" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA349" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB349" s="2">
+        <v>1</v>
+      </c>
       <c r="AC349" t="s">
         <v>311</v>
       </c>
@@ -32575,6 +33721,21 @@
       <c r="W350" s="2">
         <v>0</v>
       </c>
+      <c r="X350" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y350" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z350" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA350" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB350" s="2">
+        <v>1</v>
+      </c>
       <c r="AC350" t="s">
         <v>311</v>
       </c>
@@ -32655,6 +33816,21 @@
       <c r="W351" s="2">
         <v>0</v>
       </c>
+      <c r="X351" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y351" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z351" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA351" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB351" s="2">
+        <v>1</v>
+      </c>
       <c r="AC351" t="s">
         <v>311</v>
       </c>
@@ -32735,6 +33911,21 @@
       <c r="W352" s="2">
         <v>0</v>
       </c>
+      <c r="X352" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y352" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z352" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA352" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB352" s="2">
+        <v>1</v>
+      </c>
       <c r="AC352" t="s">
         <v>311</v>
       </c>
@@ -32815,6 +34006,21 @@
       <c r="W353" s="2">
         <v>0</v>
       </c>
+      <c r="X353" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y353" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z353" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA353" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB353" s="2">
+        <v>1</v>
+      </c>
       <c r="AC353" t="s">
         <v>311</v>
       </c>
@@ -32895,6 +34101,21 @@
       <c r="W354" s="2">
         <v>0</v>
       </c>
+      <c r="X354" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y354" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z354" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA354" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB354" s="2">
+        <v>1</v>
+      </c>
       <c r="AC354" t="s">
         <v>311</v>
       </c>
@@ -32975,6 +34196,21 @@
       <c r="W355" s="2">
         <v>0</v>
       </c>
+      <c r="X355" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y355" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z355" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA355" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB355" s="2">
+        <v>1</v>
+      </c>
       <c r="AC355" t="s">
         <v>311</v>
       </c>
@@ -33055,6 +34291,21 @@
       <c r="W356" s="2">
         <v>0</v>
       </c>
+      <c r="X356" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y356" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z356" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA356" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB356" s="2">
+        <v>1</v>
+      </c>
       <c r="AC356" t="s">
         <v>311</v>
       </c>
@@ -33135,6 +34386,21 @@
       <c r="W357" s="2">
         <v>0</v>
       </c>
+      <c r="X357" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y357" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z357" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA357" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB357" s="2">
+        <v>1</v>
+      </c>
       <c r="AC357" t="s">
         <v>311</v>
       </c>
@@ -33215,6 +34481,21 @@
       <c r="W358" s="2">
         <v>0</v>
       </c>
+      <c r="X358" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y358" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z358" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA358" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB358" s="2">
+        <v>1</v>
+      </c>
       <c r="AC358" t="s">
         <v>311</v>
       </c>
@@ -33295,6 +34576,21 @@
       <c r="W359" s="2">
         <v>0</v>
       </c>
+      <c r="X359" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y359" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z359" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA359" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB359" s="2">
+        <v>1</v>
+      </c>
       <c r="AC359" t="s">
         <v>311</v>
       </c>
@@ -33375,6 +34671,21 @@
       <c r="W360" s="2">
         <v>0</v>
       </c>
+      <c r="X360" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y360" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z360" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA360" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB360" s="2">
+        <v>1</v>
+      </c>
       <c r="AC360" t="s">
         <v>311</v>
       </c>
@@ -33455,6 +34766,21 @@
       <c r="W361" s="2">
         <v>0</v>
       </c>
+      <c r="X361" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y361" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z361" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA361" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB361" s="2">
+        <v>1</v>
+      </c>
       <c r="AC361" t="s">
         <v>311</v>
       </c>
@@ -33535,6 +34861,21 @@
       <c r="W362" s="2">
         <v>0</v>
       </c>
+      <c r="X362" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y362" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z362" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA362" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB362" s="2">
+        <v>1</v>
+      </c>
       <c r="AC362" t="s">
         <v>311</v>
       </c>
@@ -33615,6 +34956,21 @@
       <c r="W363" s="2">
         <v>0</v>
       </c>
+      <c r="X363" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y363" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z363" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA363" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB363" s="2">
+        <v>1</v>
+      </c>
       <c r="AC363" t="s">
         <v>311</v>
       </c>
@@ -33695,6 +35051,21 @@
       <c r="W364" s="2">
         <v>0</v>
       </c>
+      <c r="X364" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y364" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z364" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA364" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB364" s="2">
+        <v>1</v>
+      </c>
       <c r="AC364" t="s">
         <v>311</v>
       </c>
@@ -33775,6 +35146,21 @@
       <c r="W365" s="2">
         <v>0</v>
       </c>
+      <c r="X365" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y365" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z365" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA365" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB365" s="2">
+        <v>1</v>
+      </c>
       <c r="AC365" t="s">
         <v>311</v>
       </c>
@@ -33855,6 +35241,21 @@
       <c r="W366" s="2">
         <v>0</v>
       </c>
+      <c r="X366" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y366" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z366" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA366" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB366" s="2">
+        <v>1</v>
+      </c>
       <c r="AC366" t="s">
         <v>311</v>
       </c>
@@ -33935,6 +35336,21 @@
       <c r="W367" s="2">
         <v>0</v>
       </c>
+      <c r="X367" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y367" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z367" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA367" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB367" s="2">
+        <v>1</v>
+      </c>
       <c r="AC367" t="s">
         <v>311</v>
       </c>
@@ -34015,6 +35431,21 @@
       <c r="W368" s="2">
         <v>0</v>
       </c>
+      <c r="X368" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y368" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z368" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA368" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB368" s="2">
+        <v>1</v>
+      </c>
       <c r="AC368" t="s">
         <v>311</v>
       </c>
@@ -34094,6 +35525,21 @@
       </c>
       <c r="W369" s="2">
         <v>0</v>
+      </c>
+      <c r="X369" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y369" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z369" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA369" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB369" s="2">
+        <v>1</v>
       </c>
       <c r="AC369" t="s">
         <v>311</v>

--- a/shared analysis files /metafor.xlsx
+++ b/shared analysis files /metafor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/shared analysis files /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB07E494-ADF0-D84E-B659-A4ACA3142F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4256037-089B-9549-8FA3-5D738DE4A2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-11120" windowWidth="24000" windowHeight="15900" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
   </bookViews>
@@ -1363,7 +1363,7 @@
   <dimension ref="A1:AK369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A330" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N338" sqref="N338"/>
     </sheetView>
   </sheetViews>

--- a/shared analysis files /metafor.xlsx
+++ b/shared analysis files /metafor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/shared analysis files /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6845970-6FC7-CB40-BE73-B2D7655A6090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9EFC27-0709-234E-A699-47A5AAD1874C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28780" yWindow="-220" windowWidth="24000" windowHeight="15900" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
+    <workbookView xWindow="28700" yWindow="-9760" windowWidth="24000" windowHeight="15900" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
   </bookViews>
   <sheets>
     <sheet name="metafor" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3336" uniqueCount="345">
   <si>
     <t>study_id</t>
   </si>
@@ -926,6 +926,141 @@
   <si>
     <t>elegans </t>
   </si>
+  <si>
+    <t>burghardt2015</t>
+  </si>
+  <si>
+    <t>Figure 2b</t>
+  </si>
+  <si>
+    <t>Figure 2c</t>
+  </si>
+  <si>
+    <t>Figure 3c</t>
+  </si>
+  <si>
+    <t>Figure 5a</t>
+  </si>
+  <si>
+    <t>Figure 5b</t>
+  </si>
+  <si>
+    <t>Figure 5d</t>
+  </si>
+  <si>
+    <t>Figure 5e</t>
+  </si>
+  <si>
+    <t>Figure 5f</t>
+  </si>
+  <si>
+    <t>Figure S8a</t>
+  </si>
+  <si>
+    <t>Figure S8b</t>
+  </si>
+  <si>
+    <t>median days to bolt</t>
+  </si>
+  <si>
+    <t>blade length/total leaf length</t>
+  </si>
+  <si>
+    <t>hypocotyl length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arabidopsis </t>
+  </si>
+  <si>
+    <t>thaliana</t>
+  </si>
+  <si>
+    <t>genotype</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Col ld-1</t>
+  </si>
+  <si>
+    <t>Col fve-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col </t>
+  </si>
+  <si>
+    <t>Col fld-3</t>
+  </si>
+  <si>
+    <t>Col fpa-7</t>
+  </si>
+  <si>
+    <t>Col</t>
+  </si>
+  <si>
+    <t>Col (V)</t>
+  </si>
+  <si>
+    <t>Col vin3-4 FRI</t>
+  </si>
+  <si>
+    <t>Col vin3-4 FRI (V)</t>
+  </si>
+  <si>
+    <t>Columbia background</t>
+  </si>
+  <si>
+    <t>Landsberg background</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columbia   </t>
+  </si>
+  <si>
+    <t>Landsburg</t>
+  </si>
+  <si>
+    <t>light cycle</t>
+  </si>
+  <si>
+    <t>long days</t>
+  </si>
+  <si>
+    <t>short days</t>
+  </si>
+  <si>
+    <t>prakoso2021</t>
+  </si>
+  <si>
+    <t>Figure 2a</t>
+  </si>
+  <si>
+    <t>Figure 4a</t>
+  </si>
+  <si>
+    <t>Figure 4b</t>
+  </si>
+  <si>
+    <t>body weight</t>
+  </si>
+  <si>
+    <t>cortisol</t>
+  </si>
+  <si>
+    <t>ng *mL^-1</t>
+  </si>
+  <si>
+    <t>mg *dL^-1</t>
+  </si>
+  <si>
+    <t>glucose</t>
+  </si>
+  <si>
+    <t>goramy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osphronemus </t>
+  </si>
 </sst>
 </file>
 
@@ -1291,11 +1426,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCFBC2B-929F-FD41-8C91-75842D1EBA74}">
-  <dimension ref="A1:AK355"/>
+  <dimension ref="A1:AK384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K169" sqref="K169"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA386" sqref="AA386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34274,6 +34409,2665 @@
         <v>295</v>
       </c>
     </row>
+    <row r="356" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>1</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356" t="s">
+        <v>300</v>
+      </c>
+      <c r="D356" t="s">
+        <v>301</v>
+      </c>
+      <c r="E356">
+        <v>0</v>
+      </c>
+      <c r="F356">
+        <v>1</v>
+      </c>
+      <c r="G356">
+        <v>1</v>
+      </c>
+      <c r="I356">
+        <v>22</v>
+      </c>
+      <c r="J356">
+        <v>32</v>
+      </c>
+      <c r="K356">
+        <v>12</v>
+      </c>
+      <c r="L356">
+        <v>20</v>
+      </c>
+      <c r="M356" s="2">
+        <v>24</v>
+      </c>
+      <c r="N356" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="O356" t="s">
+        <v>42</v>
+      </c>
+      <c r="P356">
+        <v>58.306190299389002</v>
+      </c>
+      <c r="Q356">
+        <v>54.7406082289803</v>
+      </c>
+      <c r="R356">
+        <v>14.675052410901483</v>
+      </c>
+      <c r="S356">
+        <v>6.2893081761005947</v>
+      </c>
+      <c r="T356">
+        <v>12</v>
+      </c>
+      <c r="U356">
+        <v>12</v>
+      </c>
+      <c r="V356" s="2">
+        <v>1</v>
+      </c>
+      <c r="W356" s="2">
+        <v>1</v>
+      </c>
+      <c r="X356" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y356" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z356" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA356" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB356" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC356" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD356" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE356" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF356" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="357" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>1</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+      <c r="C357" t="s">
+        <v>300</v>
+      </c>
+      <c r="D357" t="s">
+        <v>301</v>
+      </c>
+      <c r="E357">
+        <v>0</v>
+      </c>
+      <c r="F357">
+        <v>1</v>
+      </c>
+      <c r="G357">
+        <v>1</v>
+      </c>
+      <c r="I357">
+        <v>22</v>
+      </c>
+      <c r="J357">
+        <v>32</v>
+      </c>
+      <c r="K357">
+        <v>12</v>
+      </c>
+      <c r="L357">
+        <v>20</v>
+      </c>
+      <c r="M357" s="2">
+        <v>24</v>
+      </c>
+      <c r="N357" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="O357" t="s">
+        <v>42</v>
+      </c>
+      <c r="P357">
+        <v>54.205210260512999</v>
+      </c>
+      <c r="Q357">
+        <v>44.354717735886702</v>
+      </c>
+      <c r="R357">
+        <v>8.9097047444965192</v>
+      </c>
+      <c r="S357">
+        <v>6.2892033490563719</v>
+      </c>
+      <c r="T357">
+        <v>12</v>
+      </c>
+      <c r="U357">
+        <v>12</v>
+      </c>
+      <c r="V357" s="2">
+        <v>1</v>
+      </c>
+      <c r="W357" s="2">
+        <v>1</v>
+      </c>
+      <c r="X357" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y357" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z357" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA357" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB357" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC357" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD357" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE357" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF357" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="358" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>1</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="C358" t="s">
+        <v>300</v>
+      </c>
+      <c r="D358" t="s">
+        <v>302</v>
+      </c>
+      <c r="E358">
+        <v>0</v>
+      </c>
+      <c r="F358">
+        <v>1</v>
+      </c>
+      <c r="G358">
+        <v>1</v>
+      </c>
+      <c r="I358">
+        <v>22</v>
+      </c>
+      <c r="J358">
+        <v>32</v>
+      </c>
+      <c r="K358">
+        <v>12</v>
+      </c>
+      <c r="L358">
+        <v>20</v>
+      </c>
+      <c r="M358" s="2">
+        <v>24</v>
+      </c>
+      <c r="N358" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="O358" t="s">
+        <v>42</v>
+      </c>
+      <c r="P358">
+        <v>71.612055102231807</v>
+      </c>
+      <c r="Q358">
+        <v>65.185872182562306</v>
+      </c>
+      <c r="R358">
+        <v>6.3191153238546622</v>
+      </c>
+      <c r="S358">
+        <v>8.4254870984728907</v>
+      </c>
+      <c r="T358">
+        <v>12</v>
+      </c>
+      <c r="U358">
+        <v>12</v>
+      </c>
+      <c r="V358" s="2">
+        <v>1</v>
+      </c>
+      <c r="W358" s="2">
+        <v>1</v>
+      </c>
+      <c r="X358" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y358" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z358" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA358" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB358" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC358" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD358" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE358" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF358" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="359" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>1</v>
+      </c>
+      <c r="B359">
+        <v>2</v>
+      </c>
+      <c r="C359" t="s">
+        <v>300</v>
+      </c>
+      <c r="D359" t="s">
+        <v>260</v>
+      </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
+      <c r="F359">
+        <v>1</v>
+      </c>
+      <c r="G359">
+        <v>1</v>
+      </c>
+      <c r="I359">
+        <v>22</v>
+      </c>
+      <c r="J359">
+        <v>32</v>
+      </c>
+      <c r="K359">
+        <v>12</v>
+      </c>
+      <c r="L359">
+        <v>20</v>
+      </c>
+      <c r="M359" s="2">
+        <v>24</v>
+      </c>
+      <c r="N359" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="O359" t="s">
+        <v>42</v>
+      </c>
+      <c r="P359">
+        <v>60.433884297520599</v>
+      </c>
+      <c r="Q359">
+        <v>40.805785123966899</v>
+      </c>
+      <c r="R359">
+        <v>8.8001224364860722</v>
+      </c>
+      <c r="S359">
+        <v>3.4435261707989655</v>
+      </c>
+      <c r="T359">
+        <v>12</v>
+      </c>
+      <c r="U359">
+        <v>12</v>
+      </c>
+      <c r="V359" s="2">
+        <v>1</v>
+      </c>
+      <c r="W359" s="2">
+        <v>1</v>
+      </c>
+      <c r="X359" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y359" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z359" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA359" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB359" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC359" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD359" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE359" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF359" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="360" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>1</v>
+      </c>
+      <c r="B360">
+        <v>2</v>
+      </c>
+      <c r="C360" t="s">
+        <v>300</v>
+      </c>
+      <c r="D360" t="s">
+        <v>260</v>
+      </c>
+      <c r="E360">
+        <v>0</v>
+      </c>
+      <c r="F360">
+        <v>1</v>
+      </c>
+      <c r="G360">
+        <v>1</v>
+      </c>
+      <c r="I360">
+        <v>22</v>
+      </c>
+      <c r="J360">
+        <v>32</v>
+      </c>
+      <c r="K360">
+        <v>12</v>
+      </c>
+      <c r="L360">
+        <v>20</v>
+      </c>
+      <c r="M360" s="2">
+        <v>24</v>
+      </c>
+      <c r="N360" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="O360" t="s">
+        <v>42</v>
+      </c>
+      <c r="P360">
+        <v>70.764462809917305</v>
+      </c>
+      <c r="Q360">
+        <v>53.202479338842899</v>
+      </c>
+      <c r="R360">
+        <v>11.095806550352002</v>
+      </c>
+      <c r="S360">
+        <v>14.539332721150961</v>
+      </c>
+      <c r="T360">
+        <v>12</v>
+      </c>
+      <c r="U360">
+        <v>12</v>
+      </c>
+      <c r="V360" s="2">
+        <v>1</v>
+      </c>
+      <c r="W360" s="2">
+        <v>1</v>
+      </c>
+      <c r="X360" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y360" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z360" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA360" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB360" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC360" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD360" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE360" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF360" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="361" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>1</v>
+      </c>
+      <c r="B361">
+        <v>2</v>
+      </c>
+      <c r="C361" t="s">
+        <v>300</v>
+      </c>
+      <c r="D361" t="s">
+        <v>303</v>
+      </c>
+      <c r="E361">
+        <v>0</v>
+      </c>
+      <c r="F361">
+        <v>1</v>
+      </c>
+      <c r="G361">
+        <v>1</v>
+      </c>
+      <c r="I361">
+        <v>12</v>
+      </c>
+      <c r="J361">
+        <v>18</v>
+      </c>
+      <c r="K361">
+        <v>6</v>
+      </c>
+      <c r="L361">
+        <v>12</v>
+      </c>
+      <c r="M361" s="2">
+        <v>24</v>
+      </c>
+      <c r="N361" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="O361" t="s">
+        <v>42</v>
+      </c>
+      <c r="P361">
+        <v>79.410273129029903</v>
+      </c>
+      <c r="Q361">
+        <v>74.183148590885907</v>
+      </c>
+      <c r="R361">
+        <v>11.001365779312664</v>
+      </c>
+      <c r="S361">
+        <v>6.6008194675875496</v>
+      </c>
+      <c r="T361">
+        <v>12</v>
+      </c>
+      <c r="U361">
+        <v>12</v>
+      </c>
+      <c r="V361" s="2">
+        <v>1</v>
+      </c>
+      <c r="W361" s="2">
+        <v>1</v>
+      </c>
+      <c r="X361" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y361" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z361" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA361" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB361" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC361" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD361" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE361" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF361" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="362" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>1</v>
+      </c>
+      <c r="B362">
+        <v>2</v>
+      </c>
+      <c r="C362" t="s">
+        <v>300</v>
+      </c>
+      <c r="D362" t="s">
+        <v>303</v>
+      </c>
+      <c r="E362">
+        <v>0</v>
+      </c>
+      <c r="F362">
+        <v>1</v>
+      </c>
+      <c r="G362">
+        <v>1</v>
+      </c>
+      <c r="I362">
+        <v>22</v>
+      </c>
+      <c r="J362">
+        <v>32</v>
+      </c>
+      <c r="K362">
+        <v>12</v>
+      </c>
+      <c r="L362">
+        <v>20</v>
+      </c>
+      <c r="M362" s="2">
+        <v>24</v>
+      </c>
+      <c r="N362" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="O362" t="s">
+        <v>42</v>
+      </c>
+      <c r="P362">
+        <v>64.504093313047903</v>
+      </c>
+      <c r="Q362">
+        <v>58.534376584800299</v>
+      </c>
+      <c r="R362">
+        <v>6.6008194675876339</v>
+      </c>
+      <c r="S362">
+        <v>7.7009560455188151</v>
+      </c>
+      <c r="T362">
+        <v>12</v>
+      </c>
+      <c r="U362">
+        <v>12</v>
+      </c>
+      <c r="V362" s="2">
+        <v>1</v>
+      </c>
+      <c r="W362" s="2">
+        <v>1</v>
+      </c>
+      <c r="X362" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y362" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z362" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA362" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB362" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC362" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD362" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE362" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF362" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="363" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>1</v>
+      </c>
+      <c r="B363">
+        <v>2</v>
+      </c>
+      <c r="C363" t="s">
+        <v>300</v>
+      </c>
+      <c r="D363" t="s">
+        <v>303</v>
+      </c>
+      <c r="E363">
+        <v>0</v>
+      </c>
+      <c r="F363">
+        <v>1</v>
+      </c>
+      <c r="G363">
+        <v>1</v>
+      </c>
+      <c r="I363">
+        <v>12</v>
+      </c>
+      <c r="J363">
+        <v>18</v>
+      </c>
+      <c r="K363">
+        <v>6</v>
+      </c>
+      <c r="L363">
+        <v>12</v>
+      </c>
+      <c r="M363" s="2">
+        <v>24</v>
+      </c>
+      <c r="N363" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="O363" t="s">
+        <v>42</v>
+      </c>
+      <c r="P363">
+        <v>63.670941099760903</v>
+      </c>
+      <c r="Q363">
+        <v>63.641961892342202</v>
+      </c>
+      <c r="R363">
+        <v>7.7009560455188151</v>
+      </c>
+      <c r="S363">
+        <v>4.4005463117250345</v>
+      </c>
+      <c r="T363">
+        <v>12</v>
+      </c>
+      <c r="U363">
+        <v>12</v>
+      </c>
+      <c r="V363" s="2">
+        <v>1</v>
+      </c>
+      <c r="W363" s="2">
+        <v>1</v>
+      </c>
+      <c r="X363" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y363" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z363" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA363" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB363" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC363" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD363" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE363" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF363" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="364" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>1</v>
+      </c>
+      <c r="B364">
+        <v>2</v>
+      </c>
+      <c r="C364" t="s">
+        <v>300</v>
+      </c>
+      <c r="D364" t="s">
+        <v>303</v>
+      </c>
+      <c r="E364">
+        <v>0</v>
+      </c>
+      <c r="F364">
+        <v>1</v>
+      </c>
+      <c r="G364">
+        <v>1</v>
+      </c>
+      <c r="I364">
+        <v>12</v>
+      </c>
+      <c r="J364">
+        <v>18</v>
+      </c>
+      <c r="K364">
+        <v>6</v>
+      </c>
+      <c r="L364">
+        <v>12</v>
+      </c>
+      <c r="M364" s="2">
+        <v>24</v>
+      </c>
+      <c r="N364" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="O364" t="s">
+        <v>42</v>
+      </c>
+      <c r="P364">
+        <v>141.95826994131701</v>
+      </c>
+      <c r="Q364">
+        <v>124.107078171411</v>
+      </c>
+      <c r="R364">
+        <v>12.651570646209633</v>
+      </c>
+      <c r="S364">
+        <v>11.001365779312589</v>
+      </c>
+      <c r="T364">
+        <v>12</v>
+      </c>
+      <c r="U364">
+        <v>12</v>
+      </c>
+      <c r="V364" s="2">
+        <v>1</v>
+      </c>
+      <c r="W364" s="2">
+        <v>1</v>
+      </c>
+      <c r="X364" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y364" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z364" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA364" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB364" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC364" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD364" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE364" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF364" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="365" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>1</v>
+      </c>
+      <c r="B365">
+        <v>2</v>
+      </c>
+      <c r="C365" t="s">
+        <v>300</v>
+      </c>
+      <c r="D365" t="s">
+        <v>303</v>
+      </c>
+      <c r="E365">
+        <v>0</v>
+      </c>
+      <c r="F365">
+        <v>1</v>
+      </c>
+      <c r="G365">
+        <v>1</v>
+      </c>
+      <c r="I365">
+        <v>12</v>
+      </c>
+      <c r="J365">
+        <v>18</v>
+      </c>
+      <c r="K365">
+        <v>6</v>
+      </c>
+      <c r="L365">
+        <v>12</v>
+      </c>
+      <c r="M365" s="2">
+        <v>24</v>
+      </c>
+      <c r="N365" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="O365" t="s">
+        <v>42</v>
+      </c>
+      <c r="P365">
+        <v>118.05042382090799</v>
+      </c>
+      <c r="Q365">
+        <v>113.569513873795</v>
+      </c>
+      <c r="R365">
+        <v>12.101502357243703</v>
+      </c>
+      <c r="S365">
+        <v>12.651570646208885</v>
+      </c>
+      <c r="T365">
+        <v>12</v>
+      </c>
+      <c r="U365">
+        <v>12</v>
+      </c>
+      <c r="V365" s="2">
+        <v>1</v>
+      </c>
+      <c r="W365" s="2">
+        <v>1</v>
+      </c>
+      <c r="X365" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y365" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z365" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA365" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB365" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC365" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD365" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE365" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF365" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="366" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>1</v>
+      </c>
+      <c r="B366">
+        <v>3</v>
+      </c>
+      <c r="C366" t="s">
+        <v>300</v>
+      </c>
+      <c r="D366" t="s">
+        <v>304</v>
+      </c>
+      <c r="E366">
+        <v>0</v>
+      </c>
+      <c r="F366">
+        <v>1</v>
+      </c>
+      <c r="G366">
+        <v>1</v>
+      </c>
+      <c r="I366">
+        <v>22</v>
+      </c>
+      <c r="J366">
+        <v>32</v>
+      </c>
+      <c r="K366">
+        <v>12</v>
+      </c>
+      <c r="L366">
+        <v>20</v>
+      </c>
+      <c r="M366" s="2">
+        <v>24</v>
+      </c>
+      <c r="N366" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="P366">
+        <v>20.883977900552399</v>
+      </c>
+      <c r="Q366">
+        <v>20.883977900552399</v>
+      </c>
+      <c r="R366">
+        <v>1.718845917740963</v>
+      </c>
+      <c r="S366">
+        <v>2.2099447513812587</v>
+      </c>
+      <c r="T366">
+        <v>12</v>
+      </c>
+      <c r="U366">
+        <v>12</v>
+      </c>
+      <c r="V366" s="2">
+        <v>1</v>
+      </c>
+      <c r="W366" s="2">
+        <v>1</v>
+      </c>
+      <c r="X366" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y366" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z366" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA366" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB366" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC366" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD366" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE366" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF366" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="367" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>1</v>
+      </c>
+      <c r="B367">
+        <v>3</v>
+      </c>
+      <c r="C367" t="s">
+        <v>300</v>
+      </c>
+      <c r="D367" t="s">
+        <v>305</v>
+      </c>
+      <c r="E367">
+        <v>0</v>
+      </c>
+      <c r="F367">
+        <v>1</v>
+      </c>
+      <c r="G367">
+        <v>1</v>
+      </c>
+      <c r="I367">
+        <v>22</v>
+      </c>
+      <c r="J367">
+        <v>32</v>
+      </c>
+      <c r="K367">
+        <v>12</v>
+      </c>
+      <c r="L367">
+        <v>20</v>
+      </c>
+      <c r="M367" s="2">
+        <v>24</v>
+      </c>
+      <c r="N367" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="P367">
+        <v>64.720812182741099</v>
+      </c>
+      <c r="Q367">
+        <v>58.629441624365398</v>
+      </c>
+      <c r="R367">
+        <v>6.7681895093062918</v>
+      </c>
+      <c r="S367">
+        <v>8.4602368866328153</v>
+      </c>
+      <c r="T367">
+        <v>12</v>
+      </c>
+      <c r="U367">
+        <v>12</v>
+      </c>
+      <c r="V367" s="2">
+        <v>1</v>
+      </c>
+      <c r="W367" s="2">
+        <v>1</v>
+      </c>
+      <c r="X367" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y367" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z367" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA367" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB367" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC367" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD367" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE367" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF367" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="368" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>1</v>
+      </c>
+      <c r="B368">
+        <v>3</v>
+      </c>
+      <c r="C368" t="s">
+        <v>300</v>
+      </c>
+      <c r="D368" t="s">
+        <v>306</v>
+      </c>
+      <c r="E368">
+        <v>0</v>
+      </c>
+      <c r="F368">
+        <v>1</v>
+      </c>
+      <c r="G368">
+        <v>1</v>
+      </c>
+      <c r="I368">
+        <v>22</v>
+      </c>
+      <c r="J368">
+        <v>32</v>
+      </c>
+      <c r="K368">
+        <v>12</v>
+      </c>
+      <c r="L368">
+        <v>20</v>
+      </c>
+      <c r="M368" s="2">
+        <v>24</v>
+      </c>
+      <c r="N368" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="P368">
+        <v>53.030303030303003</v>
+      </c>
+      <c r="Q368">
+        <v>43.939393939393803</v>
+      </c>
+      <c r="R368">
+        <v>5.6116722783388884</v>
+      </c>
+      <c r="S368">
+        <v>6.7340067340068144</v>
+      </c>
+      <c r="T368">
+        <v>12</v>
+      </c>
+      <c r="U368">
+        <v>12</v>
+      </c>
+      <c r="V368" s="2">
+        <v>1</v>
+      </c>
+      <c r="W368" s="2">
+        <v>1</v>
+      </c>
+      <c r="X368" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y368" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z368" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA368" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB368" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC368" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD368" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE368" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF368" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="369" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>1</v>
+      </c>
+      <c r="B369">
+        <v>3</v>
+      </c>
+      <c r="C369" t="s">
+        <v>300</v>
+      </c>
+      <c r="D369" t="s">
+        <v>307</v>
+      </c>
+      <c r="E369">
+        <v>0</v>
+      </c>
+      <c r="F369">
+        <v>1</v>
+      </c>
+      <c r="G369">
+        <v>1</v>
+      </c>
+      <c r="I369">
+        <v>22</v>
+      </c>
+      <c r="J369">
+        <v>32</v>
+      </c>
+      <c r="K369">
+        <v>12</v>
+      </c>
+      <c r="L369">
+        <v>20</v>
+      </c>
+      <c r="M369" s="2">
+        <v>24</v>
+      </c>
+      <c r="N369" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="P369">
+        <v>20.883977900552399</v>
+      </c>
+      <c r="Q369">
+        <v>20.883977900552399</v>
+      </c>
+      <c r="R369">
+        <v>1.8416206261510362</v>
+      </c>
+      <c r="S369">
+        <v>1.5960712093308895</v>
+      </c>
+      <c r="T369">
+        <v>12</v>
+      </c>
+      <c r="U369">
+        <v>12</v>
+      </c>
+      <c r="V369" s="2">
+        <v>1</v>
+      </c>
+      <c r="W369" s="2">
+        <v>1</v>
+      </c>
+      <c r="X369" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y369" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z369" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA369" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB369" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC369" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD369" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE369" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF369" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="370" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>1</v>
+      </c>
+      <c r="B370">
+        <v>3</v>
+      </c>
+      <c r="C370" t="s">
+        <v>300</v>
+      </c>
+      <c r="D370" t="s">
+        <v>308</v>
+      </c>
+      <c r="E370">
+        <v>0</v>
+      </c>
+      <c r="F370">
+        <v>1</v>
+      </c>
+      <c r="G370">
+        <v>1</v>
+      </c>
+      <c r="I370">
+        <v>22</v>
+      </c>
+      <c r="J370">
+        <v>32</v>
+      </c>
+      <c r="K370">
+        <v>12</v>
+      </c>
+      <c r="L370">
+        <v>20</v>
+      </c>
+      <c r="M370" s="2">
+        <v>24</v>
+      </c>
+      <c r="N370" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="P370">
+        <v>66.315789473684205</v>
+      </c>
+      <c r="Q370">
+        <v>60</v>
+      </c>
+      <c r="R370">
+        <v>6.2378167641325932</v>
+      </c>
+      <c r="S370">
+        <v>8.5769980506822989</v>
+      </c>
+      <c r="T370">
+        <v>12</v>
+      </c>
+      <c r="U370">
+        <v>12</v>
+      </c>
+      <c r="V370" s="2">
+        <v>1</v>
+      </c>
+      <c r="W370" s="2">
+        <v>1</v>
+      </c>
+      <c r="X370" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y370" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z370" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA370" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB370" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC370" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD370" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE370" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF370" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="371" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>1</v>
+      </c>
+      <c r="B371">
+        <v>4</v>
+      </c>
+      <c r="C371" t="s">
+        <v>300</v>
+      </c>
+      <c r="D371" t="s">
+        <v>309</v>
+      </c>
+      <c r="E371">
+        <v>0</v>
+      </c>
+      <c r="F371">
+        <v>1</v>
+      </c>
+      <c r="G371">
+        <v>1</v>
+      </c>
+      <c r="I371">
+        <v>12</v>
+      </c>
+      <c r="J371">
+        <v>18</v>
+      </c>
+      <c r="K371">
+        <v>6</v>
+      </c>
+      <c r="L371">
+        <v>12</v>
+      </c>
+      <c r="M371" s="2">
+        <v>24</v>
+      </c>
+      <c r="N371" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="P371">
+        <v>0.60913426708524498</v>
+      </c>
+      <c r="Q371">
+        <v>0.60286766481526199</v>
+      </c>
+      <c r="R371">
+        <v>5.0135501355013344E-2</v>
+      </c>
+      <c r="S371">
+        <v>4.8780487804877842E-2</v>
+      </c>
+      <c r="T371">
+        <v>12</v>
+      </c>
+      <c r="U371">
+        <v>12</v>
+      </c>
+      <c r="V371" s="2">
+        <v>1</v>
+      </c>
+      <c r="W371" s="2">
+        <v>1</v>
+      </c>
+      <c r="X371" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y371" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z371" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA371" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB371" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC371" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD371" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE371" t="s">
+        <v>317</v>
+      </c>
+      <c r="AF371" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="372" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>1</v>
+      </c>
+      <c r="B372">
+        <v>4</v>
+      </c>
+      <c r="C372" t="s">
+        <v>300</v>
+      </c>
+      <c r="D372" t="s">
+        <v>309</v>
+      </c>
+      <c r="E372">
+        <v>0</v>
+      </c>
+      <c r="F372">
+        <v>1</v>
+      </c>
+      <c r="G372">
+        <v>1</v>
+      </c>
+      <c r="I372">
+        <v>12</v>
+      </c>
+      <c r="J372">
+        <v>18</v>
+      </c>
+      <c r="K372">
+        <v>6</v>
+      </c>
+      <c r="L372">
+        <v>12</v>
+      </c>
+      <c r="M372" s="2">
+        <v>24</v>
+      </c>
+      <c r="N372" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="P372">
+        <v>0.60600096595025299</v>
+      </c>
+      <c r="Q372">
+        <v>0.60703332528374798</v>
+      </c>
+      <c r="R372">
+        <v>4.4715447154471913E-2</v>
+      </c>
+      <c r="S372">
+        <v>4.3360433604335585E-2</v>
+      </c>
+      <c r="T372">
+        <v>12</v>
+      </c>
+      <c r="U372">
+        <v>12</v>
+      </c>
+      <c r="V372" s="2">
+        <v>1</v>
+      </c>
+      <c r="W372" s="2">
+        <v>1</v>
+      </c>
+      <c r="X372" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y372" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z372" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA372" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB372" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC372" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD372" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE372" t="s">
+        <v>317</v>
+      </c>
+      <c r="AF372" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="373" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>1</v>
+      </c>
+      <c r="B373">
+        <v>4</v>
+      </c>
+      <c r="C373" t="s">
+        <v>300</v>
+      </c>
+      <c r="D373" t="s">
+        <v>309</v>
+      </c>
+      <c r="E373">
+        <v>0</v>
+      </c>
+      <c r="F373">
+        <v>1</v>
+      </c>
+      <c r="G373">
+        <v>1</v>
+      </c>
+      <c r="I373">
+        <v>22</v>
+      </c>
+      <c r="J373">
+        <v>32</v>
+      </c>
+      <c r="K373">
+        <v>12</v>
+      </c>
+      <c r="L373">
+        <v>20</v>
+      </c>
+      <c r="M373" s="2">
+        <v>24</v>
+      </c>
+      <c r="N373" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="P373">
+        <v>0.62585124366095102</v>
+      </c>
+      <c r="Q373">
+        <v>0.53543829992755299</v>
+      </c>
+      <c r="R373">
+        <v>3.7940379403794071E-2</v>
+      </c>
+      <c r="S373">
+        <v>5.6910569105691103E-2</v>
+      </c>
+      <c r="T373">
+        <v>12</v>
+      </c>
+      <c r="U373">
+        <v>12</v>
+      </c>
+      <c r="V373" s="2">
+        <v>1</v>
+      </c>
+      <c r="W373" s="2">
+        <v>1</v>
+      </c>
+      <c r="X373" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y373" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z373" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA373" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB373" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC373" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD373" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE373" t="s">
+        <v>317</v>
+      </c>
+      <c r="AF373" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="374" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>1</v>
+      </c>
+      <c r="B374">
+        <v>4</v>
+      </c>
+      <c r="C374" t="s">
+        <v>300</v>
+      </c>
+      <c r="D374" t="s">
+        <v>309</v>
+      </c>
+      <c r="E374">
+        <v>0</v>
+      </c>
+      <c r="F374">
+        <v>1</v>
+      </c>
+      <c r="G374">
+        <v>1</v>
+      </c>
+      <c r="I374">
+        <v>22</v>
+      </c>
+      <c r="J374">
+        <v>32</v>
+      </c>
+      <c r="K374">
+        <v>12</v>
+      </c>
+      <c r="L374">
+        <v>20</v>
+      </c>
+      <c r="M374" s="2">
+        <v>24</v>
+      </c>
+      <c r="N374" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="P374">
+        <v>0.59162038155035002</v>
+      </c>
+      <c r="Q374">
+        <v>0.55424716252113004</v>
+      </c>
+      <c r="R374">
+        <v>3.5230352303522984E-2</v>
+      </c>
+      <c r="S374">
+        <v>5.2845528455284431E-2</v>
+      </c>
+      <c r="T374">
+        <v>12</v>
+      </c>
+      <c r="U374">
+        <v>12</v>
+      </c>
+      <c r="V374" s="2">
+        <v>1</v>
+      </c>
+      <c r="W374" s="2">
+        <v>1</v>
+      </c>
+      <c r="X374" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y374" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z374" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA374" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB374" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC374" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD374" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE374" t="s">
+        <v>317</v>
+      </c>
+      <c r="AF374" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="375" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>1</v>
+      </c>
+      <c r="B375">
+        <v>4</v>
+      </c>
+      <c r="C375" t="s">
+        <v>300</v>
+      </c>
+      <c r="D375" t="s">
+        <v>309</v>
+      </c>
+      <c r="E375">
+        <v>0</v>
+      </c>
+      <c r="F375">
+        <v>1</v>
+      </c>
+      <c r="G375">
+        <v>1</v>
+      </c>
+      <c r="I375">
+        <v>12</v>
+      </c>
+      <c r="J375">
+        <v>18</v>
+      </c>
+      <c r="K375">
+        <v>6</v>
+      </c>
+      <c r="L375">
+        <v>12</v>
+      </c>
+      <c r="M375" s="2">
+        <v>24</v>
+      </c>
+      <c r="N375" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="P375">
+        <v>0.66817797633421805</v>
+      </c>
+      <c r="Q375">
+        <v>0.65825283747886898</v>
+      </c>
+      <c r="R375">
+        <v>6.7750677506774881E-2</v>
+      </c>
+      <c r="S375">
+        <v>4.8780487804877759E-2</v>
+      </c>
+      <c r="T375">
+        <v>12</v>
+      </c>
+      <c r="U375">
+        <v>12</v>
+      </c>
+      <c r="V375" s="2">
+        <v>1</v>
+      </c>
+      <c r="W375" s="2">
+        <v>1</v>
+      </c>
+      <c r="X375" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y375" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z375" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA375" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB375" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC375" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD375" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE375" t="s">
+        <v>317</v>
+      </c>
+      <c r="AF375" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="376" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>1</v>
+      </c>
+      <c r="B376">
+        <v>4</v>
+      </c>
+      <c r="C376" t="s">
+        <v>300</v>
+      </c>
+      <c r="D376" t="s">
+        <v>309</v>
+      </c>
+      <c r="E376">
+        <v>0</v>
+      </c>
+      <c r="F376">
+        <v>1</v>
+      </c>
+      <c r="G376">
+        <v>1</v>
+      </c>
+      <c r="I376">
+        <v>12</v>
+      </c>
+      <c r="J376">
+        <v>18</v>
+      </c>
+      <c r="K376">
+        <v>6</v>
+      </c>
+      <c r="L376">
+        <v>12</v>
+      </c>
+      <c r="M376" s="2">
+        <v>24</v>
+      </c>
+      <c r="N376" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="P376">
+        <v>0.67602028495532396</v>
+      </c>
+      <c r="Q376">
+        <v>0.67341221927070705</v>
+      </c>
+      <c r="R376">
+        <v>5.9620596205962273E-2</v>
+      </c>
+      <c r="S376">
+        <v>6.3685636856368119E-2</v>
+      </c>
+      <c r="T376">
+        <v>12</v>
+      </c>
+      <c r="U376">
+        <v>12</v>
+      </c>
+      <c r="V376" s="2">
+        <v>1</v>
+      </c>
+      <c r="W376" s="2">
+        <v>1</v>
+      </c>
+      <c r="X376" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y376" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z376" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA376" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB376" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC376" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD376" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE376" t="s">
+        <v>317</v>
+      </c>
+      <c r="AF376" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="377" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>1</v>
+      </c>
+      <c r="B377">
+        <v>4</v>
+      </c>
+      <c r="C377" t="s">
+        <v>300</v>
+      </c>
+      <c r="D377" t="s">
+        <v>309</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377">
+        <v>1</v>
+      </c>
+      <c r="G377">
+        <v>1</v>
+      </c>
+      <c r="I377">
+        <v>22</v>
+      </c>
+      <c r="J377">
+        <v>32</v>
+      </c>
+      <c r="K377">
+        <v>12</v>
+      </c>
+      <c r="L377">
+        <v>20</v>
+      </c>
+      <c r="M377" s="2">
+        <v>24</v>
+      </c>
+      <c r="N377" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="P377">
+        <v>0.69275537309828505</v>
+      </c>
+      <c r="Q377">
+        <v>0.50354382999275504</v>
+      </c>
+      <c r="R377">
+        <v>7.3170731707317055E-2</v>
+      </c>
+      <c r="S377">
+        <v>7.859078590785927E-2</v>
+      </c>
+      <c r="T377">
+        <v>12</v>
+      </c>
+      <c r="U377">
+        <v>12</v>
+      </c>
+      <c r="V377" s="2">
+        <v>1</v>
+      </c>
+      <c r="W377" s="2">
+        <v>1</v>
+      </c>
+      <c r="X377" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y377" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z377" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA377" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB377" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC377" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD377" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE377" t="s">
+        <v>317</v>
+      </c>
+      <c r="AF377" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="378" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>2</v>
+      </c>
+      <c r="B378">
+        <v>4</v>
+      </c>
+      <c r="C378" t="s">
+        <v>300</v>
+      </c>
+      <c r="D378" t="s">
+        <v>310</v>
+      </c>
+      <c r="E378">
+        <v>0</v>
+      </c>
+      <c r="F378">
+        <v>1</v>
+      </c>
+      <c r="G378">
+        <v>1</v>
+      </c>
+      <c r="I378">
+        <v>22</v>
+      </c>
+      <c r="J378">
+        <v>32</v>
+      </c>
+      <c r="K378">
+        <v>12</v>
+      </c>
+      <c r="L378">
+        <v>20</v>
+      </c>
+      <c r="M378" s="2">
+        <v>24</v>
+      </c>
+      <c r="N378" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="O378" t="s">
+        <v>37</v>
+      </c>
+      <c r="P378">
+        <v>5.0522648083623602</v>
+      </c>
+      <c r="Q378">
+        <v>13.3101045296167</v>
+      </c>
+      <c r="R378">
+        <v>0.85172280294231828</v>
+      </c>
+      <c r="S378">
+        <v>1.8970189701897029</v>
+      </c>
+      <c r="T378">
+        <v>12</v>
+      </c>
+      <c r="U378">
+        <v>12</v>
+      </c>
+      <c r="V378" s="2">
+        <v>1</v>
+      </c>
+      <c r="W378" s="2">
+        <v>1</v>
+      </c>
+      <c r="X378" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y378" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z378" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA378" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB378" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC378" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD378" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE378" t="s">
+        <v>317</v>
+      </c>
+      <c r="AF378" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="379" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>2</v>
+      </c>
+      <c r="B379">
+        <v>4</v>
+      </c>
+      <c r="C379" t="s">
+        <v>300</v>
+      </c>
+      <c r="D379" t="s">
+        <v>310</v>
+      </c>
+      <c r="E379">
+        <v>0</v>
+      </c>
+      <c r="F379">
+        <v>1</v>
+      </c>
+      <c r="G379">
+        <v>1</v>
+      </c>
+      <c r="I379">
+        <v>22</v>
+      </c>
+      <c r="J379">
+        <v>32</v>
+      </c>
+      <c r="K379">
+        <v>12</v>
+      </c>
+      <c r="L379">
+        <v>20</v>
+      </c>
+      <c r="M379" s="2">
+        <v>24</v>
+      </c>
+      <c r="N379" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="O379" t="s">
+        <v>37</v>
+      </c>
+      <c r="P379">
+        <v>7.7700348432055701</v>
+      </c>
+      <c r="Q379">
+        <v>13.3101045296167</v>
+      </c>
+      <c r="R379">
+        <v>1.0840108401083934</v>
+      </c>
+      <c r="S379">
+        <v>1.8970189701897029</v>
+      </c>
+      <c r="T379">
+        <v>12</v>
+      </c>
+      <c r="U379">
+        <v>12</v>
+      </c>
+      <c r="V379" s="2">
+        <v>1</v>
+      </c>
+      <c r="W379" s="2">
+        <v>1</v>
+      </c>
+      <c r="X379" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y379" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z379" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA379" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB379" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC379" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD379" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE379" t="s">
+        <v>317</v>
+      </c>
+      <c r="AF379" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="380" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>1</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+      <c r="C380" t="s">
+        <v>334</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E380">
+        <v>0</v>
+      </c>
+      <c r="F380">
+        <v>1</v>
+      </c>
+      <c r="G380">
+        <v>1</v>
+      </c>
+      <c r="I380">
+        <v>30</v>
+      </c>
+      <c r="J380">
+        <v>25</v>
+      </c>
+      <c r="K380">
+        <v>35</v>
+      </c>
+      <c r="L380">
+        <v>10</v>
+      </c>
+      <c r="M380" s="2">
+        <v>24</v>
+      </c>
+      <c r="N380" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O380" t="s">
+        <v>71</v>
+      </c>
+      <c r="P380" s="2">
+        <v>96.028037400000002</v>
+      </c>
+      <c r="Q380" s="2">
+        <v>94.392523400000002</v>
+      </c>
+      <c r="R380">
+        <v>1.1682243000000001</v>
+      </c>
+      <c r="S380">
+        <v>2.8037383199999999</v>
+      </c>
+      <c r="T380">
+        <v>4</v>
+      </c>
+      <c r="U380">
+        <v>4</v>
+      </c>
+      <c r="V380" s="2">
+        <v>1</v>
+      </c>
+      <c r="W380" s="2">
+        <v>1</v>
+      </c>
+      <c r="X380" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y380" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z380" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA380" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB380" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>1</v>
+      </c>
+      <c r="B381">
+        <v>2</v>
+      </c>
+      <c r="C381" t="s">
+        <v>334</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E381">
+        <v>0</v>
+      </c>
+      <c r="F381">
+        <v>1</v>
+      </c>
+      <c r="G381">
+        <v>1</v>
+      </c>
+      <c r="I381">
+        <v>30</v>
+      </c>
+      <c r="J381">
+        <v>25</v>
+      </c>
+      <c r="K381">
+        <v>35</v>
+      </c>
+      <c r="L381">
+        <v>10</v>
+      </c>
+      <c r="M381" s="2">
+        <v>24</v>
+      </c>
+      <c r="N381" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="O381" t="s">
+        <v>48</v>
+      </c>
+      <c r="P381" s="2">
+        <v>276.47058800000002</v>
+      </c>
+      <c r="Q381" s="2">
+        <v>178.43137300000001</v>
+      </c>
+      <c r="R381">
+        <v>47.549019600000001</v>
+      </c>
+      <c r="S381">
+        <v>37.254902000000001</v>
+      </c>
+      <c r="T381">
+        <v>88</v>
+      </c>
+      <c r="U381">
+        <v>88</v>
+      </c>
+      <c r="V381" s="2">
+        <v>1</v>
+      </c>
+      <c r="W381" s="2">
+        <v>1</v>
+      </c>
+      <c r="X381" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y381" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z381" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA381" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB381" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>2</v>
+      </c>
+      <c r="B382">
+        <v>2</v>
+      </c>
+      <c r="C382" t="s">
+        <v>334</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E382">
+        <v>0</v>
+      </c>
+      <c r="F382">
+        <v>1</v>
+      </c>
+      <c r="G382">
+        <v>1</v>
+      </c>
+      <c r="I382">
+        <v>30</v>
+      </c>
+      <c r="J382">
+        <v>25</v>
+      </c>
+      <c r="K382">
+        <v>35</v>
+      </c>
+      <c r="L382">
+        <v>10</v>
+      </c>
+      <c r="M382" s="2">
+        <v>24</v>
+      </c>
+      <c r="N382" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O382" t="s">
+        <v>37</v>
+      </c>
+      <c r="P382" s="2">
+        <v>26.115241600000001</v>
+      </c>
+      <c r="Q382" s="2">
+        <v>22.8252788</v>
+      </c>
+      <c r="R382">
+        <v>1.366171</v>
+      </c>
+      <c r="S382">
+        <v>1.67286245</v>
+      </c>
+      <c r="T382">
+        <v>88</v>
+      </c>
+      <c r="U382">
+        <v>88</v>
+      </c>
+      <c r="V382" s="2">
+        <v>1</v>
+      </c>
+      <c r="W382" s="2">
+        <v>1</v>
+      </c>
+      <c r="X382" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y382" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z382" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA382" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB382" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>1</v>
+      </c>
+      <c r="B383">
+        <v>3</v>
+      </c>
+      <c r="C383" t="s">
+        <v>334</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E383">
+        <v>0</v>
+      </c>
+      <c r="F383">
+        <v>1</v>
+      </c>
+      <c r="G383">
+        <v>1</v>
+      </c>
+      <c r="I383">
+        <v>30</v>
+      </c>
+      <c r="J383">
+        <v>25</v>
+      </c>
+      <c r="K383">
+        <v>35</v>
+      </c>
+      <c r="L383">
+        <v>10</v>
+      </c>
+      <c r="M383" s="2">
+        <v>24</v>
+      </c>
+      <c r="N383" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="O383" t="s">
+        <v>340</v>
+      </c>
+      <c r="P383" s="2">
+        <v>6.1176470600000004</v>
+      </c>
+      <c r="Q383" s="2">
+        <v>13.803921600000001</v>
+      </c>
+      <c r="R383">
+        <v>6.2745097999999997</v>
+      </c>
+      <c r="S383">
+        <v>5.80392157</v>
+      </c>
+      <c r="T383">
+        <v>40</v>
+      </c>
+      <c r="U383">
+        <v>40</v>
+      </c>
+      <c r="V383" s="2">
+        <v>1</v>
+      </c>
+      <c r="W383" s="2">
+        <v>1</v>
+      </c>
+      <c r="X383" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y383" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z383" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA383" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB383" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>2</v>
+      </c>
+      <c r="B384">
+        <v>3</v>
+      </c>
+      <c r="C384" t="s">
+        <v>334</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E384">
+        <v>0</v>
+      </c>
+      <c r="F384">
+        <v>1</v>
+      </c>
+      <c r="G384">
+        <v>1</v>
+      </c>
+      <c r="I384">
+        <v>30</v>
+      </c>
+      <c r="J384">
+        <v>25</v>
+      </c>
+      <c r="K384">
+        <v>35</v>
+      </c>
+      <c r="L384">
+        <v>10</v>
+      </c>
+      <c r="M384" s="2">
+        <v>24</v>
+      </c>
+      <c r="N384" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="O384" t="s">
+        <v>341</v>
+      </c>
+      <c r="P384" s="2">
+        <v>46.962616799999999</v>
+      </c>
+      <c r="Q384" s="2">
+        <v>43.808411200000002</v>
+      </c>
+      <c r="R384">
+        <v>20.327102799999999</v>
+      </c>
+      <c r="S384">
+        <v>17.5233645</v>
+      </c>
+      <c r="T384">
+        <v>40</v>
+      </c>
+      <c r="U384">
+        <v>40</v>
+      </c>
+      <c r="V384" s="2">
+        <v>1</v>
+      </c>
+      <c r="W384" s="2">
+        <v>1</v>
+      </c>
+      <c r="X384" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y384" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z384" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA384" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB384" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/shared analysis files /metafor.xlsx
+++ b/shared analysis files /metafor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/shared analysis files /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9EFC27-0709-234E-A699-47A5AAD1874C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E71507-183F-1241-9B21-3CA9DA659A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28700" yWindow="-9760" windowWidth="24000" windowHeight="15900" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{4536B02C-F584-4642-B8E5-0FF5356DC288}"/>
   </bookViews>
   <sheets>
     <sheet name="metafor" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3336" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3721" uniqueCount="348">
   <si>
     <t>study_id</t>
   </si>
@@ -1061,6 +1061,15 @@
   <si>
     <t xml:space="preserve">Osphronemus </t>
   </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>aquatic</t>
+  </si>
+  <si>
+    <t>terrestrial</t>
+  </si>
 </sst>
 </file>
 
@@ -1426,16 +1435,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCFBC2B-929F-FD41-8C91-75842D1EBA74}">
-  <dimension ref="A1:AK384"/>
+  <dimension ref="A1:AN385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA386" sqref="AA386"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB260" sqref="AB260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1547,8 +1556,11 @@
       <c r="AK1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1643,8 +1655,11 @@
       <c r="AK2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1739,8 +1754,11 @@
       <c r="AK3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1835,8 +1853,11 @@
       <c r="AK4" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1931,8 +1952,11 @@
       <c r="AK5" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2027,8 +2051,11 @@
       <c r="AK6" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2123,8 +2150,11 @@
       <c r="AK7" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2219,8 +2249,11 @@
       <c r="AK8" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2315,8 +2348,11 @@
       <c r="AK9" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -2411,8 +2447,11 @@
       <c r="AK10" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2507,8 +2546,11 @@
       <c r="AK11" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2603,8 +2645,11 @@
       <c r="AK12" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2699,8 +2744,11 @@
       <c r="AK13" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -2801,8 +2849,11 @@
       <c r="AK14" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4</v>
       </c>
@@ -2903,8 +2954,11 @@
       <c r="AK15" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL15" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -3005,8 +3059,11 @@
       <c r="AK16" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL16" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -3107,8 +3164,11 @@
       <c r="AK17" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3197,8 +3257,11 @@
       <c r="AJ18" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL18" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3287,8 +3350,11 @@
       <c r="AJ19" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3377,8 +3443,11 @@
       <c r="AJ20" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3467,8 +3536,11 @@
       <c r="AJ21" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3557,8 +3629,11 @@
       <c r="AJ22" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL22" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3647,8 +3722,11 @@
       <c r="AJ23" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL23" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3737,8 +3815,11 @@
       <c r="AJ24" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL24" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3827,8 +3908,11 @@
       <c r="AJ25" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3914,8 +3998,11 @@
       <c r="AJ26" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL26" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -4019,8 +4106,11 @@
       <c r="AK27" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL27" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -4124,8 +4214,11 @@
       <c r="AK28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL28" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -4229,8 +4322,11 @@
       <c r="AK29" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="30" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL29" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -4334,8 +4430,11 @@
       <c r="AK30" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL30" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -4439,8 +4538,11 @@
       <c r="AK31" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL31" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -4544,8 +4646,11 @@
       <c r="AK32" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL32" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -4649,8 +4754,11 @@
       <c r="AK33" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL33" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -4754,8 +4862,11 @@
       <c r="AK34" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="35" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL34" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -4844,8 +4955,11 @@
       <c r="AK35" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL35" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2</v>
       </c>
@@ -4934,8 +5048,11 @@
       <c r="AK36" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL36" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -5024,8 +5141,11 @@
       <c r="AK37" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL37" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4</v>
       </c>
@@ -5114,8 +5234,11 @@
       <c r="AK38" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL38" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -5204,8 +5327,11 @@
       <c r="AK39" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL39" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2</v>
       </c>
@@ -5294,8 +5420,11 @@
       <c r="AK40" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL40" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -5384,8 +5513,11 @@
       <c r="AK41" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL41" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4</v>
       </c>
@@ -5474,8 +5606,11 @@
       <c r="AK42" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL42" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -5564,8 +5699,11 @@
       <c r="AK43" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL43" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2</v>
       </c>
@@ -5654,8 +5792,11 @@
       <c r="AK44" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL44" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4</v>
       </c>
@@ -5744,8 +5885,11 @@
       <c r="AK45" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL45" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -5834,8 +5978,11 @@
       <c r="AK46" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL46" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -5927,8 +6074,11 @@
       <c r="AK47" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL47" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1</v>
       </c>
@@ -6020,8 +6170,11 @@
       <c r="AK48" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL48" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2</v>
       </c>
@@ -6113,8 +6266,11 @@
       <c r="AK49" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL49" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2</v>
       </c>
@@ -6206,8 +6362,11 @@
       <c r="AK50" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL50" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
@@ -6299,8 +6458,11 @@
       <c r="AK51" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL51" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
@@ -6392,8 +6554,11 @@
       <c r="AK52" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL52" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4</v>
       </c>
@@ -6485,8 +6650,11 @@
       <c r="AK53" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL53" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4</v>
       </c>
@@ -6578,8 +6746,11 @@
       <c r="AK54" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL54" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5</v>
       </c>
@@ -6671,8 +6842,11 @@
       <c r="AK55" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL55" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>5</v>
       </c>
@@ -6764,8 +6938,11 @@
       <c r="AK56" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL56" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>6</v>
       </c>
@@ -6857,8 +7034,11 @@
       <c r="AK57" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL57" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>6</v>
       </c>
@@ -6950,8 +7130,11 @@
       <c r="AK58" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL58" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -7049,8 +7232,11 @@
       <c r="AK59" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL59" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1</v>
       </c>
@@ -7148,8 +7334,11 @@
       <c r="AK60" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL60" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2</v>
       </c>
@@ -7250,8 +7439,11 @@
       <c r="AK61" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL61" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2</v>
       </c>
@@ -7352,8 +7544,11 @@
       <c r="AK62" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL62" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
@@ -7448,8 +7643,11 @@
       <c r="AK63" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL63" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2</v>
       </c>
@@ -7544,8 +7742,11 @@
       <c r="AK64" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL64" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="65" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3</v>
       </c>
@@ -7640,8 +7841,11 @@
       <c r="AK65" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL65" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="66" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4</v>
       </c>
@@ -7736,8 +7940,11 @@
       <c r="AK66" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL66" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="67" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>5</v>
       </c>
@@ -7832,8 +8039,11 @@
       <c r="AK67" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL67" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="68" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1</v>
       </c>
@@ -7928,8 +8138,11 @@
       <c r="AK68" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL68" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="69" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2</v>
       </c>
@@ -8024,8 +8237,11 @@
       <c r="AK69" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL69" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="70" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>3</v>
       </c>
@@ -8120,8 +8336,11 @@
       <c r="AK70" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL70" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="71" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4</v>
       </c>
@@ -8216,8 +8435,11 @@
       <c r="AK71" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL71" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="72" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>5</v>
       </c>
@@ -8312,8 +8534,11 @@
       <c r="AK72" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL72" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="73" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1</v>
       </c>
@@ -8408,8 +8633,11 @@
       <c r="AK73" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL73" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="74" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2</v>
       </c>
@@ -8504,8 +8732,11 @@
       <c r="AK74" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL74" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3</v>
       </c>
@@ -8600,8 +8831,11 @@
       <c r="AK75" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL75" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="76" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4</v>
       </c>
@@ -8696,8 +8930,11 @@
       <c r="AK76" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL76" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="77" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>5</v>
       </c>
@@ -8792,8 +9029,11 @@
       <c r="AK77" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="78" spans="1:37" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL77" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="78" spans="1:40" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>1</v>
       </c>
@@ -8876,8 +9116,13 @@
       <c r="AK78" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="79" spans="1:37" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL78" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM78"/>
+      <c r="AN78"/>
+    </row>
+    <row r="79" spans="1:40" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>1</v>
       </c>
@@ -8960,8 +9205,13 @@
       <c r="AK79" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL79" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM79"/>
+      <c r="AN79"/>
+    </row>
+    <row r="80" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1</v>
       </c>
@@ -9053,8 +9303,11 @@
       <c r="AK80" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL80" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2</v>
       </c>
@@ -9146,8 +9399,11 @@
       <c r="AK81" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL81" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>3</v>
       </c>
@@ -9239,8 +9495,11 @@
       <c r="AK82" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL82" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>4</v>
       </c>
@@ -9332,8 +9591,11 @@
       <c r="AK83" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL83" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1</v>
       </c>
@@ -9425,8 +9687,11 @@
       <c r="AK84" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL84" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2</v>
       </c>
@@ -9518,8 +9783,11 @@
       <c r="AK85" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL85" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="86" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>3</v>
       </c>
@@ -9611,8 +9879,11 @@
       <c r="AK86" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL86" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>4</v>
       </c>
@@ -9704,8 +9975,11 @@
       <c r="AK87" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL87" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2</v>
       </c>
@@ -9794,8 +10068,11 @@
       <c r="AK88" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL88" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1</v>
       </c>
@@ -9884,8 +10161,11 @@
       <c r="AK89" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL89" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>3</v>
       </c>
@@ -9974,8 +10254,11 @@
       <c r="AK90" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL90" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1</v>
       </c>
@@ -10064,8 +10347,11 @@
       <c r="AK91" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL91" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2</v>
       </c>
@@ -10154,8 +10440,11 @@
       <c r="AK92" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL92" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="93" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>3</v>
       </c>
@@ -10244,8 +10533,11 @@
       <c r="AK93" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL93" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>4</v>
       </c>
@@ -10334,8 +10626,11 @@
       <c r="AK94" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL94" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="95" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>5</v>
       </c>
@@ -10424,8 +10719,11 @@
       <c r="AK95" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL95" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="96" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>6</v>
       </c>
@@ -10514,8 +10812,11 @@
       <c r="AK96" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL96" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="97" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>7</v>
       </c>
@@ -10604,8 +10905,11 @@
       <c r="AK97" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL97" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="98" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>8</v>
       </c>
@@ -10694,8 +10998,11 @@
       <c r="AK98" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL98" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="99" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>9</v>
       </c>
@@ -10784,8 +11091,11 @@
       <c r="AK99" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL99" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="100" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>10</v>
       </c>
@@ -10874,8 +11184,11 @@
       <c r="AK100" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL100" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="101" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1</v>
       </c>
@@ -10964,8 +11277,11 @@
       <c r="AK101" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL101" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2</v>
       </c>
@@ -11054,8 +11370,11 @@
       <c r="AK102" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL102" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="103" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>3</v>
       </c>
@@ -11144,8 +11463,11 @@
       <c r="AK103" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL103" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="104" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>4</v>
       </c>
@@ -11234,8 +11556,11 @@
       <c r="AK104" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL104" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="105" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>5</v>
       </c>
@@ -11324,8 +11649,11 @@
       <c r="AK105" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL105" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="106" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>6</v>
       </c>
@@ -11414,8 +11742,11 @@
       <c r="AK106" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL106" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="107" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>7</v>
       </c>
@@ -11504,8 +11835,11 @@
       <c r="AK107" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL107" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="108" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>8</v>
       </c>
@@ -11594,8 +11928,11 @@
       <c r="AK108" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL108" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="109" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>9</v>
       </c>
@@ -11684,8 +12021,11 @@
       <c r="AK109" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL109" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="110" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>10</v>
       </c>
@@ -11774,8 +12114,11 @@
       <c r="AK110" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL110" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="111" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1</v>
       </c>
@@ -11873,8 +12216,11 @@
       <c r="AK111" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="112" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL111" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="112" spans="1:38" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1</v>
       </c>
@@ -11972,8 +12318,11 @@
       <c r="AK112" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL112" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="113" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1</v>
       </c>
@@ -12071,8 +12420,11 @@
       <c r="AK113" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL113" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="114" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1</v>
       </c>
@@ -12170,8 +12522,11 @@
       <c r="AK114" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL114" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="115" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1</v>
       </c>
@@ -12269,8 +12624,11 @@
       <c r="AK115" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL115" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="116" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1</v>
       </c>
@@ -12368,8 +12726,11 @@
       <c r="AK116" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL116" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="117" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2</v>
       </c>
@@ -12467,8 +12828,11 @@
       <c r="AK117" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL117" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="118" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2</v>
       </c>
@@ -12566,8 +12930,11 @@
       <c r="AK118" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL118" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="119" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2</v>
       </c>
@@ -12665,8 +13032,11 @@
       <c r="AK119" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL119" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="120" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2</v>
       </c>
@@ -12764,8 +13134,11 @@
       <c r="AK120" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="121" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL120" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="121" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>1</v>
       </c>
@@ -12866,8 +13239,12 @@
       <c r="AK121" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="122" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL121" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM121"/>
+    </row>
+    <row r="122" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>1</v>
       </c>
@@ -12971,8 +13348,12 @@
       <c r="AK122" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="123" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL122" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM122"/>
+    </row>
+    <row r="123" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>1</v>
       </c>
@@ -13076,8 +13457,12 @@
       <c r="AK123" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="124" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL123" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM123"/>
+    </row>
+    <row r="124" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>1</v>
       </c>
@@ -13178,8 +13563,12 @@
       <c r="AK124" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="125" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL124" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM124"/>
+    </row>
+    <row r="125" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>1</v>
       </c>
@@ -13283,8 +13672,12 @@
       <c r="AK125" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="126" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL125" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM125"/>
+    </row>
+    <row r="126" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>1</v>
       </c>
@@ -13388,8 +13781,12 @@
       <c r="AK126" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="127" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL126" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM126"/>
+    </row>
+    <row r="127" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>1</v>
       </c>
@@ -13490,8 +13887,12 @@
       <c r="AK127" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="128" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL127" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM127"/>
+    </row>
+    <row r="128" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>1</v>
       </c>
@@ -13595,8 +13996,12 @@
       <c r="AK128" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="129" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL128" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM128"/>
+    </row>
+    <row r="129" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>1</v>
       </c>
@@ -13700,8 +14105,12 @@
       <c r="AK129" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="130" spans="1:37" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL129" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM129"/>
+    </row>
+    <row r="130" spans="1:39" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>1</v>
       </c>
@@ -13805,8 +14214,12 @@
       <c r="AK130" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="131" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL130" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM130"/>
+    </row>
+    <row r="131" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>1</v>
       </c>
@@ -13905,8 +14318,12 @@
       <c r="AK131" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="132" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL131" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM131"/>
+    </row>
+    <row r="132" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>2</v>
       </c>
@@ -14008,8 +14425,12 @@
       <c r="AK132" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="133" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL132" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM132"/>
+    </row>
+    <row r="133" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>2</v>
       </c>
@@ -14111,8 +14532,12 @@
       <c r="AK133" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="134" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL133" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM133"/>
+    </row>
+    <row r="134" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>2</v>
       </c>
@@ -14214,8 +14639,12 @@
       <c r="AK134" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="135" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL134" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM134"/>
+    </row>
+    <row r="135" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>2</v>
       </c>
@@ -14313,8 +14742,12 @@
       <c r="AK135" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="136" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL135" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM135"/>
+    </row>
+    <row r="136" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>2</v>
       </c>
@@ -14412,8 +14845,12 @@
       <c r="AK136" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="137" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL136" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM136"/>
+    </row>
+    <row r="137" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>2</v>
       </c>
@@ -14505,8 +14942,12 @@
       <c r="AK137" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="138" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL137" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM137"/>
+    </row>
+    <row r="138" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>2</v>
       </c>
@@ -14604,8 +15045,12 @@
       <c r="AK138" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="139" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL138" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM138"/>
+    </row>
+    <row r="139" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>2</v>
       </c>
@@ -14700,8 +15145,12 @@
       <c r="AK139" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="140" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL139" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM139"/>
+    </row>
+    <row r="140" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>2</v>
       </c>
@@ -14799,8 +15248,12 @@
       <c r="AK140" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="141" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL140" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM140"/>
+    </row>
+    <row r="141" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>2</v>
       </c>
@@ -14895,8 +15348,12 @@
       <c r="AK141" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="142" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL141" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM141"/>
+    </row>
+    <row r="142" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>2</v>
       </c>
@@ -14994,8 +15451,12 @@
       <c r="AK142" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="143" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL142" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM142"/>
+    </row>
+    <row r="143" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>2</v>
       </c>
@@ -15090,8 +15551,12 @@
       <c r="AK143" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="144" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL143" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM143"/>
+    </row>
+    <row r="144" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>2</v>
       </c>
@@ -15186,8 +15651,12 @@
       <c r="AK144" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="145" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL144" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM144"/>
+    </row>
+    <row r="145" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>2</v>
       </c>
@@ -15285,8 +15754,12 @@
       <c r="AK145" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="146" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL145" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM145"/>
+    </row>
+    <row r="146" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>2</v>
       </c>
@@ -15384,8 +15857,12 @@
       <c r="AK146" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="147" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL146" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM146"/>
+    </row>
+    <row r="147" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>2</v>
       </c>
@@ -15483,8 +15960,12 @@
       <c r="AK147" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="148" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL147" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM147"/>
+    </row>
+    <row r="148" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>2</v>
       </c>
@@ -15582,8 +16063,12 @@
       <c r="AK148" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="149" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL148" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM148"/>
+    </row>
+    <row r="149" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1</v>
       </c>
@@ -15672,8 +16157,11 @@
       <c r="AK149" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="150" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL149" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="150" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2</v>
       </c>
@@ -15762,8 +16250,11 @@
       <c r="AK150" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="151" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL150" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="151" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1</v>
       </c>
@@ -15855,8 +16346,11 @@
       <c r="AK151" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="152" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL151" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="152" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2</v>
       </c>
@@ -15948,8 +16442,11 @@
       <c r="AK152" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="153" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL152" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="153" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>3</v>
       </c>
@@ -16041,8 +16538,11 @@
       <c r="AK153" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="154" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL153" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="154" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1</v>
       </c>
@@ -16134,8 +16634,11 @@
       <c r="AK154" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="155" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL154" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="155" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2</v>
       </c>
@@ -16227,8 +16730,11 @@
       <c r="AK155" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="156" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL155" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="156" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>3</v>
       </c>
@@ -16320,8 +16826,11 @@
       <c r="AK156" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="157" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL156" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="157" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1</v>
       </c>
@@ -16410,8 +16919,11 @@
       <c r="AJ157" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="158" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL157" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="158" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1</v>
       </c>
@@ -16500,8 +17012,11 @@
       <c r="AJ158" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="159" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL158" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="159" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1</v>
       </c>
@@ -16590,8 +17105,11 @@
       <c r="AJ159" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="160" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL159" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="160" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1</v>
       </c>
@@ -16680,8 +17198,11 @@
       <c r="AJ160" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AL160" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="161" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1</v>
       </c>
@@ -16770,8 +17291,11 @@
       <c r="AJ161" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AL161" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="162" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1</v>
       </c>
@@ -16860,8 +17384,11 @@
       <c r="AJ162" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AL162" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="163" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1</v>
       </c>
@@ -16947,8 +17474,11 @@
       <c r="AB163">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AL163" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="164" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1</v>
       </c>
@@ -17031,8 +17561,11 @@
       <c r="AB164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AL164" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="165" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1</v>
       </c>
@@ -17115,8 +17648,11 @@
       <c r="AB165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AL165" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="166" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2</v>
       </c>
@@ -17199,8 +17735,11 @@
       <c r="AB166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AL166" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="167" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>3</v>
       </c>
@@ -17283,8 +17822,11 @@
       <c r="AB167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AL167" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="168" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>4</v>
       </c>
@@ -17367,8 +17909,11 @@
       <c r="AB168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AL168" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="169" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>5</v>
       </c>
@@ -17451,8 +17996,11 @@
       <c r="AB169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AL169" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="170" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1</v>
       </c>
@@ -17535,8 +18083,11 @@
       <c r="AB170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AL170" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="171" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2</v>
       </c>
@@ -17619,8 +18170,11 @@
       <c r="AB171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AL171" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="172" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>3</v>
       </c>
@@ -17703,8 +18257,11 @@
       <c r="AB172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AL172" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="173" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>4</v>
       </c>
@@ -17787,8 +18344,11 @@
       <c r="AB173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AL173" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="174" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>5</v>
       </c>
@@ -17871,8 +18431,11 @@
       <c r="AB174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AL174" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="175" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1</v>
       </c>
@@ -17954,8 +18517,11 @@
       <c r="AB175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AL175" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="176" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2</v>
       </c>
@@ -18037,8 +18603,11 @@
       <c r="AB176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AL176" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="177" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>3</v>
       </c>
@@ -18120,8 +18689,11 @@
       <c r="AB177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AL177" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="178" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>4</v>
       </c>
@@ -18203,8 +18775,11 @@
       <c r="AB178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AL178" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="179" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>5</v>
       </c>
@@ -18286,8 +18861,11 @@
       <c r="AB179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AL179" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="180" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1</v>
       </c>
@@ -18370,8 +18948,11 @@
       <c r="AB180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AL180" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="181" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2</v>
       </c>
@@ -18454,8 +19035,11 @@
       <c r="AB181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AL181" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="182" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>3</v>
       </c>
@@ -18538,8 +19122,11 @@
       <c r="AB182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AL182" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="183" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>4</v>
       </c>
@@ -18622,8 +19209,11 @@
       <c r="AB183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AL183" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="184" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>5</v>
       </c>
@@ -18706,8 +19296,11 @@
       <c r="AB184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AL184" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="185" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>6</v>
       </c>
@@ -18790,8 +19383,11 @@
       <c r="AB185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AL185" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="186" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1</v>
       </c>
@@ -18874,8 +19470,11 @@
       <c r="AB186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AL186" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="187" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2</v>
       </c>
@@ -18958,8 +19557,11 @@
       <c r="AB187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AL187" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="188" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>3</v>
       </c>
@@ -19042,8 +19644,11 @@
       <c r="AB188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AL188" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="189" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>4</v>
       </c>
@@ -19126,8 +19731,11 @@
       <c r="AB189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AL189" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="190" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>5</v>
       </c>
@@ -19210,8 +19818,11 @@
       <c r="AB190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AL190" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="191" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>6</v>
       </c>
@@ -19294,8 +19905,11 @@
       <c r="AB191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AL191" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="192" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>1</v>
       </c>
@@ -19377,8 +19991,11 @@
       <c r="AB192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL192" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="193" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2</v>
       </c>
@@ -19460,8 +20077,11 @@
       <c r="AB193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL193" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="194" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>3</v>
       </c>
@@ -19543,8 +20163,11 @@
       <c r="AB194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL194" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="195" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>4</v>
       </c>
@@ -19626,8 +20249,11 @@
       <c r="AB195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL195" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="196" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>5</v>
       </c>
@@ -19709,8 +20335,11 @@
       <c r="AB196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL196" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="197" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>6</v>
       </c>
@@ -19792,8 +20421,11 @@
       <c r="AB197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL197" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="198" spans="1:38" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1</v>
       </c>
@@ -19876,8 +20508,11 @@
       <c r="AB198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL198" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="199" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1</v>
       </c>
@@ -19960,8 +20595,11 @@
       <c r="AB199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL199" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="200" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1</v>
       </c>
@@ -20043,8 +20681,11 @@
       <c r="AB200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL200" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="201" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1</v>
       </c>
@@ -20127,8 +20768,11 @@
       <c r="AB201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL201" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="202" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1</v>
       </c>
@@ -20211,8 +20855,11 @@
       <c r="AB202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL202" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="203" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1</v>
       </c>
@@ -20294,8 +20941,11 @@
       <c r="AB203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL203" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="204" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>1</v>
       </c>
@@ -20378,8 +21028,11 @@
       <c r="AB204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL204" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="205" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>1</v>
       </c>
@@ -20461,8 +21114,11 @@
       <c r="AB205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL205" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="206" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>1</v>
       </c>
@@ -20544,8 +21200,11 @@
       <c r="AB206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL206" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="207" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1</v>
       </c>
@@ -20633,8 +21292,11 @@
       <c r="AD207" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="208" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL207" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="208" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>1</v>
       </c>
@@ -20722,8 +21384,11 @@
       <c r="AD208" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="209" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL208" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="209" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1</v>
       </c>
@@ -20811,8 +21476,11 @@
       <c r="AD209" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="210" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL209" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="210" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1</v>
       </c>
@@ -20900,8 +21568,11 @@
       <c r="AD210" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="211" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL210" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="211" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1</v>
       </c>
@@ -20995,8 +21666,11 @@
       <c r="AF211" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="212" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL211" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="212" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>1</v>
       </c>
@@ -21090,8 +21764,11 @@
       <c r="AF212" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="213" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL212" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="213" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>1</v>
       </c>
@@ -21185,8 +21862,11 @@
       <c r="AF213" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="214" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL213" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="214" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>1</v>
       </c>
@@ -21280,8 +21960,11 @@
       <c r="AF214" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="215" spans="1:32" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL214" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="215" spans="1:38" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>1</v>
       </c>
@@ -21375,8 +22058,11 @@
       <c r="AF215" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="216" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL215" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="216" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>1</v>
       </c>
@@ -21470,8 +22156,11 @@
       <c r="AF216" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="217" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL216" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="217" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>1</v>
       </c>
@@ -21565,8 +22254,11 @@
       <c r="AF217" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="218" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL217" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="218" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>1</v>
       </c>
@@ -21648,8 +22340,11 @@
       <c r="AB218">
         <v>2</v>
       </c>
-    </row>
-    <row r="219" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL218" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="219" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>1</v>
       </c>
@@ -21731,8 +22426,11 @@
       <c r="AB219">
         <v>2</v>
       </c>
-    </row>
-    <row r="220" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL219" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="220" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>1</v>
       </c>
@@ -21814,8 +22512,11 @@
       <c r="AB220">
         <v>2</v>
       </c>
-    </row>
-    <row r="221" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL220" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="221" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2</v>
       </c>
@@ -21897,8 +22598,11 @@
       <c r="AB221">
         <v>2</v>
       </c>
-    </row>
-    <row r="222" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL221" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="222" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2</v>
       </c>
@@ -21980,8 +22684,11 @@
       <c r="AB222">
         <v>2</v>
       </c>
-    </row>
-    <row r="223" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL222" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="223" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2</v>
       </c>
@@ -22063,8 +22770,11 @@
       <c r="AB223">
         <v>2</v>
       </c>
-    </row>
-    <row r="224" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL223" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="224" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>3</v>
       </c>
@@ -22146,8 +22856,11 @@
       <c r="AB224">
         <v>2</v>
       </c>
-    </row>
-    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL224" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="225" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>3</v>
       </c>
@@ -22229,8 +22942,11 @@
       <c r="AB225">
         <v>2</v>
       </c>
-    </row>
-    <row r="226" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL225" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="226" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>3</v>
       </c>
@@ -22312,8 +23028,11 @@
       <c r="AB226">
         <v>2</v>
       </c>
-    </row>
-    <row r="227" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL226" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="227" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>4</v>
       </c>
@@ -22395,8 +23114,11 @@
       <c r="AB227">
         <v>2</v>
       </c>
-    </row>
-    <row r="228" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL227" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="228" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>4</v>
       </c>
@@ -22478,8 +23200,11 @@
       <c r="AB228">
         <v>2</v>
       </c>
-    </row>
-    <row r="229" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL228" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="229" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>4</v>
       </c>
@@ -22561,8 +23286,11 @@
       <c r="AB229">
         <v>2</v>
       </c>
-    </row>
-    <row r="230" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL229" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="230" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>5</v>
       </c>
@@ -22644,8 +23372,11 @@
       <c r="AB230">
         <v>2</v>
       </c>
-    </row>
-    <row r="231" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL230" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="231" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>5</v>
       </c>
@@ -22727,8 +23458,11 @@
       <c r="AB231">
         <v>2</v>
       </c>
-    </row>
-    <row r="232" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL231" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="232" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>5</v>
       </c>
@@ -22810,8 +23544,11 @@
       <c r="AB232">
         <v>2</v>
       </c>
-    </row>
-    <row r="233" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL232" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="233" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>1</v>
       </c>
@@ -22893,8 +23630,11 @@
       <c r="AB233">
         <v>2</v>
       </c>
-    </row>
-    <row r="234" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL233" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="234" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>1</v>
       </c>
@@ -22976,8 +23716,11 @@
       <c r="AB234">
         <v>2</v>
       </c>
-    </row>
-    <row r="235" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL234" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="235" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>1</v>
       </c>
@@ -23059,8 +23802,11 @@
       <c r="AB235">
         <v>2</v>
       </c>
-    </row>
-    <row r="236" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL235" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="236" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>1</v>
       </c>
@@ -23142,8 +23888,11 @@
       <c r="AB236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL236" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="237" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>1</v>
       </c>
@@ -23225,8 +23974,11 @@
       <c r="AB237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL237" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="238" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>1</v>
       </c>
@@ -23314,8 +24066,11 @@
       <c r="AD238" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="239" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL238" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="239" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>1</v>
       </c>
@@ -23403,8 +24158,11 @@
       <c r="AD239" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="240" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL239" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="240" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>1</v>
       </c>
@@ -23492,8 +24250,11 @@
       <c r="AD240" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="241" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL240" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="241" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>1</v>
       </c>
@@ -23581,8 +24342,11 @@
       <c r="AD241" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="242" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL241" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="242" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1</v>
       </c>
@@ -23664,8 +24428,11 @@
       <c r="AB242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL242" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="243" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>1</v>
       </c>
@@ -23747,8 +24514,11 @@
       <c r="AB243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL243" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="244" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>1</v>
       </c>
@@ -23830,8 +24600,11 @@
       <c r="AB244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL244" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="245" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2</v>
       </c>
@@ -23913,8 +24686,11 @@
       <c r="AB245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL245" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="246" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2</v>
       </c>
@@ -23996,8 +24772,11 @@
       <c r="AB246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL246" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="247" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2</v>
       </c>
@@ -24079,8 +24858,11 @@
       <c r="AB247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL247" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="248" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>1</v>
       </c>
@@ -24162,8 +24944,11 @@
       <c r="AB248">
         <v>2</v>
       </c>
-    </row>
-    <row r="249" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL248" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="249" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>2</v>
       </c>
@@ -24245,8 +25030,11 @@
       <c r="AB249">
         <v>2</v>
       </c>
-    </row>
-    <row r="250" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL249" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="250" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>3</v>
       </c>
@@ -24328,8 +25116,11 @@
       <c r="AB250">
         <v>2</v>
       </c>
-    </row>
-    <row r="251" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL250" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="251" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>4</v>
       </c>
@@ -24411,8 +25202,11 @@
       <c r="AB251">
         <v>2</v>
       </c>
-    </row>
-    <row r="252" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL251" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="252" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>5</v>
       </c>
@@ -24494,8 +25288,11 @@
       <c r="AB252">
         <v>2</v>
       </c>
-    </row>
-    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL252" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="253" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>1</v>
       </c>
@@ -24574,14 +25371,20 @@
       <c r="AA253" s="2">
         <v>0</v>
       </c>
+      <c r="AB253" s="2">
+        <v>1</v>
+      </c>
       <c r="AC253" t="s">
         <v>33</v>
       </c>
       <c r="AD253" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL253" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="254" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>1</v>
       </c>
@@ -24660,14 +25463,20 @@
       <c r="AA254" s="2">
         <v>0</v>
       </c>
+      <c r="AB254" s="2">
+        <v>1</v>
+      </c>
       <c r="AC254" t="s">
         <v>33</v>
       </c>
       <c r="AD254" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="255" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL254" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="255" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>1</v>
       </c>
@@ -24746,14 +25555,20 @@
       <c r="AA255" s="2">
         <v>0</v>
       </c>
+      <c r="AB255" s="2">
+        <v>1</v>
+      </c>
       <c r="AC255" t="s">
         <v>33</v>
       </c>
       <c r="AD255" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="256" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AL255" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="256" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2</v>
       </c>
@@ -24832,14 +25647,20 @@
       <c r="AA256" s="2">
         <v>0</v>
       </c>
+      <c r="AB256" s="2">
+        <v>1</v>
+      </c>
       <c r="AC256" t="s">
         <v>33</v>
       </c>
       <c r="AD256" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="257" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL256" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="257" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2</v>
       </c>
@@ -24918,14 +25739,20 @@
       <c r="AA257" s="2">
         <v>0</v>
       </c>
+      <c r="AB257" s="2">
+        <v>1</v>
+      </c>
       <c r="AC257" t="s">
         <v>33</v>
       </c>
       <c r="AD257" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="258" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL257" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="258" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>2</v>
       </c>
@@ -25004,14 +25831,20 @@
       <c r="AA258" s="2">
         <v>0</v>
       </c>
+      <c r="AB258" s="2">
+        <v>1</v>
+      </c>
       <c r="AC258" t="s">
         <v>33</v>
       </c>
       <c r="AD258" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="259" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL258" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="259" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2</v>
       </c>
@@ -25090,14 +25923,20 @@
       <c r="AA259" s="2">
         <v>0</v>
       </c>
+      <c r="AB259" s="2">
+        <v>1</v>
+      </c>
       <c r="AC259" t="s">
         <v>33</v>
       </c>
       <c r="AD259" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="260" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL259" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="260" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>1</v>
       </c>
@@ -25194,8 +26033,11 @@
       <c r="AF260" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="261" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL260" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="261" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>1</v>
       </c>
@@ -25292,8 +26134,11 @@
       <c r="AF261" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="262" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL261" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="262" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>1</v>
       </c>
@@ -25390,8 +26235,11 @@
       <c r="AF262" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="263" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL262" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="263" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>1</v>
       </c>
@@ -25488,8 +26336,11 @@
       <c r="AF263" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="264" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL263" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="264" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>1</v>
       </c>
@@ -25586,8 +26437,11 @@
       <c r="AF264" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="265" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL264" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="265" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>1</v>
       </c>
@@ -25684,8 +26538,11 @@
       <c r="AF265" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="266" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL265" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="266" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>1</v>
       </c>
@@ -25782,8 +26639,11 @@
       <c r="AF266" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="267" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL266" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="267" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>1</v>
       </c>
@@ -25880,8 +26740,11 @@
       <c r="AF267" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="268" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL267" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="268" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>1</v>
       </c>
@@ -25978,8 +26841,11 @@
       <c r="AF268" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="269" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL268" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="269" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>1</v>
       </c>
@@ -26076,8 +26942,11 @@
       <c r="AF269" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="270" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL269" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="270" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>1</v>
       </c>
@@ -26174,8 +27043,11 @@
       <c r="AF270" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="271" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL270" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="271" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>1</v>
       </c>
@@ -26272,8 +27144,11 @@
       <c r="AF271" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="272" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL271" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="272" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>1</v>
       </c>
@@ -26370,8 +27245,11 @@
       <c r="AF272" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="273" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL272" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="273" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>1</v>
       </c>
@@ -26468,8 +27346,11 @@
       <c r="AF273" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="274" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL273" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="274" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>1</v>
       </c>
@@ -26566,8 +27447,11 @@
       <c r="AF274" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="275" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL274" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="275" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>1</v>
       </c>
@@ -26664,8 +27548,11 @@
       <c r="AF275" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="276" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL275" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="276" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>1</v>
       </c>
@@ -26762,8 +27649,11 @@
       <c r="AF276" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="277" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL276" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="277" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>1</v>
       </c>
@@ -26860,8 +27750,11 @@
       <c r="AF277" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="278" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL277" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="278" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>1</v>
       </c>
@@ -26958,8 +27851,11 @@
       <c r="AF278" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="279" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL278" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="279" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>1</v>
       </c>
@@ -27056,8 +27952,11 @@
       <c r="AF279" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="280" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL279" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="280" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>1</v>
       </c>
@@ -27154,8 +28053,11 @@
       <c r="AF280" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="281" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL280" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="281" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>1</v>
       </c>
@@ -27252,8 +28154,11 @@
       <c r="AF281" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="282" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL281" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="282" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>1</v>
       </c>
@@ -27350,8 +28255,11 @@
       <c r="AF282" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="283" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL282" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="283" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>1</v>
       </c>
@@ -27448,8 +28356,11 @@
       <c r="AF283" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="284" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL283" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="284" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>1</v>
       </c>
@@ -27546,8 +28457,11 @@
       <c r="AF284" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="285" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL284" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="285" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>1</v>
       </c>
@@ -27644,8 +28558,11 @@
       <c r="AF285" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="286" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL285" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="286" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>1</v>
       </c>
@@ -27742,8 +28659,11 @@
       <c r="AF286" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="287" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL286" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="287" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>1</v>
       </c>
@@ -27840,8 +28760,11 @@
       <c r="AF287" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="288" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL287" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="288" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>1</v>
       </c>
@@ -27938,8 +28861,11 @@
       <c r="AF288" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="289" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL288" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="289" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>1</v>
       </c>
@@ -28036,8 +28962,11 @@
       <c r="AF289" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="290" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL289" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="290" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>1</v>
       </c>
@@ -28134,8 +29063,11 @@
       <c r="AF290" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="291" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL290" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="291" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>1</v>
       </c>
@@ -28232,8 +29164,11 @@
       <c r="AF291" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="292" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL291" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="292" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>1</v>
       </c>
@@ -28330,8 +29265,11 @@
       <c r="AF292" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL292" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="293" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>1</v>
       </c>
@@ -28428,8 +29366,11 @@
       <c r="AF293" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="294" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL293" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="294" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>1</v>
       </c>
@@ -28526,8 +29467,11 @@
       <c r="AF294" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="295" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL294" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="295" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>1</v>
       </c>
@@ -28624,8 +29568,11 @@
       <c r="AF295" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="296" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL295" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="296" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>1</v>
       </c>
@@ -28722,8 +29669,11 @@
       <c r="AF296" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="297" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL296" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="297" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>1</v>
       </c>
@@ -28820,8 +29770,11 @@
       <c r="AF297" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="298" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL297" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="298" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>1</v>
       </c>
@@ -28918,8 +29871,11 @@
       <c r="AF298" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="299" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL298" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="299" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>1</v>
       </c>
@@ -29016,8 +29972,11 @@
       <c r="AF299" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="300" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL299" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="300" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>1</v>
       </c>
@@ -29114,8 +30073,11 @@
       <c r="AF300" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="301" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL300" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="301" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>1</v>
       </c>
@@ -29212,8 +30174,11 @@
       <c r="AF301" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="302" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL301" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="302" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>1</v>
       </c>
@@ -29310,8 +30275,11 @@
       <c r="AF302" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="303" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL302" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="303" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>1</v>
       </c>
@@ -29408,8 +30376,11 @@
       <c r="AF303" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="304" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL303" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="304" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>1</v>
       </c>
@@ -29506,8 +30477,11 @@
       <c r="AF304" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="305" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL304" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="305" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>1</v>
       </c>
@@ -29604,8 +30578,11 @@
       <c r="AF305" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="306" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL305" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="306" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>1</v>
       </c>
@@ -29702,8 +30679,11 @@
       <c r="AF306" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="307" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL306" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="307" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>1</v>
       </c>
@@ -29800,8 +30780,11 @@
       <c r="AF307" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="308" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL307" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="308" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>1</v>
       </c>
@@ -29898,8 +30881,11 @@
       <c r="AF308" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="309" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL308" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="309" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>1</v>
       </c>
@@ -29996,8 +30982,11 @@
       <c r="AF309" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="310" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL309" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="310" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>1</v>
       </c>
@@ -30094,8 +31083,11 @@
       <c r="AF310" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="311" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL310" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="311" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>1</v>
       </c>
@@ -30192,8 +31184,11 @@
       <c r="AF311" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="312" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL311" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="312" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>1</v>
       </c>
@@ -30290,8 +31285,11 @@
       <c r="AF312" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="313" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL312" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="313" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>1</v>
       </c>
@@ -30388,8 +31386,11 @@
       <c r="AF313" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="314" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL313" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="314" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>1</v>
       </c>
@@ -30486,8 +31487,11 @@
       <c r="AF314" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="315" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL314" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="315" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>1</v>
       </c>
@@ -30584,8 +31588,11 @@
       <c r="AF315" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="316" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL315" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="316" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>1</v>
       </c>
@@ -30682,8 +31689,11 @@
       <c r="AF316" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="317" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL316" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="317" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>1</v>
       </c>
@@ -30780,8 +31790,11 @@
       <c r="AF317" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="318" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL317" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="318" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>1</v>
       </c>
@@ -30878,8 +31891,11 @@
       <c r="AF318" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="319" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL318" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="319" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>1</v>
       </c>
@@ -30976,8 +31992,11 @@
       <c r="AF319" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="320" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL319" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="320" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>1</v>
       </c>
@@ -31074,8 +32093,11 @@
       <c r="AF320" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="321" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL320" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="321" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>1</v>
       </c>
@@ -31172,8 +32194,11 @@
       <c r="AF321" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="322" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL321" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="322" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>1</v>
       </c>
@@ -31270,8 +32295,11 @@
       <c r="AF322" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="323" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL322" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="323" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>1</v>
       </c>
@@ -31368,8 +32396,11 @@
       <c r="AF323" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="324" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL323" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="324" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>1</v>
       </c>
@@ -31463,8 +32494,11 @@
       <c r="AF324" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="325" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL324" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="325" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>1</v>
       </c>
@@ -31558,8 +32592,11 @@
       <c r="AF325" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="326" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL325" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="326" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>1</v>
       </c>
@@ -31653,8 +32690,11 @@
       <c r="AF326" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="327" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL326" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="327" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>1</v>
       </c>
@@ -31748,8 +32788,11 @@
       <c r="AF327" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="328" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL327" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="328" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>1</v>
       </c>
@@ -31843,8 +32886,11 @@
       <c r="AF328" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="329" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL328" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="329" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>1</v>
       </c>
@@ -31938,8 +32984,11 @@
       <c r="AF329" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="330" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL329" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="330" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>1</v>
       </c>
@@ -32033,8 +33082,11 @@
       <c r="AF330" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="331" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL330" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="331" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>1</v>
       </c>
@@ -32128,8 +33180,11 @@
       <c r="AF331" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="332" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL331" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="332" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>1</v>
       </c>
@@ -32223,8 +33278,11 @@
       <c r="AF332" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="333" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL332" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="333" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>1</v>
       </c>
@@ -32318,8 +33376,11 @@
       <c r="AF333" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="334" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL333" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="334" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>1</v>
       </c>
@@ -32413,8 +33474,11 @@
       <c r="AF334" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="335" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL334" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="335" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>1</v>
       </c>
@@ -32508,8 +33572,11 @@
       <c r="AF335" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="336" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL335" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="336" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>1</v>
       </c>
@@ -32603,8 +33670,11 @@
       <c r="AF336" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="337" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL336" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="337" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>1</v>
       </c>
@@ -32698,8 +33768,11 @@
       <c r="AF337" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="338" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL337" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="338" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>1</v>
       </c>
@@ -32793,8 +33866,11 @@
       <c r="AF338" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="339" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL338" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="339" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>1</v>
       </c>
@@ -32888,8 +33964,11 @@
       <c r="AF339" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="340" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL339" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="340" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>1</v>
       </c>
@@ -32983,8 +34062,11 @@
       <c r="AF340" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="341" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL340" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="341" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>1</v>
       </c>
@@ -33078,8 +34160,11 @@
       <c r="AF341" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="342" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL341" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="342" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>1</v>
       </c>
@@ -33173,8 +34258,11 @@
       <c r="AF342" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="343" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL342" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="343" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>1</v>
       </c>
@@ -33268,8 +34356,11 @@
       <c r="AF343" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="344" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL343" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="344" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>1</v>
       </c>
@@ -33363,8 +34454,11 @@
       <c r="AF344" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="345" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL344" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="345" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>1</v>
       </c>
@@ -33458,8 +34552,11 @@
       <c r="AF345" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="346" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL345" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="346" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>1</v>
       </c>
@@ -33553,8 +34650,11 @@
       <c r="AF346" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="347" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL346" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="347" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>1</v>
       </c>
@@ -33648,8 +34748,11 @@
       <c r="AF347" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="348" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL347" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="348" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>1</v>
       </c>
@@ -33743,8 +34846,11 @@
       <c r="AF348" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="349" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL348" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>1</v>
       </c>
@@ -33838,8 +34944,11 @@
       <c r="AF349" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="350" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL349" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="350" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>1</v>
       </c>
@@ -33933,8 +35042,11 @@
       <c r="AF350" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="351" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL350" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="351" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>1</v>
       </c>
@@ -34028,8 +35140,11 @@
       <c r="AF351" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="352" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL351" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="352" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>1</v>
       </c>
@@ -34123,8 +35238,11 @@
       <c r="AF352" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="353" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL352" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="353" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>1</v>
       </c>
@@ -34218,8 +35336,11 @@
       <c r="AF353" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="354" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL353" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="354" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>1</v>
       </c>
@@ -34313,8 +35434,11 @@
       <c r="AF354" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="355" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL354" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="355" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>1</v>
       </c>
@@ -34408,8 +35532,11 @@
       <c r="AF355" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="356" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL355" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="356" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>1</v>
       </c>
@@ -34503,8 +35630,11 @@
       <c r="AF356" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="357" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL356" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="357" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>1</v>
       </c>
@@ -34598,8 +35728,11 @@
       <c r="AF357" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="358" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL357" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="358" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>1</v>
       </c>
@@ -34693,8 +35826,11 @@
       <c r="AF358" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="359" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL358" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="359" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>1</v>
       </c>
@@ -34788,8 +35924,11 @@
       <c r="AF359" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="360" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL359" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="360" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>1</v>
       </c>
@@ -34883,8 +36022,11 @@
       <c r="AF360" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="361" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL360" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="361" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>1</v>
       </c>
@@ -34978,8 +36120,11 @@
       <c r="AF361" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="362" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL361" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="362" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>1</v>
       </c>
@@ -35073,8 +36218,11 @@
       <c r="AF362" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="363" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL362" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="363" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>1</v>
       </c>
@@ -35168,8 +36316,11 @@
       <c r="AF363" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="364" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL363" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="364" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>1</v>
       </c>
@@ -35263,8 +36414,11 @@
       <c r="AF364" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="365" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL364" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="365" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>1</v>
       </c>
@@ -35358,8 +36512,11 @@
       <c r="AF365" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="366" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL365" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="366" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>1</v>
       </c>
@@ -35450,8 +36607,11 @@
       <c r="AF366" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="367" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL366" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="367" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>1</v>
       </c>
@@ -35542,8 +36702,11 @@
       <c r="AF367" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="368" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL367" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="368" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>1</v>
       </c>
@@ -35634,8 +36797,11 @@
       <c r="AF368" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="369" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL368" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="369" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>1</v>
       </c>
@@ -35726,8 +36892,11 @@
       <c r="AF369" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="370" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL369" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="370" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>1</v>
       </c>
@@ -35818,8 +36987,11 @@
       <c r="AF370" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="371" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL370" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="371" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>1</v>
       </c>
@@ -35910,8 +37082,11 @@
       <c r="AF371" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="372" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL371" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="372" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>1</v>
       </c>
@@ -36002,8 +37177,11 @@
       <c r="AF372" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="373" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL372" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="373" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>1</v>
       </c>
@@ -36094,8 +37272,11 @@
       <c r="AF373" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="374" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL373" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="374" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>1</v>
       </c>
@@ -36186,8 +37367,11 @@
       <c r="AF374" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="375" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL374" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="375" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>1</v>
       </c>
@@ -36278,8 +37462,11 @@
       <c r="AF375" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="376" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL375" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="376" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>1</v>
       </c>
@@ -36370,8 +37557,11 @@
       <c r="AF376" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="377" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL376" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="377" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>1</v>
       </c>
@@ -36462,8 +37652,11 @@
       <c r="AF377" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="378" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL377" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="378" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>2</v>
       </c>
@@ -36557,8 +37750,11 @@
       <c r="AF378" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="379" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL378" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="379" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>2</v>
       </c>
@@ -36652,8 +37848,11 @@
       <c r="AF379" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="380" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL379" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="380" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>1</v>
       </c>
@@ -36735,8 +37934,11 @@
       <c r="AB380" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="381" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL380" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="381" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>1</v>
       </c>
@@ -36818,8 +38020,11 @@
       <c r="AB381" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="382" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL381" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="382" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>2</v>
       </c>
@@ -36901,8 +38106,11 @@
       <c r="AB382" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="383" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL382" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="383" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>1</v>
       </c>
@@ -36984,8 +38192,11 @@
       <c r="AB383" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="384" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL383" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="384" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>2</v>
       </c>
@@ -37066,6 +38277,14 @@
       </c>
       <c r="AB384" s="2">
         <v>2</v>
+      </c>
+      <c r="AL384" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="385" spans="38:38" x14ac:dyDescent="0.2">
+      <c r="AL385" s="1" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
